--- a/data/analysis/pivot-by-state.xlsx
+++ b/data/analysis/pivot-by-state.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/ushouse/data/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6096641-8A28-534D-8A03-E1C4E5E1D993}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B87A66D-3A14-E943-BF66-9EFE5792D224}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{243A2677-B725-5B4A-8946-B944A46BAF00}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="123">
   <si>
     <t>XX</t>
   </si>
@@ -962,35 +962,35 @@
       <c r="B3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>15</v>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0.5</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>15</v>
@@ -1208,35 +1208,35 @@
       <c r="B9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>15</v>
+      <c r="C9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="7">
+        <v>-0.5</v>
+      </c>
+      <c r="I9" s="7">
+        <v>-0.5</v>
+      </c>
+      <c r="J9" s="7">
+        <v>-0.5</v>
+      </c>
+      <c r="K9" s="7">
+        <v>-0.5</v>
+      </c>
+      <c r="L9" s="7">
+        <v>-0.5</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>15</v>
@@ -1946,35 +1946,35 @@
       <c r="B27" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>15</v>
+      <c r="C27" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0.5</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>15</v>
@@ -2274,35 +2274,35 @@
       <c r="B35" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>15</v>
+      <c r="C35" s="7">
+        <v>-0.5</v>
+      </c>
+      <c r="D35" s="7">
+        <v>-0.5</v>
+      </c>
+      <c r="E35" s="7">
+        <v>-0.5</v>
+      </c>
+      <c r="F35" s="7">
+        <v>-0.5</v>
+      </c>
+      <c r="G35" s="7">
+        <v>-0.5</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0.5</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>15</v>
@@ -2561,35 +2561,35 @@
       <c r="B42" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>15</v>
+      <c r="C42" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="7">
+        <v>-0.5</v>
+      </c>
+      <c r="F42" s="7">
+        <v>-0.5</v>
+      </c>
+      <c r="G42" s="7">
+        <v>-0.5</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J42" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K42" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L42" s="7">
+        <v>0.5</v>
       </c>
       <c r="M42" s="7" t="s">
         <v>15</v>
@@ -2734,26 +2734,26 @@
       <c r="E46" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>15</v>
+      <c r="F46" s="7">
+        <v>-0.5</v>
+      </c>
+      <c r="G46" s="7">
+        <v>-0.5</v>
+      </c>
+      <c r="H46" s="7">
+        <v>-0.5</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0</v>
+      </c>
+      <c r="J46" s="7">
+        <v>-0.5</v>
+      </c>
+      <c r="K46" s="7">
+        <v>0</v>
+      </c>
+      <c r="L46" s="7">
+        <v>-0.5</v>
       </c>
       <c r="M46" s="7" t="s">
         <v>15</v>
@@ -2930,35 +2930,35 @@
       <c r="B51" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>15</v>
+      <c r="C51" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J51" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K51" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L51" s="7">
+        <v>0.5</v>
       </c>
       <c r="M51" s="7" t="s">
         <v>15</v>
@@ -2972,34 +2972,34 @@
         <v>115</v>
       </c>
       <c r="C52" s="7">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D52" s="7">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E52" s="7">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F52" s="7">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G52" s="7">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H52" s="7">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I52" s="7">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="J52" s="7">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K52" s="7">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="L52" s="7">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
@@ -3013,34 +3013,34 @@
         <v>115</v>
       </c>
       <c r="C53" s="7">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D53" s="7">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E53" s="7">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F53" s="7">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G53" s="7">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H53" s="7">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I53" s="7">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J53" s="7">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K53" s="7">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L53" s="7">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
@@ -3054,13 +3054,13 @@
         <v>115</v>
       </c>
       <c r="C54" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="7">
         <v>0</v>
@@ -3095,34 +3095,34 @@
         <v>115</v>
       </c>
       <c r="C55" s="7">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="D55" s="7">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="E55" s="7">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="F55" s="7">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="G55" s="7">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="H55" s="7">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="I55" s="7">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="J55" s="7">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="K55" s="7">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="L55" s="7">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -3136,34 +3136,34 @@
         <v>115</v>
       </c>
       <c r="C56" s="7">
+        <v>26</v>
+      </c>
+      <c r="D56" s="7">
+        <v>27</v>
+      </c>
+      <c r="E56" s="7">
+        <v>31.5</v>
+      </c>
+      <c r="F56" s="7">
         <v>24</v>
       </c>
-      <c r="D56" s="7">
-        <v>25</v>
-      </c>
-      <c r="E56" s="7">
-        <v>30</v>
-      </c>
-      <c r="F56" s="7">
-        <v>22</v>
-      </c>
       <c r="G56" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H56" s="7">
-        <v>34</v>
+        <v>36.5</v>
       </c>
       <c r="I56" s="7">
-        <v>43</v>
+        <v>45.5</v>
       </c>
       <c r="J56" s="7">
-        <v>42</v>
+        <v>44.5</v>
       </c>
       <c r="K56" s="7">
-        <v>41</v>
+        <v>43.5</v>
       </c>
       <c r="L56" s="7">
-        <v>33</v>
+        <v>35.5</v>
       </c>
       <c r="M56" s="7">
         <v>0</v>
@@ -3177,34 +3177,34 @@
         <v>115</v>
       </c>
       <c r="C57" s="7">
-        <v>-17</v>
+        <v>-17.5</v>
       </c>
       <c r="D57" s="7">
+        <v>-22.5</v>
+      </c>
+      <c r="E57" s="7">
+        <v>-18</v>
+      </c>
+      <c r="F57" s="7">
+        <v>-25.5</v>
+      </c>
+      <c r="G57" s="7">
+        <v>-33.5</v>
+      </c>
+      <c r="H57" s="7">
         <v>-22</v>
       </c>
-      <c r="E57" s="7">
-        <v>-17</v>
-      </c>
-      <c r="F57" s="7">
-        <v>-24</v>
-      </c>
-      <c r="G57" s="7">
-        <v>-32</v>
-      </c>
-      <c r="H57" s="7">
-        <v>-21</v>
-      </c>
       <c r="I57" s="7">
+        <v>-25.5</v>
+      </c>
+      <c r="J57" s="7">
         <v>-25</v>
       </c>
-      <c r="J57" s="7">
-        <v>-24</v>
-      </c>
       <c r="K57" s="7">
-        <v>-21</v>
+        <v>-21.5</v>
       </c>
       <c r="L57" s="7">
-        <v>-38</v>
+        <v>-39</v>
       </c>
       <c r="M57" s="7">
         <v>0</v>
@@ -3218,34 +3218,34 @@
         <v>115</v>
       </c>
       <c r="C58" s="7">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="D58" s="7">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E58" s="7">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="F58" s="7">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="G58" s="7">
-        <v>-17</v>
+        <v>-16.5</v>
       </c>
       <c r="H58" s="7">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="I58" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J58" s="7">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="K58" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L58" s="7">
-        <v>-5</v>
+        <v>-3.5</v>
       </c>
       <c r="M58" s="7">
         <v>0</v>
@@ -3264,7 +3264,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
+      <selection pane="bottomRight" activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3390,45 +3390,45 @@
         <f>DATA!B3</f>
         <v xml:space="preserve"> Alaska</v>
       </c>
-      <c r="C3" s="10" t="str">
+      <c r="C3" s="10">
         <f>DATA!C3</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="D3" s="13" t="str">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13">
         <f>DATA!D3</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="E3" s="10" t="str">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
         <f>DATA!E3</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="F3" s="10" t="str">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
         <f>DATA!F3</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="G3" s="10" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="10">
         <f>DATA!G3</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="H3" s="10" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="10">
         <f>DATA!H3</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="I3" s="13" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="13">
         <f>DATA!I3</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="J3" s="10" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="10">
         <f>DATA!J3</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="K3" s="10" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="K3" s="10">
         <f>DATA!K3</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="L3" s="10" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="L3" s="10">
         <f>DATA!L3</f>
-        <v xml:space="preserve"> None</v>
+        <v>0.5</v>
       </c>
       <c r="M3" s="10" t="str">
         <f>DATA!M3</f>
@@ -3720,45 +3720,45 @@
         <f>DATA!B9</f>
         <v xml:space="preserve"> Delaware</v>
       </c>
-      <c r="C9" s="10" t="str">
+      <c r="C9" s="10">
         <f>DATA!C9</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="D9" s="13" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="13">
         <f>DATA!D9</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="E9" s="10" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="10">
         <f>DATA!E9</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="F9" s="10" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="10">
         <f>DATA!F9</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="G9" s="10" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="10">
         <f>DATA!G9</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="H9" s="10" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="10">
         <f>DATA!H9</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="I9" s="13" t="str">
+        <v>-0.5</v>
+      </c>
+      <c r="I9" s="13">
         <f>DATA!I9</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="J9" s="10" t="str">
+        <v>-0.5</v>
+      </c>
+      <c r="J9" s="10">
         <f>DATA!J9</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="K9" s="10" t="str">
+        <v>-0.5</v>
+      </c>
+      <c r="K9" s="10">
         <f>DATA!K9</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="L9" s="10" t="str">
+        <v>-0.5</v>
+      </c>
+      <c r="L9" s="10">
         <f>DATA!L9</f>
-        <v xml:space="preserve"> None</v>
+        <v>-0.5</v>
       </c>
       <c r="M9" s="10" t="str">
         <f>DATA!M9</f>
@@ -4710,45 +4710,45 @@
         <f>DATA!B27</f>
         <v xml:space="preserve"> Montana</v>
       </c>
-      <c r="C27" s="10" t="str">
+      <c r="C27" s="10">
         <f>DATA!C27</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="D27" s="13" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="13">
         <f>DATA!D27</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="E27" s="10" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="10">
         <f>DATA!E27</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="F27" s="10" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="10">
         <f>DATA!F27</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="G27" s="10" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="10">
         <f>DATA!G27</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="H27" s="10" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="10">
         <f>DATA!H27</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="I27" s="13" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="I27" s="13">
         <f>DATA!I27</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="J27" s="10" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="J27" s="10">
         <f>DATA!J27</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="K27" s="10" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="K27" s="10">
         <f>DATA!K27</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="L27" s="10" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="L27" s="10">
         <f>DATA!L27</f>
-        <v xml:space="preserve"> None</v>
+        <v>0.5</v>
       </c>
       <c r="M27" s="10" t="str">
         <f>DATA!M27</f>
@@ -5150,45 +5150,45 @@
         <f>DATA!B35</f>
         <v xml:space="preserve"> North Dakota</v>
       </c>
-      <c r="C35" s="10" t="str">
+      <c r="C35" s="10">
         <f>DATA!C35</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="D35" s="13" t="str">
+        <v>-0.5</v>
+      </c>
+      <c r="D35" s="13">
         <f>DATA!D35</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="E35" s="10" t="str">
+        <v>-0.5</v>
+      </c>
+      <c r="E35" s="10">
         <f>DATA!E35</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="F35" s="10" t="str">
+        <v>-0.5</v>
+      </c>
+      <c r="F35" s="10">
         <f>DATA!F35</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="G35" s="10" t="str">
+        <v>-0.5</v>
+      </c>
+      <c r="G35" s="10">
         <f>DATA!G35</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="H35" s="10" t="str">
+        <v>-0.5</v>
+      </c>
+      <c r="H35" s="10">
         <f>DATA!H35</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="I35" s="13" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="I35" s="13">
         <f>DATA!I35</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="J35" s="10" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="J35" s="10">
         <f>DATA!J35</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="K35" s="10" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="K35" s="10">
         <f>DATA!K35</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="L35" s="10" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="L35" s="10">
         <f>DATA!L35</f>
-        <v xml:space="preserve"> None</v>
+        <v>0.5</v>
       </c>
       <c r="M35" s="10" t="str">
         <f>DATA!M35</f>
@@ -5535,45 +5535,45 @@
         <f>DATA!B42</f>
         <v xml:space="preserve"> South Dakota</v>
       </c>
-      <c r="C42" s="10" t="str">
+      <c r="C42" s="10">
         <f>DATA!C42</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="D42" s="13" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="13">
         <f>DATA!D42</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="E42" s="10" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="10">
         <f>DATA!E42</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="F42" s="10" t="str">
+        <v>-0.5</v>
+      </c>
+      <c r="F42" s="10">
         <f>DATA!F42</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="G42" s="10" t="str">
+        <v>-0.5</v>
+      </c>
+      <c r="G42" s="10">
         <f>DATA!G42</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="H42" s="10" t="str">
+        <v>-0.5</v>
+      </c>
+      <c r="H42" s="10">
         <f>DATA!H42</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="I42" s="13" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="I42" s="13">
         <f>DATA!I42</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="J42" s="10" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="J42" s="10">
         <f>DATA!J42</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="K42" s="10" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="K42" s="10">
         <f>DATA!K42</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="L42" s="10" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="L42" s="10">
         <f>DATA!L42</f>
-        <v xml:space="preserve"> None</v>
+        <v>0.5</v>
       </c>
       <c r="M42" s="10" t="str">
         <f>DATA!M42</f>
@@ -5767,33 +5767,33 @@
         <f>DATA!E46</f>
         <v xml:space="preserve"> None</v>
       </c>
-      <c r="F46" s="10" t="str">
+      <c r="F46" s="10">
         <f>DATA!F46</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="G46" s="10" t="str">
+        <v>-0.5</v>
+      </c>
+      <c r="G46" s="10">
         <f>DATA!G46</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="H46" s="10" t="str">
+        <v>-0.5</v>
+      </c>
+      <c r="H46" s="10">
         <f>DATA!H46</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="I46" s="13" t="str">
+        <v>-0.5</v>
+      </c>
+      <c r="I46" s="13">
         <f>DATA!I46</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="J46" s="10" t="str">
+        <v>0</v>
+      </c>
+      <c r="J46" s="10">
         <f>DATA!J46</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="K46" s="10" t="str">
+        <v>-0.5</v>
+      </c>
+      <c r="K46" s="10">
         <f>DATA!K46</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="L46" s="10" t="str">
+        <v>0</v>
+      </c>
+      <c r="L46" s="10">
         <f>DATA!L46</f>
-        <v xml:space="preserve"> None</v>
+        <v>-0.5</v>
       </c>
       <c r="M46" s="10" t="str">
         <f>DATA!M46</f>
@@ -6030,45 +6030,45 @@
         <f>DATA!B51</f>
         <v xml:space="preserve"> Wyoming</v>
       </c>
-      <c r="C51" s="11" t="str">
+      <c r="C51" s="11">
         <f>DATA!C51</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="D51" s="14" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="D51" s="14">
         <f>DATA!D51</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="E51" s="11" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="E51" s="11">
         <f>DATA!E51</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="F51" s="11" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="F51" s="11">
         <f>DATA!F51</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="G51" s="11" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="G51" s="11">
         <f>DATA!G51</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="H51" s="11" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="H51" s="11">
         <f>DATA!H51</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="I51" s="14" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="I51" s="14">
         <f>DATA!I51</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="J51" s="11" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="J51" s="11">
         <f>DATA!J51</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="K51" s="11" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="K51" s="11">
         <f>DATA!K51</f>
-        <v xml:space="preserve"> None</v>
-      </c>
-      <c r="L51" s="11" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="L51" s="11">
         <f>DATA!L51</f>
-        <v xml:space="preserve"> None</v>
+        <v>0.5</v>
       </c>
       <c r="M51" s="11" t="str">
         <f>DATA!M51</f>
@@ -6103,43 +6103,43 @@
       </c>
       <c r="C53" s="10">
         <f>DATA!C52</f>
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D53" s="13">
         <f>DATA!D52</f>
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E53" s="10">
         <f>DATA!E52</f>
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F53" s="10">
         <f>DATA!F52</f>
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G53" s="10">
         <f>DATA!G52</f>
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H53" s="10">
         <f>DATA!H52</f>
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I53" s="13">
         <f>DATA!I52</f>
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="J53" s="10">
         <f>DATA!J52</f>
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K53" s="10">
         <f>DATA!K52</f>
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="L53" s="10">
         <f>DATA!L52</f>
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="M53" s="10">
         <f>DATA!M52</f>
@@ -6158,43 +6158,43 @@
       </c>
       <c r="C54" s="10">
         <f>DATA!C53</f>
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D54" s="13">
         <f>DATA!D53</f>
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E54" s="10">
         <f>DATA!E53</f>
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F54" s="10">
         <f>DATA!F53</f>
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G54" s="10">
         <f>DATA!G53</f>
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H54" s="10">
         <f>DATA!H53</f>
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I54" s="13">
         <f>DATA!I53</f>
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J54" s="10">
         <f>DATA!J53</f>
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K54" s="10">
         <f>DATA!K53</f>
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L54" s="10">
         <f>DATA!L53</f>
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M54" s="10">
         <f>DATA!M53</f>
@@ -6213,15 +6213,15 @@
       </c>
       <c r="C55" s="11">
         <f>DATA!C54</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" s="14">
         <f>DATA!D54</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" s="11">
         <f>DATA!E54</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="11">
         <f>DATA!F54</f>
@@ -6268,43 +6268,43 @@
       </c>
       <c r="C56" s="10">
         <f>DATA!C55</f>
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="D56" s="13">
         <f>DATA!D55</f>
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="E56" s="10">
         <f>DATA!E55</f>
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="F56" s="10">
         <f>DATA!F55</f>
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="G56" s="10">
         <f>DATA!G55</f>
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="H56" s="10">
         <f>DATA!H55</f>
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="I56" s="13">
         <f>DATA!I55</f>
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="J56" s="10">
         <f>DATA!J55</f>
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="K56" s="10">
         <f>DATA!K55</f>
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="L56" s="10">
         <f>DATA!L55</f>
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="M56" s="10">
         <f>DATA!M55</f>
@@ -6339,43 +6339,43 @@
       </c>
       <c r="C58" s="10">
         <f>DATA!C56</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D58" s="13">
         <f>DATA!D56</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E58" s="10">
         <f>DATA!E56</f>
-        <v>30</v>
+        <v>31.5</v>
       </c>
       <c r="F58" s="10">
         <f>DATA!F56</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G58" s="10">
         <f>DATA!G56</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H58" s="10">
         <f>DATA!H56</f>
-        <v>34</v>
+        <v>36.5</v>
       </c>
       <c r="I58" s="13">
         <f>DATA!I56</f>
-        <v>43</v>
+        <v>45.5</v>
       </c>
       <c r="J58" s="10">
         <f>DATA!J56</f>
-        <v>42</v>
+        <v>44.5</v>
       </c>
       <c r="K58" s="10">
         <f>DATA!K56</f>
-        <v>41</v>
+        <v>43.5</v>
       </c>
       <c r="L58" s="10">
         <f>DATA!L56</f>
-        <v>33</v>
+        <v>35.5</v>
       </c>
       <c r="M58" s="10">
         <f>DATA!M56</f>
@@ -6394,43 +6394,43 @@
       </c>
       <c r="C59" s="11">
         <f>DATA!C57</f>
-        <v>-17</v>
+        <v>-17.5</v>
       </c>
       <c r="D59" s="14">
         <f>DATA!D57</f>
-        <v>-22</v>
+        <v>-22.5</v>
       </c>
       <c r="E59" s="11">
         <f>DATA!E57</f>
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="F59" s="11">
         <f>DATA!F57</f>
-        <v>-24</v>
+        <v>-25.5</v>
       </c>
       <c r="G59" s="11">
         <f>DATA!G57</f>
-        <v>-32</v>
+        <v>-33.5</v>
       </c>
       <c r="H59" s="11">
         <f>DATA!H57</f>
-        <v>-21</v>
+        <v>-22</v>
       </c>
       <c r="I59" s="14">
         <f>DATA!I57</f>
-        <v>-25</v>
+        <v>-25.5</v>
       </c>
       <c r="J59" s="11">
         <f>DATA!J57</f>
-        <v>-24</v>
+        <v>-25</v>
       </c>
       <c r="K59" s="11">
         <f>DATA!K57</f>
-        <v>-21</v>
+        <v>-21.5</v>
       </c>
       <c r="L59" s="11">
         <f>DATA!L57</f>
-        <v>-38</v>
+        <v>-39</v>
       </c>
       <c r="M59" s="11">
         <f>DATA!M57</f>
@@ -6449,43 +6449,43 @@
       </c>
       <c r="C60" s="10">
         <f>DATA!C58</f>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="D60" s="13">
         <f>DATA!D58</f>
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E60" s="10">
         <f>DATA!E58</f>
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="F60" s="10">
         <f>DATA!F58</f>
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="G60" s="10">
         <f>DATA!G58</f>
-        <v>-17</v>
+        <v>-16.5</v>
       </c>
       <c r="H60" s="10">
         <f>DATA!H58</f>
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="I60" s="13">
         <f>DATA!I58</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J60" s="10">
         <f>DATA!J58</f>
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="K60" s="10">
         <f>DATA!K58</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L60" s="10">
         <f>DATA!L58</f>
-        <v>-5</v>
+        <v>-3.5</v>
       </c>
       <c r="M60" s="10">
         <f>DATA!M58</f>

--- a/data/analysis/pivot-by-state.xlsx
+++ b/data/analysis/pivot-by-state.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/ushouse/data/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B87A66D-3A14-E943-BF66-9EFE5792D224}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F46CA6-E6E2-984D-8DA1-6D7089D69B23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{243A2677-B725-5B4A-8946-B944A46BAF00}"/>
+    <workbookView xWindow="1080" yWindow="560" windowWidth="27720" windowHeight="17440" activeTab="1" xr2:uid="{243A2677-B725-5B4A-8946-B944A46BAF00}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="131">
   <si>
     <t>XX</t>
   </si>
@@ -431,13 +431,37 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Actuals</t>
+  </si>
+  <si>
+    <t>Slack</t>
+  </si>
+  <si>
+    <t>Margin</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Net</t>
+  </si>
+  <si>
+    <t>DEM*</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Unearned</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -465,6 +489,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -480,7 +512,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -517,11 +549,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -538,6 +590,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3258,16 +3317,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38337923-8533-C648-A03B-C2D07861D867}">
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K66" sqref="K66"/>
+      <selection pane="bottomRight" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="str">
@@ -6077,421 +6139,646 @@
       <c r="N51" s="4"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="10"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="17"/>
       <c r="D52" s="13"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
       <c r="I52" s="13"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
       <c r="N52" s="3"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="str">
+      <c r="A53" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="4"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="16"/>
+      <c r="C54" s="17">
+        <f>C64-C61</f>
+        <v>212.5</v>
+      </c>
+      <c r="D54" s="13">
+        <f>D64-D61</f>
+        <v>224.5</v>
+      </c>
+      <c r="E54" s="17">
+        <f>E64-E61</f>
+        <v>219.5</v>
+      </c>
+      <c r="F54" s="17">
+        <f>F64-F61</f>
+        <v>203.5</v>
+      </c>
+      <c r="G54" s="17">
+        <f>G64-G61</f>
+        <v>194.5</v>
+      </c>
+      <c r="H54" s="17">
+        <f>H64-H61</f>
+        <v>227.5</v>
+      </c>
+      <c r="I54" s="13">
+        <f>I64-I61</f>
+        <v>214</v>
+      </c>
+      <c r="J54" s="17">
+        <f>J64-J61</f>
+        <v>227.5</v>
+      </c>
+      <c r="K54" s="17">
+        <f>K64-K61</f>
+        <v>219</v>
+      </c>
+      <c r="L54" s="17">
+        <f>L64-L61</f>
+        <v>202.5</v>
+      </c>
+      <c r="M54" s="17">
+        <f>M64-M61</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="11">
+        <f>435-C54</f>
+        <v>222.5</v>
+      </c>
+      <c r="D55" s="14">
+        <f t="shared" ref="D55:M55" si="0">435-D54</f>
+        <v>210.5</v>
+      </c>
+      <c r="E55" s="11">
+        <f t="shared" si="0"/>
+        <v>215.5</v>
+      </c>
+      <c r="F55" s="11">
+        <f t="shared" si="0"/>
+        <v>231.5</v>
+      </c>
+      <c r="G55" s="11">
+        <f t="shared" si="0"/>
+        <v>240.5</v>
+      </c>
+      <c r="H55" s="11">
+        <f t="shared" si="0"/>
+        <v>207.5</v>
+      </c>
+      <c r="I55" s="14">
+        <f t="shared" si="0"/>
+        <v>221</v>
+      </c>
+      <c r="J55" s="11">
+        <f t="shared" si="0"/>
+        <v>207.5</v>
+      </c>
+      <c r="K55" s="11">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="L55" s="11">
+        <f t="shared" si="0"/>
+        <v>232.5</v>
+      </c>
+      <c r="M55" s="11">
+        <f t="shared" si="0"/>
+        <v>435</v>
+      </c>
+      <c r="N55" s="4"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" s="17">
+        <f>C54-218</f>
+        <v>-5.5</v>
+      </c>
+      <c r="D56" s="13">
+        <f>D54-218</f>
+        <v>6.5</v>
+      </c>
+      <c r="E56" s="17">
+        <f>E54-218</f>
+        <v>1.5</v>
+      </c>
+      <c r="F56" s="17">
+        <f>F54-218</f>
+        <v>-14.5</v>
+      </c>
+      <c r="G56" s="17">
+        <f>G54-218</f>
+        <v>-23.5</v>
+      </c>
+      <c r="H56" s="17">
+        <f>H54-218</f>
+        <v>9.5</v>
+      </c>
+      <c r="I56" s="13">
+        <f>I54-218</f>
+        <v>-4</v>
+      </c>
+      <c r="J56" s="17">
+        <f>J54-218</f>
+        <v>9.5</v>
+      </c>
+      <c r="K56" s="17">
+        <f>K54-218</f>
+        <v>1</v>
+      </c>
+      <c r="L56" s="17">
+        <f>L54-218</f>
+        <v>-15.5</v>
+      </c>
+      <c r="M56" s="19">
+        <f>M54-218</f>
+        <v>-218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C57" s="17"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="21"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="4"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="1" t="str">
+        <f>DATA!B56</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C59" s="10">
+        <f>DATA!C56</f>
+        <v>26</v>
+      </c>
+      <c r="D59" s="13">
+        <f>DATA!D56</f>
+        <v>27</v>
+      </c>
+      <c r="E59" s="10">
+        <f>DATA!E56</f>
+        <v>31.5</v>
+      </c>
+      <c r="F59" s="10">
+        <f>DATA!F56</f>
+        <v>24</v>
+      </c>
+      <c r="G59" s="10">
+        <f>DATA!G56</f>
+        <v>17</v>
+      </c>
+      <c r="H59" s="10">
+        <f>DATA!H56</f>
+        <v>36.5</v>
+      </c>
+      <c r="I59" s="13">
+        <f>DATA!I56</f>
+        <v>45.5</v>
+      </c>
+      <c r="J59" s="10">
+        <f>DATA!J56</f>
+        <v>44.5</v>
+      </c>
+      <c r="K59" s="10">
+        <f>DATA!K56</f>
+        <v>43.5</v>
+      </c>
+      <c r="L59" s="10">
+        <f>DATA!L56</f>
+        <v>35.5</v>
+      </c>
+      <c r="M59" s="10">
+        <f>DATA!M56</f>
+        <v>0</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="2" t="str">
+        <f>DATA!B57</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C60" s="11">
+        <f>DATA!C57</f>
+        <v>-17.5</v>
+      </c>
+      <c r="D60" s="14">
+        <f>DATA!D57</f>
+        <v>-22.5</v>
+      </c>
+      <c r="E60" s="11">
+        <f>DATA!E57</f>
+        <v>-18</v>
+      </c>
+      <c r="F60" s="11">
+        <f>DATA!F57</f>
+        <v>-25.5</v>
+      </c>
+      <c r="G60" s="11">
+        <f>DATA!G57</f>
+        <v>-33.5</v>
+      </c>
+      <c r="H60" s="11">
+        <f>DATA!H57</f>
+        <v>-22</v>
+      </c>
+      <c r="I60" s="14">
+        <f>DATA!I57</f>
+        <v>-25.5</v>
+      </c>
+      <c r="J60" s="11">
+        <f>DATA!J57</f>
+        <v>-25</v>
+      </c>
+      <c r="K60" s="11">
+        <f>DATA!K57</f>
+        <v>-21.5</v>
+      </c>
+      <c r="L60" s="11">
+        <f>DATA!L57</f>
+        <v>-39</v>
+      </c>
+      <c r="M60" s="11">
+        <f>DATA!M57</f>
+        <v>0</v>
+      </c>
+      <c r="N60" s="4"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" s="1" t="str">
+        <f>DATA!B58</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C61" s="10">
+        <f>DATA!C58</f>
+        <v>8.5</v>
+      </c>
+      <c r="D61" s="13">
+        <f>DATA!D58</f>
+        <v>4.5</v>
+      </c>
+      <c r="E61" s="10">
+        <f>DATA!E58</f>
+        <v>13.5</v>
+      </c>
+      <c r="F61" s="10">
+        <f>DATA!F58</f>
+        <v>-1.5</v>
+      </c>
+      <c r="G61" s="10">
+        <f>DATA!G58</f>
+        <v>-16.5</v>
+      </c>
+      <c r="H61" s="10">
+        <f>DATA!H58</f>
+        <v>14.5</v>
+      </c>
+      <c r="I61" s="13">
+        <f>DATA!I58</f>
+        <v>20</v>
+      </c>
+      <c r="J61" s="10">
+        <f>DATA!J58</f>
+        <v>19.5</v>
+      </c>
+      <c r="K61" s="10">
+        <f>DATA!K58</f>
+        <v>22</v>
+      </c>
+      <c r="L61" s="10">
+        <f>DATA!L58</f>
+        <v>-3.5</v>
+      </c>
+      <c r="M61" s="10">
+        <f>DATA!M58</f>
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="4"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="str">
         <f>DATA!A52</f>
         <v>REP</v>
       </c>
-      <c r="B53" s="1" t="str">
+      <c r="B64" s="1" t="str">
         <f>DATA!B52</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C53" s="10">
+      <c r="C64" s="10">
         <f>DATA!C52</f>
         <v>221</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D64" s="13">
         <f>DATA!D52</f>
         <v>229</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E64" s="10">
         <f>DATA!E52</f>
         <v>233</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F64" s="10">
         <f>DATA!F52</f>
         <v>202</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G64" s="10">
         <f>DATA!G52</f>
         <v>178</v>
       </c>
-      <c r="H53" s="10">
+      <c r="H64" s="10">
         <f>DATA!H52</f>
         <v>242</v>
       </c>
-      <c r="I53" s="13">
+      <c r="I64" s="13">
         <f>DATA!I52</f>
         <v>234</v>
       </c>
-      <c r="J53" s="10">
+      <c r="J64" s="10">
         <f>DATA!J52</f>
         <v>247</v>
       </c>
-      <c r="K53" s="10">
+      <c r="K64" s="10">
         <f>DATA!K52</f>
         <v>241</v>
       </c>
-      <c r="L53" s="10">
+      <c r="L64" s="10">
         <f>DATA!L52</f>
         <v>199</v>
       </c>
-      <c r="M53" s="10">
+      <c r="M64" s="10">
         <f>DATA!M52</f>
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="str">
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="str">
         <f>DATA!A53</f>
         <v>DEM</v>
       </c>
-      <c r="B54" s="1" t="str">
+      <c r="B65" s="1" t="str">
         <f>DATA!B53</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C54" s="10">
+      <c r="C65" s="10">
         <f>DATA!C53</f>
         <v>212</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D65" s="13">
         <f>DATA!D53</f>
         <v>205</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E65" s="10">
         <f>DATA!E53</f>
         <v>201</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F65" s="10">
         <f>DATA!F53</f>
         <v>233</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G65" s="10">
         <f>DATA!G53</f>
         <v>257</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H65" s="10">
         <f>DATA!H53</f>
         <v>193</v>
       </c>
-      <c r="I54" s="13">
+      <c r="I65" s="13">
         <f>DATA!I53</f>
         <v>201</v>
       </c>
-      <c r="J54" s="10">
+      <c r="J65" s="10">
         <f>DATA!J53</f>
         <v>188</v>
       </c>
-      <c r="K54" s="10">
+      <c r="K65" s="10">
         <f>DATA!K53</f>
         <v>194</v>
       </c>
-      <c r="L54" s="10">
+      <c r="L65" s="10">
         <f>DATA!L53</f>
         <v>235</v>
       </c>
-      <c r="M54" s="10">
+      <c r="M65" s="10">
         <f>DATA!M53</f>
         <v>0</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="str">
-        <f>DATA!A54</f>
-        <v>OTH</v>
-      </c>
-      <c r="B55" s="2" t="str">
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" s="2" t="str">
         <f>DATA!B54</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C55" s="11">
+      <c r="C66" s="11">
         <f>DATA!C54</f>
         <v>2</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D66" s="14">
         <f>DATA!D54</f>
         <v>1</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E66" s="11">
         <f>DATA!E54</f>
         <v>1</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F66" s="11">
         <f>DATA!F54</f>
         <v>0</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G66" s="11">
         <f>DATA!G54</f>
         <v>0</v>
       </c>
-      <c r="H55" s="11">
+      <c r="H66" s="11">
         <f>DATA!H54</f>
         <v>0</v>
       </c>
-      <c r="I55" s="14">
+      <c r="I66" s="14">
         <f>DATA!I54</f>
         <v>0</v>
       </c>
-      <c r="J55" s="11">
+      <c r="J66" s="11">
         <f>DATA!J54</f>
         <v>0</v>
       </c>
-      <c r="K55" s="11">
+      <c r="K66" s="11">
         <f>DATA!K54</f>
         <v>0</v>
       </c>
-      <c r="L55" s="11">
+      <c r="L66" s="11">
         <f>DATA!L54</f>
         <v>1</v>
       </c>
-      <c r="M55" s="11">
+      <c r="M66" s="11">
         <f>DATA!M54</f>
         <v>0</v>
       </c>
-      <c r="N55" s="4"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="str">
-        <f>DATA!A55</f>
-        <v>TOT</v>
-      </c>
-      <c r="B56" s="1" t="str">
-        <f>DATA!B55</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C56" s="10">
-        <f>DATA!C55</f>
-        <v>435</v>
-      </c>
-      <c r="D56" s="13">
-        <f>DATA!D55</f>
-        <v>435</v>
-      </c>
-      <c r="E56" s="10">
-        <f>DATA!E55</f>
-        <v>435</v>
-      </c>
-      <c r="F56" s="10">
-        <f>DATA!F55</f>
-        <v>435</v>
-      </c>
-      <c r="G56" s="10">
-        <f>DATA!G55</f>
-        <v>435</v>
-      </c>
-      <c r="H56" s="10">
-        <f>DATA!H55</f>
-        <v>435</v>
-      </c>
-      <c r="I56" s="13">
-        <f>DATA!I55</f>
-        <v>435</v>
-      </c>
-      <c r="J56" s="10">
-        <f>DATA!J55</f>
-        <v>435</v>
-      </c>
-      <c r="K56" s="10">
-        <f>DATA!K55</f>
-        <v>435</v>
-      </c>
-      <c r="L56" s="10">
-        <f>DATA!L55</f>
-        <v>435</v>
-      </c>
-      <c r="M56" s="10">
-        <f>DATA!M55</f>
-        <v>0</v>
-      </c>
-      <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="str">
-        <f>DATA!A56</f>
-        <v>REP_UE</v>
-      </c>
-      <c r="B58" s="1" t="str">
-        <f>DATA!B56</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C58" s="10">
-        <f>DATA!C56</f>
-        <v>26</v>
-      </c>
-      <c r="D58" s="13">
-        <f>DATA!D56</f>
-        <v>27</v>
-      </c>
-      <c r="E58" s="10">
-        <f>DATA!E56</f>
-        <v>31.5</v>
-      </c>
-      <c r="F58" s="10">
-        <f>DATA!F56</f>
+      <c r="N66" s="4"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" s="20">
+        <f>IF(C64&gt;C65, C64-218, -1 *(C65-218))</f>
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <f>IF(D64&gt;D65, D64-218, -1 *(D65-218))</f>
+        <v>11</v>
+      </c>
+      <c r="E67">
+        <f>IF(E64&gt;E65, E64-218, -1 *(E65-218))</f>
+        <v>15</v>
+      </c>
+      <c r="F67">
+        <f>IF(F64&gt;F65, F64-218, -1 *(F65-218))</f>
+        <v>-15</v>
+      </c>
+      <c r="G67">
+        <f>IF(G64&gt;G65, G64-218, -1 *(G65-218))</f>
+        <v>-39</v>
+      </c>
+      <c r="H67" s="20">
+        <f>IF(H64&gt;H65, H64-218, -1 *(H65-218))</f>
         <v>24</v>
       </c>
-      <c r="G58" s="10">
-        <f>DATA!G56</f>
-        <v>17</v>
-      </c>
-      <c r="H58" s="10">
-        <f>DATA!H56</f>
-        <v>36.5</v>
-      </c>
-      <c r="I58" s="13">
-        <f>DATA!I56</f>
-        <v>45.5</v>
-      </c>
-      <c r="J58" s="10">
-        <f>DATA!J56</f>
-        <v>44.5</v>
-      </c>
-      <c r="K58" s="10">
-        <f>DATA!K56</f>
-        <v>43.5</v>
-      </c>
-      <c r="L58" s="10">
-        <f>DATA!L56</f>
-        <v>35.5</v>
-      </c>
-      <c r="M58" s="10">
-        <f>DATA!M56</f>
-        <v>0</v>
-      </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="str">
-        <f>DATA!A57</f>
-        <v>DEM_UE</v>
-      </c>
-      <c r="B59" s="2" t="str">
-        <f>DATA!B57</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C59" s="11">
-        <f>DATA!C57</f>
-        <v>-17.5</v>
-      </c>
-      <c r="D59" s="14">
-        <f>DATA!D57</f>
-        <v>-22.5</v>
-      </c>
-      <c r="E59" s="11">
-        <f>DATA!E57</f>
-        <v>-18</v>
-      </c>
-      <c r="F59" s="11">
-        <f>DATA!F57</f>
-        <v>-25.5</v>
-      </c>
-      <c r="G59" s="11">
-        <f>DATA!G57</f>
-        <v>-33.5</v>
-      </c>
-      <c r="H59" s="11">
-        <f>DATA!H57</f>
-        <v>-22</v>
-      </c>
-      <c r="I59" s="14">
-        <f>DATA!I57</f>
-        <v>-25.5</v>
-      </c>
-      <c r="J59" s="11">
-        <f>DATA!J57</f>
-        <v>-25</v>
-      </c>
-      <c r="K59" s="11">
-        <f>DATA!K57</f>
-        <v>-21.5</v>
-      </c>
-      <c r="L59" s="11">
-        <f>DATA!L57</f>
-        <v>-39</v>
-      </c>
-      <c r="M59" s="11">
-        <f>DATA!M57</f>
-        <v>0</v>
-      </c>
-      <c r="N59" s="4"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="str">
-        <f>DATA!A58</f>
-        <v>NET_UE</v>
-      </c>
-      <c r="B60" s="1" t="str">
-        <f>DATA!B58</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C60" s="10">
-        <f>DATA!C58</f>
-        <v>8.5</v>
-      </c>
-      <c r="D60" s="13">
-        <f>DATA!D58</f>
-        <v>4.5</v>
-      </c>
-      <c r="E60" s="10">
-        <f>DATA!E58</f>
-        <v>13.5</v>
-      </c>
-      <c r="F60" s="10">
-        <f>DATA!F58</f>
-        <v>-1.5</v>
-      </c>
-      <c r="G60" s="10">
-        <f>DATA!G58</f>
-        <v>-16.5</v>
-      </c>
-      <c r="H60" s="10">
-        <f>DATA!H58</f>
-        <v>14.5</v>
-      </c>
-      <c r="I60" s="13">
-        <f>DATA!I58</f>
-        <v>20</v>
-      </c>
-      <c r="J60" s="10">
-        <f>DATA!J58</f>
-        <v>19.5</v>
-      </c>
-      <c r="K60" s="10">
-        <f>DATA!K58</f>
-        <v>22</v>
-      </c>
-      <c r="L60" s="10">
-        <f>DATA!L58</f>
-        <v>-3.5</v>
-      </c>
-      <c r="M60" s="10">
-        <f>DATA!M58</f>
-        <v>0</v>
-      </c>
-      <c r="N60" s="3"/>
+      <c r="I67">
+        <f>IF(I64&gt;I65, I64-218, -1 *(I65-218))</f>
+        <v>16</v>
+      </c>
+      <c r="J67">
+        <f>IF(J64&gt;J65, J64-218, -1 *(J65-218))</f>
+        <v>29</v>
+      </c>
+      <c r="K67">
+        <f>IF(K64&gt;K65, K64-218, -1 *(K65-218))</f>
+        <v>23</v>
+      </c>
+      <c r="L67">
+        <f>IF(L64&gt;L65, L64-218, -1 *(L65-218))</f>
+        <v>-17</v>
+      </c>
+      <c r="M67">
+        <f>IF(M64&gt;M65, M64-218, -1 *(M65-218))</f>
+        <v>218</v>
+      </c>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/analysis/pivot-by-state.xlsx
+++ b/data/analysis/pivot-by-state.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/ushouse/data/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453C09E1-51EA-A74C-B7EA-2FB7DF83F2A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145C3806-9DE7-A641-A559-077DD7FF41BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16380" yWindow="5460" windowWidth="27720" windowHeight="17440" activeTab="1" xr2:uid="{243A2677-B725-5B4A-8946-B944A46BAF00}"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="27720" windowHeight="17500" activeTab="1" xr2:uid="{243A2677-B725-5B4A-8946-B944A46BAF00}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="139">
   <si>
     <t>XX</t>
   </si>
@@ -428,13 +428,64 @@
   </si>
   <si>
     <t>Actual</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>2002 – 2010</t>
+  </si>
+  <si>
+    <t>2012 - 2020</t>
+  </si>
+  <si>
+    <t>chg</t>
+  </si>
+  <si>
+    <t>States w/ one district</t>
+  </si>
+  <si>
+    <t># proportional</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>Always red or always blue</t>
+  </si>
+  <si>
+    <t>Mostly red</t>
+  </si>
+  <si>
+    <t>Once blue</t>
+  </si>
+  <si>
+    <t>Mostly blue</t>
+  </si>
+  <si>
+    <t>Twice blue</t>
+  </si>
+  <si>
+    <t>Always proportional!</t>
+  </si>
+  <si>
+    <t>Always proportional</t>
+  </si>
+  <si>
+    <t>Else</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -463,16 +514,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -566,11 +650,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -601,6 +716,41 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3486,13 +3636,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FA875C-1566-2D43-8637-203DA92E1C1B}">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:AB70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P45" sqref="P45"/>
+      <selection pane="bottomRight" activeCell="AA55" sqref="AA52:AA55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3500,9 +3650,19 @@
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="13" width="6" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.1640625" customWidth="1"/>
+    <col min="15" max="15" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.1640625" customWidth="1"/>
+    <col min="18" max="18" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.1640625" customWidth="1"/>
+    <col min="23" max="24" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="str">
         <f>DATA!A1</f>
         <v>XX</v>
@@ -3555,8 +3715,41 @@
         <f>DATA!M1</f>
         <v>2020</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="41"/>
+      <c r="O1" s="28">
+        <v>2000</v>
+      </c>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="T1" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="U1" s="26"/>
+      <c r="V1" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="W1" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="X1" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y1" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z1" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="str">
         <f>DATA!A2</f>
         <v>AL</v>
@@ -3605,12 +3798,51 @@
         <f>DATA!L2</f>
         <v>2</v>
       </c>
-      <c r="M2" s="19" t="str">
+      <c r="M2" s="49" t="str">
         <f>DATA!M2</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" s="42"/>
+      <c r="O2" s="15">
+        <f>C2</f>
+        <v>1</v>
+      </c>
+      <c r="P2" s="27"/>
+      <c r="R2" s="6">
+        <f t="shared" ref="R2:R33" si="0">MIN(D2:H2)</f>
+        <v>1</v>
+      </c>
+      <c r="S2" s="6">
+        <f t="shared" ref="S2:S33" si="1">MAX(D2:H2)</f>
+        <v>2</v>
+      </c>
+      <c r="T2" s="23">
+        <f t="shared" ref="T2:T33" si="2">AVERAGE(D2:H2)</f>
+        <v>1.4</v>
+      </c>
+      <c r="U2" s="27"/>
+      <c r="W2" s="6">
+        <f>MIN(I2:L2)</f>
+        <v>2</v>
+      </c>
+      <c r="X2" s="6">
+        <f>MAX(I2:L2)</f>
+        <v>2</v>
+      </c>
+      <c r="Y2" s="23">
+        <f>AVERAGE(I2:L2)</f>
+        <v>2</v>
+      </c>
+      <c r="Z2" s="23">
+        <f>Y2-T2</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="AA2" t="str">
+        <f>IF(COUNTIF(I2:L2,"&gt;0")=4,"Always red",IF(COUNTIF(I2:L2,"&lt;0")=4,"Always blue",""))</f>
+        <v>Always red</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="str">
         <f>DATA!A3</f>
         <v>AZ</v>
@@ -3659,12 +3891,54 @@
         <f>DATA!L3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="19" t="str">
+      <c r="M3" s="49" t="str">
         <f>DATA!M3</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" s="42"/>
+      <c r="O3" s="15">
+        <f t="shared" ref="O3:O69" si="3">C3</f>
+        <v>1</v>
+      </c>
+      <c r="P3" s="27"/>
+      <c r="R3" s="6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="S3" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T3" s="23">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="U3" s="27"/>
+      <c r="W3" s="6">
+        <f t="shared" ref="W3:W51" si="4">MIN(I3:L3)</f>
+        <v>-1</v>
+      </c>
+      <c r="X3" s="6">
+        <f t="shared" ref="X3:X51" si="5">MAX(I3:L3)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="23">
+        <f t="shared" ref="Y3:Y51" si="6">AVERAGE(I3:L3)</f>
+        <v>-0.25</v>
+      </c>
+      <c r="Z3" s="23">
+        <f t="shared" ref="Z3:Z51" si="7">Y3-T3</f>
+        <v>-0.65</v>
+      </c>
+      <c r="AA3" t="str">
+        <f t="shared" ref="AA3:AA51" si="8">IF(COUNTIF(I3:L3,"&gt;0")=4,"Always red",IF(COUNTIF(I3:L3,"&lt;0")=4,"Always blue",""))</f>
+        <v/>
+      </c>
+      <c r="AB3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="str">
         <f>DATA!A4</f>
         <v>AR</v>
@@ -3713,12 +3987,51 @@
         <f>DATA!L4</f>
         <v>1</v>
       </c>
-      <c r="M4" s="19" t="str">
+      <c r="M4" s="49" t="str">
         <f>DATA!M4</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" s="42"/>
+      <c r="O4" s="15">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="P4" s="27"/>
+      <c r="R4" s="6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="S4" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T4" s="23">
+        <f t="shared" si="2"/>
+        <v>-0.4</v>
+      </c>
+      <c r="U4" s="27"/>
+      <c r="W4" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X4" s="6">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Y4" s="23">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="Z4" s="23">
+        <f t="shared" si="7"/>
+        <v>1.9</v>
+      </c>
+      <c r="AA4" t="str">
+        <f t="shared" si="8"/>
+        <v>Always red</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="str">
         <f>DATA!A5</f>
         <v>CA</v>
@@ -3767,12 +4080,51 @@
         <f>DATA!L5</f>
         <v>-12</v>
       </c>
-      <c r="M5" s="19" t="str">
+      <c r="M5" s="49" t="str">
         <f>DATA!M5</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" s="42"/>
+      <c r="O5" s="15">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="P5" s="27"/>
+      <c r="R5" s="6">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="S5" s="6">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="T5" s="23">
+        <f t="shared" si="2"/>
+        <v>-3.6</v>
+      </c>
+      <c r="U5" s="27"/>
+      <c r="W5" s="6">
+        <f t="shared" si="4"/>
+        <v>-12</v>
+      </c>
+      <c r="X5" s="6">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+      <c r="Y5" s="23">
+        <f t="shared" si="6"/>
+        <v>-8.5</v>
+      </c>
+      <c r="Z5" s="23">
+        <f t="shared" si="7"/>
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="AA5" t="str">
+        <f t="shared" si="8"/>
+        <v>Always blue</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="str">
         <f>DATA!A6</f>
         <v>CO</v>
@@ -3821,12 +4173,54 @@
         <f>DATA!L6</f>
         <v>0</v>
       </c>
-      <c r="M6" s="19" t="str">
+      <c r="M6" s="49" t="str">
         <f>DATA!M6</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6" s="42"/>
+      <c r="O6" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P6" s="27"/>
+      <c r="R6" s="6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="S6" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T6" s="23">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="U6" s="27"/>
+      <c r="W6" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="23">
+        <f t="shared" si="7"/>
+        <v>-0.2</v>
+      </c>
+      <c r="AA6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="str">
         <f>DATA!A7</f>
         <v>CT</v>
@@ -3875,12 +4269,51 @@
         <f>DATA!L7</f>
         <v>-2</v>
       </c>
-      <c r="M7" s="19" t="str">
+      <c r="M7" s="49" t="str">
         <f>DATA!M7</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="42"/>
+      <c r="O7" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="27"/>
+      <c r="R7" s="6">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="S7" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T7" s="23">
+        <f t="shared" si="2"/>
+        <v>-0.6</v>
+      </c>
+      <c r="U7" s="27"/>
+      <c r="W7" s="6">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="X7" s="6">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+      <c r="Y7" s="23">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="Z7" s="23">
+        <f t="shared" si="7"/>
+        <v>-1.4</v>
+      </c>
+      <c r="AA7" t="str">
+        <f t="shared" si="8"/>
+        <v>Always blue</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="str">
         <f>DATA!A8</f>
         <v>FL</v>
@@ -3929,12 +4362,54 @@
         <f>DATA!L8</f>
         <v>0</v>
       </c>
-      <c r="M8" s="19" t="str">
+      <c r="M8" s="49" t="str">
         <f>DATA!M8</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="42"/>
+      <c r="O8" s="15">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="P8" s="27"/>
+      <c r="R8" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S8" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="T8" s="23">
+        <f t="shared" si="2"/>
+        <v>3.4</v>
+      </c>
+      <c r="U8" s="27"/>
+      <c r="W8" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="6">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Y8" s="23">
+        <f t="shared" si="6"/>
+        <v>1.75</v>
+      </c>
+      <c r="Z8" s="23">
+        <f t="shared" si="7"/>
+        <v>-1.65</v>
+      </c>
+      <c r="AA8" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="str">
         <f>DATA!A9</f>
         <v>GA</v>
@@ -3983,12 +4458,51 @@
         <f>DATA!L9</f>
         <v>2</v>
       </c>
-      <c r="M9" s="19" t="str">
+      <c r="M9" s="49" t="str">
         <f>DATA!M9</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="42"/>
+      <c r="O9" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P9" s="27"/>
+      <c r="R9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T9" s="23">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="U9" s="27"/>
+      <c r="W9" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X9" s="6">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Y9" s="23">
+        <f t="shared" si="6"/>
+        <v>1.75</v>
+      </c>
+      <c r="Z9" s="23">
+        <f t="shared" si="7"/>
+        <v>1.55</v>
+      </c>
+      <c r="AA9" t="str">
+        <f t="shared" si="8"/>
+        <v>Always red</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="str">
         <f>DATA!A10</f>
         <v>HI</v>
@@ -4037,12 +4551,54 @@
         <f>DATA!L10</f>
         <v>0</v>
       </c>
-      <c r="M10" s="19" t="str">
+      <c r="M10" s="49" t="str">
         <f>DATA!M10</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="42"/>
+      <c r="O10" s="15">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="P10" s="27"/>
+      <c r="R10" s="6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="S10" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="23">
+        <f t="shared" si="2"/>
+        <v>-0.8</v>
+      </c>
+      <c r="U10" s="27"/>
+      <c r="W10" s="6">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="X10" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="23">
+        <f t="shared" si="6"/>
+        <v>-0.5</v>
+      </c>
+      <c r="Z10" s="23">
+        <f t="shared" si="7"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AA10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="str">
         <f>DATA!A11</f>
         <v>ID</v>
@@ -4091,12 +4647,51 @@
         <f>DATA!L11</f>
         <v>1</v>
       </c>
-      <c r="M11" s="19" t="str">
+      <c r="M11" s="49" t="str">
         <f>DATA!M11</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="42"/>
+      <c r="O11" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P11" s="27"/>
+      <c r="R11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T11" s="23">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="U11" s="27"/>
+      <c r="W11" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X11" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Y11" s="23">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Z11" s="23">
+        <f t="shared" si="7"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AA11" t="str">
+        <f t="shared" si="8"/>
+        <v>Always red</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="str">
         <f>DATA!A12</f>
         <v>IL</v>
@@ -4145,12 +4740,51 @@
         <f>DATA!L12</f>
         <v>-2</v>
       </c>
-      <c r="M12" s="19" t="str">
+      <c r="M12" s="49" t="str">
         <f>DATA!M12</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="42"/>
+      <c r="O12" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P12" s="27"/>
+      <c r="R12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T12" s="23">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="U12" s="27"/>
+      <c r="W12" s="6">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="X12" s="6">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="Y12" s="23">
+        <f t="shared" si="6"/>
+        <v>-1.5</v>
+      </c>
+      <c r="Z12" s="23">
+        <f t="shared" si="7"/>
+        <v>-2.1</v>
+      </c>
+      <c r="AA12" t="str">
+        <f t="shared" si="8"/>
+        <v>Always blue</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="str">
         <f>DATA!A13</f>
         <v>IN</v>
@@ -4199,12 +4833,51 @@
         <f>DATA!L13</f>
         <v>2</v>
       </c>
-      <c r="M13" s="19" t="str">
+      <c r="M13" s="49" t="str">
         <f>DATA!M13</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="42"/>
+      <c r="O13" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P13" s="27"/>
+      <c r="R13" s="6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="S13" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T13" s="23">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="U13" s="27"/>
+      <c r="W13" s="6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="X13" s="6">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Y13" s="23">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Z13" s="23">
+        <f t="shared" si="7"/>
+        <v>1.4</v>
+      </c>
+      <c r="AA13" t="str">
+        <f t="shared" si="8"/>
+        <v>Always red</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="str">
         <f>DATA!A14</f>
         <v>IA</v>
@@ -4253,12 +4926,54 @@
         <f>DATA!L14</f>
         <v>-1</v>
       </c>
-      <c r="M14" s="19" t="str">
+      <c r="M14" s="49" t="str">
         <f>DATA!M14</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="42"/>
+      <c r="O14" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P14" s="27"/>
+      <c r="R14" s="6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="S14" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T14" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="27"/>
+      <c r="W14" s="6">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="X14" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Y14" s="23">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="Z14" s="23">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="AA14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="str">
         <f>DATA!A15</f>
         <v>KS</v>
@@ -4307,12 +5022,51 @@
         <f>DATA!L15</f>
         <v>1</v>
       </c>
-      <c r="M15" s="19" t="str">
+      <c r="M15" s="49" t="str">
         <f>DATA!M15</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="42"/>
+      <c r="O15" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="27"/>
+      <c r="R15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T15" s="23">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="U15" s="27"/>
+      <c r="W15" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X15" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Y15" s="23">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Z15" s="23">
+        <f t="shared" si="7"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AA15" t="str">
+        <f t="shared" si="8"/>
+        <v>Always red</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="str">
         <f>DATA!A16</f>
         <v>KY</v>
@@ -4361,12 +5115,51 @@
         <f>DATA!L16</f>
         <v>1</v>
       </c>
-      <c r="M16" s="19" t="str">
+      <c r="M16" s="49" t="str">
         <f>DATA!M16</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="42"/>
+      <c r="O16" s="15">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="P16" s="27"/>
+      <c r="R16" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T16" s="23">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="U16" s="27"/>
+      <c r="W16" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X16" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Y16" s="23">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Z16" s="23">
+        <f t="shared" si="7"/>
+        <v>0.4</v>
+      </c>
+      <c r="AA16" t="str">
+        <f t="shared" si="8"/>
+        <v>Always red</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="str">
         <f>DATA!A17</f>
         <v>LA</v>
@@ -4415,12 +5208,51 @@
         <f>DATA!L17</f>
         <v>1</v>
       </c>
-      <c r="M17" s="19" t="str">
+      <c r="M17" s="49" t="str">
         <f>DATA!M17</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="42"/>
+      <c r="O17" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P17" s="27"/>
+      <c r="R17" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T17" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U17" s="27"/>
+      <c r="W17" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X17" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Y17" s="23">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Z17" s="23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" t="str">
+        <f t="shared" si="8"/>
+        <v>Always red</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="str">
         <f>DATA!A18</f>
         <v>ME</v>
@@ -4469,12 +5301,54 @@
         <f>DATA!L18</f>
         <v>-1</v>
       </c>
-      <c r="M18" s="19" t="str">
+      <c r="M18" s="49" t="str">
         <f>DATA!M18</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="42"/>
+      <c r="O18" s="15">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="P18" s="27"/>
+      <c r="R18" s="6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="S18" s="6">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="T18" s="23">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="U18" s="27"/>
+      <c r="W18" s="6">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="X18" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="23">
+        <f t="shared" si="6"/>
+        <v>-0.5</v>
+      </c>
+      <c r="Z18" s="23">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="AA18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="str">
         <f>DATA!A19</f>
         <v>MD</v>
@@ -4523,12 +5397,51 @@
         <f>DATA!L19</f>
         <v>-2</v>
       </c>
-      <c r="M19" s="19" t="str">
+      <c r="M19" s="49" t="str">
         <f>DATA!M19</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="42"/>
+      <c r="O19" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="27"/>
+      <c r="R19" s="6">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="S19" s="6">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="T19" s="23">
+        <f t="shared" si="2"/>
+        <v>-1.4</v>
+      </c>
+      <c r="U19" s="27"/>
+      <c r="W19" s="6">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="X19" s="6">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+      <c r="Y19" s="23">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="Z19" s="23">
+        <f t="shared" si="7"/>
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="AA19" t="str">
+        <f t="shared" si="8"/>
+        <v>Always blue</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="str">
         <f>DATA!A20</f>
         <v>MA</v>
@@ -4577,12 +5490,51 @@
         <f>DATA!L20</f>
         <v>-3</v>
       </c>
-      <c r="M20" s="19" t="str">
+      <c r="M20" s="49" t="str">
         <f>DATA!M20</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="42"/>
+      <c r="O20" s="15">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="P20" s="27"/>
+      <c r="R20" s="6">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="S20" s="6">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="T20" s="23">
+        <f t="shared" si="2"/>
+        <v>-3.2</v>
+      </c>
+      <c r="U20" s="27"/>
+      <c r="W20" s="6">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="X20" s="6">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+      <c r="Y20" s="23">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+      <c r="Z20" s="23">
+        <f t="shared" si="7"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="AA20" t="str">
+        <f t="shared" si="8"/>
+        <v>Always blue</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="str">
         <f>DATA!A21</f>
         <v>MI</v>
@@ -4631,12 +5583,54 @@
         <f>DATA!L21</f>
         <v>0</v>
       </c>
-      <c r="M21" s="19" t="str">
+      <c r="M21" s="49" t="str">
         <f>DATA!M21</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="42"/>
+      <c r="O21" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="27"/>
+      <c r="R21" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T21" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U21" s="27"/>
+      <c r="W21" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="6">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Y21" s="23">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="Z21" s="23">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="AA21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="str">
         <f>DATA!A22</f>
         <v>MN</v>
@@ -4685,12 +5679,54 @@
         <f>DATA!L22</f>
         <v>-1</v>
       </c>
-      <c r="M22" s="19" t="str">
+      <c r="M22" s="49" t="str">
         <f>DATA!M22</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="42"/>
+      <c r="O22" s="15">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="P22" s="27"/>
+      <c r="R22" s="6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="S22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="23">
+        <f t="shared" si="2"/>
+        <v>-0.2</v>
+      </c>
+      <c r="U22" s="27"/>
+      <c r="W22" s="6">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="X22" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="23">
+        <f t="shared" si="6"/>
+        <v>-0.5</v>
+      </c>
+      <c r="Z22" s="23">
+        <f t="shared" si="7"/>
+        <v>-0.3</v>
+      </c>
+      <c r="AA22" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="str">
         <f>DATA!A23</f>
         <v>MS</v>
@@ -4739,12 +5775,51 @@
         <f>DATA!L23</f>
         <v>1</v>
       </c>
-      <c r="M23" s="19" t="str">
+      <c r="M23" s="49" t="str">
         <f>DATA!M23</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="42"/>
+      <c r="O23" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="27"/>
+      <c r="R23" s="6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="S23" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T23" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="27"/>
+      <c r="W23" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X23" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Y23" s="23">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Z23" s="23">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AA23" t="str">
+        <f t="shared" si="8"/>
+        <v>Always red</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="str">
         <f>DATA!A24</f>
         <v>MO</v>
@@ -4793,12 +5868,51 @@
         <f>DATA!L24</f>
         <v>1</v>
       </c>
-      <c r="M24" s="19" t="str">
+      <c r="M24" s="49" t="str">
         <f>DATA!M24</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="42"/>
+      <c r="O24" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P24" s="27"/>
+      <c r="R24" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T24" s="23">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="U24" s="27"/>
+      <c r="W24" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X24" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Y24" s="23">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Z24" s="23">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="AA24" t="str">
+        <f t="shared" si="8"/>
+        <v>Always red</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="str">
         <f>DATA!A25</f>
         <v>NE</v>
@@ -4847,12 +5961,54 @@
         <f>DATA!L25</f>
         <v>1</v>
       </c>
-      <c r="M25" s="19" t="str">
+      <c r="M25" s="49" t="str">
         <f>DATA!M25</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="42"/>
+      <c r="O25" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P25" s="27"/>
+      <c r="R25" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S25" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T25" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U25" s="27"/>
+      <c r="W25" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Y25" s="23">
+        <f t="shared" si="6"/>
+        <v>0.75</v>
+      </c>
+      <c r="Z25" s="23">
+        <f t="shared" si="7"/>
+        <v>-0.25</v>
+      </c>
+      <c r="AA25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="str">
         <f>DATA!A26</f>
         <v>NV</v>
@@ -4901,12 +6057,54 @@
         <f>DATA!L26</f>
         <v>-1</v>
       </c>
-      <c r="M26" s="19" t="str">
+      <c r="M26" s="49" t="str">
         <f>DATA!M26</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="42"/>
+      <c r="O26" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="27"/>
+      <c r="R26" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T26" s="23">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="U26" s="27"/>
+      <c r="W26" s="6">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="X26" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Y26" s="23">
+        <f t="shared" si="6"/>
+        <v>-0.25</v>
+      </c>
+      <c r="Z26" s="23">
+        <f t="shared" si="7"/>
+        <v>-0.65</v>
+      </c>
+      <c r="AA26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="str">
         <f>DATA!A27</f>
         <v>NH</v>
@@ -4955,12 +6153,54 @@
         <f>DATA!L27</f>
         <v>-1</v>
       </c>
-      <c r="M27" s="19" t="str">
+      <c r="M27" s="49" t="str">
         <f>DATA!M27</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="42"/>
+      <c r="O27" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P27" s="27"/>
+      <c r="R27" s="6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="S27" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T27" s="23">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="U27" s="27"/>
+      <c r="W27" s="6">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="X27" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="23">
+        <f t="shared" si="6"/>
+        <v>-0.75</v>
+      </c>
+      <c r="Z27" s="23">
+        <f t="shared" si="7"/>
+        <v>-0.95</v>
+      </c>
+      <c r="AA27" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="str">
         <f>DATA!A28</f>
         <v>NJ</v>
@@ -5009,12 +6249,54 @@
         <f>DATA!L28</f>
         <v>-4</v>
       </c>
-      <c r="M28" s="19" t="str">
+      <c r="M28" s="49" t="str">
         <f>DATA!M28</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="42"/>
+      <c r="O28" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="27"/>
+      <c r="R28" s="6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="S28" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T28" s="23">
+        <f t="shared" si="2"/>
+        <v>-0.2</v>
+      </c>
+      <c r="U28" s="27"/>
+      <c r="W28" s="6">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="X28" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Y28" s="23">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="Z28" s="23">
+        <f t="shared" si="7"/>
+        <v>-0.8</v>
+      </c>
+      <c r="AA28" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="str">
         <f>DATA!A29</f>
         <v>NM</v>
@@ -5063,12 +6345,54 @@
         <f>DATA!L29</f>
         <v>-1</v>
       </c>
-      <c r="M29" s="19" t="str">
+      <c r="M29" s="49" t="str">
         <f>DATA!M29</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="42"/>
+      <c r="O29" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P29" s="27"/>
+      <c r="R29" s="6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="S29" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T29" s="23">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="U29" s="27"/>
+      <c r="W29" s="6">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="X29" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="23">
+        <f t="shared" si="6"/>
+        <v>-0.25</v>
+      </c>
+      <c r="Z29" s="23">
+        <f t="shared" si="7"/>
+        <v>-0.65</v>
+      </c>
+      <c r="AA29" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="str">
         <f>DATA!A30</f>
         <v>NY</v>
@@ -5117,12 +6441,51 @@
         <f>DATA!L30</f>
         <v>-3</v>
       </c>
-      <c r="M30" s="19" t="str">
+      <c r="M30" s="49" t="str">
         <f>DATA!M30</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="42"/>
+      <c r="O30" s="15">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="P30" s="27"/>
+      <c r="R30" s="6">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="S30" s="6">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="T30" s="23">
+        <f t="shared" si="2"/>
+        <v>-3.6</v>
+      </c>
+      <c r="U30" s="27"/>
+      <c r="W30" s="6">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="X30" s="6">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="Y30" s="23">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="Z30" s="23">
+        <f t="shared" si="7"/>
+        <v>1.6</v>
+      </c>
+      <c r="AA30" t="str">
+        <f t="shared" si="8"/>
+        <v>Always blue</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="str">
         <f>DATA!A31</f>
         <v>NC</v>
@@ -5171,12 +6534,51 @@
         <f>DATA!L31</f>
         <v>3</v>
       </c>
-      <c r="M31" s="19" t="str">
+      <c r="M31" s="49" t="str">
         <f>DATA!M31</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="42"/>
+      <c r="O31" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P31" s="27"/>
+      <c r="R31" s="6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="S31" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="23">
+        <f t="shared" si="2"/>
+        <v>-0.4</v>
+      </c>
+      <c r="U31" s="27"/>
+      <c r="W31" s="6">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="X31" s="6">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Y31" s="23">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Z31" s="23">
+        <f t="shared" si="7"/>
+        <v>3.4</v>
+      </c>
+      <c r="AA31" t="str">
+        <f t="shared" si="8"/>
+        <v>Always red</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="str">
         <f>DATA!A32</f>
         <v>OH</v>
@@ -5225,12 +6627,51 @@
         <f>DATA!L32</f>
         <v>4</v>
       </c>
-      <c r="M32" s="19" t="str">
+      <c r="M32" s="49" t="str">
         <f>DATA!M32</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="42"/>
+      <c r="O32" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P32" s="27"/>
+      <c r="R32" s="6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="S32" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="T32" s="23">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="U32" s="27"/>
+      <c r="W32" s="6">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="X32" s="6">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="Y32" s="23">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="Z32" s="23">
+        <f t="shared" si="7"/>
+        <v>1.9</v>
+      </c>
+      <c r="AA32" t="str">
+        <f t="shared" si="8"/>
+        <v>Always red</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="str">
         <f>DATA!A33</f>
         <v>OK</v>
@@ -5279,12 +6720,51 @@
         <f>DATA!L33</f>
         <v>1</v>
       </c>
-      <c r="M33" s="19" t="str">
+      <c r="M33" s="49" t="str">
         <f>DATA!M33</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="42"/>
+      <c r="O33" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P33" s="27"/>
+      <c r="R33" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S33" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T33" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U33" s="27"/>
+      <c r="W33" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X33" s="6">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Y33" s="23">
+        <f t="shared" si="6"/>
+        <v>1.25</v>
+      </c>
+      <c r="Z33" s="23">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="AA33" t="str">
+        <f t="shared" si="8"/>
+        <v>Always red</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="str">
         <f>DATA!A34</f>
         <v>OR</v>
@@ -5333,12 +6813,51 @@
         <f>DATA!L34</f>
         <v>-1</v>
       </c>
-      <c r="M34" s="19" t="str">
+      <c r="M34" s="49" t="str">
         <f>DATA!M34</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="42"/>
+      <c r="O34" s="15">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="P34" s="27"/>
+      <c r="R34" s="6">
+        <f t="shared" ref="R34:R52" si="9">MIN(D34:H34)</f>
+        <v>-1</v>
+      </c>
+      <c r="S34" s="6">
+        <f t="shared" ref="S34:S52" si="10">MAX(D34:H34)</f>
+        <v>-1</v>
+      </c>
+      <c r="T34" s="23">
+        <f t="shared" ref="T34:T52" si="11">AVERAGE(D34:H34)</f>
+        <v>-1</v>
+      </c>
+      <c r="U34" s="27"/>
+      <c r="W34" s="6">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="X34" s="6">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="Y34" s="23">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="Z34" s="23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA34" t="str">
+        <f t="shared" si="8"/>
+        <v>Always blue</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="str">
         <f>DATA!A35</f>
         <v>PA</v>
@@ -5387,12 +6906,51 @@
         <f>DATA!L35</f>
         <v>1</v>
       </c>
-      <c r="M35" s="19" t="str">
+      <c r="M35" s="49" t="str">
         <f>DATA!M35</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="42"/>
+      <c r="O35" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P35" s="27"/>
+      <c r="R35" s="6">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="S35" s="6">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="T35" s="23">
+        <f t="shared" si="11"/>
+        <v>0.6</v>
+      </c>
+      <c r="U35" s="27"/>
+      <c r="W35" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X35" s="6">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="Y35" s="23">
+        <f t="shared" si="6"/>
+        <v>2.75</v>
+      </c>
+      <c r="Z35" s="23">
+        <f t="shared" si="7"/>
+        <v>2.15</v>
+      </c>
+      <c r="AA35" t="str">
+        <f t="shared" si="8"/>
+        <v>Always red</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="str">
         <f>DATA!A36</f>
         <v>RI</v>
@@ -5441,12 +6999,51 @@
         <f>DATA!L36</f>
         <v>-1</v>
       </c>
-      <c r="M36" s="19" t="str">
+      <c r="M36" s="49" t="str">
         <f>DATA!M36</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36" s="42"/>
+      <c r="O36" s="15">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="P36" s="27"/>
+      <c r="R36" s="6">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="S36" s="6">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="T36" s="23">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="U36" s="27"/>
+      <c r="W36" s="6">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="X36" s="6">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="Y36" s="23">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="Z36" s="23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA36" t="str">
+        <f t="shared" si="8"/>
+        <v>Always blue</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="str">
         <f>DATA!A37</f>
         <v>SC</v>
@@ -5495,12 +7092,51 @@
         <f>DATA!L37</f>
         <v>1</v>
       </c>
-      <c r="M37" s="19" t="str">
+      <c r="M37" s="49" t="str">
         <f>DATA!M37</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37" s="42"/>
+      <c r="O37" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P37" s="27"/>
+      <c r="R37" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="6">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="T37" s="23">
+        <f t="shared" si="11"/>
+        <v>0.8</v>
+      </c>
+      <c r="U37" s="27"/>
+      <c r="W37" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X37" s="6">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Y37" s="23">
+        <f t="shared" si="6"/>
+        <v>1.75</v>
+      </c>
+      <c r="Z37" s="23">
+        <f t="shared" si="7"/>
+        <v>0.95</v>
+      </c>
+      <c r="AA37" t="str">
+        <f t="shared" si="8"/>
+        <v>Always red</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="str">
         <f>DATA!A38</f>
         <v>TN</v>
@@ -5549,12 +7185,51 @@
         <f>DATA!L38</f>
         <v>2</v>
       </c>
-      <c r="M38" s="19" t="str">
+      <c r="M38" s="49" t="str">
         <f>DATA!M38</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="42"/>
+      <c r="O38" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P38" s="27"/>
+      <c r="R38" s="6">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="S38" s="6">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="T38" s="23">
+        <f t="shared" si="11"/>
+        <v>-0.4</v>
+      </c>
+      <c r="U38" s="27"/>
+      <c r="W38" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X38" s="6">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Y38" s="23">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="Z38" s="23">
+        <f t="shared" si="7"/>
+        <v>1.9</v>
+      </c>
+      <c r="AA38" t="str">
+        <f t="shared" si="8"/>
+        <v>Always red</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="str">
         <f>DATA!A39</f>
         <v>TX</v>
@@ -5603,12 +7278,51 @@
         <f>DATA!L39</f>
         <v>4</v>
       </c>
-      <c r="M39" s="19" t="str">
+      <c r="M39" s="49" t="str">
         <f>DATA!M39</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="42"/>
+      <c r="O39" s="15">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="P39" s="27"/>
+      <c r="R39" s="6">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="S39" s="6">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="T39" s="23">
+        <f t="shared" si="11"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U39" s="27"/>
+      <c r="W39" s="6">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="X39" s="6">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="Y39" s="23">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="Z39" s="23">
+        <f t="shared" si="7"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="AA39" t="str">
+        <f t="shared" si="8"/>
+        <v>Always red</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="str">
         <f>DATA!A40</f>
         <v>UT</v>
@@ -5657,12 +7371,54 @@
         <f>DATA!L40</f>
         <v>1</v>
       </c>
-      <c r="M40" s="19" t="str">
+      <c r="M40" s="49" t="str">
         <f>DATA!M40</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="42"/>
+      <c r="O40" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="27"/>
+      <c r="R40" s="6">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="S40" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="23">
+        <f t="shared" si="11"/>
+        <v>-0.2</v>
+      </c>
+      <c r="U40" s="27"/>
+      <c r="W40" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X40" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Y40" s="23">
+        <f t="shared" si="6"/>
+        <v>0.75</v>
+      </c>
+      <c r="Z40" s="23">
+        <f t="shared" si="7"/>
+        <v>0.95</v>
+      </c>
+      <c r="AA40" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="str">
         <f>DATA!A41</f>
         <v>VA</v>
@@ -5711,12 +7467,54 @@
         <f>DATA!L41</f>
         <v>-1</v>
       </c>
-      <c r="M41" s="19" t="str">
+      <c r="M41" s="49" t="str">
         <f>DATA!M41</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="42"/>
+      <c r="O41" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P41" s="27"/>
+      <c r="R41" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="6">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="T41" s="23">
+        <f t="shared" si="11"/>
+        <v>1.6</v>
+      </c>
+      <c r="U41" s="27"/>
+      <c r="W41" s="6">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="X41" s="6">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Y41" s="23">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Z41" s="23">
+        <f t="shared" si="7"/>
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="AA41" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="str">
         <f>DATA!A42</f>
         <v>WA</v>
@@ -5765,12 +7563,51 @@
         <f>DATA!L42</f>
         <v>-1</v>
       </c>
-      <c r="M42" s="19" t="str">
+      <c r="M42" s="49" t="str">
         <f>DATA!M42</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="42"/>
+      <c r="O42" s="15">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="P42" s="27"/>
+      <c r="R42" s="6">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="S42" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="23">
+        <f t="shared" si="11"/>
+        <v>-0.8</v>
+      </c>
+      <c r="U42" s="27"/>
+      <c r="W42" s="6">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="X42" s="6">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="Y42" s="23">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="Z42" s="23">
+        <f t="shared" si="7"/>
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="AA42" t="str">
+        <f t="shared" si="8"/>
+        <v>Always blue</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="str">
         <f>DATA!A43</f>
         <v>WV</v>
@@ -5819,66 +7656,149 @@
         <f>DATA!L43</f>
         <v>1</v>
       </c>
-      <c r="M43" s="19" t="str">
+      <c r="M43" s="49" t="str">
         <f>DATA!M43</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="str">
+      <c r="N43" s="42"/>
+      <c r="O43" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="27"/>
+      <c r="R43" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="27"/>
+      <c r="W43" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X43" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Y43" s="23">
+        <f t="shared" si="6"/>
+        <v>0.75</v>
+      </c>
+      <c r="Z43" s="23">
+        <f t="shared" si="7"/>
+        <v>0.75</v>
+      </c>
+      <c r="AA43" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB43" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A44" s="30" t="str">
         <f>DATA!A44</f>
         <v>WI</v>
       </c>
-      <c r="B44" s="5" t="str">
+      <c r="B44" s="30" t="str">
         <f>DATA!B44</f>
         <v xml:space="preserve"> Wisconsin</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="31">
         <f>DATA!C44</f>
         <v>-1</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="32">
         <f>DATA!D44</f>
         <v>0</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="31">
         <f>DATA!E44</f>
         <v>0</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="31">
         <f>DATA!F44</f>
         <v>-1</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="31">
         <f>DATA!G44</f>
         <v>-1</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="31">
         <f>DATA!H44</f>
         <v>1</v>
       </c>
-      <c r="I44" s="15">
+      <c r="I44" s="32">
         <f>DATA!I44</f>
         <v>1</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="31">
         <f>DATA!J44</f>
         <v>1</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K44" s="31">
         <f>DATA!K44</f>
         <v>1</v>
       </c>
-      <c r="L44" s="6">
+      <c r="L44" s="31">
         <f>DATA!L44</f>
         <v>1</v>
       </c>
-      <c r="M44" s="19" t="str">
+      <c r="M44" s="50" t="str">
         <f>DATA!M44</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="42"/>
+      <c r="O44" s="32">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="31">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="S44" s="31">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="T44" s="34">
+        <f t="shared" si="11"/>
+        <v>-0.2</v>
+      </c>
+      <c r="U44" s="44"/>
+      <c r="V44" s="33"/>
+      <c r="W44" s="31">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X44" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Y44" s="34">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Z44" s="34">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="AA44" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>Always red</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="str">
         <f>DATA!A45</f>
         <v>AK</v>
@@ -5927,12 +7847,51 @@
         <f>DATA!L45</f>
         <v>1</v>
       </c>
-      <c r="M45" s="19" t="str">
+      <c r="M45" s="49" t="str">
         <f>DATA!M45</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="42"/>
+      <c r="O45" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P45" s="27"/>
+      <c r="R45" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S45" s="6">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="T45" s="23">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U45" s="27"/>
+      <c r="W45" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X45" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Y45" s="23">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Z45" s="23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA45" t="str">
+        <f t="shared" si="8"/>
+        <v>Always red</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="str">
         <f>DATA!A46</f>
         <v>DE</v>
@@ -5981,12 +7940,51 @@
         <f>DATA!L46</f>
         <v>-1</v>
       </c>
-      <c r="M46" s="19" t="str">
+      <c r="M46" s="49" t="str">
         <f>DATA!M46</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="42"/>
+      <c r="O46" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P46" s="27"/>
+      <c r="R46" s="6">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="S46" s="6">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="T46" s="23">
+        <f t="shared" si="11"/>
+        <v>0.6</v>
+      </c>
+      <c r="U46" s="27"/>
+      <c r="W46" s="6">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="X46" s="6">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="Y46" s="23">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="Z46" s="23">
+        <f t="shared" si="7"/>
+        <v>-1.6</v>
+      </c>
+      <c r="AA46" t="str">
+        <f t="shared" si="8"/>
+        <v>Always blue</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="str">
         <f>DATA!A47</f>
         <v>MT</v>
@@ -6035,12 +8033,51 @@
         <f>DATA!L47</f>
         <v>1</v>
       </c>
-      <c r="M47" s="19" t="str">
+      <c r="M47" s="49" t="str">
         <f>DATA!M47</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="42"/>
+      <c r="O47" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P47" s="27"/>
+      <c r="R47" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S47" s="6">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="T47" s="23">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U47" s="27"/>
+      <c r="W47" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X47" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Y47" s="23">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Z47" s="23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA47" t="str">
+        <f t="shared" si="8"/>
+        <v>Always red</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="str">
         <f>DATA!A48</f>
         <v>ND</v>
@@ -6089,12 +8126,51 @@
         <f>DATA!L48</f>
         <v>1</v>
       </c>
-      <c r="M48" s="19" t="str">
+      <c r="M48" s="49" t="str">
         <f>DATA!M48</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="42"/>
+      <c r="O48" s="15">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="P48" s="27"/>
+      <c r="R48" s="6">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="S48" s="6">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="T48" s="23">
+        <f t="shared" si="11"/>
+        <v>-0.6</v>
+      </c>
+      <c r="U48" s="27"/>
+      <c r="W48" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X48" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Y48" s="23">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Z48" s="23">
+        <f t="shared" si="7"/>
+        <v>1.6</v>
+      </c>
+      <c r="AA48" t="str">
+        <f t="shared" si="8"/>
+        <v>Always red</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="str">
         <f>DATA!A49</f>
         <v>SD</v>
@@ -6143,12 +8219,51 @@
         <f>DATA!L49</f>
         <v>1</v>
       </c>
-      <c r="M49" s="19" t="str">
+      <c r="M49" s="49" t="str">
         <f>DATA!M49</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="42"/>
+      <c r="O49" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P49" s="27"/>
+      <c r="R49" s="6">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="S49" s="6">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="T49" s="23">
+        <f t="shared" si="11"/>
+        <v>-0.2</v>
+      </c>
+      <c r="U49" s="27"/>
+      <c r="W49" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X49" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Y49" s="23">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Z49" s="23">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="AA49" t="str">
+        <f t="shared" si="8"/>
+        <v>Always red</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="str">
         <f>DATA!A50</f>
         <v>VT</v>
@@ -6197,12 +8312,51 @@
         <f>DATA!L50</f>
         <v>-1</v>
       </c>
-      <c r="M50" s="19" t="str">
+      <c r="M50" s="49" t="str">
         <f>DATA!M50</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="42"/>
+      <c r="O50" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="27"/>
+      <c r="R50" s="6">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="S50" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="23">
+        <f t="shared" si="11"/>
+        <v>-0.6</v>
+      </c>
+      <c r="U50" s="27"/>
+      <c r="W50" s="6">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="X50" s="6">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="Y50" s="23">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="Z50" s="23">
+        <f t="shared" si="7"/>
+        <v>-0.4</v>
+      </c>
+      <c r="AA50" t="str">
+        <f t="shared" si="8"/>
+        <v>Always blue</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="str">
         <f>DATA!A51</f>
         <v>WY</v>
@@ -6251,550 +8405,1665 @@
         <f>DATA!L51</f>
         <v>1</v>
       </c>
-      <c r="M51" s="20" t="str">
+      <c r="M51" s="51" t="str">
         <f>DATA!M51</f>
         <v xml:space="preserve"> None</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="8">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S51" s="8">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="T51" s="25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U51" s="44"/>
+      <c r="V51" s="24"/>
+      <c r="W51" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X51" s="8">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Y51" s="25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Z51" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA51" s="24" t="str">
+        <f t="shared" si="8"/>
+        <v>Always red</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A52" s="45" t="s">
+        <v>128</v>
+      </c>
       <c r="B52" s="5"/>
-      <c r="D52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="M52" s="19"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
+      <c r="C52" s="6">
+        <f>SUM(C45:C51)</f>
+        <v>4</v>
+      </c>
+      <c r="D52" s="15">
+        <f t="shared" ref="D52:L52" si="12">SUM(D45:D51)</f>
+        <v>4</v>
+      </c>
+      <c r="E52" s="6">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="F52" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G52" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="H52" s="6">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="I52" s="15">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="J52" s="6">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="K52" s="6">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="L52" s="6">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="M52" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="N52" s="42"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="46">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S52" s="46">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="T52" s="47">
+        <f t="shared" si="11"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U52" s="44"/>
+      <c r="V52" s="35"/>
+      <c r="W52" s="46">
+        <f t="shared" ref="W52" si="13">MIN(I52:L52)</f>
+        <v>3</v>
+      </c>
+      <c r="X52" s="46">
+        <f t="shared" ref="X52" si="14">MAX(I52:L52)</f>
+        <v>3</v>
+      </c>
+      <c r="Y52" s="47">
+        <f t="shared" ref="Y52" si="15">AVERAGE(I52:L52)</f>
+        <v>3</v>
+      </c>
+      <c r="Z52" s="47">
+        <f t="shared" ref="Z52" si="16">Y52-T52</f>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="AA52" s="52">
+        <f>50-COUNTBLANK(AA2:AA51)</f>
+        <v>34</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A53" s="48" t="s">
+        <v>129</v>
+      </c>
       <c r="B53" s="5"/>
-      <c r="D53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="M53" s="19"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="12" t="s">
+      <c r="C53" s="6">
+        <f>COUNTIF(C2:C51,"=0")</f>
+        <v>10</v>
+      </c>
+      <c r="D53" s="15">
+        <f t="shared" ref="D53:L53" si="17">COUNTIF(D2:D51,"=0")</f>
+        <v>12</v>
+      </c>
+      <c r="E53" s="6">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="F53" s="6">
+        <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="G53" s="6">
+        <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="H53" s="6">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="I53" s="15">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="J53" s="6">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="K53" s="6">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="L53" s="6">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="M53" s="49"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="27"/>
+      <c r="R53" s="46">
+        <f t="shared" ref="R53" si="18">MIN(D53:H53)</f>
+        <v>8</v>
+      </c>
+      <c r="S53" s="46">
+        <f t="shared" ref="S53" si="19">MAX(D53:H53)</f>
+        <v>13</v>
+      </c>
+      <c r="T53" s="47">
+        <f t="shared" ref="T53" si="20">AVERAGE(D53:H53)</f>
+        <v>11.6</v>
+      </c>
+      <c r="U53" s="44"/>
+      <c r="W53" s="46">
+        <f t="shared" ref="W53" si="21">MIN(I53:L53)</f>
+        <v>5</v>
+      </c>
+      <c r="X53" s="46">
+        <f t="shared" ref="X53" si="22">MAX(I53:L53)</f>
+        <v>7</v>
+      </c>
+      <c r="Y53" s="47">
+        <f t="shared" ref="Y53" si="23">AVERAGE(I53:L53)</f>
+        <v>6.25</v>
+      </c>
+      <c r="Z53" s="23">
+        <f t="shared" ref="Z53" si="24">Y53-T53</f>
+        <v>-5.35</v>
+      </c>
+      <c r="AA53">
+        <v>1</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A54" s="45"/>
+      <c r="B54" s="5"/>
+      <c r="D54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="27"/>
+      <c r="U54" s="27"/>
+      <c r="AA54">
+        <v>4</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="D55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="27"/>
+      <c r="U55" s="27"/>
+      <c r="AA55">
+        <v>11</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="D56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="27"/>
+      <c r="U56" s="27"/>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A57" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="11">
+      <c r="B57" s="7"/>
+      <c r="C57" s="11">
         <f>C1</f>
         <v>2000</v>
       </c>
-      <c r="D54" s="14">
-        <f t="shared" ref="D54:M54" si="0">D1</f>
+      <c r="D57" s="14">
+        <f t="shared" ref="D57:M57" si="25">D1</f>
         <v>2002</v>
       </c>
-      <c r="E54" s="11">
-        <f t="shared" si="0"/>
+      <c r="E57" s="11">
+        <f t="shared" si="25"/>
         <v>2004</v>
       </c>
-      <c r="F54" s="11">
-        <f t="shared" si="0"/>
+      <c r="F57" s="11">
+        <f t="shared" si="25"/>
         <v>2006</v>
       </c>
-      <c r="G54" s="11">
-        <f t="shared" si="0"/>
+      <c r="G57" s="11">
+        <f t="shared" si="25"/>
         <v>2008</v>
       </c>
-      <c r="H54" s="11">
-        <f t="shared" si="0"/>
+      <c r="H57" s="11">
+        <f t="shared" si="25"/>
         <v>2010</v>
       </c>
-      <c r="I54" s="14">
-        <f t="shared" si="0"/>
+      <c r="I57" s="14">
+        <f t="shared" si="25"/>
         <v>2012</v>
       </c>
-      <c r="J54" s="11">
-        <f t="shared" si="0"/>
+      <c r="J57" s="11">
+        <f t="shared" si="25"/>
         <v>2014</v>
       </c>
-      <c r="K54" s="11">
-        <f t="shared" si="0"/>
+      <c r="K57" s="11">
+        <f t="shared" si="25"/>
         <v>2016</v>
       </c>
-      <c r="L54" s="11">
-        <f t="shared" si="0"/>
+      <c r="L57" s="11">
+        <f t="shared" si="25"/>
         <v>2018</v>
       </c>
-      <c r="M54" s="18">
-        <f t="shared" si="0"/>
+      <c r="M57" s="18">
+        <f t="shared" si="25"/>
         <v>2020</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="9" t="s">
+      <c r="N57" s="42"/>
+      <c r="O57" s="36">
+        <f>O1</f>
+        <v>2000</v>
+      </c>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="37" t="str">
+        <f t="shared" ref="Q57:T57" si="26">Q1</f>
+        <v>2002 – 2010</v>
+      </c>
+      <c r="R57" s="37" t="str">
+        <f t="shared" si="26"/>
+        <v>min</v>
+      </c>
+      <c r="S57" s="37" t="str">
+        <f t="shared" si="26"/>
+        <v>max</v>
+      </c>
+      <c r="T57" s="37" t="str">
+        <f t="shared" si="26"/>
+        <v>avg</v>
+      </c>
+      <c r="U57" s="44"/>
+      <c r="V57" s="37" t="str">
+        <f>V1</f>
+        <v>2012 - 2020</v>
+      </c>
+      <c r="W57" s="37" t="str">
+        <f t="shared" ref="W57:Z57" si="27">W1</f>
+        <v>min</v>
+      </c>
+      <c r="X57" s="37" t="str">
+        <f t="shared" si="27"/>
+        <v>max</v>
+      </c>
+      <c r="Y57" s="37" t="str">
+        <f t="shared" si="27"/>
+        <v>avg</v>
+      </c>
+      <c r="Z57" s="37" t="str">
+        <f t="shared" si="27"/>
+        <v>chg</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B55" s="9" t="str">
+      <c r="B58" s="9" t="str">
         <f>DATA!B59</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C55" s="10">
+      <c r="C58" s="10">
         <f>DATA!C59</f>
         <v>214</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D58" s="17">
         <f>DATA!D59</f>
         <v>226</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E58" s="10">
         <f>DATA!E59</f>
         <v>220</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F58" s="10">
         <f>DATA!F59</f>
         <v>204</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G58" s="10">
         <f>DATA!G59</f>
         <v>195</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H58" s="10">
         <f>DATA!H59</f>
         <v>229</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I58" s="17">
         <f>DATA!I59</f>
         <v>216</v>
       </c>
-      <c r="J55" s="10">
+      <c r="J58" s="10">
         <f>DATA!J59</f>
         <v>229</v>
       </c>
-      <c r="K55" s="10">
+      <c r="K58" s="10">
         <f>DATA!K59</f>
         <v>221</v>
       </c>
-      <c r="L55" s="10">
+      <c r="L58" s="10">
         <f>DATA!L59</f>
         <v>204</v>
       </c>
-      <c r="M55" s="21">
+      <c r="M58" s="21">
         <f>DATA!M59</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
+      <c r="N58" s="42"/>
+      <c r="O58" s="17">
+        <f t="shared" si="3"/>
+        <v>214</v>
+      </c>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="39"/>
+      <c r="R58" s="10">
+        <f>MIN(D58:H58)</f>
+        <v>195</v>
+      </c>
+      <c r="S58" s="10">
+        <f>MAX(D58:H58)</f>
+        <v>229</v>
+      </c>
+      <c r="T58" s="40">
+        <f>AVERAGE(D58:H58)</f>
+        <v>214.8</v>
+      </c>
+      <c r="U58" s="44"/>
+      <c r="V58" s="39"/>
+      <c r="W58" s="10">
+        <f>MIN(I58:L58)</f>
+        <v>204</v>
+      </c>
+      <c r="X58" s="10">
+        <f>MAX(I58:L58)</f>
+        <v>229</v>
+      </c>
+      <c r="Y58" s="40">
+        <f>AVERAGE(I58:L58)</f>
+        <v>217.5</v>
+      </c>
+      <c r="Z58" s="39">
+        <f t="shared" ref="Z58" si="28">Y58-T58</f>
+        <v>2.6999999999999886</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="5" t="str">
+      <c r="B59" s="5" t="str">
         <f>DATA!B61</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C56" s="6">
+      <c r="C59" s="6">
         <f>DATA!C61</f>
         <v>-3</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D59" s="15">
         <f>DATA!D61</f>
         <v>8</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E59" s="6">
         <f>DATA!E61</f>
         <v>2</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F59" s="6">
         <f>DATA!F61</f>
         <v>-13</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G59" s="6">
         <f>DATA!G61</f>
         <v>-22</v>
       </c>
-      <c r="H56" s="6">
+      <c r="H59" s="6">
         <f>DATA!H61</f>
         <v>11</v>
       </c>
-      <c r="I56" s="15">
+      <c r="I59" s="15">
         <f>DATA!I61</f>
         <v>-1</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J59" s="6">
         <f>DATA!J61</f>
         <v>11</v>
       </c>
-      <c r="K56" s="6">
+      <c r="K59" s="6">
         <f>DATA!K61</f>
         <v>3</v>
       </c>
-      <c r="L56" s="6">
+      <c r="L59" s="6">
         <f>DATA!L61</f>
         <v>-13</v>
       </c>
-      <c r="M56" s="19">
+      <c r="M59" s="19">
         <f>DATA!M61</f>
         <v>-217</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="D57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="M57" s="19"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="12" t="s">
+      <c r="N59" s="42"/>
+      <c r="O59" s="15">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="P59" s="27"/>
+      <c r="R59" s="6">
+        <f>MIN(D59:H59)</f>
+        <v>-22</v>
+      </c>
+      <c r="S59" s="6">
+        <f>MAX(D59:H59)</f>
+        <v>11</v>
+      </c>
+      <c r="T59" s="23">
+        <f>AVERAGE(D59:H59)</f>
+        <v>-2.8</v>
+      </c>
+      <c r="U59" s="44"/>
+      <c r="W59" s="6">
+        <f>MIN(I59:L59)</f>
+        <v>-13</v>
+      </c>
+      <c r="X59" s="6">
+        <f>MAX(I59:L59)</f>
+        <v>11</v>
+      </c>
+      <c r="Y59" s="23">
+        <f>AVERAGE(I59:L59)</f>
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" ref="Z59" si="29">Y59-T59</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="D60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="27"/>
+      <c r="U60" s="44"/>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A61" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="20"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="str">
+      <c r="B61" s="7"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="38"/>
+      <c r="P61" s="27"/>
+      <c r="Q61" s="24"/>
+      <c r="R61" s="24"/>
+      <c r="S61" s="24"/>
+      <c r="T61" s="24"/>
+      <c r="U61" s="44"/>
+      <c r="V61" s="24"/>
+      <c r="W61" s="24"/>
+      <c r="X61" s="24"/>
+      <c r="Y61" s="24"/>
+      <c r="Z61" s="24"/>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="str">
         <f>DATA!A52</f>
         <v>REP</v>
       </c>
-      <c r="B59" s="5" t="str">
+      <c r="B62" s="5" t="str">
         <f>DATA!B52</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C59" s="6">
+      <c r="C62" s="6">
         <f>DATA!C52</f>
         <v>221</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D62" s="15">
         <f>DATA!D52</f>
         <v>229</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E62" s="6">
         <f>DATA!E52</f>
         <v>233</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F62" s="6">
         <f>DATA!F52</f>
         <v>202</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G62" s="6">
         <f>DATA!G52</f>
         <v>178</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H62" s="6">
         <f>DATA!H52</f>
         <v>242</v>
       </c>
-      <c r="I59" s="15">
+      <c r="I62" s="15">
         <f>DATA!I52</f>
         <v>234</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J62" s="6">
         <f>DATA!J52</f>
         <v>247</v>
       </c>
-      <c r="K59" s="6">
+      <c r="K62" s="6">
         <f>DATA!K52</f>
         <v>241</v>
       </c>
-      <c r="L59" s="6">
+      <c r="L62" s="6">
         <f>DATA!L52</f>
         <v>199</v>
       </c>
-      <c r="M59" s="19">
+      <c r="M62" s="19">
         <f>DATA!M52</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="str">
+      <c r="N62" s="42"/>
+      <c r="O62" s="15">
+        <f t="shared" si="3"/>
+        <v>221</v>
+      </c>
+      <c r="P62" s="27"/>
+      <c r="R62" s="6">
+        <f>MIN(D62:H62)</f>
+        <v>178</v>
+      </c>
+      <c r="S62" s="6">
+        <f>MAX(D62:H62)</f>
+        <v>242</v>
+      </c>
+      <c r="T62" s="23">
+        <f>AVERAGE(D62:H62)</f>
+        <v>216.8</v>
+      </c>
+      <c r="U62" s="44"/>
+      <c r="W62" s="6">
+        <f t="shared" ref="W62:W64" si="30">MIN(I62:L62)</f>
+        <v>199</v>
+      </c>
+      <c r="X62" s="6">
+        <f t="shared" ref="X62:X64" si="31">MAX(I62:L62)</f>
+        <v>247</v>
+      </c>
+      <c r="Y62" s="23">
+        <f t="shared" ref="Y62:Y64" si="32">AVERAGE(I62:L62)</f>
+        <v>230.25</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" ref="Z62:Z64" si="33">Y62-T62</f>
+        <v>13.449999999999989</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="str">
         <f>DATA!A53</f>
         <v>DEM</v>
       </c>
-      <c r="B60" s="7" t="str">
+      <c r="B63" s="7" t="str">
         <f>DATA!B53</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C60" s="8">
+      <c r="C63" s="8">
         <f>DATA!C53</f>
         <v>212</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D63" s="16">
         <f>DATA!D53</f>
         <v>205</v>
       </c>
-      <c r="E60" s="8">
+      <c r="E63" s="8">
         <f>DATA!E53</f>
         <v>201</v>
       </c>
-      <c r="F60" s="8">
+      <c r="F63" s="8">
         <f>DATA!F53</f>
         <v>233</v>
       </c>
-      <c r="G60" s="8">
+      <c r="G63" s="8">
         <f>DATA!G53</f>
         <v>257</v>
       </c>
-      <c r="H60" s="8">
+      <c r="H63" s="8">
         <f>DATA!H53</f>
         <v>193</v>
       </c>
-      <c r="I60" s="16">
+      <c r="I63" s="16">
         <f>DATA!I53</f>
         <v>201</v>
       </c>
-      <c r="J60" s="8">
+      <c r="J63" s="8">
         <f>DATA!J53</f>
         <v>188</v>
       </c>
-      <c r="K60" s="8">
+      <c r="K63" s="8">
         <f>DATA!K53</f>
         <v>194</v>
       </c>
-      <c r="L60" s="8">
+      <c r="L63" s="8">
         <f>DATA!L53</f>
         <v>235</v>
       </c>
-      <c r="M60" s="20">
+      <c r="M63" s="20">
         <f>DATA!M53</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
+      <c r="N63" s="42"/>
+      <c r="O63" s="16">
+        <f t="shared" si="3"/>
+        <v>212</v>
+      </c>
+      <c r="P63" s="27"/>
+      <c r="Q63" s="24"/>
+      <c r="R63" s="8">
+        <f>MIN(D63:H63)</f>
+        <v>193</v>
+      </c>
+      <c r="S63" s="8">
+        <f>MAX(D63:H63)</f>
+        <v>257</v>
+      </c>
+      <c r="T63" s="25">
+        <f>AVERAGE(D63:H63)</f>
+        <v>217.8</v>
+      </c>
+      <c r="U63" s="44"/>
+      <c r="V63" s="24"/>
+      <c r="W63" s="8">
+        <f t="shared" si="30"/>
+        <v>188</v>
+      </c>
+      <c r="X63" s="8">
+        <f t="shared" si="31"/>
+        <v>235</v>
+      </c>
+      <c r="Y63" s="25">
+        <f t="shared" si="32"/>
+        <v>204.5</v>
+      </c>
+      <c r="Z63" s="24">
+        <f t="shared" si="33"/>
+        <v>-13.300000000000011</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B61" s="5" t="str">
+      <c r="B64" s="5" t="str">
         <f>DATA!B62</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C61" s="6">
+      <c r="C64" s="6">
         <f>DATA!C62</f>
         <v>3</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D64" s="15">
         <f>DATA!D62</f>
         <v>11</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E64" s="6">
         <f>DATA!E62</f>
         <v>15</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F64" s="6">
         <f>DATA!F62</f>
         <v>-15</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G64" s="6">
         <f>DATA!G62</f>
         <v>-39</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H64" s="6">
         <f>DATA!H62</f>
         <v>24</v>
       </c>
-      <c r="I61" s="15">
+      <c r="I64" s="15">
         <f>DATA!I62</f>
         <v>16</v>
       </c>
-      <c r="J61" s="6">
+      <c r="J64" s="6">
         <f>DATA!J62</f>
         <v>29</v>
       </c>
-      <c r="K61" s="6">
+      <c r="K64" s="6">
         <f>DATA!K62</f>
         <v>23</v>
       </c>
-      <c r="L61" s="6">
+      <c r="L64" s="6">
         <f>DATA!L62</f>
         <v>-17</v>
       </c>
-      <c r="M61" s="19">
+      <c r="M64" s="19">
         <f>DATA!M62</f>
         <v>218</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="D62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="M62" s="19"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="12" t="s">
+      <c r="N64" s="42"/>
+      <c r="O64" s="15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="P64" s="27"/>
+      <c r="R64" s="6">
+        <f>MIN(D64:H64)</f>
+        <v>-39</v>
+      </c>
+      <c r="S64" s="6">
+        <f>MAX(D64:H64)</f>
+        <v>24</v>
+      </c>
+      <c r="T64" s="23">
+        <f>AVERAGE(D64:H64)</f>
+        <v>-0.8</v>
+      </c>
+      <c r="U64" s="44"/>
+      <c r="W64" s="6">
+        <f t="shared" si="30"/>
+        <v>-17</v>
+      </c>
+      <c r="X64" s="6">
+        <f t="shared" si="31"/>
+        <v>29</v>
+      </c>
+      <c r="Y64" s="23">
+        <f t="shared" si="32"/>
+        <v>12.75</v>
+      </c>
+      <c r="Z64">
+        <f t="shared" si="33"/>
+        <v>13.55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="D65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="42"/>
+      <c r="O65" s="29"/>
+      <c r="P65" s="27"/>
+      <c r="U65" s="44"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A66" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="20"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
+      <c r="B66" s="7"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="42"/>
+      <c r="O66" s="38"/>
+      <c r="P66" s="27"/>
+      <c r="Q66" s="24"/>
+      <c r="R66" s="24"/>
+      <c r="S66" s="24"/>
+      <c r="T66" s="24"/>
+      <c r="U66" s="44"/>
+      <c r="V66" s="24"/>
+      <c r="W66" s="24"/>
+      <c r="X66" s="24"/>
+      <c r="Y66" s="24"/>
+      <c r="Z66" s="24"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B64" s="5" t="str">
+      <c r="B67" s="5" t="str">
         <f>DATA!B56</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C64" s="6">
+      <c r="C67" s="6">
         <f>DATA!C56</f>
         <v>24</v>
       </c>
-      <c r="D64" s="15">
+      <c r="D67" s="15">
         <f>DATA!D56</f>
         <v>25</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E67" s="6">
         <f>DATA!E56</f>
         <v>30</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F67" s="6">
         <f>DATA!F56</f>
         <v>22</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G67" s="6">
         <f>DATA!G56</f>
         <v>15</v>
       </c>
-      <c r="H64" s="6">
+      <c r="H67" s="6">
         <f>DATA!H56</f>
         <v>34</v>
       </c>
-      <c r="I64" s="15">
+      <c r="I67" s="15">
         <f>DATA!I56</f>
         <v>43</v>
       </c>
-      <c r="J64" s="6">
+      <c r="J67" s="6">
         <f>DATA!J56</f>
         <v>42</v>
       </c>
-      <c r="K64" s="6">
+      <c r="K67" s="6">
         <f>DATA!K56</f>
         <v>41</v>
       </c>
-      <c r="L64" s="6">
+      <c r="L67" s="6">
         <f>DATA!L56</f>
         <v>33</v>
       </c>
-      <c r="M64" s="19">
+      <c r="M67" s="19">
         <f>DATA!M56</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
+      <c r="N67" s="42"/>
+      <c r="O67" s="15">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="P67" s="27"/>
+      <c r="R67" s="6">
+        <f>MIN(D67:H67)</f>
+        <v>15</v>
+      </c>
+      <c r="S67" s="6">
+        <f>MAX(D67:H67)</f>
+        <v>34</v>
+      </c>
+      <c r="T67" s="23">
+        <f>AVERAGE(D67:H67)</f>
+        <v>25.2</v>
+      </c>
+      <c r="U67" s="44"/>
+      <c r="W67" s="6">
+        <f t="shared" ref="W67:W69" si="34">MIN(I67:L67)</f>
+        <v>33</v>
+      </c>
+      <c r="X67" s="6">
+        <f t="shared" ref="X67:X69" si="35">MAX(I67:L67)</f>
+        <v>43</v>
+      </c>
+      <c r="Y67" s="23">
+        <f t="shared" ref="Y67:Y69" si="36">AVERAGE(I67:L67)</f>
+        <v>39.75</v>
+      </c>
+      <c r="Z67">
+        <f t="shared" ref="Z67:Z69" si="37">Y67-T67</f>
+        <v>14.55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B65" s="7" t="str">
+      <c r="B68" s="7" t="str">
         <f>DATA!B57</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C65" s="8">
+      <c r="C68" s="8">
         <f>DATA!C57</f>
         <v>-17</v>
       </c>
-      <c r="D65" s="16">
+      <c r="D68" s="16">
         <f>DATA!D57</f>
         <v>-22</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E68" s="8">
         <f>DATA!E57</f>
         <v>-17</v>
       </c>
-      <c r="F65" s="8">
+      <c r="F68" s="8">
         <f>DATA!F57</f>
         <v>-24</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G68" s="8">
         <f>DATA!G57</f>
         <v>-32</v>
       </c>
-      <c r="H65" s="8">
+      <c r="H68" s="8">
         <f>DATA!H57</f>
         <v>-21</v>
       </c>
-      <c r="I65" s="16">
+      <c r="I68" s="16">
         <f>DATA!I57</f>
         <v>-25</v>
       </c>
-      <c r="J65" s="8">
+      <c r="J68" s="8">
         <f>DATA!J57</f>
         <v>-24</v>
       </c>
-      <c r="K65" s="8">
+      <c r="K68" s="8">
         <f>DATA!K57</f>
         <v>-21</v>
       </c>
-      <c r="L65" s="8">
+      <c r="L68" s="8">
         <f>DATA!L57</f>
         <v>-38</v>
       </c>
-      <c r="M65" s="20">
+      <c r="M68" s="20">
         <f>DATA!M57</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
+      <c r="N68" s="42"/>
+      <c r="O68" s="16">
+        <f t="shared" si="3"/>
+        <v>-17</v>
+      </c>
+      <c r="P68" s="27"/>
+      <c r="Q68" s="24"/>
+      <c r="R68" s="8">
+        <f>MIN(D68:H68)</f>
+        <v>-32</v>
+      </c>
+      <c r="S68" s="8">
+        <f>MAX(D68:H68)</f>
+        <v>-17</v>
+      </c>
+      <c r="T68" s="25">
+        <f>AVERAGE(D68:H68)</f>
+        <v>-23.2</v>
+      </c>
+      <c r="U68" s="44"/>
+      <c r="V68" s="24"/>
+      <c r="W68" s="8">
+        <f t="shared" si="34"/>
+        <v>-38</v>
+      </c>
+      <c r="X68" s="8">
+        <f t="shared" si="35"/>
+        <v>-21</v>
+      </c>
+      <c r="Y68" s="25">
+        <f t="shared" si="36"/>
+        <v>-27</v>
+      </c>
+      <c r="Z68" s="24">
+        <f t="shared" si="37"/>
+        <v>-3.8000000000000007</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B66" s="5" t="str">
+      <c r="B69" s="5" t="str">
         <f>DATA!B58</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C66" s="6">
+      <c r="C69" s="6">
         <f>DATA!C58</f>
         <v>7</v>
       </c>
-      <c r="D66" s="15">
+      <c r="D69" s="15">
         <f>DATA!D58</f>
         <v>3</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E69" s="6">
         <f>DATA!E58</f>
         <v>13</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F69" s="6">
         <f>DATA!F58</f>
         <v>-2</v>
       </c>
-      <c r="G66" s="6">
+      <c r="G69" s="6">
         <f>DATA!G58</f>
         <v>-17</v>
       </c>
-      <c r="H66" s="6">
+      <c r="H69" s="6">
         <f>DATA!H58</f>
         <v>13</v>
       </c>
-      <c r="I66" s="15">
+      <c r="I69" s="15">
         <f>DATA!I58</f>
         <v>18</v>
       </c>
-      <c r="J66" s="6">
+      <c r="J69" s="6">
         <f>DATA!J58</f>
         <v>18</v>
       </c>
-      <c r="K66" s="6">
+      <c r="K69" s="6">
         <f>DATA!K58</f>
         <v>20</v>
       </c>
-      <c r="L66" s="6">
+      <c r="L69" s="6">
         <f>DATA!L58</f>
         <v>-5</v>
       </c>
-      <c r="M66" s="19">
+      <c r="M69" s="19">
         <f>DATA!M58</f>
         <v>0</v>
       </c>
+      <c r="N69" s="42"/>
+      <c r="O69" s="15">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="P69" s="27"/>
+      <c r="R69" s="6">
+        <f>MIN(D69:H69)</f>
+        <v>-17</v>
+      </c>
+      <c r="S69" s="6">
+        <f>MAX(D69:H69)</f>
+        <v>13</v>
+      </c>
+      <c r="T69" s="23">
+        <f>AVERAGE(D69:H69)</f>
+        <v>2</v>
+      </c>
+      <c r="U69" s="44"/>
+      <c r="W69" s="6">
+        <f t="shared" si="34"/>
+        <v>-5</v>
+      </c>
+      <c r="X69" s="6">
+        <f t="shared" si="35"/>
+        <v>20</v>
+      </c>
+      <c r="Y69" s="23">
+        <f t="shared" si="36"/>
+        <v>12.75</v>
+      </c>
+      <c r="Z69">
+        <f t="shared" si="37"/>
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="U70" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" negative="1" xr2:uid="{71E158C0-A3AD-A341-B4E5-0D57479B057A}">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FF00B0F0"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Analysis!D2:H2</xm:f>
+              <xm:sqref>Q2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D3:H3</xm:f>
+              <xm:sqref>Q3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D4:H4</xm:f>
+              <xm:sqref>Q4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D5:H5</xm:f>
+              <xm:sqref>Q5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D6:H6</xm:f>
+              <xm:sqref>Q6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D7:H7</xm:f>
+              <xm:sqref>Q7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D8:H8</xm:f>
+              <xm:sqref>Q8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D9:H9</xm:f>
+              <xm:sqref>Q9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D10:H10</xm:f>
+              <xm:sqref>Q10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D11:H11</xm:f>
+              <xm:sqref>Q11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D12:H12</xm:f>
+              <xm:sqref>Q12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D13:H13</xm:f>
+              <xm:sqref>Q13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D14:H14</xm:f>
+              <xm:sqref>Q14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D15:H15</xm:f>
+              <xm:sqref>Q15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D16:H16</xm:f>
+              <xm:sqref>Q16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D17:H17</xm:f>
+              <xm:sqref>Q17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D18:H18</xm:f>
+              <xm:sqref>Q18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D19:H19</xm:f>
+              <xm:sqref>Q19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D20:H20</xm:f>
+              <xm:sqref>Q20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D21:H21</xm:f>
+              <xm:sqref>Q21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D22:H22</xm:f>
+              <xm:sqref>Q22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D23:H23</xm:f>
+              <xm:sqref>Q23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D24:H24</xm:f>
+              <xm:sqref>Q24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D25:H25</xm:f>
+              <xm:sqref>Q25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D26:H26</xm:f>
+              <xm:sqref>Q26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D27:H27</xm:f>
+              <xm:sqref>Q27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D28:H28</xm:f>
+              <xm:sqref>Q28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D29:H29</xm:f>
+              <xm:sqref>Q29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D30:H30</xm:f>
+              <xm:sqref>Q30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D31:H31</xm:f>
+              <xm:sqref>Q31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D32:H32</xm:f>
+              <xm:sqref>Q32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D33:H33</xm:f>
+              <xm:sqref>Q33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D34:H34</xm:f>
+              <xm:sqref>Q34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D35:H35</xm:f>
+              <xm:sqref>Q35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D36:H36</xm:f>
+              <xm:sqref>Q36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D37:H37</xm:f>
+              <xm:sqref>Q37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D38:H38</xm:f>
+              <xm:sqref>Q38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D39:H39</xm:f>
+              <xm:sqref>Q39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D40:H40</xm:f>
+              <xm:sqref>Q40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D41:H41</xm:f>
+              <xm:sqref>Q41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D42:H42</xm:f>
+              <xm:sqref>Q42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D43:H43</xm:f>
+              <xm:sqref>Q43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D44:H44</xm:f>
+              <xm:sqref>Q44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D45:H45</xm:f>
+              <xm:sqref>Q45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D46:H46</xm:f>
+              <xm:sqref>Q46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D47:H47</xm:f>
+              <xm:sqref>Q47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D48:H48</xm:f>
+              <xm:sqref>Q48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D49:H49</xm:f>
+              <xm:sqref>Q49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D50:H50</xm:f>
+              <xm:sqref>Q50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D51:H51</xm:f>
+              <xm:sqref>Q51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D58:H58</xm:f>
+              <xm:sqref>Q58</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D59:H59</xm:f>
+              <xm:sqref>Q59</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D62:H62</xm:f>
+              <xm:sqref>Q62</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D63:H63</xm:f>
+              <xm:sqref>Q63</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D64:H64</xm:f>
+              <xm:sqref>Q64</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D67:H67</xm:f>
+              <xm:sqref>Q67</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D68:H68</xm:f>
+              <xm:sqref>Q68</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D69:H69</xm:f>
+              <xm:sqref>Q69</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D52:H52</xm:f>
+              <xm:sqref>Q52</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" negative="1" xr2:uid="{B55D22CA-BED6-1041-8D4E-184E8B90A5CE}">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FF00B0F0"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Analysis!I2:M2</xm:f>
+              <xm:sqref>V2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I3:M3</xm:f>
+              <xm:sqref>V3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I4:M4</xm:f>
+              <xm:sqref>V4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I5:M5</xm:f>
+              <xm:sqref>V5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I6:M6</xm:f>
+              <xm:sqref>V6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I7:M7</xm:f>
+              <xm:sqref>V7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I8:M8</xm:f>
+              <xm:sqref>V8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I9:M9</xm:f>
+              <xm:sqref>V9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I10:M10</xm:f>
+              <xm:sqref>V10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I11:M11</xm:f>
+              <xm:sqref>V11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I12:M12</xm:f>
+              <xm:sqref>V12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I13:M13</xm:f>
+              <xm:sqref>V13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I14:M14</xm:f>
+              <xm:sqref>V14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I15:M15</xm:f>
+              <xm:sqref>V15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I16:M16</xm:f>
+              <xm:sqref>V16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I17:M17</xm:f>
+              <xm:sqref>V17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I18:M18</xm:f>
+              <xm:sqref>V18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I19:M19</xm:f>
+              <xm:sqref>V19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I20:M20</xm:f>
+              <xm:sqref>V20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I21:M21</xm:f>
+              <xm:sqref>V21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I22:M22</xm:f>
+              <xm:sqref>V22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I23:M23</xm:f>
+              <xm:sqref>V23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I24:M24</xm:f>
+              <xm:sqref>V24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I25:M25</xm:f>
+              <xm:sqref>V25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I26:M26</xm:f>
+              <xm:sqref>V26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I27:M27</xm:f>
+              <xm:sqref>V27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I28:M28</xm:f>
+              <xm:sqref>V28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I29:M29</xm:f>
+              <xm:sqref>V29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I30:M30</xm:f>
+              <xm:sqref>V30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I31:M31</xm:f>
+              <xm:sqref>V31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I32:M32</xm:f>
+              <xm:sqref>V32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I33:M33</xm:f>
+              <xm:sqref>V33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I34:M34</xm:f>
+              <xm:sqref>V34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I35:M35</xm:f>
+              <xm:sqref>V35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I36:M36</xm:f>
+              <xm:sqref>V36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I37:M37</xm:f>
+              <xm:sqref>V37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I38:M38</xm:f>
+              <xm:sqref>V38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I39:M39</xm:f>
+              <xm:sqref>V39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I40:M40</xm:f>
+              <xm:sqref>V40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I41:M41</xm:f>
+              <xm:sqref>V41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I42:M42</xm:f>
+              <xm:sqref>V42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I43:M43</xm:f>
+              <xm:sqref>V43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I44:M44</xm:f>
+              <xm:sqref>V44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I45:M45</xm:f>
+              <xm:sqref>V45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I46:M46</xm:f>
+              <xm:sqref>V46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I47:M47</xm:f>
+              <xm:sqref>V47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I48:M48</xm:f>
+              <xm:sqref>V48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I49:M49</xm:f>
+              <xm:sqref>V49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I50:M50</xm:f>
+              <xm:sqref>V50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I51:M51</xm:f>
+              <xm:sqref>V51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I58:M58</xm:f>
+              <xm:sqref>V58</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I59:M59</xm:f>
+              <xm:sqref>V59</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I62:M62</xm:f>
+              <xm:sqref>V62</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I63:M63</xm:f>
+              <xm:sqref>V63</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I64:M64</xm:f>
+              <xm:sqref>V64</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I67:M67</xm:f>
+              <xm:sqref>V67</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I68:M68</xm:f>
+              <xm:sqref>V68</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I69:M69</xm:f>
+              <xm:sqref>V69</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I52:M52</xm:f>
+              <xm:sqref>V52</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data/analysis/pivot-by-state.xlsx
+++ b/data/analysis/pivot-by-state.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11222"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/ushouse/data/analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145C3806-9DE7-A641-A559-077DD7FF41BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3999A2AD-469B-8F4F-8D95-B943D491AC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="500" windowWidth="27720" windowHeight="17500" activeTab="1" xr2:uid="{243A2677-B725-5B4A-8946-B944A46BAF00}"/>
+    <workbookView xWindow="1200" yWindow="500" windowWidth="27600" windowHeight="17500" activeTab="1" xr2:uid="{243A2677-B725-5B4A-8946-B944A46BAF00}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="138">
   <si>
     <t>XX</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Alabama</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> None</t>
   </si>
   <si>
     <t>AK</t>
@@ -530,7 +527,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -546,12 +543,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,10 +738,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1072,10 +1063,10 @@
   <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q40" sqref="Q40"/>
+      <selection pane="bottomRight" activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1165,17 +1156,17 @@
       <c r="L2" s="2">
         <v>2</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>4</v>
+      <c r="M2" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
@@ -1206,17 +1197,17 @@
       <c r="L3" s="2">
         <v>0</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>4</v>
+      <c r="M3" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" s="2">
         <v>-1</v>
       </c>
@@ -1247,16 +1238,16 @@
       <c r="L4" s="2">
         <v>1</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>4</v>
+      <c r="M4" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="C5" s="2">
         <v>-3</v>
@@ -1288,17 +1279,17 @@
       <c r="L5" s="2">
         <v>-12</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>4</v>
+      <c r="M5" s="2">
+        <v>-9</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
@@ -1329,16 +1320,16 @@
       <c r="L6" s="2">
         <v>0</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>4</v>
+      <c r="M6" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -1370,16 +1361,16 @@
       <c r="L7" s="2">
         <v>-2</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>4</v>
+      <c r="M7" s="2">
+        <v>-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -1411,17 +1402,17 @@
       <c r="L8" s="2">
         <v>0</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>4</v>
+      <c r="M8" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="C9" s="2">
         <v>1</v>
       </c>
@@ -1452,17 +1443,17 @@
       <c r="L9" s="2">
         <v>2</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>4</v>
+      <c r="M9" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="C10" s="2">
         <v>-1</v>
       </c>
@@ -1493,17 +1484,17 @@
       <c r="L10" s="2">
         <v>0</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>4</v>
+      <c r="M10" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
@@ -1534,16 +1525,16 @@
       <c r="L11" s="2">
         <v>1</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>4</v>
+      <c r="M11" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -1575,17 +1566,17 @@
       <c r="L12" s="2">
         <v>-2</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>4</v>
+      <c r="M12" s="2">
+        <v>-3</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
@@ -1616,17 +1607,17 @@
       <c r="L13" s="2">
         <v>2</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>4</v>
+      <c r="M13" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="C14" s="2">
         <v>1</v>
       </c>
@@ -1657,17 +1648,17 @@
       <c r="L14" s="2">
         <v>-1</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>4</v>
+      <c r="M14" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="C15" s="2">
         <v>0</v>
       </c>
@@ -1698,17 +1689,17 @@
       <c r="L15" s="2">
         <v>1</v>
       </c>
-      <c r="M15" s="2" t="s">
-        <v>4</v>
+      <c r="M15" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="C16" s="2">
         <v>2</v>
       </c>
@@ -1739,17 +1730,17 @@
       <c r="L16" s="2">
         <v>1</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>4</v>
+      <c r="M16" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
@@ -1780,17 +1771,17 @@
       <c r="L17" s="2">
         <v>1</v>
       </c>
-      <c r="M17" s="2" t="s">
-        <v>4</v>
+      <c r="M17" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="C18" s="2">
         <v>-1</v>
       </c>
@@ -1821,16 +1812,16 @@
       <c r="L18" s="2">
         <v>-1</v>
       </c>
-      <c r="M18" s="2" t="s">
-        <v>4</v>
+      <c r="M18" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -1862,16 +1853,16 @@
       <c r="L19" s="2">
         <v>-2</v>
       </c>
-      <c r="M19" s="2" t="s">
-        <v>4</v>
+      <c r="M19" s="2">
+        <v>-2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="C20" s="2">
         <v>-3</v>
@@ -1903,17 +1894,17 @@
       <c r="L20" s="2">
         <v>-3</v>
       </c>
-      <c r="M20" s="2" t="s">
-        <v>4</v>
+      <c r="M20" s="2">
+        <v>-5</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="C21" s="2">
         <v>0</v>
       </c>
@@ -1944,17 +1935,17 @@
       <c r="L21" s="2">
         <v>0</v>
       </c>
-      <c r="M21" s="2" t="s">
-        <v>4</v>
+      <c r="M21" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="C22" s="2">
         <v>-1</v>
       </c>
@@ -1985,17 +1976,17 @@
       <c r="L22" s="2">
         <v>-1</v>
       </c>
-      <c r="M22" s="2" t="s">
-        <v>4</v>
+      <c r="M22" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="C23" s="2">
         <v>0</v>
       </c>
@@ -2026,17 +2017,17 @@
       <c r="L23" s="2">
         <v>1</v>
       </c>
-      <c r="M23" s="2" t="s">
-        <v>4</v>
+      <c r="M23" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="C24" s="2">
         <v>1</v>
       </c>
@@ -2067,17 +2058,17 @@
       <c r="L24" s="2">
         <v>1</v>
       </c>
-      <c r="M24" s="2" t="s">
-        <v>4</v>
+      <c r="M24" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="C25" s="2">
         <v>1</v>
       </c>
@@ -2108,17 +2099,17 @@
       <c r="L25" s="2">
         <v>1</v>
       </c>
-      <c r="M25" s="2" t="s">
-        <v>4</v>
+      <c r="M25" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="C26" s="2">
         <v>0</v>
       </c>
@@ -2149,17 +2140,17 @@
       <c r="L26" s="2">
         <v>-1</v>
       </c>
-      <c r="M26" s="2" t="s">
-        <v>4</v>
+      <c r="M26" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="C27" s="2">
         <v>1</v>
       </c>
@@ -2190,16 +2181,16 @@
       <c r="L27" s="2">
         <v>-1</v>
       </c>
-      <c r="M27" s="2" t="s">
-        <v>4</v>
+      <c r="M27" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
@@ -2231,17 +2222,17 @@
       <c r="L28" s="2">
         <v>-4</v>
       </c>
-      <c r="M28" s="2" t="s">
-        <v>4</v>
+      <c r="M28" s="2">
+        <v>-3</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="C29" s="2">
         <v>1</v>
       </c>
@@ -2272,16 +2263,16 @@
       <c r="L29" s="2">
         <v>-1</v>
       </c>
-      <c r="M29" s="2" t="s">
-        <v>4</v>
+      <c r="M29" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="C30" s="2">
         <v>-1</v>
@@ -2313,16 +2304,16 @@
       <c r="L30" s="2">
         <v>-3</v>
       </c>
-      <c r="M30" s="2" t="s">
-        <v>4</v>
+      <c r="M30" s="2">
+        <v>-2</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -2354,16 +2345,16 @@
       <c r="L31" s="2">
         <v>3</v>
       </c>
-      <c r="M31" s="2" t="s">
-        <v>4</v>
+      <c r="M31" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -2395,17 +2386,17 @@
       <c r="L32" s="2">
         <v>4</v>
       </c>
-      <c r="M32" s="2" t="s">
-        <v>4</v>
+      <c r="M32" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="C33" s="2">
         <v>1</v>
       </c>
@@ -2436,17 +2427,17 @@
       <c r="L33" s="2">
         <v>1</v>
       </c>
-      <c r="M33" s="2" t="s">
-        <v>4</v>
+      <c r="M33" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="C34" s="2">
         <v>-1</v>
       </c>
@@ -2477,16 +2468,16 @@
       <c r="L34" s="2">
         <v>-1</v>
       </c>
-      <c r="M34" s="2" t="s">
-        <v>4</v>
+      <c r="M34" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -2518,17 +2509,17 @@
       <c r="L35" s="2">
         <v>1</v>
       </c>
-      <c r="M35" s="2" t="s">
-        <v>4</v>
+      <c r="M35" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="C36" s="2">
         <v>-1</v>
       </c>
@@ -2559,17 +2550,17 @@
       <c r="L36" s="2">
         <v>-1</v>
       </c>
-      <c r="M36" s="2" t="s">
-        <v>4</v>
+      <c r="M36" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="C37" s="2">
         <v>1</v>
       </c>
@@ -2600,17 +2591,17 @@
       <c r="L37" s="2">
         <v>1</v>
       </c>
-      <c r="M37" s="2" t="s">
-        <v>4</v>
+      <c r="M37" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="C38" s="2">
         <v>1</v>
       </c>
@@ -2641,16 +2632,16 @@
       <c r="L38" s="2">
         <v>2</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>4</v>
+      <c r="M38" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="C39" s="2">
         <v>-2</v>
@@ -2682,17 +2673,17 @@
       <c r="L39" s="2">
         <v>4</v>
       </c>
-      <c r="M39" s="2" t="s">
-        <v>4</v>
+      <c r="M39" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="C40" s="2">
         <v>0</v>
       </c>
@@ -2723,16 +2714,16 @@
       <c r="L40" s="2">
         <v>1</v>
       </c>
-      <c r="M40" s="2" t="s">
-        <v>4</v>
+      <c r="M40" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -2764,17 +2755,17 @@
       <c r="L41" s="2">
         <v>-1</v>
       </c>
-      <c r="M41" s="2" t="s">
-        <v>4</v>
+      <c r="M41" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="C42" s="2">
         <v>-1</v>
       </c>
@@ -2805,17 +2796,17 @@
       <c r="L42" s="2">
         <v>-1</v>
       </c>
-      <c r="M42" s="2" t="s">
-        <v>4</v>
+      <c r="M42" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="C43" s="2">
         <v>0</v>
       </c>
@@ -2846,17 +2837,17 @@
       <c r="L43" s="2">
         <v>1</v>
       </c>
-      <c r="M43" s="2" t="s">
-        <v>4</v>
+      <c r="M43" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="C44" s="2">
         <v>-1</v>
       </c>
@@ -2887,17 +2878,17 @@
       <c r="L44" s="2">
         <v>1</v>
       </c>
-      <c r="M44" s="2" t="s">
-        <v>4</v>
+      <c r="M44" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="C45" s="2">
         <v>1</v>
       </c>
@@ -2928,17 +2919,17 @@
       <c r="L45" s="2">
         <v>1</v>
       </c>
-      <c r="M45" s="2" t="s">
-        <v>4</v>
+      <c r="M45" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="C46" s="2">
         <v>1</v>
       </c>
@@ -2969,17 +2960,17 @@
       <c r="L46" s="2">
         <v>-1</v>
       </c>
-      <c r="M46" s="2" t="s">
-        <v>4</v>
+      <c r="M46" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="C47" s="2">
         <v>1</v>
       </c>
@@ -3010,17 +3001,17 @@
       <c r="L47" s="2">
         <v>1</v>
       </c>
-      <c r="M47" s="2" t="s">
-        <v>4</v>
+      <c r="M47" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="C48" s="2">
         <v>-1</v>
       </c>
@@ -3051,17 +3042,17 @@
       <c r="L48" s="2">
         <v>1</v>
       </c>
-      <c r="M48" s="2" t="s">
-        <v>4</v>
+      <c r="M48" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="C49" s="2">
         <v>1</v>
       </c>
@@ -3092,17 +3083,17 @@
       <c r="L49" s="2">
         <v>1</v>
       </c>
-      <c r="M49" s="2" t="s">
-        <v>4</v>
+      <c r="M49" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="C50" s="2">
         <v>0</v>
       </c>
@@ -3133,17 +3124,17 @@
       <c r="L50" s="2">
         <v>-1</v>
       </c>
-      <c r="M50" s="2" t="s">
-        <v>4</v>
+      <c r="M50" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="C51" s="2">
         <v>1</v>
       </c>
@@ -3174,16 +3165,16 @@
       <c r="L51" s="2">
         <v>1</v>
       </c>
-      <c r="M51" s="2" t="s">
-        <v>4</v>
+      <c r="M51" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="C52" s="2">
         <v>221</v>
@@ -3216,15 +3207,15 @@
         <v>199</v>
       </c>
       <c r="M52" s="2">
-        <v>0</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C53" s="2">
         <v>212</v>
@@ -3257,15 +3248,15 @@
         <v>235</v>
       </c>
       <c r="M53" s="2">
-        <v>0</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C54" s="2">
         <v>2</v>
@@ -3303,10 +3294,10 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C55" s="2">
         <v>435</v>
@@ -3339,15 +3330,15 @@
         <v>435</v>
       </c>
       <c r="M55" s="2">
-        <v>0</v>
+        <v>435</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C56" s="2">
         <v>24</v>
@@ -3380,15 +3371,15 @@
         <v>33</v>
       </c>
       <c r="M56" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C57" s="2">
         <v>-17</v>
@@ -3421,15 +3412,15 @@
         <v>-38</v>
       </c>
       <c r="M57" s="2">
-        <v>0</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C58" s="2">
         <v>7</v>
@@ -3462,15 +3453,15 @@
         <v>-5</v>
       </c>
       <c r="M58" s="2">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C59" s="2">
         <v>214</v>
@@ -3503,15 +3494,15 @@
         <v>204</v>
       </c>
       <c r="M59" s="2">
-        <v>0</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C60" s="2">
         <v>221</v>
@@ -3544,15 +3535,15 @@
         <v>231</v>
       </c>
       <c r="M60" s="2">
-        <v>435</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C61" s="2">
         <v>-3</v>
@@ -3585,15 +3576,15 @@
         <v>-13</v>
       </c>
       <c r="M61" s="2">
-        <v>-217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C62" s="2">
         <v>3</v>
@@ -3626,7 +3617,7 @@
         <v>-17</v>
       </c>
       <c r="M62" s="2">
-        <v>218</v>
+        <v>-4</v>
       </c>
     </row>
   </sheetData>
@@ -3639,10 +3630,10 @@
   <dimension ref="A1:AB70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA55" sqref="AA52:AA55"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2:M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3721,32 +3712,32 @@
       </c>
       <c r="P1" s="26"/>
       <c r="Q1" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R1" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="S1" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="T1" s="22" t="s">
         <v>123</v>
-      </c>
-      <c r="T1" s="22" t="s">
-        <v>124</v>
       </c>
       <c r="U1" s="26"/>
       <c r="V1" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="W1" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="X1" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y1" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z1" s="22" t="s">
         <v>126</v>
-      </c>
-      <c r="W1" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="X1" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y1" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z1" s="22" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
@@ -3798,9 +3789,9 @@
         <f>DATA!L2</f>
         <v>2</v>
       </c>
-      <c r="M2" s="49" t="str">
+      <c r="M2" s="50">
         <f>DATA!M2</f>
-        <v xml:space="preserve"> None</v>
+        <v>1</v>
       </c>
       <c r="N2" s="42"/>
       <c r="O2" s="15">
@@ -3891,9 +3882,9 @@
         <f>DATA!L3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="49" t="str">
+      <c r="M3" s="50">
         <f>DATA!M3</f>
-        <v xml:space="preserve"> None</v>
+        <v>-1</v>
       </c>
       <c r="N3" s="42"/>
       <c r="O3" s="15">
@@ -3935,7 +3926,7 @@
         <v/>
       </c>
       <c r="AB3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
@@ -3987,9 +3978,9 @@
         <f>DATA!L4</f>
         <v>1</v>
       </c>
-      <c r="M4" s="49" t="str">
+      <c r="M4" s="50">
         <f>DATA!M4</f>
-        <v xml:space="preserve"> None</v>
+        <v>1</v>
       </c>
       <c r="N4" s="42"/>
       <c r="O4" s="15">
@@ -4080,9 +4071,9 @@
         <f>DATA!L5</f>
         <v>-12</v>
       </c>
-      <c r="M5" s="49" t="str">
+      <c r="M5" s="50">
         <f>DATA!M5</f>
-        <v xml:space="preserve"> None</v>
+        <v>-9</v>
       </c>
       <c r="N5" s="42"/>
       <c r="O5" s="15">
@@ -4173,9 +4164,9 @@
         <f>DATA!L6</f>
         <v>0</v>
       </c>
-      <c r="M6" s="49" t="str">
+      <c r="M6" s="50">
         <f>DATA!M6</f>
-        <v xml:space="preserve"> None</v>
+        <v>0</v>
       </c>
       <c r="N6" s="42"/>
       <c r="O6" s="15">
@@ -4217,7 +4208,7 @@
         <v/>
       </c>
       <c r="AB6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
@@ -4269,9 +4260,9 @@
         <f>DATA!L7</f>
         <v>-2</v>
       </c>
-      <c r="M7" s="49" t="str">
+      <c r="M7" s="50">
         <f>DATA!M7</f>
-        <v xml:space="preserve"> None</v>
+        <v>-2</v>
       </c>
       <c r="N7" s="42"/>
       <c r="O7" s="15">
@@ -4362,9 +4353,9 @@
         <f>DATA!L8</f>
         <v>0</v>
       </c>
-      <c r="M8" s="49" t="str">
+      <c r="M8" s="50">
         <f>DATA!M8</f>
-        <v xml:space="preserve"> None</v>
+        <v>2</v>
       </c>
       <c r="N8" s="42"/>
       <c r="O8" s="15">
@@ -4406,7 +4397,7 @@
         <v/>
       </c>
       <c r="AB8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
@@ -4458,9 +4449,9 @@
         <f>DATA!L9</f>
         <v>2</v>
       </c>
-      <c r="M9" s="49" t="str">
+      <c r="M9" s="50">
         <f>DATA!M9</f>
-        <v xml:space="preserve"> None</v>
+        <v>1</v>
       </c>
       <c r="N9" s="42"/>
       <c r="O9" s="15">
@@ -4551,9 +4542,9 @@
         <f>DATA!L10</f>
         <v>0</v>
       </c>
-      <c r="M10" s="49" t="str">
+      <c r="M10" s="50">
         <f>DATA!M10</f>
-        <v xml:space="preserve"> None</v>
+        <v>-1</v>
       </c>
       <c r="N10" s="42"/>
       <c r="O10" s="15">
@@ -4595,7 +4586,7 @@
         <v/>
       </c>
       <c r="AB10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
@@ -4647,9 +4638,9 @@
         <f>DATA!L11</f>
         <v>1</v>
       </c>
-      <c r="M11" s="49" t="str">
+      <c r="M11" s="50">
         <f>DATA!M11</f>
-        <v xml:space="preserve"> None</v>
+        <v>1</v>
       </c>
       <c r="N11" s="42"/>
       <c r="O11" s="15">
@@ -4740,9 +4731,9 @@
         <f>DATA!L12</f>
         <v>-2</v>
       </c>
-      <c r="M12" s="49" t="str">
+      <c r="M12" s="50">
         <f>DATA!M12</f>
-        <v xml:space="preserve"> None</v>
+        <v>-3</v>
       </c>
       <c r="N12" s="42"/>
       <c r="O12" s="15">
@@ -4833,9 +4824,9 @@
         <f>DATA!L13</f>
         <v>2</v>
       </c>
-      <c r="M13" s="49" t="str">
+      <c r="M13" s="50">
         <f>DATA!M13</f>
-        <v xml:space="preserve"> None</v>
+        <v>2</v>
       </c>
       <c r="N13" s="42"/>
       <c r="O13" s="15">
@@ -4926,9 +4917,9 @@
         <f>DATA!L14</f>
         <v>-1</v>
       </c>
-      <c r="M14" s="49" t="str">
+      <c r="M14" s="50">
         <f>DATA!M14</f>
-        <v xml:space="preserve"> None</v>
+        <v>1</v>
       </c>
       <c r="N14" s="42"/>
       <c r="O14" s="15">
@@ -4970,7 +4961,7 @@
         <v/>
       </c>
       <c r="AB14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
@@ -5022,9 +5013,9 @@
         <f>DATA!L15</f>
         <v>1</v>
       </c>
-      <c r="M15" s="49" t="str">
+      <c r="M15" s="50">
         <f>DATA!M15</f>
-        <v xml:space="preserve"> None</v>
+        <v>1</v>
       </c>
       <c r="N15" s="42"/>
       <c r="O15" s="15">
@@ -5115,9 +5106,9 @@
         <f>DATA!L16</f>
         <v>1</v>
       </c>
-      <c r="M16" s="49" t="str">
+      <c r="M16" s="50">
         <f>DATA!M16</f>
-        <v xml:space="preserve"> None</v>
+        <v>1</v>
       </c>
       <c r="N16" s="42"/>
       <c r="O16" s="15">
@@ -5208,9 +5199,9 @@
         <f>DATA!L17</f>
         <v>1</v>
       </c>
-      <c r="M17" s="49" t="str">
+      <c r="M17" s="50">
         <f>DATA!M17</f>
-        <v xml:space="preserve"> None</v>
+        <v>1</v>
       </c>
       <c r="N17" s="42"/>
       <c r="O17" s="15">
@@ -5301,9 +5292,9 @@
         <f>DATA!L18</f>
         <v>-1</v>
       </c>
-      <c r="M18" s="49" t="str">
+      <c r="M18" s="50">
         <f>DATA!M18</f>
-        <v xml:space="preserve"> None</v>
+        <v>-1</v>
       </c>
       <c r="N18" s="42"/>
       <c r="O18" s="15">
@@ -5345,7 +5336,7 @@
         <v/>
       </c>
       <c r="AB18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
@@ -5397,9 +5388,9 @@
         <f>DATA!L19</f>
         <v>-2</v>
       </c>
-      <c r="M19" s="49" t="str">
+      <c r="M19" s="50">
         <f>DATA!M19</f>
-        <v xml:space="preserve"> None</v>
+        <v>-2</v>
       </c>
       <c r="N19" s="42"/>
       <c r="O19" s="15">
@@ -5490,9 +5481,9 @@
         <f>DATA!L20</f>
         <v>-3</v>
       </c>
-      <c r="M20" s="49" t="str">
+      <c r="M20" s="50">
         <f>DATA!M20</f>
-        <v xml:space="preserve"> None</v>
+        <v>-5</v>
       </c>
       <c r="N20" s="42"/>
       <c r="O20" s="15">
@@ -5583,9 +5574,9 @@
         <f>DATA!L21</f>
         <v>0</v>
       </c>
-      <c r="M21" s="49" t="str">
+      <c r="M21" s="50">
         <f>DATA!M21</f>
-        <v xml:space="preserve"> None</v>
+        <v>0</v>
       </c>
       <c r="N21" s="42"/>
       <c r="O21" s="15">
@@ -5627,7 +5618,7 @@
         <v/>
       </c>
       <c r="AB21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
@@ -5679,9 +5670,9 @@
         <f>DATA!L22</f>
         <v>-1</v>
       </c>
-      <c r="M22" s="49" t="str">
+      <c r="M22" s="50">
         <f>DATA!M22</f>
-        <v xml:space="preserve"> None</v>
+        <v>0</v>
       </c>
       <c r="N22" s="42"/>
       <c r="O22" s="15">
@@ -5723,7 +5714,7 @@
         <v/>
       </c>
       <c r="AB22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
@@ -5775,9 +5766,9 @@
         <f>DATA!L23</f>
         <v>1</v>
       </c>
-      <c r="M23" s="49" t="str">
+      <c r="M23" s="50">
         <f>DATA!M23</f>
-        <v xml:space="preserve"> None</v>
+        <v>1</v>
       </c>
       <c r="N23" s="42"/>
       <c r="O23" s="15">
@@ -5868,9 +5859,9 @@
         <f>DATA!L24</f>
         <v>1</v>
       </c>
-      <c r="M24" s="49" t="str">
+      <c r="M24" s="50">
         <f>DATA!M24</f>
-        <v xml:space="preserve"> None</v>
+        <v>1</v>
       </c>
       <c r="N24" s="42"/>
       <c r="O24" s="15">
@@ -5961,9 +5952,9 @@
         <f>DATA!L25</f>
         <v>1</v>
       </c>
-      <c r="M25" s="49" t="str">
+      <c r="M25" s="50">
         <f>DATA!M25</f>
-        <v xml:space="preserve"> None</v>
+        <v>1</v>
       </c>
       <c r="N25" s="42"/>
       <c r="O25" s="15">
@@ -6005,7 +5996,7 @@
         <v/>
       </c>
       <c r="AB25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
@@ -6057,9 +6048,9 @@
         <f>DATA!L26</f>
         <v>-1</v>
       </c>
-      <c r="M26" s="49" t="str">
+      <c r="M26" s="50">
         <f>DATA!M26</f>
-        <v xml:space="preserve"> None</v>
+        <v>-1</v>
       </c>
       <c r="N26" s="42"/>
       <c r="O26" s="15">
@@ -6101,7 +6092,7 @@
         <v/>
       </c>
       <c r="AB26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
@@ -6153,9 +6144,9 @@
         <f>DATA!L27</f>
         <v>-1</v>
       </c>
-      <c r="M27" s="49" t="str">
+      <c r="M27" s="50">
         <f>DATA!M27</f>
-        <v xml:space="preserve"> None</v>
+        <v>-1</v>
       </c>
       <c r="N27" s="42"/>
       <c r="O27" s="15">
@@ -6197,7 +6188,7 @@
         <v/>
       </c>
       <c r="AB27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
@@ -6249,9 +6240,9 @@
         <f>DATA!L28</f>
         <v>-4</v>
       </c>
-      <c r="M28" s="49" t="str">
+      <c r="M28" s="50">
         <f>DATA!M28</f>
-        <v xml:space="preserve"> None</v>
+        <v>-3</v>
       </c>
       <c r="N28" s="42"/>
       <c r="O28" s="15">
@@ -6293,7 +6284,7 @@
         <v/>
       </c>
       <c r="AB28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
@@ -6345,9 +6336,9 @@
         <f>DATA!L29</f>
         <v>-1</v>
       </c>
-      <c r="M29" s="49" t="str">
+      <c r="M29" s="50">
         <f>DATA!M29</f>
-        <v xml:space="preserve"> None</v>
+        <v>0</v>
       </c>
       <c r="N29" s="42"/>
       <c r="O29" s="15">
@@ -6389,7 +6380,7 @@
         <v/>
       </c>
       <c r="AB29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
@@ -6441,9 +6432,9 @@
         <f>DATA!L30</f>
         <v>-3</v>
       </c>
-      <c r="M30" s="49" t="str">
+      <c r="M30" s="50">
         <f>DATA!M30</f>
-        <v xml:space="preserve"> None</v>
+        <v>-2</v>
       </c>
       <c r="N30" s="42"/>
       <c r="O30" s="15">
@@ -6534,9 +6525,9 @@
         <f>DATA!L31</f>
         <v>3</v>
       </c>
-      <c r="M31" s="49" t="str">
+      <c r="M31" s="50">
         <f>DATA!M31</f>
-        <v xml:space="preserve"> None</v>
+        <v>1</v>
       </c>
       <c r="N31" s="42"/>
       <c r="O31" s="15">
@@ -6627,9 +6618,9 @@
         <f>DATA!L32</f>
         <v>4</v>
       </c>
-      <c r="M32" s="49" t="str">
+      <c r="M32" s="50">
         <f>DATA!M32</f>
-        <v xml:space="preserve"> None</v>
+        <v>3</v>
       </c>
       <c r="N32" s="42"/>
       <c r="O32" s="15">
@@ -6720,9 +6711,9 @@
         <f>DATA!L33</f>
         <v>1</v>
       </c>
-      <c r="M33" s="49" t="str">
+      <c r="M33" s="50">
         <f>DATA!M33</f>
-        <v xml:space="preserve"> None</v>
+        <v>2</v>
       </c>
       <c r="N33" s="42"/>
       <c r="O33" s="15">
@@ -6813,9 +6804,9 @@
         <f>DATA!L34</f>
         <v>-1</v>
       </c>
-      <c r="M34" s="49" t="str">
+      <c r="M34" s="50">
         <f>DATA!M34</f>
-        <v xml:space="preserve"> None</v>
+        <v>-1</v>
       </c>
       <c r="N34" s="42"/>
       <c r="O34" s="15">
@@ -6906,9 +6897,9 @@
         <f>DATA!L35</f>
         <v>1</v>
       </c>
-      <c r="M35" s="49" t="str">
+      <c r="M35" s="50">
         <f>DATA!M35</f>
-        <v xml:space="preserve"> None</v>
+        <v>0</v>
       </c>
       <c r="N35" s="42"/>
       <c r="O35" s="15">
@@ -6999,9 +6990,9 @@
         <f>DATA!L36</f>
         <v>-1</v>
       </c>
-      <c r="M36" s="49" t="str">
+      <c r="M36" s="50">
         <f>DATA!M36</f>
-        <v xml:space="preserve"> None</v>
+        <v>-1</v>
       </c>
       <c r="N36" s="42"/>
       <c r="O36" s="15">
@@ -7092,9 +7083,9 @@
         <f>DATA!L37</f>
         <v>1</v>
       </c>
-      <c r="M37" s="49" t="str">
+      <c r="M37" s="50">
         <f>DATA!M37</f>
-        <v xml:space="preserve"> None</v>
+        <v>2</v>
       </c>
       <c r="N37" s="42"/>
       <c r="O37" s="15">
@@ -7185,9 +7176,9 @@
         <f>DATA!L38</f>
         <v>2</v>
       </c>
-      <c r="M38" s="49" t="str">
+      <c r="M38" s="50">
         <f>DATA!M38</f>
-        <v xml:space="preserve"> None</v>
+        <v>1</v>
       </c>
       <c r="N38" s="42"/>
       <c r="O38" s="15">
@@ -7278,9 +7269,9 @@
         <f>DATA!L39</f>
         <v>4</v>
       </c>
-      <c r="M39" s="49" t="str">
+      <c r="M39" s="50">
         <f>DATA!M39</f>
-        <v xml:space="preserve"> None</v>
+        <v>3</v>
       </c>
       <c r="N39" s="42"/>
       <c r="O39" s="15">
@@ -7371,9 +7362,9 @@
         <f>DATA!L40</f>
         <v>1</v>
       </c>
-      <c r="M40" s="49" t="str">
+      <c r="M40" s="50">
         <f>DATA!M40</f>
-        <v xml:space="preserve"> None</v>
+        <v>1</v>
       </c>
       <c r="N40" s="42"/>
       <c r="O40" s="15">
@@ -7415,7 +7406,7 @@
         <v/>
       </c>
       <c r="AB40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
@@ -7467,9 +7458,9 @@
         <f>DATA!L41</f>
         <v>-1</v>
       </c>
-      <c r="M41" s="49" t="str">
+      <c r="M41" s="50">
         <f>DATA!M41</f>
-        <v xml:space="preserve"> None</v>
+        <v>-1</v>
       </c>
       <c r="N41" s="42"/>
       <c r="O41" s="15">
@@ -7511,7 +7502,7 @@
         <v/>
       </c>
       <c r="AB41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
@@ -7563,9 +7554,9 @@
         <f>DATA!L42</f>
         <v>-1</v>
       </c>
-      <c r="M42" s="49" t="str">
+      <c r="M42" s="50">
         <f>DATA!M42</f>
-        <v xml:space="preserve"> None</v>
+        <v>-1</v>
       </c>
       <c r="N42" s="42"/>
       <c r="O42" s="15">
@@ -7656,9 +7647,9 @@
         <f>DATA!L43</f>
         <v>1</v>
       </c>
-      <c r="M43" s="49" t="str">
+      <c r="M43" s="50">
         <f>DATA!M43</f>
-        <v xml:space="preserve"> None</v>
+        <v>1</v>
       </c>
       <c r="N43" s="42"/>
       <c r="O43" s="15">
@@ -7700,7 +7691,7 @@
         <v/>
       </c>
       <c r="AB43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
@@ -7752,9 +7743,9 @@
         <f>DATA!L44</f>
         <v>1</v>
       </c>
-      <c r="M44" s="50" t="str">
+      <c r="M44" s="51">
         <f>DATA!M44</f>
-        <v xml:space="preserve"> None</v>
+        <v>1</v>
       </c>
       <c r="N44" s="42"/>
       <c r="O44" s="32">
@@ -7847,9 +7838,9 @@
         <f>DATA!L45</f>
         <v>1</v>
       </c>
-      <c r="M45" s="49" t="str">
+      <c r="M45" s="50">
         <f>DATA!M45</f>
-        <v xml:space="preserve"> None</v>
+        <v>1</v>
       </c>
       <c r="N45" s="42"/>
       <c r="O45" s="15">
@@ -7940,9 +7931,9 @@
         <f>DATA!L46</f>
         <v>-1</v>
       </c>
-      <c r="M46" s="49" t="str">
+      <c r="M46" s="50">
         <f>DATA!M46</f>
-        <v xml:space="preserve"> None</v>
+        <v>-1</v>
       </c>
       <c r="N46" s="42"/>
       <c r="O46" s="15">
@@ -8033,9 +8024,9 @@
         <f>DATA!L47</f>
         <v>1</v>
       </c>
-      <c r="M47" s="49" t="str">
+      <c r="M47" s="50">
         <f>DATA!M47</f>
-        <v xml:space="preserve"> None</v>
+        <v>1</v>
       </c>
       <c r="N47" s="42"/>
       <c r="O47" s="15">
@@ -8126,9 +8117,9 @@
         <f>DATA!L48</f>
         <v>1</v>
       </c>
-      <c r="M48" s="49" t="str">
+      <c r="M48" s="50">
         <f>DATA!M48</f>
-        <v xml:space="preserve"> None</v>
+        <v>1</v>
       </c>
       <c r="N48" s="42"/>
       <c r="O48" s="15">
@@ -8219,9 +8210,9 @@
         <f>DATA!L49</f>
         <v>1</v>
       </c>
-      <c r="M49" s="49" t="str">
+      <c r="M49" s="50">
         <f>DATA!M49</f>
-        <v xml:space="preserve"> None</v>
+        <v>1</v>
       </c>
       <c r="N49" s="42"/>
       <c r="O49" s="15">
@@ -8312,9 +8303,9 @@
         <f>DATA!L50</f>
         <v>-1</v>
       </c>
-      <c r="M50" s="49" t="str">
+      <c r="M50" s="50">
         <f>DATA!M50</f>
-        <v xml:space="preserve"> None</v>
+        <v>-1</v>
       </c>
       <c r="N50" s="42"/>
       <c r="O50" s="15">
@@ -8405,9 +8396,9 @@
         <f>DATA!L51</f>
         <v>1</v>
       </c>
-      <c r="M51" s="51" t="str">
+      <c r="M51" s="52">
         <f>DATA!M51</f>
-        <v xml:space="preserve"> None</v>
+        <v>1</v>
       </c>
       <c r="N51" s="42"/>
       <c r="O51" s="16">
@@ -8453,7 +8444,7 @@
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" s="45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="6">
@@ -8496,8 +8487,8 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="M52" s="49" t="s">
-        <v>104</v>
+      <c r="M52" s="50" t="s">
+        <v>103</v>
       </c>
       <c r="N52" s="42"/>
       <c r="O52" s="15"/>
@@ -8533,17 +8524,17 @@
         <f t="shared" ref="Z52" si="16">Y52-T52</f>
         <v>0.79999999999999982</v>
       </c>
-      <c r="AA52" s="52">
+      <c r="AA52" s="49">
         <f>50-COUNTBLANK(AA2:AA51)</f>
         <v>34</v>
       </c>
       <c r="AB52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" s="48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="6">
@@ -8586,7 +8577,7 @@
         <f t="shared" si="17"/>
         <v>5</v>
       </c>
-      <c r="M53" s="49"/>
+      <c r="M53" s="50"/>
       <c r="N53" s="42"/>
       <c r="O53" s="15"/>
       <c r="P53" s="27"/>
@@ -8623,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AB53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
@@ -8640,7 +8631,7 @@
         <v>4</v>
       </c>
       <c r="AB54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.2">
@@ -8657,7 +8648,7 @@
         <v>11</v>
       </c>
       <c r="AB55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.2">
@@ -8673,7 +8664,7 @@
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="11">
@@ -8766,7 +8757,7 @@
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B58" s="9" t="str">
         <f>DATA!B59</f>
@@ -8814,7 +8805,7 @@
       </c>
       <c r="M58" s="21">
         <f>DATA!M59</f>
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="N58" s="42"/>
       <c r="O58" s="17">
@@ -8856,7 +8847,7 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B59" s="5" t="str">
         <f>DATA!B61</f>
@@ -8904,7 +8895,7 @@
       </c>
       <c r="M59" s="19">
         <f>DATA!M61</f>
-        <v>-217</v>
+        <v>0</v>
       </c>
       <c r="N59" s="42"/>
       <c r="O59" s="15">
@@ -8955,7 +8946,7 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
@@ -9034,7 +9025,7 @@
       </c>
       <c r="M62" s="19">
         <f>DATA!M52</f>
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="N62" s="42"/>
       <c r="O62" s="15">
@@ -9123,7 +9114,7 @@
       </c>
       <c r="M63" s="20">
         <f>DATA!M53</f>
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="N63" s="42"/>
       <c r="O63" s="16">
@@ -9165,7 +9156,7 @@
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B64" s="5" t="str">
         <f>DATA!B62</f>
@@ -9213,7 +9204,7 @@
       </c>
       <c r="M64" s="19">
         <f>DATA!M62</f>
-        <v>218</v>
+        <v>-4</v>
       </c>
       <c r="N64" s="42"/>
       <c r="O64" s="15">
@@ -9264,7 +9255,7 @@
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="8"/>
@@ -9294,7 +9285,7 @@
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B67" s="5" t="str">
         <f>DATA!B56</f>
@@ -9342,7 +9333,7 @@
       </c>
       <c r="M67" s="19">
         <f>DATA!M56</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N67" s="42"/>
       <c r="O67" s="15">
@@ -9382,7 +9373,7 @@
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B68" s="7" t="str">
         <f>DATA!B57</f>
@@ -9430,7 +9421,7 @@
       </c>
       <c r="M68" s="20">
         <f>DATA!M57</f>
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="N68" s="42"/>
       <c r="O68" s="16">
@@ -9472,7 +9463,7 @@
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B69" s="5" t="str">
         <f>DATA!B58</f>
@@ -9520,7 +9511,7 @@
       </c>
       <c r="M69" s="19">
         <f>DATA!M58</f>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="N69" s="42"/>
       <c r="O69" s="15">
@@ -9566,6 +9557,254 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" negative="1" xr2:uid="{B55D22CA-BED6-1041-8D4E-184E8B90A5CE}">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FF00B0F0"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Analysis!I2:M2</xm:f>
+              <xm:sqref>V2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I3:M3</xm:f>
+              <xm:sqref>V3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I4:M4</xm:f>
+              <xm:sqref>V4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I5:M5</xm:f>
+              <xm:sqref>V5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I6:M6</xm:f>
+              <xm:sqref>V6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I7:M7</xm:f>
+              <xm:sqref>V7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I8:M8</xm:f>
+              <xm:sqref>V8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I9:M9</xm:f>
+              <xm:sqref>V9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I10:M10</xm:f>
+              <xm:sqref>V10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I11:M11</xm:f>
+              <xm:sqref>V11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I12:M12</xm:f>
+              <xm:sqref>V12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I13:M13</xm:f>
+              <xm:sqref>V13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I14:M14</xm:f>
+              <xm:sqref>V14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I15:M15</xm:f>
+              <xm:sqref>V15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I16:M16</xm:f>
+              <xm:sqref>V16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I17:M17</xm:f>
+              <xm:sqref>V17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I18:M18</xm:f>
+              <xm:sqref>V18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I19:M19</xm:f>
+              <xm:sqref>V19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I20:M20</xm:f>
+              <xm:sqref>V20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I21:M21</xm:f>
+              <xm:sqref>V21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I22:M22</xm:f>
+              <xm:sqref>V22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I23:M23</xm:f>
+              <xm:sqref>V23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I24:M24</xm:f>
+              <xm:sqref>V24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I25:M25</xm:f>
+              <xm:sqref>V25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I26:M26</xm:f>
+              <xm:sqref>V26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I27:M27</xm:f>
+              <xm:sqref>V27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I28:M28</xm:f>
+              <xm:sqref>V28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I29:M29</xm:f>
+              <xm:sqref>V29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I30:M30</xm:f>
+              <xm:sqref>V30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I31:M31</xm:f>
+              <xm:sqref>V31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I32:M32</xm:f>
+              <xm:sqref>V32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I33:M33</xm:f>
+              <xm:sqref>V33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I34:M34</xm:f>
+              <xm:sqref>V34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I35:M35</xm:f>
+              <xm:sqref>V35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I36:M36</xm:f>
+              <xm:sqref>V36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I37:M37</xm:f>
+              <xm:sqref>V37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I38:M38</xm:f>
+              <xm:sqref>V38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I39:M39</xm:f>
+              <xm:sqref>V39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I40:M40</xm:f>
+              <xm:sqref>V40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I41:M41</xm:f>
+              <xm:sqref>V41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I42:M42</xm:f>
+              <xm:sqref>V42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I43:M43</xm:f>
+              <xm:sqref>V43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I44:M44</xm:f>
+              <xm:sqref>V44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I45:M45</xm:f>
+              <xm:sqref>V45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I46:M46</xm:f>
+              <xm:sqref>V46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I47:M47</xm:f>
+              <xm:sqref>V47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I48:M48</xm:f>
+              <xm:sqref>V48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I49:M49</xm:f>
+              <xm:sqref>V49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I50:M50</xm:f>
+              <xm:sqref>V50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I51:M51</xm:f>
+              <xm:sqref>V51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I58:M58</xm:f>
+              <xm:sqref>V58</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I59:M59</xm:f>
+              <xm:sqref>V59</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I62:M62</xm:f>
+              <xm:sqref>V62</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I63:M63</xm:f>
+              <xm:sqref>V63</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I64:M64</xm:f>
+              <xm:sqref>V64</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I67:M67</xm:f>
+              <xm:sqref>V67</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I68:M68</xm:f>
+              <xm:sqref>V68</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I69:M69</xm:f>
+              <xm:sqref>V69</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I52:M52</xm:f>
+              <xm:sqref>V52</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" negative="1" xr2:uid="{71E158C0-A3AD-A341-B4E5-0D57479B057A}">
           <x14:colorSeries rgb="FFFF0000"/>
           <x14:colorNegative rgb="FF00B0F0"/>
@@ -9814,254 +10053,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" negative="1" xr2:uid="{B55D22CA-BED6-1041-8D4E-184E8B90A5CE}">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FF00B0F0"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Analysis!I2:M2</xm:f>
-              <xm:sqref>V2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I3:M3</xm:f>
-              <xm:sqref>V3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I4:M4</xm:f>
-              <xm:sqref>V4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I5:M5</xm:f>
-              <xm:sqref>V5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I6:M6</xm:f>
-              <xm:sqref>V6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I7:M7</xm:f>
-              <xm:sqref>V7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I8:M8</xm:f>
-              <xm:sqref>V8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I9:M9</xm:f>
-              <xm:sqref>V9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I10:M10</xm:f>
-              <xm:sqref>V10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I11:M11</xm:f>
-              <xm:sqref>V11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I12:M12</xm:f>
-              <xm:sqref>V12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I13:M13</xm:f>
-              <xm:sqref>V13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I14:M14</xm:f>
-              <xm:sqref>V14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I15:M15</xm:f>
-              <xm:sqref>V15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I16:M16</xm:f>
-              <xm:sqref>V16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I17:M17</xm:f>
-              <xm:sqref>V17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I18:M18</xm:f>
-              <xm:sqref>V18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I19:M19</xm:f>
-              <xm:sqref>V19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I20:M20</xm:f>
-              <xm:sqref>V20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I21:M21</xm:f>
-              <xm:sqref>V21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I22:M22</xm:f>
-              <xm:sqref>V22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I23:M23</xm:f>
-              <xm:sqref>V23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I24:M24</xm:f>
-              <xm:sqref>V24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I25:M25</xm:f>
-              <xm:sqref>V25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I26:M26</xm:f>
-              <xm:sqref>V26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I27:M27</xm:f>
-              <xm:sqref>V27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I28:M28</xm:f>
-              <xm:sqref>V28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I29:M29</xm:f>
-              <xm:sqref>V29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I30:M30</xm:f>
-              <xm:sqref>V30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I31:M31</xm:f>
-              <xm:sqref>V31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I32:M32</xm:f>
-              <xm:sqref>V32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I33:M33</xm:f>
-              <xm:sqref>V33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I34:M34</xm:f>
-              <xm:sqref>V34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I35:M35</xm:f>
-              <xm:sqref>V35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I36:M36</xm:f>
-              <xm:sqref>V36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I37:M37</xm:f>
-              <xm:sqref>V37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I38:M38</xm:f>
-              <xm:sqref>V38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I39:M39</xm:f>
-              <xm:sqref>V39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I40:M40</xm:f>
-              <xm:sqref>V40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I41:M41</xm:f>
-              <xm:sqref>V41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I42:M42</xm:f>
-              <xm:sqref>V42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I43:M43</xm:f>
-              <xm:sqref>V43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I44:M44</xm:f>
-              <xm:sqref>V44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I45:M45</xm:f>
-              <xm:sqref>V45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I46:M46</xm:f>
-              <xm:sqref>V46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I47:M47</xm:f>
-              <xm:sqref>V47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I48:M48</xm:f>
-              <xm:sqref>V48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I49:M49</xm:f>
-              <xm:sqref>V49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I50:M50</xm:f>
-              <xm:sqref>V50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I51:M51</xm:f>
-              <xm:sqref>V51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I58:M58</xm:f>
-              <xm:sqref>V58</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I59:M59</xm:f>
-              <xm:sqref>V59</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I62:M62</xm:f>
-              <xm:sqref>V62</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I63:M63</xm:f>
-              <xm:sqref>V63</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I64:M64</xm:f>
-              <xm:sqref>V64</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I67:M67</xm:f>
-              <xm:sqref>V67</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I68:M68</xm:f>
-              <xm:sqref>V68</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I69:M69</xm:f>
-              <xm:sqref>V69</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I52:M52</xm:f>
-              <xm:sqref>V52</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>

--- a/data/analysis/pivot-by-state.xlsx
+++ b/data/analysis/pivot-by-state.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/ushouse/data/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3999A2AD-469B-8F4F-8D95-B943D491AC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42066797-3CC4-EE46-938E-B7297B567920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="500" windowWidth="27600" windowHeight="17500" activeTab="1" xr2:uid="{243A2677-B725-5B4A-8946-B944A46BAF00}"/>
+    <workbookView xWindow="1240" yWindow="500" windowWidth="27560" windowHeight="17500" activeTab="1" xr2:uid="{243A2677-B725-5B4A-8946-B944A46BAF00}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="138">
   <si>
     <t>XX</t>
   </si>
@@ -527,7 +527,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -543,6 +543,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,7 +682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -742,6 +748,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3627,13 +3634,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FA875C-1566-2D43-8637-203DA92E1C1B}">
-  <dimension ref="A1:AB70"/>
+  <dimension ref="A1:AB71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2:M53"/>
+      <selection pane="bottomRight" activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8487,8 +8494,9 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="M52" s="50" t="s">
-        <v>103</v>
+      <c r="M52" s="6">
+        <f t="shared" ref="M52" si="13">SUM(M45:M51)</f>
+        <v>3</v>
       </c>
       <c r="N52" s="42"/>
       <c r="O52" s="15"/>
@@ -8509,19 +8517,19 @@
       <c r="U52" s="44"/>
       <c r="V52" s="35"/>
       <c r="W52" s="46">
-        <f t="shared" ref="W52" si="13">MIN(I52:L52)</f>
+        <f t="shared" ref="W52" si="14">MIN(I52:L52)</f>
         <v>3</v>
       </c>
       <c r="X52" s="46">
-        <f t="shared" ref="X52" si="14">MAX(I52:L52)</f>
+        <f t="shared" ref="X52" si="15">MAX(I52:L52)</f>
         <v>3</v>
       </c>
       <c r="Y52" s="47">
-        <f t="shared" ref="Y52" si="15">AVERAGE(I52:L52)</f>
+        <f t="shared" ref="Y52" si="16">AVERAGE(I52:L52)</f>
         <v>3</v>
       </c>
       <c r="Z52" s="47">
-        <f t="shared" ref="Z52" si="16">Y52-T52</f>
+        <f t="shared" ref="Z52" si="17">Y52-T52</f>
         <v>0.79999999999999982</v>
       </c>
       <c r="AA52" s="49">
@@ -8542,72 +8550,75 @@
         <v>10</v>
       </c>
       <c r="D53" s="15">
-        <f t="shared" ref="D53:L53" si="17">COUNTIF(D2:D51,"=0")</f>
+        <f t="shared" ref="D53:L53" si="18">COUNTIF(D2:D51,"=0")</f>
         <v>12</v>
       </c>
       <c r="E53" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
       <c r="F53" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>13</v>
       </c>
       <c r="G53" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>13</v>
       </c>
       <c r="H53" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
       <c r="I53" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="J53" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="K53" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="L53" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
-      <c r="M53" s="50"/>
+      <c r="M53" s="6">
+        <f t="shared" ref="M53" si="19">COUNTIF(M2:M51,"=0")</f>
+        <v>5</v>
+      </c>
       <c r="N53" s="42"/>
       <c r="O53" s="15"/>
       <c r="P53" s="27"/>
       <c r="R53" s="46">
-        <f t="shared" ref="R53" si="18">MIN(D53:H53)</f>
+        <f t="shared" ref="R53" si="20">MIN(D53:H53)</f>
         <v>8</v>
       </c>
       <c r="S53" s="46">
-        <f t="shared" ref="S53" si="19">MAX(D53:H53)</f>
+        <f t="shared" ref="S53" si="21">MAX(D53:H53)</f>
         <v>13</v>
       </c>
       <c r="T53" s="47">
-        <f t="shared" ref="T53" si="20">AVERAGE(D53:H53)</f>
+        <f t="shared" ref="T53" si="22">AVERAGE(D53:H53)</f>
         <v>11.6</v>
       </c>
       <c r="U53" s="44"/>
       <c r="W53" s="46">
-        <f t="shared" ref="W53" si="21">MIN(I53:L53)</f>
+        <f t="shared" ref="W53" si="23">MIN(I53:L53)</f>
         <v>5</v>
       </c>
       <c r="X53" s="46">
-        <f t="shared" ref="X53" si="22">MAX(I53:L53)</f>
+        <f t="shared" ref="X53" si="24">MAX(I53:L53)</f>
         <v>7</v>
       </c>
       <c r="Y53" s="47">
-        <f t="shared" ref="Y53" si="23">AVERAGE(I53:L53)</f>
+        <f t="shared" ref="Y53" si="25">AVERAGE(I53:L53)</f>
         <v>6.25</v>
       </c>
       <c r="Z53" s="23">
-        <f t="shared" ref="Z53" si="24">Y53-T53</f>
+        <f t="shared" ref="Z53" si="26">Y53-T53</f>
         <v>-5.35</v>
       </c>
       <c r="AA53">
@@ -8672,43 +8683,43 @@
         <v>2000</v>
       </c>
       <c r="D57" s="14">
-        <f t="shared" ref="D57:M57" si="25">D1</f>
+        <f t="shared" ref="D57:M57" si="27">D1</f>
         <v>2002</v>
       </c>
       <c r="E57" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2004</v>
       </c>
       <c r="F57" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2006</v>
       </c>
       <c r="G57" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2008</v>
       </c>
       <c r="H57" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2010</v>
       </c>
       <c r="I57" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2012</v>
       </c>
       <c r="J57" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2014</v>
       </c>
       <c r="K57" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2016</v>
       </c>
       <c r="L57" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2018</v>
       </c>
       <c r="M57" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2020</v>
       </c>
       <c r="N57" s="42"/>
@@ -8718,19 +8729,19 @@
       </c>
       <c r="P57" s="27"/>
       <c r="Q57" s="37" t="str">
-        <f t="shared" ref="Q57:T57" si="26">Q1</f>
+        <f t="shared" ref="Q57:T57" si="28">Q1</f>
         <v>2002 – 2010</v>
       </c>
       <c r="R57" s="37" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>min</v>
       </c>
       <c r="S57" s="37" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>max</v>
       </c>
       <c r="T57" s="37" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>avg</v>
       </c>
       <c r="U57" s="44"/>
@@ -8739,19 +8750,19 @@
         <v>2012 - 2020</v>
       </c>
       <c r="W57" s="37" t="str">
-        <f t="shared" ref="W57:Z57" si="27">W1</f>
+        <f t="shared" ref="W57:Z57" si="29">W1</f>
         <v>min</v>
       </c>
       <c r="X57" s="37" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>max</v>
       </c>
       <c r="Y57" s="37" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>avg</v>
       </c>
       <c r="Z57" s="37" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>chg</v>
       </c>
     </row>
@@ -8841,7 +8852,7 @@
         <v>217.5</v>
       </c>
       <c r="Z58" s="39">
-        <f t="shared" ref="Z58" si="28">Y58-T58</f>
+        <f t="shared" ref="Z58" si="30">Y58-T58</f>
         <v>2.6999999999999886</v>
       </c>
     </row>
@@ -8929,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="Z59">
-        <f t="shared" ref="Z59" si="29">Y59-T59</f>
+        <f t="shared" ref="Z59" si="31">Y59-T59</f>
         <v>2.8</v>
       </c>
     </row>
@@ -9047,19 +9058,19 @@
       </c>
       <c r="U62" s="44"/>
       <c r="W62" s="6">
-        <f t="shared" ref="W62:W64" si="30">MIN(I62:L62)</f>
+        <f t="shared" ref="W62:W64" si="32">MIN(I62:L62)</f>
         <v>199</v>
       </c>
       <c r="X62" s="6">
-        <f t="shared" ref="X62:X64" si="31">MAX(I62:L62)</f>
+        <f t="shared" ref="X62:X64" si="33">MAX(I62:L62)</f>
         <v>247</v>
       </c>
       <c r="Y62" s="23">
-        <f t="shared" ref="Y62:Y64" si="32">AVERAGE(I62:L62)</f>
+        <f t="shared" ref="Y62:Y64" si="34">AVERAGE(I62:L62)</f>
         <v>230.25</v>
       </c>
       <c r="Z62">
-        <f t="shared" ref="Z62:Z64" si="33">Y62-T62</f>
+        <f t="shared" ref="Z62:Z64" si="35">Y62-T62</f>
         <v>13.449999999999989</v>
       </c>
     </row>
@@ -9138,19 +9149,19 @@
       <c r="U63" s="44"/>
       <c r="V63" s="24"/>
       <c r="W63" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>188</v>
       </c>
       <c r="X63" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>235</v>
       </c>
       <c r="Y63" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>204.5</v>
       </c>
       <c r="Z63" s="24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-13.300000000000011</v>
       </c>
     </row>
@@ -9226,19 +9237,19 @@
       </c>
       <c r="U64" s="44"/>
       <c r="W64" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-17</v>
       </c>
       <c r="X64" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>29</v>
       </c>
       <c r="Y64" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>12.75</v>
       </c>
       <c r="Z64">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>13.55</v>
       </c>
     </row>
@@ -9355,19 +9366,19 @@
       </c>
       <c r="U67" s="44"/>
       <c r="W67" s="6">
-        <f t="shared" ref="W67:W69" si="34">MIN(I67:L67)</f>
+        <f t="shared" ref="W67:W69" si="36">MIN(I67:L67)</f>
         <v>33</v>
       </c>
       <c r="X67" s="6">
-        <f t="shared" ref="X67:X69" si="35">MAX(I67:L67)</f>
+        <f t="shared" ref="X67:X69" si="37">MAX(I67:L67)</f>
         <v>43</v>
       </c>
       <c r="Y67" s="23">
-        <f t="shared" ref="Y67:Y69" si="36">AVERAGE(I67:L67)</f>
+        <f t="shared" ref="Y67:Y69" si="38">AVERAGE(I67:L67)</f>
         <v>39.75</v>
       </c>
       <c r="Z67">
-        <f t="shared" ref="Z67:Z69" si="37">Y67-T67</f>
+        <f t="shared" ref="Z67:Z69" si="39">Y67-T67</f>
         <v>14.55</v>
       </c>
     </row>
@@ -9445,19 +9456,19 @@
       <c r="U68" s="44"/>
       <c r="V68" s="24"/>
       <c r="W68" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-38</v>
       </c>
       <c r="X68" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-21</v>
       </c>
       <c r="Y68" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-27</v>
       </c>
       <c r="Z68" s="24">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-3.8000000000000007</v>
       </c>
     </row>
@@ -9533,30 +9544,324 @@
       </c>
       <c r="U69" s="44"/>
       <c r="W69" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-5</v>
       </c>
       <c r="X69" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>20</v>
       </c>
       <c r="Y69" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>12.75</v>
       </c>
       <c r="Z69">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10.75</v>
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="U70" s="35"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C71" s="53" t="b">
+        <f>AND(C58&lt;218,C62&gt;=218)</f>
+        <v>1</v>
+      </c>
+      <c r="D71" s="6" t="b">
+        <f t="shared" ref="D71:M71" si="40">AND(D58&lt;218,D62&gt;=218)</f>
+        <v>0</v>
+      </c>
+      <c r="E71" s="6" t="b">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="F71" s="6" t="b">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="6" t="b">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="6" t="b">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="53" t="b">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="J71" s="6" t="b">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="K71" s="6" t="b">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="6" t="b">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="M71" s="6" t="b">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" negative="1" xr2:uid="{71E158C0-A3AD-A341-B4E5-0D57479B057A}">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FF00B0F0"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Analysis!D2:H2</xm:f>
+              <xm:sqref>Q2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D3:H3</xm:f>
+              <xm:sqref>Q3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D4:H4</xm:f>
+              <xm:sqref>Q4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D5:H5</xm:f>
+              <xm:sqref>Q5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D6:H6</xm:f>
+              <xm:sqref>Q6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D7:H7</xm:f>
+              <xm:sqref>Q7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D8:H8</xm:f>
+              <xm:sqref>Q8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D9:H9</xm:f>
+              <xm:sqref>Q9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D10:H10</xm:f>
+              <xm:sqref>Q10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D11:H11</xm:f>
+              <xm:sqref>Q11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D12:H12</xm:f>
+              <xm:sqref>Q12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D13:H13</xm:f>
+              <xm:sqref>Q13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D14:H14</xm:f>
+              <xm:sqref>Q14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D15:H15</xm:f>
+              <xm:sqref>Q15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D16:H16</xm:f>
+              <xm:sqref>Q16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D17:H17</xm:f>
+              <xm:sqref>Q17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D18:H18</xm:f>
+              <xm:sqref>Q18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D19:H19</xm:f>
+              <xm:sqref>Q19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D20:H20</xm:f>
+              <xm:sqref>Q20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D21:H21</xm:f>
+              <xm:sqref>Q21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D22:H22</xm:f>
+              <xm:sqref>Q22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D23:H23</xm:f>
+              <xm:sqref>Q23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D24:H24</xm:f>
+              <xm:sqref>Q24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D25:H25</xm:f>
+              <xm:sqref>Q25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D26:H26</xm:f>
+              <xm:sqref>Q26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D27:H27</xm:f>
+              <xm:sqref>Q27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D28:H28</xm:f>
+              <xm:sqref>Q28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D29:H29</xm:f>
+              <xm:sqref>Q29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D30:H30</xm:f>
+              <xm:sqref>Q30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D31:H31</xm:f>
+              <xm:sqref>Q31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D32:H32</xm:f>
+              <xm:sqref>Q32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D33:H33</xm:f>
+              <xm:sqref>Q33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D34:H34</xm:f>
+              <xm:sqref>Q34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D35:H35</xm:f>
+              <xm:sqref>Q35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D36:H36</xm:f>
+              <xm:sqref>Q36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D37:H37</xm:f>
+              <xm:sqref>Q37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D38:H38</xm:f>
+              <xm:sqref>Q38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D39:H39</xm:f>
+              <xm:sqref>Q39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D40:H40</xm:f>
+              <xm:sqref>Q40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D41:H41</xm:f>
+              <xm:sqref>Q41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D42:H42</xm:f>
+              <xm:sqref>Q42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D43:H43</xm:f>
+              <xm:sqref>Q43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D44:H44</xm:f>
+              <xm:sqref>Q44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D45:H45</xm:f>
+              <xm:sqref>Q45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D46:H46</xm:f>
+              <xm:sqref>Q46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D47:H47</xm:f>
+              <xm:sqref>Q47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D48:H48</xm:f>
+              <xm:sqref>Q48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D49:H49</xm:f>
+              <xm:sqref>Q49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D50:H50</xm:f>
+              <xm:sqref>Q50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D51:H51</xm:f>
+              <xm:sqref>Q51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D58:H58</xm:f>
+              <xm:sqref>Q58</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D59:H59</xm:f>
+              <xm:sqref>Q59</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D62:H62</xm:f>
+              <xm:sqref>Q62</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D63:H63</xm:f>
+              <xm:sqref>Q63</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D64:H64</xm:f>
+              <xm:sqref>Q64</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D67:H67</xm:f>
+              <xm:sqref>Q67</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D68:H68</xm:f>
+              <xm:sqref>Q68</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D69:H69</xm:f>
+              <xm:sqref>Q69</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D52:H52</xm:f>
+              <xm:sqref>Q52</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" negative="1" xr2:uid="{B55D22CA-BED6-1041-8D4E-184E8B90A5CE}">
           <x14:colorSeries rgb="FFFF0000"/>
           <x14:colorNegative rgb="FF00B0F0"/>
@@ -9805,254 +10110,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" negative="1" xr2:uid="{71E158C0-A3AD-A341-B4E5-0D57479B057A}">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FF00B0F0"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Analysis!D2:H2</xm:f>
-              <xm:sqref>Q2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D3:H3</xm:f>
-              <xm:sqref>Q3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D4:H4</xm:f>
-              <xm:sqref>Q4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D5:H5</xm:f>
-              <xm:sqref>Q5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D6:H6</xm:f>
-              <xm:sqref>Q6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D7:H7</xm:f>
-              <xm:sqref>Q7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D8:H8</xm:f>
-              <xm:sqref>Q8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D9:H9</xm:f>
-              <xm:sqref>Q9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D10:H10</xm:f>
-              <xm:sqref>Q10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D11:H11</xm:f>
-              <xm:sqref>Q11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D12:H12</xm:f>
-              <xm:sqref>Q12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D13:H13</xm:f>
-              <xm:sqref>Q13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D14:H14</xm:f>
-              <xm:sqref>Q14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D15:H15</xm:f>
-              <xm:sqref>Q15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D16:H16</xm:f>
-              <xm:sqref>Q16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D17:H17</xm:f>
-              <xm:sqref>Q17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D18:H18</xm:f>
-              <xm:sqref>Q18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D19:H19</xm:f>
-              <xm:sqref>Q19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D20:H20</xm:f>
-              <xm:sqref>Q20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D21:H21</xm:f>
-              <xm:sqref>Q21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D22:H22</xm:f>
-              <xm:sqref>Q22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D23:H23</xm:f>
-              <xm:sqref>Q23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D24:H24</xm:f>
-              <xm:sqref>Q24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D25:H25</xm:f>
-              <xm:sqref>Q25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D26:H26</xm:f>
-              <xm:sqref>Q26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D27:H27</xm:f>
-              <xm:sqref>Q27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D28:H28</xm:f>
-              <xm:sqref>Q28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D29:H29</xm:f>
-              <xm:sqref>Q29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D30:H30</xm:f>
-              <xm:sqref>Q30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D31:H31</xm:f>
-              <xm:sqref>Q31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D32:H32</xm:f>
-              <xm:sqref>Q32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D33:H33</xm:f>
-              <xm:sqref>Q33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D34:H34</xm:f>
-              <xm:sqref>Q34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D35:H35</xm:f>
-              <xm:sqref>Q35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D36:H36</xm:f>
-              <xm:sqref>Q36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D37:H37</xm:f>
-              <xm:sqref>Q37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D38:H38</xm:f>
-              <xm:sqref>Q38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D39:H39</xm:f>
-              <xm:sqref>Q39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D40:H40</xm:f>
-              <xm:sqref>Q40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D41:H41</xm:f>
-              <xm:sqref>Q41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D42:H42</xm:f>
-              <xm:sqref>Q42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D43:H43</xm:f>
-              <xm:sqref>Q43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D44:H44</xm:f>
-              <xm:sqref>Q44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D45:H45</xm:f>
-              <xm:sqref>Q45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D46:H46</xm:f>
-              <xm:sqref>Q46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D47:H47</xm:f>
-              <xm:sqref>Q47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D48:H48</xm:f>
-              <xm:sqref>Q48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D49:H49</xm:f>
-              <xm:sqref>Q49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D50:H50</xm:f>
-              <xm:sqref>Q50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D51:H51</xm:f>
-              <xm:sqref>Q51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D58:H58</xm:f>
-              <xm:sqref>Q58</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D59:H59</xm:f>
-              <xm:sqref>Q59</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D62:H62</xm:f>
-              <xm:sqref>Q62</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D63:H63</xm:f>
-              <xm:sqref>Q63</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D64:H64</xm:f>
-              <xm:sqref>Q64</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D67:H67</xm:f>
-              <xm:sqref>Q67</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D68:H68</xm:f>
-              <xm:sqref>Q68</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D69:H69</xm:f>
-              <xm:sqref>Q69</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D52:H52</xm:f>
-              <xm:sqref>Q52</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>

--- a/data/analysis/pivot-by-state.xlsx
+++ b/data/analysis/pivot-by-state.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10104"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2033B20B-97C5-0746-9F6E-816C42A440CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629E29D1-1D4A-4F4F-9A1F-8E84A3DFCD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="500" windowWidth="27560" windowHeight="17500" activeTab="1" xr2:uid="{243A2677-B725-5B4A-8946-B944A46BAF00}"/>
+    <workbookView xWindow="23360" yWindow="11300" windowWidth="27560" windowHeight="17500" activeTab="1" xr2:uid="{243A2677-B725-5B4A-8946-B944A46BAF00}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="134">
   <si>
     <t>XX</t>
   </si>
@@ -449,6 +449,21 @@
   </si>
   <si>
     <t>Minority wins =&gt;</t>
+  </si>
+  <si>
+    <t>Always red</t>
+  </si>
+  <si>
+    <t>Always blue</t>
+  </si>
+  <si>
+    <t>Tagline</t>
+  </si>
+  <si>
+    <t>Always PR</t>
+  </si>
+  <si>
+    <t>Mixed red/blue</t>
   </si>
 </sst>
 </file>
@@ -624,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -670,12 +685,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -997,10 +1009,10 @@
   <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C58" sqref="C58:M58"/>
+      <selection pane="bottomRight" activeCell="M62" sqref="A1:M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3560,13 +3572,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FA875C-1566-2D43-8637-203DA92E1C1B}">
-  <dimension ref="A1:AA70"/>
+  <dimension ref="A1:AE70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T58" sqref="T58"/>
+      <selection pane="bottomRight" activeCell="R60" sqref="R60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3584,9 +3596,10 @@
     <col min="23" max="24" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="str">
         <f>DATA!A1</f>
         <v>XX</v>
@@ -3672,8 +3685,23 @@
       <c r="Z1" s="22" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA1" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB1" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC1" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD1" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE1" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="str">
         <f>DATA!A2</f>
         <v>AL</v>
@@ -3746,27 +3774,43 @@
       </c>
       <c r="U2" s="27"/>
       <c r="W2" s="6">
-        <f>MIN(I2:L2)</f>
-        <v>2</v>
+        <f>MIN(I2:M2)</f>
+        <v>1</v>
       </c>
       <c r="X2" s="6">
-        <f>MAX(I2:L2)</f>
+        <f>MAX(I2:M2)</f>
         <v>2</v>
       </c>
       <c r="Y2" s="23">
-        <f>AVERAGE(I2:L2)</f>
-        <v>2</v>
+        <f>AVERAGE(I2:M2)</f>
+        <v>1.8</v>
       </c>
       <c r="Z2" s="23">
         <f>Y2-T2</f>
-        <v>0.8</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="AA2" t="str">
-        <f>IF(COUNTIF(I2:L2,"&gt;0")=4,"Always red",IF(COUNTIF(I2:L2,"&lt;0")=4,"Always blue",""))</f>
+        <f>IF(COUNTIF(I2:M2,"&gt;0")=5,"Always red",IF(COUNTIF(I2:M2,"&lt;0")=5,"Always blue",IF(COUNTIF(I2:M2,"=0")=5,"Always PR","Mixed red/blue")))</f>
         <v>Always red</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB2">
+        <f>IF(AA2="Always red", 1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="AC2" t="str">
+        <f>IF(AA2="Always blue",1, "")</f>
+        <v/>
+      </c>
+      <c r="AD2" t="str">
+        <f>IF(AA2="Always PR",1,"")</f>
+        <v/>
+      </c>
+      <c r="AE2" t="str">
+        <f>IF(AA2="Mixed red/blue",1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="str">
         <f>DATA!A3</f>
         <v>AK</v>
@@ -3839,15 +3883,15 @@
       </c>
       <c r="U3" s="27"/>
       <c r="W3" s="6">
-        <f t="shared" ref="W3:W51" si="4">MIN(I3:L3)</f>
+        <f t="shared" ref="W3:W51" si="4">MIN(I3:M3)</f>
         <v>1</v>
       </c>
       <c r="X3" s="6">
-        <f t="shared" ref="X3:X51" si="5">MAX(I3:L3)</f>
+        <f t="shared" ref="X3:X51" si="5">MAX(I3:M3)</f>
         <v>1</v>
       </c>
       <c r="Y3" s="23">
-        <f t="shared" ref="Y3:Y51" si="6">AVERAGE(I3:L3)</f>
+        <f t="shared" ref="Y3:Y51" si="6">AVERAGE(I3:M3)</f>
         <v>1</v>
       </c>
       <c r="Z3" s="23">
@@ -3855,11 +3899,27 @@
         <v>0</v>
       </c>
       <c r="AA3" t="str">
-        <f t="shared" ref="AA3:AA51" si="8">IF(COUNTIF(I3:L3,"&gt;0")=4,"Always red",IF(COUNTIF(I3:L3,"&lt;0")=4,"Always blue",""))</f>
+        <f t="shared" ref="AA3:AA51" si="8">IF(COUNTIF(I3:M3,"&gt;0")=5,"Always red",IF(COUNTIF(I3:M3,"&lt;0")=5,"Always blue",IF(COUNTIF(I3:M3,"=0")=5,"Always PR","Mixed red/blue")))</f>
         <v>Always red</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB51" si="9">IF(AA3="Always red", 1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="AC3" t="str">
+        <f t="shared" ref="AC3:AC51" si="10">IF(AA3="Always blue",1, "")</f>
+        <v/>
+      </c>
+      <c r="AD3" t="str">
+        <f t="shared" ref="AD3:AD51" si="11">IF(AA3="Always PR",1,"")</f>
+        <v/>
+      </c>
+      <c r="AE3" t="str">
+        <f t="shared" ref="AE3:AE51" si="12">IF(AA3="Mixed red/blue",1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="str">
         <f>DATA!A4</f>
         <v>AZ</v>
@@ -3941,18 +4001,34 @@
       </c>
       <c r="Y4" s="23">
         <f t="shared" si="6"/>
-        <v>-0.25</v>
+        <v>-0.4</v>
       </c>
       <c r="Z4" s="23">
         <f t="shared" si="7"/>
-        <v>-0.65</v>
+        <v>-0.8</v>
       </c>
       <c r="AA4" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+        <v>Mixed red/blue</v>
+      </c>
+      <c r="AB4" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD4" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="str">
         <f>DATA!A5</f>
         <v>AR</v>
@@ -4034,18 +4110,34 @@
       </c>
       <c r="Y5" s="23">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Z5" s="23">
         <f t="shared" si="7"/>
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA5" t="str">
         <f t="shared" si="8"/>
         <v>Always red</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AC5" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE5" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="str">
         <f>DATA!A6</f>
         <v>CA</v>
@@ -4127,18 +4219,34 @@
       </c>
       <c r="Y6" s="23">
         <f t="shared" si="6"/>
-        <v>-8.5</v>
+        <v>-8.6</v>
       </c>
       <c r="Z6" s="23">
         <f t="shared" si="7"/>
-        <v>-4.9000000000000004</v>
+        <v>-5</v>
       </c>
       <c r="AA6" t="str">
         <f t="shared" si="8"/>
         <v>Always blue</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AD6" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE6" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="str">
         <f>DATA!A7</f>
         <v>CO</v>
@@ -4228,10 +4336,26 @@
       </c>
       <c r="AA7" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+        <v>Always PR</v>
+      </c>
+      <c r="AB7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AE7" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="str">
         <f>DATA!A8</f>
         <v>CT</v>
@@ -4323,8 +4447,24 @@
         <f t="shared" si="8"/>
         <v>Always blue</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AD8" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE8" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="str">
         <f>DATA!A9</f>
         <v>DE</v>
@@ -4416,8 +4556,24 @@
         <f t="shared" si="8"/>
         <v>Always blue</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AD9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="str">
         <f>DATA!A10</f>
         <v>FL</v>
@@ -4509,8 +4665,24 @@
         <f t="shared" si="8"/>
         <v>Always red</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AC10" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE10" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="str">
         <f>DATA!A11</f>
         <v>GA</v>
@@ -4592,18 +4764,34 @@
       </c>
       <c r="Y11" s="23">
         <f t="shared" si="6"/>
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="Z11" s="23">
         <f t="shared" si="7"/>
-        <v>1.55</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="AA11" t="str">
         <f t="shared" si="8"/>
         <v>Always red</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AC11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="str">
         <f>DATA!A12</f>
         <v>HI</v>
@@ -4685,18 +4873,34 @@
       </c>
       <c r="Y12" s="23">
         <f t="shared" si="6"/>
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="Z12" s="23">
         <f t="shared" si="7"/>
-        <v>0.30000000000000004</v>
+        <v>0.20000000000000007</v>
       </c>
       <c r="AA12" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+        <v>Mixed red/blue</v>
+      </c>
+      <c r="AB12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="str">
         <f>DATA!A13</f>
         <v>ID</v>
@@ -4788,8 +4992,24 @@
         <f t="shared" si="8"/>
         <v>Always red</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AC13" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD13" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE13" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="str">
         <f>DATA!A14</f>
         <v>IL</v>
@@ -4863,7 +5083,7 @@
       <c r="U14" s="27"/>
       <c r="W14" s="6">
         <f t="shared" si="4"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="X14" s="6">
         <f t="shared" si="5"/>
@@ -4871,18 +5091,34 @@
       </c>
       <c r="Y14" s="23">
         <f t="shared" si="6"/>
-        <v>-1.5</v>
+        <v>-1.8</v>
       </c>
       <c r="Z14" s="23">
         <f t="shared" si="7"/>
-        <v>-2.1</v>
+        <v>-2.4</v>
       </c>
       <c r="AA14" t="str">
         <f t="shared" si="8"/>
         <v>Always blue</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AD14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE14" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="str">
         <f>DATA!A15</f>
         <v>IN</v>
@@ -4974,8 +5210,24 @@
         <f t="shared" si="8"/>
         <v>Always red</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AC15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE15" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="str">
         <f>DATA!A16</f>
         <v>IA</v>
@@ -5057,18 +5309,34 @@
       </c>
       <c r="Y16" s="23">
         <f t="shared" si="6"/>
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="Z16" s="23">
         <f t="shared" si="7"/>
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AA16" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+        <v>Mixed red/blue</v>
+      </c>
+      <c r="AB16" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC16" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD16" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="str">
         <f>DATA!A17</f>
         <v>KS</v>
@@ -5160,8 +5428,24 @@
         <f t="shared" si="8"/>
         <v>Always red</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB17">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AC17" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE17" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="str">
         <f>DATA!A18</f>
         <v>KY</v>
@@ -5253,8 +5537,24 @@
         <f t="shared" si="8"/>
         <v>Always red</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB18">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AC18" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD18" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE18" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="str">
         <f>DATA!A19</f>
         <v>LA</v>
@@ -5346,8 +5646,24 @@
         <f t="shared" si="8"/>
         <v>Always red</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB19">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AC19" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD19" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE19" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="str">
         <f>DATA!A20</f>
         <v>ME</v>
@@ -5429,18 +5745,34 @@
       </c>
       <c r="Y20" s="23">
         <f t="shared" si="6"/>
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="Z20" s="23">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AA20" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+        <v>Mixed red/blue</v>
+      </c>
+      <c r="AB20" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC20" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD20" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="str">
         <f>DATA!A21</f>
         <v>MD</v>
@@ -5532,8 +5864,24 @@
         <f t="shared" si="8"/>
         <v>Always blue</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB21" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AD21" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE21" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="str">
         <f>DATA!A22</f>
         <v>MA</v>
@@ -5625,8 +5973,24 @@
         <f t="shared" si="8"/>
         <v>Always blue</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB22" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AD22" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE22" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="str">
         <f>DATA!A23</f>
         <v>MI</v>
@@ -5708,18 +6072,34 @@
       </c>
       <c r="Y23" s="23">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="Z23" s="23">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="AA23" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+        <v>Mixed red/blue</v>
+      </c>
+      <c r="AB23" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC23" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD23" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="str">
         <f>DATA!A24</f>
         <v>MN</v>
@@ -5801,18 +6181,34 @@
       </c>
       <c r="Y24" s="23">
         <f t="shared" si="6"/>
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="Z24" s="23">
         <f t="shared" si="7"/>
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="AA24" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+        <v>Mixed red/blue</v>
+      </c>
+      <c r="AB24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="str">
         <f>DATA!A25</f>
         <v>MS</v>
@@ -5904,8 +6300,24 @@
         <f t="shared" si="8"/>
         <v>Always red</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AC25" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD25" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE25" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="str">
         <f>DATA!A26</f>
         <v>MO</v>
@@ -5997,8 +6409,24 @@
         <f t="shared" si="8"/>
         <v>Always red</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB26">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AC26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="str">
         <f>DATA!A27</f>
         <v>MT</v>
@@ -6090,8 +6518,24 @@
         <f t="shared" si="8"/>
         <v>Always red</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB27">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AC27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD27" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE27" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="str">
         <f>DATA!A28</f>
         <v>NE</v>
@@ -6173,18 +6617,34 @@
       </c>
       <c r="Y28" s="23">
         <f t="shared" si="6"/>
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="Z28" s="23">
         <f t="shared" si="7"/>
-        <v>-0.25</v>
+        <v>-0.19999999999999996</v>
       </c>
       <c r="AA28" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+        <v>Mixed red/blue</v>
+      </c>
+      <c r="AB28" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD28" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="str">
         <f>DATA!A29</f>
         <v>NV</v>
@@ -6266,18 +6726,34 @@
       </c>
       <c r="Y29" s="23">
         <f t="shared" si="6"/>
-        <v>-0.25</v>
+        <v>-0.4</v>
       </c>
       <c r="Z29" s="23">
         <f t="shared" si="7"/>
-        <v>-0.65</v>
+        <v>-0.8</v>
       </c>
       <c r="AA29" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+        <v>Mixed red/blue</v>
+      </c>
+      <c r="AB29" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD29" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="str">
         <f>DATA!A30</f>
         <v>NH</v>
@@ -6359,18 +6835,34 @@
       </c>
       <c r="Y30" s="23">
         <f t="shared" si="6"/>
-        <v>-0.75</v>
+        <v>-0.8</v>
       </c>
       <c r="Z30" s="23">
         <f t="shared" si="7"/>
-        <v>-0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA30" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+        <v>Mixed red/blue</v>
+      </c>
+      <c r="AB30" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC30" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD30" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="str">
         <f>DATA!A31</f>
         <v>NJ</v>
@@ -6452,18 +6944,34 @@
       </c>
       <c r="Y31" s="23">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>-1.4</v>
       </c>
       <c r="Z31" s="23">
         <f t="shared" si="7"/>
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
       <c r="AA31" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+        <v>Mixed red/blue</v>
+      </c>
+      <c r="AB31" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC31" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD31" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="str">
         <f>DATA!A32</f>
         <v>NM</v>
@@ -6545,18 +7053,34 @@
       </c>
       <c r="Y32" s="23">
         <f t="shared" si="6"/>
-        <v>-0.25</v>
+        <v>-0.2</v>
       </c>
       <c r="Z32" s="23">
         <f t="shared" si="7"/>
-        <v>-0.65</v>
+        <v>-0.60000000000000009</v>
       </c>
       <c r="AA32" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+        <v>Mixed red/blue</v>
+      </c>
+      <c r="AB32" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC32" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="str">
         <f>DATA!A33</f>
         <v>NY</v>
@@ -6648,8 +7172,24 @@
         <f t="shared" si="8"/>
         <v>Always blue</v>
       </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB33" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AD33" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE33" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="str">
         <f>DATA!A34</f>
         <v>NC</v>
@@ -6709,21 +7249,21 @@
       </c>
       <c r="P34" s="27"/>
       <c r="R34" s="6">
-        <f t="shared" ref="R34:R51" si="9">MIN(D34:H34)</f>
+        <f t="shared" ref="R34:R51" si="13">MIN(D34:H34)</f>
         <v>-1</v>
       </c>
       <c r="S34" s="6">
-        <f t="shared" ref="S34:S51" si="10">MAX(D34:H34)</f>
+        <f t="shared" ref="S34:S51" si="14">MAX(D34:H34)</f>
         <v>0</v>
       </c>
       <c r="T34" s="23">
-        <f t="shared" ref="T34:T51" si="11">AVERAGE(D34:H34)</f>
+        <f t="shared" ref="T34:T51" si="15">AVERAGE(D34:H34)</f>
         <v>-0.4</v>
       </c>
       <c r="U34" s="27"/>
       <c r="W34" s="6">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X34" s="6">
         <f t="shared" si="5"/>
@@ -6731,18 +7271,34 @@
       </c>
       <c r="Y34" s="23">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Z34" s="23">
         <f t="shared" si="7"/>
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AA34" t="str">
         <f t="shared" si="8"/>
         <v>Always red</v>
       </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB34">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AC34" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD34" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE34" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="str">
         <f>DATA!A35</f>
         <v>ND</v>
@@ -6802,15 +7358,15 @@
       </c>
       <c r="P35" s="27"/>
       <c r="R35" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="S35" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T35" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-0.6</v>
       </c>
       <c r="U35" s="27"/>
@@ -6834,8 +7390,24 @@
         <f t="shared" si="8"/>
         <v>Always red</v>
       </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB35">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AC35" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD35" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE35" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="str">
         <f>DATA!A36</f>
         <v>OH</v>
@@ -6895,15 +7467,15 @@
       </c>
       <c r="P36" s="27"/>
       <c r="R36" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="S36" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="T36" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.6</v>
       </c>
       <c r="U36" s="27"/>
@@ -6917,18 +7489,34 @@
       </c>
       <c r="Y36" s="23">
         <f t="shared" si="6"/>
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z36" s="23">
         <f t="shared" si="7"/>
-        <v>1.9</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="AA36" t="str">
         <f t="shared" si="8"/>
         <v>Always red</v>
       </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB36">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AC36" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD36" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE36" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="str">
         <f>DATA!A37</f>
         <v>OK</v>
@@ -6988,15 +7576,15 @@
       </c>
       <c r="P37" s="27"/>
       <c r="R37" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="S37" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T37" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U37" s="27"/>
@@ -7010,18 +7598,34 @@
       </c>
       <c r="Y37" s="23">
         <f t="shared" si="6"/>
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="Z37" s="23">
         <f t="shared" si="7"/>
-        <v>0.25</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="AA37" t="str">
         <f t="shared" si="8"/>
         <v>Always red</v>
       </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB37">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AC37" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD37" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="str">
         <f>DATA!A38</f>
         <v>OR</v>
@@ -7081,15 +7685,15 @@
       </c>
       <c r="P38" s="27"/>
       <c r="R38" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="S38" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
       <c r="T38" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-1</v>
       </c>
       <c r="U38" s="27"/>
@@ -7113,8 +7717,24 @@
         <f t="shared" si="8"/>
         <v>Always blue</v>
       </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB38" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AD38" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE38" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="str">
         <f>DATA!A39</f>
         <v>PA</v>
@@ -7174,21 +7794,21 @@
       </c>
       <c r="P39" s="27"/>
       <c r="R39" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-2</v>
       </c>
       <c r="S39" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="T39" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.6</v>
       </c>
       <c r="U39" s="27"/>
       <c r="W39" s="6">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39" s="6">
         <f t="shared" si="5"/>
@@ -7196,18 +7816,34 @@
       </c>
       <c r="Y39" s="23">
         <f t="shared" si="6"/>
-        <v>2.75</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Z39" s="23">
         <f t="shared" si="7"/>
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="AA39" t="str">
         <f t="shared" si="8"/>
-        <v>Always red</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+        <v>Mixed red/blue</v>
+      </c>
+      <c r="AB39" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC39" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD39" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE39">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="str">
         <f>DATA!A40</f>
         <v>RI</v>
@@ -7267,15 +7903,15 @@
       </c>
       <c r="P40" s="27"/>
       <c r="R40" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="S40" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
       <c r="T40" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-1</v>
       </c>
       <c r="U40" s="27"/>
@@ -7299,8 +7935,24 @@
         <f t="shared" si="8"/>
         <v>Always blue</v>
       </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB40" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AD40" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE40" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="str">
         <f>DATA!A41</f>
         <v>SC</v>
@@ -7360,15 +8012,15 @@
       </c>
       <c r="P41" s="27"/>
       <c r="R41" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S41" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T41" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
       <c r="U41" s="27"/>
@@ -7382,18 +8034,34 @@
       </c>
       <c r="Y41" s="23">
         <f t="shared" si="6"/>
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z41" s="23">
         <f t="shared" si="7"/>
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA41" t="str">
         <f t="shared" si="8"/>
         <v>Always red</v>
       </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB41">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AC41" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD41" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE41" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="str">
         <f>DATA!A42</f>
         <v>SD</v>
@@ -7453,15 +8121,15 @@
       </c>
       <c r="P42" s="27"/>
       <c r="R42" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="S42" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T42" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-0.2</v>
       </c>
       <c r="U42" s="27"/>
@@ -7485,8 +8153,24 @@
         <f t="shared" si="8"/>
         <v>Always red</v>
       </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB42">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AC42" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD42" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE42" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="str">
         <f>DATA!A43</f>
         <v>TN</v>
@@ -7546,15 +8230,15 @@
       </c>
       <c r="P43" s="27"/>
       <c r="R43" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="S43" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T43" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-0.4</v>
       </c>
       <c r="U43" s="27"/>
@@ -7568,27 +8252,43 @@
       </c>
       <c r="Y43" s="23">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Z43" s="23">
         <f t="shared" si="7"/>
-        <v>1.9</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="AA43" t="str">
         <f t="shared" si="8"/>
         <v>Always red</v>
       </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A44" s="37" t="str">
+      <c r="AB43">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AC43" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD43" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE43" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="str">
         <f>DATA!A44</f>
         <v>TX</v>
       </c>
-      <c r="B44" s="37" t="str">
+      <c r="B44" s="5" t="str">
         <f>DATA!B44</f>
         <v xml:space="preserve"> Texas</v>
       </c>
-      <c r="C44" s="38">
+      <c r="C44" s="6">
         <f>DATA!C44</f>
         <v>-2</v>
       </c>
@@ -7596,19 +8296,19 @@
         <f>DATA!D44</f>
         <v>-2</v>
       </c>
-      <c r="E44" s="38">
+      <c r="E44" s="6">
         <f>DATA!E44</f>
         <v>3</v>
       </c>
-      <c r="F44" s="38">
+      <c r="F44" s="6">
         <f>DATA!F44</f>
         <v>3</v>
       </c>
-      <c r="G44" s="38">
+      <c r="G44" s="6">
         <f>DATA!G44</f>
         <v>2</v>
       </c>
-      <c r="H44" s="38">
+      <c r="H44" s="6">
         <f>DATA!H44</f>
         <v>3</v>
       </c>
@@ -7616,15 +8316,15 @@
         <f>DATA!I44</f>
         <v>3</v>
       </c>
-      <c r="J44" s="38">
+      <c r="J44" s="6">
         <f>DATA!J44</f>
         <v>4</v>
       </c>
-      <c r="K44" s="38">
+      <c r="K44" s="6">
         <f>DATA!K44</f>
         <v>5</v>
       </c>
-      <c r="L44" s="38">
+      <c r="L44" s="6">
         <f>DATA!L44</f>
         <v>4</v>
       </c>
@@ -7632,49 +8332,63 @@
         <f>DATA!M44</f>
         <v>3</v>
       </c>
-      <c r="N44" s="39"/>
+      <c r="N44" s="34"/>
       <c r="O44" s="15">
         <f t="shared" si="3"/>
         <v>-2</v>
       </c>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="38">
-        <f t="shared" si="9"/>
+      <c r="P44" s="27"/>
+      <c r="R44" s="6">
+        <f t="shared" si="13"/>
         <v>-2</v>
       </c>
-      <c r="S44" s="38">
-        <f t="shared" si="10"/>
+      <c r="S44" s="6">
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="T44" s="42">
-        <f t="shared" si="11"/>
+      <c r="T44" s="23">
+        <f t="shared" si="15"/>
         <v>1.8</v>
       </c>
-      <c r="U44" s="40"/>
-      <c r="V44" s="41"/>
-      <c r="W44" s="38">
+      <c r="U44" s="27"/>
+      <c r="W44" s="6">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="X44" s="38">
+      <c r="X44" s="6">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="Y44" s="42">
+      <c r="Y44" s="23">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="Z44" s="42">
+        <v>3.8</v>
+      </c>
+      <c r="Z44" s="23">
         <f t="shared" si="7"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AA44" s="41" t="str">
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="AA44" t="str">
         <f t="shared" si="8"/>
         <v>Always red</v>
       </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB44">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AC44" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD44" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE44" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="str">
         <f>DATA!A45</f>
         <v>UT</v>
@@ -7734,15 +8448,15 @@
       </c>
       <c r="P45" s="27"/>
       <c r="R45" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="S45" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T45" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-0.2</v>
       </c>
       <c r="U45" s="27"/>
@@ -7756,18 +8470,34 @@
       </c>
       <c r="Y45" s="23">
         <f t="shared" si="6"/>
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="Z45" s="23">
         <f t="shared" si="7"/>
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA45" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+        <v>Mixed red/blue</v>
+      </c>
+      <c r="AB45" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC45" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD45" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE45">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="str">
         <f>DATA!A46</f>
         <v>VT</v>
@@ -7827,15 +8557,15 @@
       </c>
       <c r="P46" s="27"/>
       <c r="R46" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="S46" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T46" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-0.6</v>
       </c>
       <c r="U46" s="27"/>
@@ -7859,8 +8589,24 @@
         <f t="shared" si="8"/>
         <v>Always blue</v>
       </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB46" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AD46" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE46" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="str">
         <f>DATA!A47</f>
         <v>VA</v>
@@ -7920,15 +8666,15 @@
       </c>
       <c r="P47" s="27"/>
       <c r="R47" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S47" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="T47" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.4</v>
       </c>
       <c r="U47" s="27"/>
@@ -7942,18 +8688,34 @@
       </c>
       <c r="Y47" s="23">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="Z47" s="23">
         <f t="shared" si="7"/>
-        <v>-0.39999999999999991</v>
+        <v>-0.79999999999999993</v>
       </c>
       <c r="AA47" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+        <v>Mixed red/blue</v>
+      </c>
+      <c r="AB47" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC47" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD47" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE47">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="str">
         <f>DATA!A48</f>
         <v>WA</v>
@@ -8013,15 +8775,15 @@
       </c>
       <c r="P48" s="27"/>
       <c r="R48" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="S48" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T48" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-0.8</v>
       </c>
       <c r="U48" s="27"/>
@@ -8045,8 +8807,24 @@
         <f t="shared" si="8"/>
         <v>Always blue</v>
       </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB48" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC48">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AD48" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE48" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="str">
         <f>DATA!A49</f>
         <v>WV</v>
@@ -8106,15 +8884,15 @@
       </c>
       <c r="P49" s="27"/>
       <c r="R49" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S49" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T49" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U49" s="27"/>
@@ -8128,18 +8906,34 @@
       </c>
       <c r="Y49" s="23">
         <f t="shared" si="6"/>
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="Z49" s="23">
         <f t="shared" si="7"/>
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA49" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+        <v>Mixed red/blue</v>
+      </c>
+      <c r="AB49" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC49" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD49" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE49">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="str">
         <f>DATA!A50</f>
         <v>WI</v>
@@ -8199,15 +8993,15 @@
       </c>
       <c r="P50" s="27"/>
       <c r="R50" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="S50" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T50" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-0.2</v>
       </c>
       <c r="U50" s="27"/>
@@ -8231,8 +9025,24 @@
         <f t="shared" si="8"/>
         <v>Always red</v>
       </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB50">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AC50" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD50" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE50" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="str">
         <f>DATA!A51</f>
         <v>WY</v>
@@ -8293,15 +9103,15 @@
       <c r="P51" s="27"/>
       <c r="Q51" s="24"/>
       <c r="R51" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="S51" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T51" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U51" s="27"/>
@@ -8326,107 +9136,190 @@
         <f t="shared" si="8"/>
         <v>Always red</v>
       </c>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="24">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AC51" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD51" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE51" s="24" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="6">
-        <f>COUNTIF(C2:C51,"=0")</f>
+        <f t="shared" ref="C52:M52" si="16">COUNTIF(C2:C51,"=0")</f>
         <v>10</v>
       </c>
       <c r="D52" s="15">
-        <f>COUNTIF(D2:D51,"=0")</f>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="E52" s="6">
-        <f>COUNTIF(E2:E51,"=0")</f>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="F52" s="6">
-        <f>COUNTIF(F2:F51,"=0")</f>
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
       <c r="G52" s="6">
-        <f>COUNTIF(G2:G51,"=0")</f>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="H52" s="6">
-        <f>COUNTIF(H2:H51,"=0")</f>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="I52" s="15">
-        <f>COUNTIF(I2:I51,"=0")</f>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="J52" s="6">
-        <f>COUNTIF(J2:J51,"=0")</f>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="K52" s="6">
-        <f>COUNTIF(K2:K51,"=0")</f>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="L52" s="6">
-        <f>COUNTIF(L2:L51,"=0")</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="M52" s="6">
-        <f>COUNTIF(M2:M51,"=0")</f>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="N52" s="34"/>
       <c r="O52" s="15"/>
       <c r="P52" s="27"/>
       <c r="R52" s="6">
-        <f t="shared" ref="R52" si="12">MIN(D52:H52)</f>
+        <f t="shared" ref="R52" si="17">MIN(D52:H52)</f>
         <v>8</v>
       </c>
       <c r="S52" s="6">
-        <f t="shared" ref="S52" si="13">MAX(D52:H52)</f>
+        <f t="shared" ref="S52" si="18">MAX(D52:H52)</f>
         <v>13</v>
       </c>
       <c r="T52" s="23">
-        <f t="shared" ref="T52" si="14">AVERAGE(D52:H52)</f>
+        <f t="shared" ref="T52" si="19">AVERAGE(D52:H52)</f>
         <v>11.4</v>
       </c>
       <c r="U52" s="27"/>
       <c r="W52" s="6">
-        <f t="shared" ref="W52" si="15">MIN(I52:L52)</f>
+        <f>MIN(I52:M52)</f>
         <v>4</v>
       </c>
       <c r="X52" s="6">
-        <f t="shared" ref="X52" si="16">MAX(I52:L52)</f>
+        <f>MAX(I52:M52)</f>
         <v>7</v>
       </c>
       <c r="Y52" s="23">
-        <f t="shared" ref="Y52" si="17">AVERAGE(I52:L52)</f>
-        <v>6</v>
+        <f>AVERAGE(I52:M52)</f>
+        <v>5.8</v>
       </c>
       <c r="Z52" s="23">
-        <f t="shared" ref="Z52" si="18">Y52-T52</f>
-        <v>-5.4</v>
-      </c>
-      <c r="AA52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Z52" si="20">Y52-T52</f>
+        <v>-5.6000000000000005</v>
+      </c>
+      <c r="AB52">
+        <f>SUM(AB2:AB51)</f>
+        <v>23</v>
+      </c>
+      <c r="AC52">
+        <f>SUM(AC2:AC51)</f>
+        <v>11</v>
+      </c>
+      <c r="AD52">
+        <f t="shared" ref="AD52:AE52" si="21">SUM(AD2:AD51)</f>
+        <v>1</v>
+      </c>
+      <c r="AE52">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" s="35"/>
       <c r="B53" s="5"/>
-      <c r="D53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="M53" s="19"/>
+      <c r="C53" s="37">
+        <f>C52/50</f>
+        <v>0.2</v>
+      </c>
+      <c r="D53" s="38">
+        <f t="shared" ref="D53:M53" si="22">D52/50</f>
+        <v>0.24</v>
+      </c>
+      <c r="E53" s="37">
+        <f t="shared" si="22"/>
+        <v>0.24</v>
+      </c>
+      <c r="F53" s="37">
+        <f t="shared" si="22"/>
+        <v>0.26</v>
+      </c>
+      <c r="G53" s="37">
+        <f t="shared" si="22"/>
+        <v>0.24</v>
+      </c>
+      <c r="H53" s="37">
+        <f t="shared" si="22"/>
+        <v>0.16</v>
+      </c>
+      <c r="I53" s="38">
+        <f t="shared" si="22"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J53" s="37">
+        <f t="shared" si="22"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K53" s="37">
+        <f t="shared" si="22"/>
+        <v>0.12</v>
+      </c>
+      <c r="L53" s="37">
+        <f t="shared" si="22"/>
+        <v>0.08</v>
+      </c>
+      <c r="M53" s="39">
+        <f t="shared" si="22"/>
+        <v>0.1</v>
+      </c>
       <c r="N53" s="34"/>
       <c r="O53" s="15"/>
       <c r="P53" s="27"/>
       <c r="U53" s="27"/>
-      <c r="AA53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="37">
+        <f t="shared" ref="AB53:AC53" si="23">AB52/50</f>
+        <v>0.46</v>
+      </c>
+      <c r="AC53" s="37">
+        <f t="shared" si="23"/>
+        <v>0.22</v>
+      </c>
+      <c r="AD53" s="37">
+        <f t="shared" ref="AD53:AE53" si="24">AD52/50</f>
+        <v>0.02</v>
+      </c>
+      <c r="AE53" s="37">
+        <f t="shared" si="24"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="D54" s="15"/>
@@ -8436,11 +9329,8 @@
       <c r="O54" s="29"/>
       <c r="P54" s="27"/>
       <c r="U54" s="27"/>
-      <c r="AA54">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="D55" s="15"/>
@@ -8451,53 +9341,53 @@
       <c r="P55" s="27"/>
       <c r="U55" s="27"/>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
         <v>118</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="11">
-        <f>C1</f>
+        <f t="shared" ref="C56:M56" si="25">C1</f>
         <v>2000</v>
       </c>
       <c r="D56" s="14">
-        <f>D1</f>
+        <f t="shared" si="25"/>
         <v>2002</v>
       </c>
       <c r="E56" s="11">
-        <f>E1</f>
+        <f t="shared" si="25"/>
         <v>2004</v>
       </c>
       <c r="F56" s="11">
-        <f>F1</f>
+        <f t="shared" si="25"/>
         <v>2006</v>
       </c>
       <c r="G56" s="11">
-        <f>G1</f>
+        <f t="shared" si="25"/>
         <v>2008</v>
       </c>
       <c r="H56" s="11">
-        <f>H1</f>
+        <f t="shared" si="25"/>
         <v>2010</v>
       </c>
       <c r="I56" s="14">
-        <f>I1</f>
+        <f t="shared" si="25"/>
         <v>2012</v>
       </c>
       <c r="J56" s="11">
-        <f>J1</f>
+        <f t="shared" si="25"/>
         <v>2014</v>
       </c>
       <c r="K56" s="11">
-        <f>K1</f>
+        <f t="shared" si="25"/>
         <v>2016</v>
       </c>
       <c r="L56" s="11">
-        <f>L1</f>
+        <f t="shared" si="25"/>
         <v>2018</v>
       </c>
       <c r="M56" s="18">
-        <f>M1</f>
+        <f t="shared" si="25"/>
         <v>2020</v>
       </c>
       <c r="N56" s="34"/>
@@ -8544,7 +9434,7 @@
         <v>chg</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>102</v>
       </c>
@@ -8618,23 +9508,23 @@
       <c r="U57" s="27"/>
       <c r="V57" s="31"/>
       <c r="W57" s="10">
-        <f>MIN(I57:L57)</f>
+        <f>MIN(I57:M57)</f>
         <v>203</v>
       </c>
       <c r="X57" s="10">
-        <f>MAX(I57:L57)</f>
+        <f>MAX(I57:M57)</f>
         <v>229</v>
       </c>
       <c r="Y57" s="32">
-        <f>AVERAGE(I57:L57)</f>
-        <v>217.25</v>
+        <f>AVERAGE(I57:M57)</f>
+        <v>217</v>
       </c>
       <c r="Z57" s="31">
-        <f t="shared" ref="Z57" si="19">Y57-T57</f>
-        <v>1.4499999999999886</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Z57" si="26">Y57-T57</f>
+        <v>1.1999999999999886</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>119</v>
       </c>
@@ -8706,23 +9596,23 @@
       </c>
       <c r="U58" s="27"/>
       <c r="W58" s="6">
-        <f>MIN(I58:L58)</f>
+        <f>MIN(I58:M58)</f>
         <v>-14</v>
       </c>
       <c r="X58" s="6">
-        <f>MAX(I58:L58)</f>
+        <f>MAX(I58:M58)</f>
         <v>11</v>
       </c>
       <c r="Y58" s="23">
-        <f>AVERAGE(I58:L58)</f>
-        <v>-0.25</v>
+        <f>AVERAGE(I58:M58)</f>
+        <v>-0.4</v>
       </c>
       <c r="Z58">
-        <f t="shared" ref="Z58" si="20">Y58-T58</f>
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Z58" si="27">Y58-T58</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="D59" s="15"/>
@@ -8733,7 +9623,7 @@
       <c r="P59" s="27"/>
       <c r="U59" s="27"/>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
         <v>120</v>
       </c>
@@ -8763,7 +9653,7 @@
       <c r="Y60" s="24"/>
       <c r="Z60" s="24"/>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="str">
         <f>DATA!A52</f>
         <v>REP</v>
@@ -8836,23 +9726,23 @@
       </c>
       <c r="U61" s="27"/>
       <c r="W61" s="6">
-        <f t="shared" ref="W61:W63" si="21">MIN(I61:L61)</f>
+        <f>MIN(I61:M61)</f>
         <v>199</v>
       </c>
       <c r="X61" s="6">
-        <f t="shared" ref="X61:X63" si="22">MAX(I61:L61)</f>
+        <f>MAX(I61:M61)</f>
         <v>247</v>
       </c>
       <c r="Y61" s="23">
-        <f t="shared" ref="Y61:Y63" si="23">AVERAGE(I61:L61)</f>
-        <v>230.25</v>
+        <f>AVERAGE(I61:M61)</f>
+        <v>226.8</v>
       </c>
       <c r="Z61">
-        <f t="shared" ref="Z61:Z63" si="24">Y61-T61</f>
-        <v>13.449999999999989</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Z61:Z63" si="28">Y61-T61</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="str">
         <f>DATA!A53</f>
         <v>DEM</v>
@@ -8927,23 +9817,23 @@
       <c r="U62" s="27"/>
       <c r="V62" s="24"/>
       <c r="W62" s="8">
-        <f t="shared" si="21"/>
+        <f>MIN(I62:M62)</f>
         <v>188</v>
       </c>
       <c r="X62" s="8">
-        <f t="shared" si="22"/>
+        <f>MAX(I62:M62)</f>
         <v>235</v>
       </c>
       <c r="Y62" s="25">
-        <f t="shared" si="23"/>
-        <v>204.5</v>
+        <f>AVERAGE(I62:M62)</f>
+        <v>208</v>
       </c>
       <c r="Z62" s="24">
-        <f t="shared" si="24"/>
-        <v>-13.300000000000011</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+        <f t="shared" si="28"/>
+        <v>-9.8000000000000114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>115</v>
       </c>
@@ -9015,23 +9905,23 @@
       </c>
       <c r="U63" s="27"/>
       <c r="W63" s="6">
-        <f t="shared" si="21"/>
+        <f>MIN(I63:M63)</f>
         <v>-17</v>
       </c>
       <c r="X63" s="6">
-        <f t="shared" si="22"/>
+        <f>MAX(I63:M63)</f>
         <v>29</v>
       </c>
       <c r="Y63" s="23">
-        <f t="shared" si="23"/>
-        <v>12.75</v>
+        <f>AVERAGE(I63:M63)</f>
+        <v>9.4</v>
       </c>
       <c r="Z63">
-        <f t="shared" si="24"/>
-        <v>13.55</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+        <f t="shared" si="28"/>
+        <v>10.200000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="D64" s="15"/>
@@ -9144,20 +10034,20 @@
       </c>
       <c r="U66" s="27"/>
       <c r="W66" s="6">
-        <f t="shared" ref="W66:W68" si="25">MIN(I66:L66)</f>
-        <v>34</v>
+        <f>MIN(I66:M66)</f>
+        <v>30</v>
       </c>
       <c r="X66" s="6">
-        <f t="shared" ref="X66:X68" si="26">MAX(I66:L66)</f>
+        <f>MAX(I66:M66)</f>
         <v>43</v>
       </c>
       <c r="Y66" s="23">
-        <f t="shared" ref="Y66:Y68" si="27">AVERAGE(I66:L66)</f>
-        <v>40</v>
+        <f>AVERAGE(I66:M66)</f>
+        <v>38</v>
       </c>
       <c r="Z66">
-        <f t="shared" ref="Z66:Z68" si="28">Y66-T66</f>
-        <v>15.600000000000001</v>
+        <f t="shared" ref="Z66:Z68" si="29">Y66-T66</f>
+        <v>13.600000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.2">
@@ -9234,20 +10124,20 @@
       <c r="U67" s="27"/>
       <c r="V67" s="24"/>
       <c r="W67" s="8">
-        <f t="shared" si="25"/>
+        <f>MIN(I67:M67)</f>
         <v>-38</v>
       </c>
       <c r="X67" s="8">
-        <f t="shared" si="26"/>
+        <f>MAX(I67:M67)</f>
         <v>-21</v>
       </c>
       <c r="Y67" s="25">
-        <f t="shared" si="27"/>
-        <v>-27</v>
+        <f>AVERAGE(I67:M67)</f>
+        <v>-28.2</v>
       </c>
       <c r="Z67" s="24">
-        <f t="shared" si="28"/>
-        <v>-3.6000000000000014</v>
+        <f t="shared" si="29"/>
+        <v>-4.8000000000000007</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.2">
@@ -9322,20 +10212,20 @@
       </c>
       <c r="U68" s="27"/>
       <c r="W68" s="6">
-        <f t="shared" si="25"/>
+        <f>MIN(I68:M68)</f>
         <v>-4</v>
       </c>
       <c r="X68" s="6">
-        <f t="shared" si="26"/>
+        <f>MAX(I68:M68)</f>
         <v>20</v>
       </c>
       <c r="Y68" s="23">
-        <f t="shared" si="27"/>
-        <v>13</v>
+        <f>AVERAGE(I68:M68)</f>
+        <v>9.8000000000000007</v>
       </c>
       <c r="Z68">
-        <f t="shared" si="28"/>
-        <v>12</v>
+        <f t="shared" si="29"/>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.2">
@@ -9347,43 +10237,43 @@
         <v>1</v>
       </c>
       <c r="D70" s="6" t="b">
-        <f t="shared" ref="D70:M70" si="29">AND(D57&lt;218,D61&gt;=218)</f>
+        <f t="shared" ref="D70:M70" si="30">AND(D57&lt;218,D61&gt;=218)</f>
         <v>0</v>
       </c>
       <c r="E70" s="6" t="b">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="F70" s="6" t="b">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="G70" s="6" t="b">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H70" s="6" t="b">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I70" s="36" t="b">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="J70" s="6" t="b">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K70" s="6" t="b">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L70" s="6" t="b">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M70" s="6" t="b">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>

--- a/data/analysis/pivot-by-state.xlsx
+++ b/data/analysis/pivot-by-state.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629E29D1-1D4A-4F4F-9A1F-8E84A3DFCD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB98231-84A1-9044-9617-592F2BEC7D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23360" yWindow="11300" windowWidth="27560" windowHeight="17500" activeTab="1" xr2:uid="{243A2677-B725-5B4A-8946-B944A46BAF00}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" activeTab="1" xr2:uid="{243A2677-B725-5B4A-8946-B944A46BAF00}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="140">
   <si>
     <t>XX</t>
   </si>
@@ -463,7 +463,25 @@
     <t>Always PR</t>
   </si>
   <si>
-    <t>Mixed red/blue</t>
+    <t>ABS(REP UE)</t>
+  </si>
+  <si>
+    <t>ABS(DEM UE)</t>
+  </si>
+  <si>
+    <t>SCRATCH PAD</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>Average R UE</t>
+  </si>
+  <si>
+    <t>Average D UE</t>
+  </si>
+  <si>
+    <t>Missing</t>
   </si>
 </sst>
 </file>
@@ -541,7 +559,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -635,11 +653,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -688,6 +726,25 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3572,13 +3629,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FA875C-1566-2D43-8637-203DA92E1C1B}">
-  <dimension ref="A1:AE70"/>
+  <dimension ref="A1:AE95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R60" sqref="R60"/>
+      <selection pane="bottomRight" activeCell="M83" sqref="M83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3698,7 +3755,7 @@
         <v>132</v>
       </c>
       <c r="AE1" s="22" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
@@ -3790,7 +3847,7 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="AA2" t="str">
-        <f>IF(COUNTIF(I2:M2,"&gt;0")=5,"Always red",IF(COUNTIF(I2:M2,"&lt;0")=5,"Always blue",IF(COUNTIF(I2:M2,"=0")=5,"Always PR","Mixed red/blue")))</f>
+        <f>IF(COUNTIF(I2:M2,"&gt;0")=5,"Always red",IF(COUNTIF(I2:M2,"&lt;0")=5,"Always blue",IF(COUNTIF(I2:M2,"=0")=5,"Always PR","Mixed")))</f>
         <v>Always red</v>
       </c>
       <c r="AB2">
@@ -3806,7 +3863,7 @@
         <v/>
       </c>
       <c r="AE2" t="str">
-        <f>IF(AA2="Mixed red/blue",1,"")</f>
+        <f>IF(AA2="Mixed",1,"")</f>
         <v/>
       </c>
     </row>
@@ -3899,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="AA3" t="str">
-        <f t="shared" ref="AA3:AA51" si="8">IF(COUNTIF(I3:M3,"&gt;0")=5,"Always red",IF(COUNTIF(I3:M3,"&lt;0")=5,"Always blue",IF(COUNTIF(I3:M3,"=0")=5,"Always PR","Mixed red/blue")))</f>
+        <f t="shared" ref="AA3:AA51" si="8">IF(COUNTIF(I3:M3,"&gt;0")=5,"Always red",IF(COUNTIF(I3:M3,"&lt;0")=5,"Always blue",IF(COUNTIF(I3:M3,"=0")=5,"Always PR","Mixed")))</f>
         <v>Always red</v>
       </c>
       <c r="AB3">
@@ -3915,7 +3972,7 @@
         <v/>
       </c>
       <c r="AE3" t="str">
-        <f t="shared" ref="AE3:AE51" si="12">IF(AA3="Mixed red/blue",1,"")</f>
+        <f t="shared" ref="AE3:AE51" si="12">IF(AA3="Mixed",1,"")</f>
         <v/>
       </c>
     </row>
@@ -4009,7 +4066,7 @@
       </c>
       <c r="AA4" t="str">
         <f t="shared" si="8"/>
-        <v>Mixed red/blue</v>
+        <v>Mixed</v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="9"/>
@@ -4881,7 +4938,7 @@
       </c>
       <c r="AA12" t="str">
         <f t="shared" si="8"/>
-        <v>Mixed red/blue</v>
+        <v>Mixed</v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="9"/>
@@ -5317,7 +5374,7 @@
       </c>
       <c r="AA16" t="str">
         <f t="shared" si="8"/>
-        <v>Mixed red/blue</v>
+        <v>Mixed</v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="9"/>
@@ -5753,7 +5810,7 @@
       </c>
       <c r="AA20" t="str">
         <f t="shared" si="8"/>
-        <v>Mixed red/blue</v>
+        <v>Mixed</v>
       </c>
       <c r="AB20" t="str">
         <f t="shared" si="9"/>
@@ -6080,7 +6137,7 @@
       </c>
       <c r="AA23" t="str">
         <f t="shared" si="8"/>
-        <v>Mixed red/blue</v>
+        <v>Mixed</v>
       </c>
       <c r="AB23" t="str">
         <f t="shared" si="9"/>
@@ -6189,7 +6246,7 @@
       </c>
       <c r="AA24" t="str">
         <f t="shared" si="8"/>
-        <v>Mixed red/blue</v>
+        <v>Mixed</v>
       </c>
       <c r="AB24" t="str">
         <f t="shared" si="9"/>
@@ -6625,7 +6682,7 @@
       </c>
       <c r="AA28" t="str">
         <f t="shared" si="8"/>
-        <v>Mixed red/blue</v>
+        <v>Mixed</v>
       </c>
       <c r="AB28" t="str">
         <f t="shared" si="9"/>
@@ -6734,7 +6791,7 @@
       </c>
       <c r="AA29" t="str">
         <f t="shared" si="8"/>
-        <v>Mixed red/blue</v>
+        <v>Mixed</v>
       </c>
       <c r="AB29" t="str">
         <f t="shared" si="9"/>
@@ -6843,7 +6900,7 @@
       </c>
       <c r="AA30" t="str">
         <f t="shared" si="8"/>
-        <v>Mixed red/blue</v>
+        <v>Mixed</v>
       </c>
       <c r="AB30" t="str">
         <f t="shared" si="9"/>
@@ -6952,7 +7009,7 @@
       </c>
       <c r="AA31" t="str">
         <f t="shared" si="8"/>
-        <v>Mixed red/blue</v>
+        <v>Mixed</v>
       </c>
       <c r="AB31" t="str">
         <f t="shared" si="9"/>
@@ -7061,7 +7118,7 @@
       </c>
       <c r="AA32" t="str">
         <f t="shared" si="8"/>
-        <v>Mixed red/blue</v>
+        <v>Mixed</v>
       </c>
       <c r="AB32" t="str">
         <f t="shared" si="9"/>
@@ -7824,7 +7881,7 @@
       </c>
       <c r="AA39" t="str">
         <f t="shared" si="8"/>
-        <v>Mixed red/blue</v>
+        <v>Mixed</v>
       </c>
       <c r="AB39" t="str">
         <f t="shared" si="9"/>
@@ -8478,7 +8535,7 @@
       </c>
       <c r="AA45" t="str">
         <f t="shared" si="8"/>
-        <v>Mixed red/blue</v>
+        <v>Mixed</v>
       </c>
       <c r="AB45" t="str">
         <f t="shared" si="9"/>
@@ -8696,7 +8753,7 @@
       </c>
       <c r="AA47" t="str">
         <f t="shared" si="8"/>
-        <v>Mixed red/blue</v>
+        <v>Mixed</v>
       </c>
       <c r="AB47" t="str">
         <f t="shared" si="9"/>
@@ -8914,7 +8971,7 @@
       </c>
       <c r="AA49" t="str">
         <f t="shared" si="8"/>
-        <v>Mixed red/blue</v>
+        <v>Mixed</v>
       </c>
       <c r="AB49" t="str">
         <f t="shared" si="9"/>
@@ -10152,7 +10209,7 @@
         <f>DATA!C58</f>
         <v>7</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D68" s="42">
         <f>DATA!D58</f>
         <v>3</v>
       </c>
@@ -10172,7 +10229,7 @@
         <f>DATA!H58</f>
         <v>13</v>
       </c>
-      <c r="I68" s="15">
+      <c r="I68" s="42">
         <f>DATA!I58</f>
         <v>18</v>
       </c>
@@ -10228,6 +10285,13 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="N69" s="34"/>
+      <c r="P69" s="27"/>
+      <c r="U69" s="27"/>
+    </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>128</v>
@@ -10236,7 +10300,7 @@
         <f>AND(C57&lt;218,C61&gt;=218)</f>
         <v>1</v>
       </c>
-      <c r="D70" s="6" t="b">
+      <c r="D70" s="15" t="b">
         <f t="shared" ref="D70:M70" si="30">AND(D57&lt;218,D61&gt;=218)</f>
         <v>0</v>
       </c>
@@ -10256,7 +10320,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="I70" s="36" t="b">
+      <c r="I70" s="44" t="b">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
@@ -10275,6 +10339,383 @@
       <c r="M70" s="6" t="b">
         <f t="shared" si="30"/>
         <v>0</v>
+      </c>
+      <c r="N70" s="34"/>
+      <c r="P70" s="27"/>
+      <c r="U70" s="27"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="N71" s="34"/>
+      <c r="P71" s="27"/>
+      <c r="U71" s="27"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="N72" s="34"/>
+      <c r="P72" s="27"/>
+      <c r="U72" s="27"/>
+    </row>
+    <row r="73" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73" s="40"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="41"/>
+      <c r="K73" s="41"/>
+      <c r="L73" s="41"/>
+      <c r="M73" s="41"/>
+      <c r="N73" s="34"/>
+      <c r="O73" s="40"/>
+      <c r="P73" s="27"/>
+      <c r="Q73" s="40"/>
+      <c r="R73" s="40"/>
+      <c r="S73" s="40"/>
+      <c r="T73" s="40"/>
+      <c r="U73" s="27"/>
+      <c r="V73" s="40"/>
+      <c r="W73" s="40"/>
+      <c r="X73" s="40"/>
+      <c r="Y73" s="40"/>
+      <c r="Z73" s="40"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D74" s="15">
+        <f>ABS(D66)</f>
+        <v>25</v>
+      </c>
+      <c r="E74" s="6">
+        <f t="shared" ref="E74:H74" si="31">ABS(E66)</f>
+        <v>30</v>
+      </c>
+      <c r="F74" s="6">
+        <f t="shared" si="31"/>
+        <v>21</v>
+      </c>
+      <c r="G74" s="6">
+        <f t="shared" si="31"/>
+        <v>12</v>
+      </c>
+      <c r="H74" s="6">
+        <f t="shared" si="31"/>
+        <v>34</v>
+      </c>
+      <c r="I74" s="15">
+        <f t="shared" ref="I74:M74" si="32">ABS(I66)</f>
+        <v>43</v>
+      </c>
+      <c r="J74" s="6">
+        <f t="shared" si="32"/>
+        <v>42</v>
+      </c>
+      <c r="K74" s="6">
+        <f t="shared" si="32"/>
+        <v>41</v>
+      </c>
+      <c r="L74" s="6">
+        <f t="shared" si="32"/>
+        <v>34</v>
+      </c>
+      <c r="M74" s="6">
+        <f t="shared" si="32"/>
+        <v>30</v>
+      </c>
+      <c r="N74" s="34"/>
+      <c r="P74" s="27"/>
+      <c r="T74" s="6">
+        <f>AVERAGE(D74:H74)</f>
+        <v>24.4</v>
+      </c>
+      <c r="U74" s="27"/>
+      <c r="Y74" s="6">
+        <f>AVERAGE(I74:M74)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>134</v>
+      </c>
+      <c r="D75" s="15">
+        <f>ABS(D67)</f>
+        <v>22</v>
+      </c>
+      <c r="E75" s="6">
+        <f t="shared" ref="E75:H75" si="33">ABS(E67)</f>
+        <v>17</v>
+      </c>
+      <c r="F75" s="6">
+        <f t="shared" si="33"/>
+        <v>24</v>
+      </c>
+      <c r="G75" s="6">
+        <f t="shared" si="33"/>
+        <v>33</v>
+      </c>
+      <c r="H75" s="6">
+        <f t="shared" si="33"/>
+        <v>21</v>
+      </c>
+      <c r="I75" s="15">
+        <f t="shared" ref="I75:M75" si="34">ABS(I67)</f>
+        <v>25</v>
+      </c>
+      <c r="J75" s="6">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="K75" s="6">
+        <f t="shared" si="34"/>
+        <v>21</v>
+      </c>
+      <c r="L75" s="6">
+        <f t="shared" si="34"/>
+        <v>38</v>
+      </c>
+      <c r="M75" s="6">
+        <f t="shared" si="34"/>
+        <v>33</v>
+      </c>
+      <c r="N75" s="34"/>
+      <c r="P75" s="27"/>
+      <c r="T75" s="6">
+        <f>AVERAGE(D75:H75)</f>
+        <v>23.4</v>
+      </c>
+      <c r="U75" s="27"/>
+      <c r="Y75" s="6">
+        <f>AVERAGE(I75:M75)</f>
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="N76" s="34"/>
+      <c r="P76" s="27"/>
+      <c r="U76" s="27"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D77" s="15"/>
+      <c r="I77" s="15">
+        <f>I74</f>
+        <v>43</v>
+      </c>
+      <c r="J77" s="6">
+        <f t="shared" ref="J77:K77" si="35">J74</f>
+        <v>42</v>
+      </c>
+      <c r="K77" s="6">
+        <f t="shared" si="35"/>
+        <v>41</v>
+      </c>
+      <c r="N77" s="34"/>
+      <c r="P77" s="27"/>
+      <c r="U77" s="27"/>
+      <c r="Y77" s="6">
+        <f>AVERAGE(I77:M77)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J79" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K79" s="6">
+        <v>42</v>
+      </c>
+      <c r="L79" s="6">
+        <f>K79</f>
+        <v>42</v>
+      </c>
+      <c r="M79" s="6">
+        <f>L79</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J80" s="45"/>
+      <c r="K80" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="L80" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M80" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="81" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="J81" s="45"/>
+      <c r="K81" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="L81" s="6">
+        <v>-3</v>
+      </c>
+      <c r="M81" s="6">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="82" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="J82" s="45"/>
+      <c r="K82" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="L82" s="6">
+        <v>0</v>
+      </c>
+      <c r="M82" s="6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="83" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="J83" s="45"/>
+      <c r="K83" s="45"/>
+    </row>
+    <row r="84" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="J84" s="45"/>
+      <c r="K84" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="L84" s="6">
+        <f>$K85-L85</f>
+        <v>-6</v>
+      </c>
+      <c r="M84" s="6">
+        <f>$K85-M85</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="85" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I85" s="46"/>
+      <c r="J85" s="47"/>
+      <c r="K85" s="46">
+        <v>32</v>
+      </c>
+      <c r="L85" s="46">
+        <f>SUM(L79:L83)</f>
+        <v>38</v>
+      </c>
+      <c r="M85" s="46">
+        <f>SUM(M79:M83)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I86" s="49"/>
+      <c r="J86" s="50"/>
+      <c r="K86" s="49">
+        <f>K85-K79</f>
+        <v>-10</v>
+      </c>
+      <c r="L86" s="49"/>
+      <c r="M86" s="49"/>
+    </row>
+    <row r="88" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="J88" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="K88" s="6">
+        <v>23</v>
+      </c>
+      <c r="L88" s="6">
+        <f>K88</f>
+        <v>23</v>
+      </c>
+      <c r="M88" s="6">
+        <f>L88</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="J89" s="45"/>
+      <c r="K89" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="L89" s="6">
+        <v>4</v>
+      </c>
+      <c r="M89" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="J90" s="45"/>
+      <c r="K90" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="L90" s="6">
+        <v>2</v>
+      </c>
+      <c r="M90" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="J91" s="45"/>
+      <c r="K91" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="L91" s="6">
+        <v>3</v>
+      </c>
+      <c r="M91" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="J92" s="45"/>
+      <c r="K92" s="45"/>
+    </row>
+    <row r="93" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="J93" s="45"/>
+      <c r="K93" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="L93" s="6">
+        <f>$K94-L94</f>
+        <v>4</v>
+      </c>
+      <c r="M93" s="6">
+        <f>$K94-M94</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I94" s="46"/>
+      <c r="J94" s="46"/>
+      <c r="K94" s="46">
+        <v>36</v>
+      </c>
+      <c r="L94" s="46">
+        <f>SUM(L88:L92)</f>
+        <v>32</v>
+      </c>
+      <c r="M94" s="46">
+        <f>SUM(M88:M92)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="K95" s="6">
+        <f>K94-K88</f>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/analysis/pivot-by-state.xlsx
+++ b/data/analysis/pivot-by-state.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB98231-84A1-9044-9617-592F2BEC7D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964EC6DD-451D-7A47-9D21-1AEAE9A2B169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" activeTab="1" xr2:uid="{243A2677-B725-5B4A-8946-B944A46BAF00}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="141">
   <si>
     <t>XX</t>
   </si>
@@ -482,6 +482,9 @@
   </si>
   <si>
     <t>Missing</t>
+  </si>
+  <si>
+    <t>resp.</t>
   </si>
 </sst>
 </file>
@@ -677,7 +680,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -739,10 +742,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -3629,13 +3628,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FA875C-1566-2D43-8637-203DA92E1C1B}">
-  <dimension ref="A1:AE95"/>
+  <dimension ref="A1:AF95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M83" sqref="M83"/>
+      <selection pane="bottomRight" activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3652,11 +3651,12 @@
     <col min="21" max="21" width="3.1640625" customWidth="1"/>
     <col min="23" max="24" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.6640625" customWidth="1"/>
+    <col min="27" max="27" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="str">
         <f>DATA!A1</f>
         <v>XX</v>
@@ -3740,25 +3740,28 @@
         <v>123</v>
       </c>
       <c r="Z1" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA1" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="AA1" s="22" t="s">
+      <c r="AB1" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="AB1" s="22" t="s">
+      <c r="AC1" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="AC1" s="22" t="s">
+      <c r="AD1" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="AD1" s="22" t="s">
+      <c r="AE1" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="AE1" s="22" t="s">
+      <c r="AF1" s="22" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="str">
         <f>DATA!A2</f>
         <v>AL</v>
@@ -3843,31 +3846,34 @@
         <v>1.8</v>
       </c>
       <c r="Z2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="23">
         <f>Y2-T2</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="AA2" t="str">
+      <c r="AB2" t="str">
         <f>IF(COUNTIF(I2:M2,"&gt;0")=5,"Always red",IF(COUNTIF(I2:M2,"&lt;0")=5,"Always blue",IF(COUNTIF(I2:M2,"=0")=5,"Always PR","Mixed")))</f>
         <v>Always red</v>
       </c>
-      <c r="AB2">
-        <f>IF(AA2="Always red", 1,"")</f>
-        <v>1</v>
-      </c>
-      <c r="AC2" t="str">
-        <f>IF(AA2="Always blue",1, "")</f>
-        <v/>
+      <c r="AC2">
+        <f>IF(AB2="Always red", 1,"")</f>
+        <v>1</v>
       </c>
       <c r="AD2" t="str">
-        <f>IF(AA2="Always PR",1,"")</f>
+        <f>IF(AB2="Always blue",1, "")</f>
         <v/>
       </c>
       <c r="AE2" t="str">
-        <f>IF(AA2="Mixed",1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+        <f>IF(AB2="Always PR",1,"")</f>
+        <v/>
+      </c>
+      <c r="AF2" t="str">
+        <f>IF(AB2="Mixed",1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="str">
         <f>DATA!A3</f>
         <v>AK</v>
@@ -3940,43 +3946,46 @@
       </c>
       <c r="U3" s="27"/>
       <c r="W3" s="6">
-        <f t="shared" ref="W3:W51" si="4">MIN(I3:M3)</f>
+        <f>MIN(I3:M3)</f>
         <v>1</v>
       </c>
       <c r="X3" s="6">
-        <f t="shared" ref="X3:X51" si="5">MAX(I3:M3)</f>
+        <f>MAX(I3:M3)</f>
         <v>1</v>
       </c>
       <c r="Y3" s="23">
-        <f t="shared" ref="Y3:Y51" si="6">AVERAGE(I3:M3)</f>
+        <f>AVERAGE(I3:M3)</f>
         <v>1</v>
       </c>
       <c r="Z3" s="23">
-        <f t="shared" ref="Z3:Z51" si="7">Y3-T3</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" t="str">
-        <f t="shared" ref="AA3:AA51" si="8">IF(COUNTIF(I3:M3,"&gt;0")=5,"Always red",IF(COUNTIF(I3:M3,"&lt;0")=5,"Always blue",IF(COUNTIF(I3:M3,"=0")=5,"Always PR","Mixed")))</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="23">
+        <f>Y3-T3</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" t="str">
+        <f>IF(COUNTIF(I3:M3,"&gt;0")=5,"Always red",IF(COUNTIF(I3:M3,"&lt;0")=5,"Always blue",IF(COUNTIF(I3:M3,"=0")=5,"Always PR","Mixed")))</f>
         <v>Always red</v>
       </c>
-      <c r="AB3">
-        <f t="shared" ref="AB3:AB51" si="9">IF(AA3="Always red", 1,"")</f>
-        <v>1</v>
-      </c>
-      <c r="AC3" t="str">
-        <f t="shared" ref="AC3:AC51" si="10">IF(AA3="Always blue",1, "")</f>
-        <v/>
+      <c r="AC3">
+        <f t="shared" ref="AC3:AC51" si="4">IF(AB3="Always red", 1,"")</f>
+        <v>1</v>
       </c>
       <c r="AD3" t="str">
-        <f t="shared" ref="AD3:AD51" si="11">IF(AA3="Always PR",1,"")</f>
+        <f t="shared" ref="AD3:AD51" si="5">IF(AB3="Always blue",1, "")</f>
         <v/>
       </c>
       <c r="AE3" t="str">
-        <f t="shared" ref="AE3:AE51" si="12">IF(AA3="Mixed",1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AE3:AE51" si="6">IF(AB3="Always PR",1,"")</f>
+        <v/>
+      </c>
+      <c r="AF3" t="str">
+        <f t="shared" ref="AF3:AF51" si="7">IF(AB3="Mixed",1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="str">
         <f>DATA!A4</f>
         <v>AZ</v>
@@ -4049,43 +4058,46 @@
       </c>
       <c r="U4" s="27"/>
       <c r="W4" s="6">
+        <f>MIN(I4:M4)</f>
+        <v>-1</v>
+      </c>
+      <c r="X4" s="6">
+        <f>MAX(I4:M4)</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="23">
+        <f>AVERAGE(I4:M4)</f>
+        <v>-0.4</v>
+      </c>
+      <c r="Z4" s="23">
+        <v>1.5228809999999999</v>
+      </c>
+      <c r="AA4" s="23">
+        <f>Y4-T4</f>
+        <v>-0.8</v>
+      </c>
+      <c r="AB4" t="str">
+        <f>IF(COUNTIF(I4:M4,"&gt;0")=5,"Always red",IF(COUNTIF(I4:M4,"&lt;0")=5,"Always blue",IF(COUNTIF(I4:M4,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Mixed</v>
+      </c>
+      <c r="AC4" t="str">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="X4" s="6">
+        <v/>
+      </c>
+      <c r="AD4" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="23">
+        <v/>
+      </c>
+      <c r="AE4" t="str">
         <f t="shared" si="6"/>
-        <v>-0.4</v>
-      </c>
-      <c r="Z4" s="23">
+        <v/>
+      </c>
+      <c r="AF4">
         <f t="shared" si="7"/>
-        <v>-0.8</v>
-      </c>
-      <c r="AA4" t="str">
-        <f t="shared" si="8"/>
-        <v>Mixed</v>
-      </c>
-      <c r="AB4" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AC4" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD4" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE4">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="str">
         <f>DATA!A5</f>
         <v>AR</v>
@@ -4158,43 +4170,46 @@
       </c>
       <c r="U5" s="27"/>
       <c r="W5" s="6">
+        <f>MIN(I5:M5)</f>
+        <v>1</v>
+      </c>
+      <c r="X5" s="6">
+        <f>MAX(I5:M5)</f>
+        <v>2</v>
+      </c>
+      <c r="Y5" s="23">
+        <f>AVERAGE(I5:M5)</f>
+        <v>1.4</v>
+      </c>
+      <c r="Z5" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="23">
+        <f>Y5-T5</f>
+        <v>2</v>
+      </c>
+      <c r="AB5" t="str">
+        <f>IF(COUNTIF(I5:M5,"&gt;0")=5,"Always red",IF(COUNTIF(I5:M5,"&lt;0")=5,"Always blue",IF(COUNTIF(I5:M5,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Always red</v>
+      </c>
+      <c r="AC5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="X5" s="6">
+      <c r="AD5" t="str">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="Y5" s="23">
+        <v/>
+      </c>
+      <c r="AE5" t="str">
         <f t="shared" si="6"/>
-        <v>1.4</v>
-      </c>
-      <c r="Z5" s="23">
+        <v/>
+      </c>
+      <c r="AF5" t="str">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AA5" t="str">
-        <f t="shared" si="8"/>
-        <v>Always red</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AC5" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="str">
         <f>DATA!A6</f>
         <v>CA</v>
@@ -4267,43 +4282,46 @@
       </c>
       <c r="U6" s="27"/>
       <c r="W6" s="6">
+        <f>MIN(I6:M6)</f>
+        <v>-12</v>
+      </c>
+      <c r="X6" s="6">
+        <f>MAX(I6:M6)</f>
+        <v>-6</v>
+      </c>
+      <c r="Y6" s="23">
+        <f>AVERAGE(I6:M6)</f>
+        <v>-8.6</v>
+      </c>
+      <c r="Z6" s="23">
+        <v>1.5102660000000001</v>
+      </c>
+      <c r="AA6" s="23">
+        <f>Y6-T6</f>
+        <v>-5</v>
+      </c>
+      <c r="AB6" t="str">
+        <f>IF(COUNTIF(I6:M6,"&gt;0")=5,"Always red",IF(COUNTIF(I6:M6,"&lt;0")=5,"Always blue",IF(COUNTIF(I6:M6,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Always blue</v>
+      </c>
+      <c r="AC6" t="str">
         <f t="shared" si="4"/>
-        <v>-12</v>
-      </c>
-      <c r="X6" s="6">
+        <v/>
+      </c>
+      <c r="AD6">
         <f t="shared" si="5"/>
-        <v>-6</v>
-      </c>
-      <c r="Y6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="str">
         <f t="shared" si="6"/>
-        <v>-8.6</v>
-      </c>
-      <c r="Z6" s="23">
+        <v/>
+      </c>
+      <c r="AF6" t="str">
         <f t="shared" si="7"/>
-        <v>-5</v>
-      </c>
-      <c r="AA6" t="str">
-        <f t="shared" si="8"/>
-        <v>Always blue</v>
-      </c>
-      <c r="AB6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AC6">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AD6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE6" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="str">
         <f>DATA!A7</f>
         <v>CO</v>
@@ -4376,43 +4394,46 @@
       </c>
       <c r="U7" s="27"/>
       <c r="W7" s="6">
+        <f>MIN(I7:M7)</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="6">
+        <f>MAX(I7:M7)</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="23">
+        <f>AVERAGE(I7:M7)</f>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="23">
+        <v>2.3279139999999998</v>
+      </c>
+      <c r="AA7" s="23">
+        <f>Y7-T7</f>
+        <v>-0.2</v>
+      </c>
+      <c r="AB7" t="str">
+        <f>IF(COUNTIF(I7:M7,"&gt;0")=5,"Always red",IF(COUNTIF(I7:M7,"&lt;0")=5,"Always blue",IF(COUNTIF(I7:M7,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Always PR</v>
+      </c>
+      <c r="AC7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X7" s="6">
+        <v/>
+      </c>
+      <c r="AD7" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="23">
+        <v/>
+      </c>
+      <c r="AE7">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="23">
+        <v>1</v>
+      </c>
+      <c r="AF7" t="str">
         <f t="shared" si="7"/>
-        <v>-0.2</v>
-      </c>
-      <c r="AA7" t="str">
-        <f t="shared" si="8"/>
-        <v>Always PR</v>
-      </c>
-      <c r="AB7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AC7" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD7">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AE7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="str">
         <f>DATA!A8</f>
         <v>CT</v>
@@ -4485,43 +4506,46 @@
       </c>
       <c r="U8" s="27"/>
       <c r="W8" s="6">
+        <f>MIN(I8:M8)</f>
+        <v>-2</v>
+      </c>
+      <c r="X8" s="6">
+        <f>MAX(I8:M8)</f>
+        <v>-2</v>
+      </c>
+      <c r="Y8" s="23">
+        <f>AVERAGE(I8:M8)</f>
+        <v>-2</v>
+      </c>
+      <c r="Z8" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="23">
+        <f>Y8-T8</f>
+        <v>-1.4</v>
+      </c>
+      <c r="AB8" t="str">
+        <f>IF(COUNTIF(I8:M8,"&gt;0")=5,"Always red",IF(COUNTIF(I8:M8,"&lt;0")=5,"Always blue",IF(COUNTIF(I8:M8,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Always blue</v>
+      </c>
+      <c r="AC8" t="str">
         <f t="shared" si="4"/>
-        <v>-2</v>
-      </c>
-      <c r="X8" s="6">
+        <v/>
+      </c>
+      <c r="AD8">
         <f t="shared" si="5"/>
-        <v>-2</v>
-      </c>
-      <c r="Y8" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="str">
         <f t="shared" si="6"/>
-        <v>-2</v>
-      </c>
-      <c r="Z8" s="23">
+        <v/>
+      </c>
+      <c r="AF8" t="str">
         <f t="shared" si="7"/>
-        <v>-1.4</v>
-      </c>
-      <c r="AA8" t="str">
-        <f t="shared" si="8"/>
-        <v>Always blue</v>
-      </c>
-      <c r="AB8" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AC8">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AD8" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE8" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="str">
         <f>DATA!A9</f>
         <v>DE</v>
@@ -4594,43 +4618,46 @@
       </c>
       <c r="U9" s="27"/>
       <c r="W9" s="6">
+        <f>MIN(I9:M9)</f>
+        <v>-1</v>
+      </c>
+      <c r="X9" s="6">
+        <f>MAX(I9:M9)</f>
+        <v>-1</v>
+      </c>
+      <c r="Y9" s="23">
+        <f>AVERAGE(I9:M9)</f>
+        <v>-1</v>
+      </c>
+      <c r="Z9" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="23">
+        <f>Y9-T9</f>
+        <v>-1.6</v>
+      </c>
+      <c r="AB9" t="str">
+        <f>IF(COUNTIF(I9:M9,"&gt;0")=5,"Always red",IF(COUNTIF(I9:M9,"&lt;0")=5,"Always blue",IF(COUNTIF(I9:M9,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Always blue</v>
+      </c>
+      <c r="AC9" t="str">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="X9" s="6">
+        <v/>
+      </c>
+      <c r="AD9">
         <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="Y9" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE9" t="str">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="Z9" s="23">
+        <v/>
+      </c>
+      <c r="AF9" t="str">
         <f t="shared" si="7"/>
-        <v>-1.6</v>
-      </c>
-      <c r="AA9" t="str">
-        <f t="shared" si="8"/>
-        <v>Always blue</v>
-      </c>
-      <c r="AB9" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AC9">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AD9" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE9" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="str">
         <f>DATA!A10</f>
         <v>FL</v>
@@ -4703,43 +4730,46 @@
       </c>
       <c r="U10" s="27"/>
       <c r="W10" s="6">
+        <f>MIN(I10:M10)</f>
+        <v>1</v>
+      </c>
+      <c r="X10" s="6">
+        <f>MAX(I10:M10)</f>
+        <v>3</v>
+      </c>
+      <c r="Y10" s="23">
+        <f>AVERAGE(I10:M10)</f>
+        <v>2</v>
+      </c>
+      <c r="Z10" s="23">
+        <v>1.8652690000000001</v>
+      </c>
+      <c r="AA10" s="23">
+        <f>Y10-T10</f>
+        <v>-1.4</v>
+      </c>
+      <c r="AB10" t="str">
+        <f>IF(COUNTIF(I10:M10,"&gt;0")=5,"Always red",IF(COUNTIF(I10:M10,"&lt;0")=5,"Always blue",IF(COUNTIF(I10:M10,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Always red</v>
+      </c>
+      <c r="AC10">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="X10" s="6">
+      <c r="AD10" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Y10" s="23">
+        <v/>
+      </c>
+      <c r="AE10" t="str">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="Z10" s="23">
+        <v/>
+      </c>
+      <c r="AF10" t="str">
         <f t="shared" si="7"/>
-        <v>-1.4</v>
-      </c>
-      <c r="AA10" t="str">
-        <f t="shared" si="8"/>
-        <v>Always red</v>
-      </c>
-      <c r="AB10">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AC10" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD10" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE10" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="str">
         <f>DATA!A11</f>
         <v>GA</v>
@@ -4812,43 +4842,46 @@
       </c>
       <c r="U11" s="27"/>
       <c r="W11" s="6">
+        <f>MIN(I11:M11)</f>
+        <v>1</v>
+      </c>
+      <c r="X11" s="6">
+        <f>MAX(I11:M11)</f>
+        <v>2</v>
+      </c>
+      <c r="Y11" s="23">
+        <f>AVERAGE(I11:M11)</f>
+        <v>1.6</v>
+      </c>
+      <c r="Z11" s="23">
+        <v>2.3808220000000002</v>
+      </c>
+      <c r="AA11" s="23">
+        <f>Y11-T11</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="AB11" t="str">
+        <f>IF(COUNTIF(I11:M11,"&gt;0")=5,"Always red",IF(COUNTIF(I11:M11,"&lt;0")=5,"Always blue",IF(COUNTIF(I11:M11,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Always red</v>
+      </c>
+      <c r="AC11">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="X11" s="6">
+      <c r="AD11" t="str">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="Y11" s="23">
+        <v/>
+      </c>
+      <c r="AE11" t="str">
         <f t="shared" si="6"/>
-        <v>1.6</v>
-      </c>
-      <c r="Z11" s="23">
+        <v/>
+      </c>
+      <c r="AF11" t="str">
         <f t="shared" si="7"/>
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="AA11" t="str">
-        <f t="shared" si="8"/>
-        <v>Always red</v>
-      </c>
-      <c r="AB11">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AC11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="str">
         <f>DATA!A12</f>
         <v>HI</v>
@@ -4921,43 +4954,46 @@
       </c>
       <c r="U12" s="27"/>
       <c r="W12" s="6">
+        <f>MIN(I12:M12)</f>
+        <v>-1</v>
+      </c>
+      <c r="X12" s="6">
+        <f>MAX(I12:M12)</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="23">
+        <f>AVERAGE(I12:M12)</f>
+        <v>-0.6</v>
+      </c>
+      <c r="Z12" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="23">
+        <f>Y12-T12</f>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="AB12" t="str">
+        <f>IF(COUNTIF(I12:M12,"&gt;0")=5,"Always red",IF(COUNTIF(I12:M12,"&lt;0")=5,"Always blue",IF(COUNTIF(I12:M12,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Mixed</v>
+      </c>
+      <c r="AC12" t="str">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="X12" s="6">
+        <v/>
+      </c>
+      <c r="AD12" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="23">
+        <v/>
+      </c>
+      <c r="AE12" t="str">
         <f t="shared" si="6"/>
-        <v>-0.6</v>
-      </c>
-      <c r="Z12" s="23">
+        <v/>
+      </c>
+      <c r="AF12">
         <f t="shared" si="7"/>
-        <v>0.20000000000000007</v>
-      </c>
-      <c r="AA12" t="str">
-        <f t="shared" si="8"/>
-        <v>Mixed</v>
-      </c>
-      <c r="AB12" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AC12" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD12" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE12">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="str">
         <f>DATA!A13</f>
         <v>ID</v>
@@ -5030,43 +5066,46 @@
       </c>
       <c r="U13" s="27"/>
       <c r="W13" s="6">
+        <f>MIN(I13:M13)</f>
+        <v>1</v>
+      </c>
+      <c r="X13" s="6">
+        <f>MAX(I13:M13)</f>
+        <v>1</v>
+      </c>
+      <c r="Y13" s="23">
+        <f>AVERAGE(I13:M13)</f>
+        <v>1</v>
+      </c>
+      <c r="Z13" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="23">
+        <f>Y13-T13</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AB13" t="str">
+        <f>IF(COUNTIF(I13:M13,"&gt;0")=5,"Always red",IF(COUNTIF(I13:M13,"&lt;0")=5,"Always blue",IF(COUNTIF(I13:M13,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Always red</v>
+      </c>
+      <c r="AC13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="X13" s="6">
+      <c r="AD13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Y13" s="23">
+        <v/>
+      </c>
+      <c r="AE13" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Z13" s="23">
+        <v/>
+      </c>
+      <c r="AF13" t="str">
         <f t="shared" si="7"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="AA13" t="str">
-        <f t="shared" si="8"/>
-        <v>Always red</v>
-      </c>
-      <c r="AB13">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AC13" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD13" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE13" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="str">
         <f>DATA!A14</f>
         <v>IL</v>
@@ -5139,43 +5178,46 @@
       </c>
       <c r="U14" s="27"/>
       <c r="W14" s="6">
+        <f>MIN(I14:M14)</f>
+        <v>-3</v>
+      </c>
+      <c r="X14" s="6">
+        <f>MAX(I14:M14)</f>
+        <v>-1</v>
+      </c>
+      <c r="Y14" s="23">
+        <f>AVERAGE(I14:M14)</f>
+        <v>-1.8</v>
+      </c>
+      <c r="Z14" s="23">
+        <v>1.840104</v>
+      </c>
+      <c r="AA14" s="23">
+        <f>Y14-T14</f>
+        <v>-2.4</v>
+      </c>
+      <c r="AB14" t="str">
+        <f>IF(COUNTIF(I14:M14,"&gt;0")=5,"Always red",IF(COUNTIF(I14:M14,"&lt;0")=5,"Always blue",IF(COUNTIF(I14:M14,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Always blue</v>
+      </c>
+      <c r="AC14" t="str">
         <f t="shared" si="4"/>
-        <v>-3</v>
-      </c>
-      <c r="X14" s="6">
+        <v/>
+      </c>
+      <c r="AD14">
         <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="Y14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="str">
         <f t="shared" si="6"/>
-        <v>-1.8</v>
-      </c>
-      <c r="Z14" s="23">
+        <v/>
+      </c>
+      <c r="AF14" t="str">
         <f t="shared" si="7"/>
-        <v>-2.4</v>
-      </c>
-      <c r="AA14" t="str">
-        <f t="shared" si="8"/>
-        <v>Always blue</v>
-      </c>
-      <c r="AB14" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AC14">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AD14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE14" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="str">
         <f>DATA!A15</f>
         <v>IN</v>
@@ -5248,43 +5290,46 @@
       </c>
       <c r="U15" s="27"/>
       <c r="W15" s="6">
+        <f>MIN(I15:M15)</f>
+        <v>2</v>
+      </c>
+      <c r="X15" s="6">
+        <f>MAX(I15:M15)</f>
+        <v>2</v>
+      </c>
+      <c r="Y15" s="23">
+        <f>AVERAGE(I15:M15)</f>
+        <v>2</v>
+      </c>
+      <c r="Z15" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="23">
+        <f>Y15-T15</f>
+        <v>1.4</v>
+      </c>
+      <c r="AB15" t="str">
+        <f>IF(COUNTIF(I15:M15,"&gt;0")=5,"Always red",IF(COUNTIF(I15:M15,"&lt;0")=5,"Always blue",IF(COUNTIF(I15:M15,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Always red</v>
+      </c>
+      <c r="AC15">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="X15" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD15" t="str">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="Y15" s="23">
+        <v/>
+      </c>
+      <c r="AE15" t="str">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="Z15" s="23">
+        <v/>
+      </c>
+      <c r="AF15" t="str">
         <f t="shared" si="7"/>
-        <v>1.4</v>
-      </c>
-      <c r="AA15" t="str">
-        <f t="shared" si="8"/>
-        <v>Always red</v>
-      </c>
-      <c r="AB15">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AC15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD15" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE15" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="str">
         <f>DATA!A16</f>
         <v>IA</v>
@@ -5357,43 +5402,46 @@
       </c>
       <c r="U16" s="27"/>
       <c r="W16" s="6">
+        <f>MIN(I16:M16)</f>
+        <v>-1</v>
+      </c>
+      <c r="X16" s="6">
+        <f>MAX(I16:M16)</f>
+        <v>1</v>
+      </c>
+      <c r="Y16" s="23">
+        <f>AVERAGE(I16:M16)</f>
+        <v>0.4</v>
+      </c>
+      <c r="Z16" s="23">
+        <v>6.534726</v>
+      </c>
+      <c r="AA16" s="23">
+        <f>Y16-T16</f>
+        <v>0.4</v>
+      </c>
+      <c r="AB16" t="str">
+        <f>IF(COUNTIF(I16:M16,"&gt;0")=5,"Always red",IF(COUNTIF(I16:M16,"&lt;0")=5,"Always blue",IF(COUNTIF(I16:M16,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Mixed</v>
+      </c>
+      <c r="AC16" t="str">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="X16" s="6">
+        <v/>
+      </c>
+      <c r="AD16" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Y16" s="23">
+        <v/>
+      </c>
+      <c r="AE16" t="str">
         <f t="shared" si="6"/>
-        <v>0.4</v>
-      </c>
-      <c r="Z16" s="23">
+        <v/>
+      </c>
+      <c r="AF16">
         <f t="shared" si="7"/>
-        <v>0.4</v>
-      </c>
-      <c r="AA16" t="str">
-        <f t="shared" si="8"/>
-        <v>Mixed</v>
-      </c>
-      <c r="AB16" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AC16" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD16" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE16">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="str">
         <f>DATA!A17</f>
         <v>KS</v>
@@ -5466,43 +5514,46 @@
       </c>
       <c r="U17" s="27"/>
       <c r="W17" s="6">
+        <f>MIN(I17:M17)</f>
+        <v>1</v>
+      </c>
+      <c r="X17" s="6">
+        <f>MAX(I17:M17)</f>
+        <v>1</v>
+      </c>
+      <c r="Y17" s="23">
+        <f>AVERAGE(I17:M17)</f>
+        <v>1</v>
+      </c>
+      <c r="Z17" s="23">
+        <v>2.7391019999999999</v>
+      </c>
+      <c r="AA17" s="23">
+        <f>Y17-T17</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AB17" t="str">
+        <f>IF(COUNTIF(I17:M17,"&gt;0")=5,"Always red",IF(COUNTIF(I17:M17,"&lt;0")=5,"Always blue",IF(COUNTIF(I17:M17,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Always red</v>
+      </c>
+      <c r="AC17">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="X17" s="6">
+      <c r="AD17" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Y17" s="23">
+        <v/>
+      </c>
+      <c r="AE17" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Z17" s="23">
+        <v/>
+      </c>
+      <c r="AF17" t="str">
         <f t="shared" si="7"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="AA17" t="str">
-        <f t="shared" si="8"/>
-        <v>Always red</v>
-      </c>
-      <c r="AB17">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AC17" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD17" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE17" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="str">
         <f>DATA!A18</f>
         <v>KY</v>
@@ -5575,43 +5626,46 @@
       </c>
       <c r="U18" s="27"/>
       <c r="W18" s="6">
+        <f>MIN(I18:M18)</f>
+        <v>1</v>
+      </c>
+      <c r="X18" s="6">
+        <f>MAX(I18:M18)</f>
+        <v>1</v>
+      </c>
+      <c r="Y18" s="23">
+        <f>AVERAGE(I18:M18)</f>
+        <v>1</v>
+      </c>
+      <c r="Z18" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="23">
+        <f>Y18-T18</f>
+        <v>0.4</v>
+      </c>
+      <c r="AB18" t="str">
+        <f>IF(COUNTIF(I18:M18,"&gt;0")=5,"Always red",IF(COUNTIF(I18:M18,"&lt;0")=5,"Always blue",IF(COUNTIF(I18:M18,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Always red</v>
+      </c>
+      <c r="AC18">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="X18" s="6">
+      <c r="AD18" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Y18" s="23">
+        <v/>
+      </c>
+      <c r="AE18" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Z18" s="23">
+        <v/>
+      </c>
+      <c r="AF18" t="str">
         <f t="shared" si="7"/>
-        <v>0.4</v>
-      </c>
-      <c r="AA18" t="str">
-        <f t="shared" si="8"/>
-        <v>Always red</v>
-      </c>
-      <c r="AB18">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AC18" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD18" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE18" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="str">
         <f>DATA!A19</f>
         <v>LA</v>
@@ -5684,43 +5738,46 @@
       </c>
       <c r="U19" s="27"/>
       <c r="W19" s="6">
+        <f>MIN(I19:M19)</f>
+        <v>1</v>
+      </c>
+      <c r="X19" s="6">
+        <f>MAX(I19:M19)</f>
+        <v>1</v>
+      </c>
+      <c r="Y19" s="23">
+        <f>AVERAGE(I19:M19)</f>
+        <v>1</v>
+      </c>
+      <c r="Z19" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="23">
+        <f>Y19-T19</f>
+        <v>0</v>
+      </c>
+      <c r="AB19" t="str">
+        <f>IF(COUNTIF(I19:M19,"&gt;0")=5,"Always red",IF(COUNTIF(I19:M19,"&lt;0")=5,"Always blue",IF(COUNTIF(I19:M19,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Always red</v>
+      </c>
+      <c r="AC19">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="X19" s="6">
+      <c r="AD19" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Y19" s="23">
+        <v/>
+      </c>
+      <c r="AE19" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Z19" s="23">
+        <v/>
+      </c>
+      <c r="AF19" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA19" t="str">
-        <f t="shared" si="8"/>
-        <v>Always red</v>
-      </c>
-      <c r="AB19">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AC19" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD19" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE19" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="str">
         <f>DATA!A20</f>
         <v>ME</v>
@@ -5793,43 +5850,46 @@
       </c>
       <c r="U20" s="27"/>
       <c r="W20" s="6">
+        <f>MIN(I20:M20)</f>
+        <v>-1</v>
+      </c>
+      <c r="X20" s="6">
+        <f>MAX(I20:M20)</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="23">
+        <f>AVERAGE(I20:M20)</f>
+        <v>-0.6</v>
+      </c>
+      <c r="Z20" s="23">
+        <v>5.6681499999999998</v>
+      </c>
+      <c r="AA20" s="23">
+        <f>Y20-T20</f>
+        <v>0.4</v>
+      </c>
+      <c r="AB20" t="str">
+        <f>IF(COUNTIF(I20:M20,"&gt;0")=5,"Always red",IF(COUNTIF(I20:M20,"&lt;0")=5,"Always blue",IF(COUNTIF(I20:M20,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Mixed</v>
+      </c>
+      <c r="AC20" t="str">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="X20" s="6">
+        <v/>
+      </c>
+      <c r="AD20" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="23">
+        <v/>
+      </c>
+      <c r="AE20" t="str">
         <f t="shared" si="6"/>
-        <v>-0.6</v>
-      </c>
-      <c r="Z20" s="23">
+        <v/>
+      </c>
+      <c r="AF20">
         <f t="shared" si="7"/>
-        <v>0.4</v>
-      </c>
-      <c r="AA20" t="str">
-        <f t="shared" si="8"/>
-        <v>Mixed</v>
-      </c>
-      <c r="AB20" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AC20" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD20" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE20">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="str">
         <f>DATA!A21</f>
         <v>MD</v>
@@ -5902,43 +5962,46 @@
       </c>
       <c r="U21" s="27"/>
       <c r="W21" s="6">
+        <f>MIN(I21:M21)</f>
+        <v>-2</v>
+      </c>
+      <c r="X21" s="6">
+        <f>MAX(I21:M21)</f>
+        <v>-2</v>
+      </c>
+      <c r="Y21" s="23">
+        <f>AVERAGE(I21:M21)</f>
+        <v>-2</v>
+      </c>
+      <c r="Z21" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="23">
+        <f>Y21-T21</f>
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="AB21" t="str">
+        <f>IF(COUNTIF(I21:M21,"&gt;0")=5,"Always red",IF(COUNTIF(I21:M21,"&lt;0")=5,"Always blue",IF(COUNTIF(I21:M21,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Always blue</v>
+      </c>
+      <c r="AC21" t="str">
         <f t="shared" si="4"/>
-        <v>-2</v>
-      </c>
-      <c r="X21" s="6">
+        <v/>
+      </c>
+      <c r="AD21">
         <f t="shared" si="5"/>
-        <v>-2</v>
-      </c>
-      <c r="Y21" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE21" t="str">
         <f t="shared" si="6"/>
-        <v>-2</v>
-      </c>
-      <c r="Z21" s="23">
+        <v/>
+      </c>
+      <c r="AF21" t="str">
         <f t="shared" si="7"/>
-        <v>-0.60000000000000009</v>
-      </c>
-      <c r="AA21" t="str">
-        <f t="shared" si="8"/>
-        <v>Always blue</v>
-      </c>
-      <c r="AB21" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AC21">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AD21" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="str">
         <f>DATA!A22</f>
         <v>MA</v>
@@ -6011,43 +6074,46 @@
       </c>
       <c r="U22" s="27"/>
       <c r="W22" s="6">
+        <f>MIN(I22:M22)</f>
+        <v>-3</v>
+      </c>
+      <c r="X22" s="6">
+        <f>MAX(I22:M22)</f>
+        <v>-3</v>
+      </c>
+      <c r="Y22" s="23">
+        <f>AVERAGE(I22:M22)</f>
+        <v>-3</v>
+      </c>
+      <c r="Z22" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="23">
+        <f>Y22-T22</f>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="AB22" t="str">
+        <f>IF(COUNTIF(I22:M22,"&gt;0")=5,"Always red",IF(COUNTIF(I22:M22,"&lt;0")=5,"Always blue",IF(COUNTIF(I22:M22,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Always blue</v>
+      </c>
+      <c r="AC22" t="str">
         <f t="shared" si="4"/>
-        <v>-3</v>
-      </c>
-      <c r="X22" s="6">
+        <v/>
+      </c>
+      <c r="AD22">
         <f t="shared" si="5"/>
-        <v>-3</v>
-      </c>
-      <c r="Y22" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE22" t="str">
         <f t="shared" si="6"/>
-        <v>-3</v>
-      </c>
-      <c r="Z22" s="23">
+        <v/>
+      </c>
+      <c r="AF22" t="str">
         <f t="shared" si="7"/>
-        <v>0.20000000000000018</v>
-      </c>
-      <c r="AA22" t="str">
-        <f t="shared" si="8"/>
-        <v>Always blue</v>
-      </c>
-      <c r="AB22" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AC22">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AD22" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE22" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="str">
         <f>DATA!A23</f>
         <v>MI</v>
@@ -6120,43 +6186,46 @@
       </c>
       <c r="U23" s="27"/>
       <c r="W23" s="6">
+        <f>MIN(I23:M23)</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="6">
+        <f>MAX(I23:M23)</f>
+        <v>2</v>
+      </c>
+      <c r="Y23" s="23">
+        <f>AVERAGE(I23:M23)</f>
+        <v>1.2</v>
+      </c>
+      <c r="Z23" s="23">
+        <v>2.3947630000000002</v>
+      </c>
+      <c r="AA23" s="23">
+        <f>Y23-T23</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AB23" t="str">
+        <f>IF(COUNTIF(I23:M23,"&gt;0")=5,"Always red",IF(COUNTIF(I23:M23,"&lt;0")=5,"Always blue",IF(COUNTIF(I23:M23,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Mixed</v>
+      </c>
+      <c r="AC23" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X23" s="6">
+        <v/>
+      </c>
+      <c r="AD23" t="str">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="Y23" s="23">
+        <v/>
+      </c>
+      <c r="AE23" t="str">
         <f t="shared" si="6"/>
-        <v>1.2</v>
-      </c>
-      <c r="Z23" s="23">
+        <v/>
+      </c>
+      <c r="AF23">
         <f t="shared" si="7"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="AA23" t="str">
-        <f t="shared" si="8"/>
-        <v>Mixed</v>
-      </c>
-      <c r="AB23" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AC23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE23">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="str">
         <f>DATA!A24</f>
         <v>MN</v>
@@ -6229,43 +6298,46 @@
       </c>
       <c r="U24" s="27"/>
       <c r="W24" s="6">
+        <f>MIN(I24:M24)</f>
+        <v>-1</v>
+      </c>
+      <c r="X24" s="6">
+        <f>MAX(I24:M24)</f>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="23">
+        <f>AVERAGE(I24:M24)</f>
+        <v>-0.4</v>
+      </c>
+      <c r="Z24" s="23">
+        <v>1.3434090000000001</v>
+      </c>
+      <c r="AA24" s="23">
+        <f>Y24-T24</f>
+        <v>-0.2</v>
+      </c>
+      <c r="AB24" t="str">
+        <f>IF(COUNTIF(I24:M24,"&gt;0")=5,"Always red",IF(COUNTIF(I24:M24,"&lt;0")=5,"Always blue",IF(COUNTIF(I24:M24,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Mixed</v>
+      </c>
+      <c r="AC24" t="str">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="X24" s="6">
+        <v/>
+      </c>
+      <c r="AD24" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y24" s="23">
+        <v/>
+      </c>
+      <c r="AE24" t="str">
         <f t="shared" si="6"/>
-        <v>-0.4</v>
-      </c>
-      <c r="Z24" s="23">
+        <v/>
+      </c>
+      <c r="AF24">
         <f t="shared" si="7"/>
-        <v>-0.2</v>
-      </c>
-      <c r="AA24" t="str">
-        <f t="shared" si="8"/>
-        <v>Mixed</v>
-      </c>
-      <c r="AB24" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AC24" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD24" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE24">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="str">
         <f>DATA!A25</f>
         <v>MS</v>
@@ -6338,43 +6410,46 @@
       </c>
       <c r="U25" s="27"/>
       <c r="W25" s="6">
+        <f>MIN(I25:M25)</f>
+        <v>1</v>
+      </c>
+      <c r="X25" s="6">
+        <f>MAX(I25:M25)</f>
+        <v>1</v>
+      </c>
+      <c r="Y25" s="23">
+        <f>AVERAGE(I25:M25)</f>
+        <v>1</v>
+      </c>
+      <c r="Z25" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="23">
+        <f>Y25-T25</f>
+        <v>1</v>
+      </c>
+      <c r="AB25" t="str">
+        <f>IF(COUNTIF(I25:M25,"&gt;0")=5,"Always red",IF(COUNTIF(I25:M25,"&lt;0")=5,"Always blue",IF(COUNTIF(I25:M25,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Always red</v>
+      </c>
+      <c r="AC25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="X25" s="6">
+      <c r="AD25" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Y25" s="23">
+        <v/>
+      </c>
+      <c r="AE25" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Z25" s="23">
+        <v/>
+      </c>
+      <c r="AF25" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AA25" t="str">
-        <f t="shared" si="8"/>
-        <v>Always red</v>
-      </c>
-      <c r="AB25">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AC25" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD25" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE25" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="str">
         <f>DATA!A26</f>
         <v>MO</v>
@@ -6447,43 +6522,46 @@
       </c>
       <c r="U26" s="27"/>
       <c r="W26" s="6">
+        <f>MIN(I26:M26)</f>
+        <v>1</v>
+      </c>
+      <c r="X26" s="6">
+        <f>MAX(I26:M26)</f>
+        <v>1</v>
+      </c>
+      <c r="Y26" s="23">
+        <f>AVERAGE(I26:M26)</f>
+        <v>1</v>
+      </c>
+      <c r="Z26" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="23">
+        <f>Y26-T26</f>
+        <v>0.8</v>
+      </c>
+      <c r="AB26" t="str">
+        <f>IF(COUNTIF(I26:M26,"&gt;0")=5,"Always red",IF(COUNTIF(I26:M26,"&lt;0")=5,"Always blue",IF(COUNTIF(I26:M26,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Always red</v>
+      </c>
+      <c r="AC26">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="X26" s="6">
+      <c r="AD26" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Y26" s="23">
+        <v/>
+      </c>
+      <c r="AE26" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Z26" s="23">
+        <v/>
+      </c>
+      <c r="AF26" t="str">
         <f t="shared" si="7"/>
-        <v>0.8</v>
-      </c>
-      <c r="AA26" t="str">
-        <f t="shared" si="8"/>
-        <v>Always red</v>
-      </c>
-      <c r="AB26">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AC26" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD26" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE26" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="str">
         <f>DATA!A27</f>
         <v>MT</v>
@@ -6556,43 +6634,46 @@
       </c>
       <c r="U27" s="27"/>
       <c r="W27" s="6">
+        <f>MIN(I27:M27)</f>
+        <v>1</v>
+      </c>
+      <c r="X27" s="6">
+        <f>MAX(I27:M27)</f>
+        <v>1</v>
+      </c>
+      <c r="Y27" s="23">
+        <f>AVERAGE(I27:M27)</f>
+        <v>1</v>
+      </c>
+      <c r="Z27" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="23">
+        <f>Y27-T27</f>
+        <v>0</v>
+      </c>
+      <c r="AB27" t="str">
+        <f>IF(COUNTIF(I27:M27,"&gt;0")=5,"Always red",IF(COUNTIF(I27:M27,"&lt;0")=5,"Always blue",IF(COUNTIF(I27:M27,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Always red</v>
+      </c>
+      <c r="AC27">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="X27" s="6">
+      <c r="AD27" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Y27" s="23">
+        <v/>
+      </c>
+      <c r="AE27" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Z27" s="23">
+        <v/>
+      </c>
+      <c r="AF27" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA27" t="str">
-        <f t="shared" si="8"/>
-        <v>Always red</v>
-      </c>
-      <c r="AB27">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AC27" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD27" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE27" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="str">
         <f>DATA!A28</f>
         <v>NE</v>
@@ -6665,43 +6746,46 @@
       </c>
       <c r="U28" s="27"/>
       <c r="W28" s="6">
+        <f>MIN(I28:M28)</f>
+        <v>0</v>
+      </c>
+      <c r="X28" s="6">
+        <f>MAX(I28:M28)</f>
+        <v>1</v>
+      </c>
+      <c r="Y28" s="23">
+        <f>AVERAGE(I28:M28)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z28" s="23">
+        <v>-7.4183810000000001</v>
+      </c>
+      <c r="AA28" s="23">
+        <f>Y28-T28</f>
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="AB28" t="str">
+        <f>IF(COUNTIF(I28:M28,"&gt;0")=5,"Always red",IF(COUNTIF(I28:M28,"&lt;0")=5,"Always blue",IF(COUNTIF(I28:M28,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Mixed</v>
+      </c>
+      <c r="AC28" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X28" s="6">
+        <v/>
+      </c>
+      <c r="AD28" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Y28" s="23">
+        <v/>
+      </c>
+      <c r="AE28" t="str">
         <f t="shared" si="6"/>
-        <v>0.8</v>
-      </c>
-      <c r="Z28" s="23">
+        <v/>
+      </c>
+      <c r="AF28">
         <f t="shared" si="7"/>
-        <v>-0.19999999999999996</v>
-      </c>
-      <c r="AA28" t="str">
-        <f t="shared" si="8"/>
-        <v>Mixed</v>
-      </c>
-      <c r="AB28" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AC28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD28" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE28">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="str">
         <f>DATA!A29</f>
         <v>NV</v>
@@ -6774,43 +6858,46 @@
       </c>
       <c r="U29" s="27"/>
       <c r="W29" s="6">
+        <f>MIN(I29:M29)</f>
+        <v>-1</v>
+      </c>
+      <c r="X29" s="6">
+        <f>MAX(I29:M29)</f>
+        <v>1</v>
+      </c>
+      <c r="Y29" s="23">
+        <f>AVERAGE(I29:M29)</f>
+        <v>-0.4</v>
+      </c>
+      <c r="Z29" s="23">
+        <v>4.3918280000000003</v>
+      </c>
+      <c r="AA29" s="23">
+        <f>Y29-T29</f>
+        <v>-0.8</v>
+      </c>
+      <c r="AB29" t="str">
+        <f>IF(COUNTIF(I29:M29,"&gt;0")=5,"Always red",IF(COUNTIF(I29:M29,"&lt;0")=5,"Always blue",IF(COUNTIF(I29:M29,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Mixed</v>
+      </c>
+      <c r="AC29" t="str">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="X29" s="6">
+        <v/>
+      </c>
+      <c r="AD29" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Y29" s="23">
+        <v/>
+      </c>
+      <c r="AE29" t="str">
         <f t="shared" si="6"/>
-        <v>-0.4</v>
-      </c>
-      <c r="Z29" s="23">
+        <v/>
+      </c>
+      <c r="AF29">
         <f t="shared" si="7"/>
-        <v>-0.8</v>
-      </c>
-      <c r="AA29" t="str">
-        <f t="shared" si="8"/>
-        <v>Mixed</v>
-      </c>
-      <c r="AB29" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AC29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD29" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE29">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="str">
         <f>DATA!A30</f>
         <v>NH</v>
@@ -6883,43 +6970,46 @@
       </c>
       <c r="U30" s="27"/>
       <c r="W30" s="6">
+        <f>MIN(I30:M30)</f>
+        <v>-1</v>
+      </c>
+      <c r="X30" s="6">
+        <f>MAX(I30:M30)</f>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="23">
+        <f>AVERAGE(I30:M30)</f>
+        <v>-0.8</v>
+      </c>
+      <c r="Z30" s="23">
+        <v>5.8124640000000003</v>
+      </c>
+      <c r="AA30" s="23">
+        <f>Y30-T30</f>
+        <v>-1</v>
+      </c>
+      <c r="AB30" t="str">
+        <f>IF(COUNTIF(I30:M30,"&gt;0")=5,"Always red",IF(COUNTIF(I30:M30,"&lt;0")=5,"Always blue",IF(COUNTIF(I30:M30,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Mixed</v>
+      </c>
+      <c r="AC30" t="str">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="X30" s="6">
+        <v/>
+      </c>
+      <c r="AD30" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y30" s="23">
+        <v/>
+      </c>
+      <c r="AE30" t="str">
         <f t="shared" si="6"/>
-        <v>-0.8</v>
-      </c>
-      <c r="Z30" s="23">
+        <v/>
+      </c>
+      <c r="AF30">
         <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
-      <c r="AA30" t="str">
-        <f t="shared" si="8"/>
-        <v>Mixed</v>
-      </c>
-      <c r="AB30" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AC30" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD30" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE30">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="str">
         <f>DATA!A31</f>
         <v>NJ</v>
@@ -6992,43 +7082,46 @@
       </c>
       <c r="U31" s="27"/>
       <c r="W31" s="6">
+        <f>MIN(I31:M31)</f>
+        <v>-4</v>
+      </c>
+      <c r="X31" s="6">
+        <f>MAX(I31:M31)</f>
+        <v>1</v>
+      </c>
+      <c r="Y31" s="23">
+        <f>AVERAGE(I31:M31)</f>
+        <v>-1.4</v>
+      </c>
+      <c r="Z31" s="23">
+        <v>4.6766129999999997</v>
+      </c>
+      <c r="AA31" s="23">
+        <f>Y31-T31</f>
+        <v>-1.2</v>
+      </c>
+      <c r="AB31" t="str">
+        <f>IF(COUNTIF(I31:M31,"&gt;0")=5,"Always red",IF(COUNTIF(I31:M31,"&lt;0")=5,"Always blue",IF(COUNTIF(I31:M31,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Mixed</v>
+      </c>
+      <c r="AC31" t="str">
         <f t="shared" si="4"/>
-        <v>-4</v>
-      </c>
-      <c r="X31" s="6">
+        <v/>
+      </c>
+      <c r="AD31" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Y31" s="23">
+        <v/>
+      </c>
+      <c r="AE31" t="str">
         <f t="shared" si="6"/>
-        <v>-1.4</v>
-      </c>
-      <c r="Z31" s="23">
+        <v/>
+      </c>
+      <c r="AF31">
         <f t="shared" si="7"/>
-        <v>-1.2</v>
-      </c>
-      <c r="AA31" t="str">
-        <f t="shared" si="8"/>
-        <v>Mixed</v>
-      </c>
-      <c r="AB31" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AC31" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD31" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE31">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="str">
         <f>DATA!A32</f>
         <v>NM</v>
@@ -7101,43 +7194,46 @@
       </c>
       <c r="U32" s="27"/>
       <c r="W32" s="6">
+        <f>MIN(I32:M32)</f>
+        <v>-1</v>
+      </c>
+      <c r="X32" s="6">
+        <f>MAX(I32:M32)</f>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="23">
+        <f>AVERAGE(I32:M32)</f>
+        <v>-0.2</v>
+      </c>
+      <c r="Z32" s="23">
+        <v>4.9545260000000004</v>
+      </c>
+      <c r="AA32" s="23">
+        <f>Y32-T32</f>
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="AB32" t="str">
+        <f>IF(COUNTIF(I32:M32,"&gt;0")=5,"Always red",IF(COUNTIF(I32:M32,"&lt;0")=5,"Always blue",IF(COUNTIF(I32:M32,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Mixed</v>
+      </c>
+      <c r="AC32" t="str">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="X32" s="6">
+        <v/>
+      </c>
+      <c r="AD32" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y32" s="23">
+        <v/>
+      </c>
+      <c r="AE32" t="str">
         <f t="shared" si="6"/>
-        <v>-0.2</v>
-      </c>
-      <c r="Z32" s="23">
+        <v/>
+      </c>
+      <c r="AF32">
         <f t="shared" si="7"/>
-        <v>-0.60000000000000009</v>
-      </c>
-      <c r="AA32" t="str">
-        <f t="shared" si="8"/>
-        <v>Mixed</v>
-      </c>
-      <c r="AB32" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AC32" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE32">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="str">
         <f>DATA!A33</f>
         <v>NY</v>
@@ -7210,43 +7306,46 @@
       </c>
       <c r="U33" s="27"/>
       <c r="W33" s="6">
+        <f>MIN(I33:M33)</f>
+        <v>-3</v>
+      </c>
+      <c r="X33" s="6">
+        <f>MAX(I33:M33)</f>
+        <v>-1</v>
+      </c>
+      <c r="Y33" s="23">
+        <f>AVERAGE(I33:M33)</f>
+        <v>-2</v>
+      </c>
+      <c r="Z33" s="23">
+        <v>1.1753089999999999</v>
+      </c>
+      <c r="AA33" s="23">
+        <f>Y33-T33</f>
+        <v>1.6</v>
+      </c>
+      <c r="AB33" t="str">
+        <f>IF(COUNTIF(I33:M33,"&gt;0")=5,"Always red",IF(COUNTIF(I33:M33,"&lt;0")=5,"Always blue",IF(COUNTIF(I33:M33,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Always blue</v>
+      </c>
+      <c r="AC33" t="str">
         <f t="shared" si="4"/>
-        <v>-3</v>
-      </c>
-      <c r="X33" s="6">
+        <v/>
+      </c>
+      <c r="AD33">
         <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="Y33" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE33" t="str">
         <f t="shared" si="6"/>
-        <v>-2</v>
-      </c>
-      <c r="Z33" s="23">
+        <v/>
+      </c>
+      <c r="AF33" t="str">
         <f t="shared" si="7"/>
-        <v>1.6</v>
-      </c>
-      <c r="AA33" t="str">
-        <f t="shared" si="8"/>
-        <v>Always blue</v>
-      </c>
-      <c r="AB33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AC33">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AD33" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE33" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="str">
         <f>DATA!A34</f>
         <v>NC</v>
@@ -7306,56 +7405,59 @@
       </c>
       <c r="P34" s="27"/>
       <c r="R34" s="6">
-        <f t="shared" ref="R34:R51" si="13">MIN(D34:H34)</f>
+        <f t="shared" ref="R34:R51" si="8">MIN(D34:H34)</f>
         <v>-1</v>
       </c>
       <c r="S34" s="6">
-        <f t="shared" ref="S34:S51" si="14">MAX(D34:H34)</f>
+        <f t="shared" ref="S34:S51" si="9">MAX(D34:H34)</f>
         <v>0</v>
       </c>
       <c r="T34" s="23">
-        <f t="shared" ref="T34:T51" si="15">AVERAGE(D34:H34)</f>
+        <f t="shared" ref="T34:T51" si="10">AVERAGE(D34:H34)</f>
         <v>-0.4</v>
       </c>
       <c r="U34" s="27"/>
       <c r="W34" s="6">
+        <f>MIN(I34:M34)</f>
+        <v>1</v>
+      </c>
+      <c r="X34" s="6">
+        <f>MAX(I34:M34)</f>
+        <v>3</v>
+      </c>
+      <c r="Y34" s="23">
+        <f>AVERAGE(I34:M34)</f>
+        <v>2.6</v>
+      </c>
+      <c r="Z34" s="23">
+        <v>1.358581</v>
+      </c>
+      <c r="AA34" s="23">
+        <f>Y34-T34</f>
+        <v>3</v>
+      </c>
+      <c r="AB34" t="str">
+        <f>IF(COUNTIF(I34:M34,"&gt;0")=5,"Always red",IF(COUNTIF(I34:M34,"&lt;0")=5,"Always blue",IF(COUNTIF(I34:M34,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Always red</v>
+      </c>
+      <c r="AC34">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="X34" s="6">
+      <c r="AD34" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Y34" s="23">
+        <v/>
+      </c>
+      <c r="AE34" t="str">
         <f t="shared" si="6"/>
-        <v>2.6</v>
-      </c>
-      <c r="Z34" s="23">
+        <v/>
+      </c>
+      <c r="AF34" t="str">
         <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="AA34" t="str">
-        <f t="shared" si="8"/>
-        <v>Always red</v>
-      </c>
-      <c r="AB34">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AC34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD34" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE34" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="str">
         <f>DATA!A35</f>
         <v>ND</v>
@@ -7415,56 +7517,59 @@
       </c>
       <c r="P35" s="27"/>
       <c r="R35" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="S35" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="T35" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>-0.6</v>
       </c>
       <c r="U35" s="27"/>
       <c r="W35" s="6">
+        <f>MIN(I35:M35)</f>
+        <v>1</v>
+      </c>
+      <c r="X35" s="6">
+        <f>MAX(I35:M35)</f>
+        <v>1</v>
+      </c>
+      <c r="Y35" s="23">
+        <f>AVERAGE(I35:M35)</f>
+        <v>1</v>
+      </c>
+      <c r="Z35" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="23">
+        <f>Y35-T35</f>
+        <v>1.6</v>
+      </c>
+      <c r="AB35" t="str">
+        <f>IF(COUNTIF(I35:M35,"&gt;0")=5,"Always red",IF(COUNTIF(I35:M35,"&lt;0")=5,"Always blue",IF(COUNTIF(I35:M35,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Always red</v>
+      </c>
+      <c r="AC35">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="X35" s="6">
+      <c r="AD35" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Y35" s="23">
+        <v/>
+      </c>
+      <c r="AE35" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Z35" s="23">
+        <v/>
+      </c>
+      <c r="AF35" t="str">
         <f t="shared" si="7"/>
-        <v>1.6</v>
-      </c>
-      <c r="AA35" t="str">
-        <f t="shared" si="8"/>
-        <v>Always red</v>
-      </c>
-      <c r="AB35">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AC35" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD35" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE35" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="str">
         <f>DATA!A36</f>
         <v>OH</v>
@@ -7524,56 +7629,59 @@
       </c>
       <c r="P36" s="27"/>
       <c r="R36" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="S36" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="T36" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>1.6</v>
       </c>
       <c r="U36" s="27"/>
       <c r="W36" s="6">
+        <f>MIN(I36:M36)</f>
+        <v>3</v>
+      </c>
+      <c r="X36" s="6">
+        <f>MAX(I36:M36)</f>
+        <v>4</v>
+      </c>
+      <c r="Y36" s="23">
+        <f>AVERAGE(I36:M36)</f>
+        <v>3.4</v>
+      </c>
+      <c r="Z36" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="23">
+        <f>Y36-T36</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="AB36" t="str">
+        <f>IF(COUNTIF(I36:M36,"&gt;0")=5,"Always red",IF(COUNTIF(I36:M36,"&lt;0")=5,"Always blue",IF(COUNTIF(I36:M36,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Always red</v>
+      </c>
+      <c r="AC36">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="X36" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD36" t="str">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="Y36" s="23">
+        <v/>
+      </c>
+      <c r="AE36" t="str">
         <f t="shared" si="6"/>
-        <v>3.4</v>
-      </c>
-      <c r="Z36" s="23">
+        <v/>
+      </c>
+      <c r="AF36" t="str">
         <f t="shared" si="7"/>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="AA36" t="str">
-        <f t="shared" si="8"/>
-        <v>Always red</v>
-      </c>
-      <c r="AB36">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AC36" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD36" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE36" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="str">
         <f>DATA!A37</f>
         <v>OK</v>
@@ -7633,56 +7741,59 @@
       </c>
       <c r="P37" s="27"/>
       <c r="R37" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="S37" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="T37" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="U37" s="27"/>
       <c r="W37" s="6">
+        <f>MIN(I37:M37)</f>
+        <v>1</v>
+      </c>
+      <c r="X37" s="6">
+        <f>MAX(I37:M37)</f>
+        <v>2</v>
+      </c>
+      <c r="Y37" s="23">
+        <f>AVERAGE(I37:M37)</f>
+        <v>1.4</v>
+      </c>
+      <c r="Z37" s="23">
+        <v>2.1392519999999999</v>
+      </c>
+      <c r="AA37" s="23">
+        <f>Y37-T37</f>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="AB37" t="str">
+        <f>IF(COUNTIF(I37:M37,"&gt;0")=5,"Always red",IF(COUNTIF(I37:M37,"&lt;0")=5,"Always blue",IF(COUNTIF(I37:M37,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Always red</v>
+      </c>
+      <c r="AC37">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="X37" s="6">
+      <c r="AD37" t="str">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="Y37" s="23">
+        <v/>
+      </c>
+      <c r="AE37" t="str">
         <f t="shared" si="6"/>
-        <v>1.4</v>
-      </c>
-      <c r="Z37" s="23">
+        <v/>
+      </c>
+      <c r="AF37" t="str">
         <f t="shared" si="7"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="AA37" t="str">
-        <f t="shared" si="8"/>
-        <v>Always red</v>
-      </c>
-      <c r="AB37">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AC37" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD37" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE37" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="str">
         <f>DATA!A38</f>
         <v>OR</v>
@@ -7742,56 +7853,59 @@
       </c>
       <c r="P38" s="27"/>
       <c r="R38" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="S38" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="T38" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="U38" s="27"/>
       <c r="W38" s="6">
+        <f>MIN(I38:M38)</f>
+        <v>-1</v>
+      </c>
+      <c r="X38" s="6">
+        <f>MAX(I38:M38)</f>
+        <v>-1</v>
+      </c>
+      <c r="Y38" s="23">
+        <f>AVERAGE(I38:M38)</f>
+        <v>-1</v>
+      </c>
+      <c r="Z38" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="23">
+        <f>Y38-T38</f>
+        <v>0</v>
+      </c>
+      <c r="AB38" t="str">
+        <f>IF(COUNTIF(I38:M38,"&gt;0")=5,"Always red",IF(COUNTIF(I38:M38,"&lt;0")=5,"Always blue",IF(COUNTIF(I38:M38,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Always blue</v>
+      </c>
+      <c r="AC38" t="str">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="X38" s="6">
+        <v/>
+      </c>
+      <c r="AD38">
         <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="Y38" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE38" t="str">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="Z38" s="23">
+        <v/>
+      </c>
+      <c r="AF38" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA38" t="str">
-        <f t="shared" si="8"/>
-        <v>Always blue</v>
-      </c>
-      <c r="AB38" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AC38">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AD38" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE38" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="str">
         <f>DATA!A39</f>
         <v>PA</v>
@@ -7851,56 +7965,59 @@
       </c>
       <c r="P39" s="27"/>
       <c r="R39" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>-2</v>
       </c>
       <c r="S39" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="T39" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>0.6</v>
       </c>
       <c r="U39" s="27"/>
       <c r="W39" s="6">
+        <f>MIN(I39:M39)</f>
+        <v>0</v>
+      </c>
+      <c r="X39" s="6">
+        <f>MAX(I39:M39)</f>
+        <v>4</v>
+      </c>
+      <c r="Y39" s="23">
+        <f>AVERAGE(I39:M39)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Z39" s="23">
+        <v>2.1612719999999999</v>
+      </c>
+      <c r="AA39" s="23">
+        <f>Y39-T39</f>
+        <v>1.6</v>
+      </c>
+      <c r="AB39" t="str">
+        <f>IF(COUNTIF(I39:M39,"&gt;0")=5,"Always red",IF(COUNTIF(I39:M39,"&lt;0")=5,"Always blue",IF(COUNTIF(I39:M39,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Mixed</v>
+      </c>
+      <c r="AC39" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X39" s="6">
+        <v/>
+      </c>
+      <c r="AD39" t="str">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="Y39" s="23">
+        <v/>
+      </c>
+      <c r="AE39" t="str">
         <f t="shared" si="6"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="Z39" s="23">
+        <v/>
+      </c>
+      <c r="AF39">
         <f t="shared" si="7"/>
-        <v>1.6</v>
-      </c>
-      <c r="AA39" t="str">
-        <f t="shared" si="8"/>
-        <v>Mixed</v>
-      </c>
-      <c r="AB39" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AC39" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD39" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE39">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="str">
         <f>DATA!A40</f>
         <v>RI</v>
@@ -7960,56 +8077,59 @@
       </c>
       <c r="P40" s="27"/>
       <c r="R40" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="S40" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="T40" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="U40" s="27"/>
       <c r="W40" s="6">
+        <f>MIN(I40:M40)</f>
+        <v>-1</v>
+      </c>
+      <c r="X40" s="6">
+        <f>MAX(I40:M40)</f>
+        <v>-1</v>
+      </c>
+      <c r="Y40" s="23">
+        <f>AVERAGE(I40:M40)</f>
+        <v>-1</v>
+      </c>
+      <c r="Z40" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="23">
+        <f>Y40-T40</f>
+        <v>0</v>
+      </c>
+      <c r="AB40" t="str">
+        <f>IF(COUNTIF(I40:M40,"&gt;0")=5,"Always red",IF(COUNTIF(I40:M40,"&lt;0")=5,"Always blue",IF(COUNTIF(I40:M40,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Always blue</v>
+      </c>
+      <c r="AC40" t="str">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="X40" s="6">
+        <v/>
+      </c>
+      <c r="AD40">
         <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="Y40" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE40" t="str">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="Z40" s="23">
+        <v/>
+      </c>
+      <c r="AF40" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA40" t="str">
-        <f t="shared" si="8"/>
-        <v>Always blue</v>
-      </c>
-      <c r="AB40" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AC40">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AD40" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE40" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="str">
         <f>DATA!A41</f>
         <v>SC</v>
@@ -8069,56 +8189,59 @@
       </c>
       <c r="P41" s="27"/>
       <c r="R41" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S41" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="T41" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>0.8</v>
       </c>
       <c r="U41" s="27"/>
       <c r="W41" s="6">
+        <f>MIN(I41:M41)</f>
+        <v>1</v>
+      </c>
+      <c r="X41" s="6">
+        <f>MAX(I41:M41)</f>
+        <v>2</v>
+      </c>
+      <c r="Y41" s="23">
+        <f>AVERAGE(I41:M41)</f>
+        <v>1.8</v>
+      </c>
+      <c r="Z41" s="23">
+        <v>2.0270510000000002</v>
+      </c>
+      <c r="AA41" s="23">
+        <f>Y41-T41</f>
+        <v>1</v>
+      </c>
+      <c r="AB41" t="str">
+        <f>IF(COUNTIF(I41:M41,"&gt;0")=5,"Always red",IF(COUNTIF(I41:M41,"&lt;0")=5,"Always blue",IF(COUNTIF(I41:M41,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Always red</v>
+      </c>
+      <c r="AC41">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="X41" s="6">
+      <c r="AD41" t="str">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="Y41" s="23">
+        <v/>
+      </c>
+      <c r="AE41" t="str">
         <f t="shared" si="6"/>
-        <v>1.8</v>
-      </c>
-      <c r="Z41" s="23">
+        <v/>
+      </c>
+      <c r="AF41" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AA41" t="str">
-        <f t="shared" si="8"/>
-        <v>Always red</v>
-      </c>
-      <c r="AB41">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AC41" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD41" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE41" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="str">
         <f>DATA!A42</f>
         <v>SD</v>
@@ -8178,56 +8301,59 @@
       </c>
       <c r="P42" s="27"/>
       <c r="R42" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="S42" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="T42" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>-0.2</v>
       </c>
       <c r="U42" s="27"/>
       <c r="W42" s="6">
+        <f>MIN(I42:M42)</f>
+        <v>1</v>
+      </c>
+      <c r="X42" s="6">
+        <f>MAX(I42:M42)</f>
+        <v>1</v>
+      </c>
+      <c r="Y42" s="23">
+        <f>AVERAGE(I42:M42)</f>
+        <v>1</v>
+      </c>
+      <c r="Z42" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="23">
+        <f>Y42-T42</f>
+        <v>1.2</v>
+      </c>
+      <c r="AB42" t="str">
+        <f>IF(COUNTIF(I42:M42,"&gt;0")=5,"Always red",IF(COUNTIF(I42:M42,"&lt;0")=5,"Always blue",IF(COUNTIF(I42:M42,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Always red</v>
+      </c>
+      <c r="AC42">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="X42" s="6">
+      <c r="AD42" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Y42" s="23">
+        <v/>
+      </c>
+      <c r="AE42" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Z42" s="23">
+        <v/>
+      </c>
+      <c r="AF42" t="str">
         <f t="shared" si="7"/>
-        <v>1.2</v>
-      </c>
-      <c r="AA42" t="str">
-        <f t="shared" si="8"/>
-        <v>Always red</v>
-      </c>
-      <c r="AB42">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AC42" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD42" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE42" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="str">
         <f>DATA!A43</f>
         <v>TN</v>
@@ -8287,56 +8413,59 @@
       </c>
       <c r="P43" s="27"/>
       <c r="R43" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="S43" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="T43" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>-0.4</v>
       </c>
       <c r="U43" s="27"/>
       <c r="W43" s="6">
+        <f>MIN(I43:M43)</f>
+        <v>1</v>
+      </c>
+      <c r="X43" s="6">
+        <f>MAX(I43:M43)</f>
+        <v>2</v>
+      </c>
+      <c r="Y43" s="23">
+        <f>AVERAGE(I43:M43)</f>
+        <v>1.4</v>
+      </c>
+      <c r="Z43" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="23">
+        <f>Y43-T43</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="AB43" t="str">
+        <f>IF(COUNTIF(I43:M43,"&gt;0")=5,"Always red",IF(COUNTIF(I43:M43,"&lt;0")=5,"Always blue",IF(COUNTIF(I43:M43,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Always red</v>
+      </c>
+      <c r="AC43">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="X43" s="6">
+      <c r="AD43" t="str">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="Y43" s="23">
+        <v/>
+      </c>
+      <c r="AE43" t="str">
         <f t="shared" si="6"/>
-        <v>1.4</v>
-      </c>
-      <c r="Z43" s="23">
+        <v/>
+      </c>
+      <c r="AF43" t="str">
         <f t="shared" si="7"/>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="AA43" t="str">
-        <f t="shared" si="8"/>
-        <v>Always red</v>
-      </c>
-      <c r="AB43">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AC43" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD43" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE43" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="str">
         <f>DATA!A44</f>
         <v>TX</v>
@@ -8396,56 +8525,59 @@
       </c>
       <c r="P44" s="27"/>
       <c r="R44" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>-2</v>
       </c>
       <c r="S44" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="T44" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>1.8</v>
       </c>
       <c r="U44" s="27"/>
       <c r="W44" s="6">
+        <f>MIN(I44:M44)</f>
+        <v>3</v>
+      </c>
+      <c r="X44" s="6">
+        <f>MAX(I44:M44)</f>
+        <v>5</v>
+      </c>
+      <c r="Y44" s="23">
+        <f>AVERAGE(I44:M44)</f>
+        <v>3.8</v>
+      </c>
+      <c r="Z44" s="23">
+        <v>0.88628899999999999</v>
+      </c>
+      <c r="AA44" s="23">
+        <f>Y44-T44</f>
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="AB44" t="str">
+        <f>IF(COUNTIF(I44:M44,"&gt;0")=5,"Always red",IF(COUNTIF(I44:M44,"&lt;0")=5,"Always blue",IF(COUNTIF(I44:M44,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Always red</v>
+      </c>
+      <c r="AC44">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="X44" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD44" t="str">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="Y44" s="23">
+        <v/>
+      </c>
+      <c r="AE44" t="str">
         <f t="shared" si="6"/>
-        <v>3.8</v>
-      </c>
-      <c r="Z44" s="23">
+        <v/>
+      </c>
+      <c r="AF44" t="str">
         <f t="shared" si="7"/>
-        <v>1.9999999999999998</v>
-      </c>
-      <c r="AA44" t="str">
-        <f t="shared" si="8"/>
-        <v>Always red</v>
-      </c>
-      <c r="AB44">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AC44" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD44" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE44" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="str">
         <f>DATA!A45</f>
         <v>UT</v>
@@ -8505,56 +8637,59 @@
       </c>
       <c r="P45" s="27"/>
       <c r="R45" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="S45" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T45" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>-0.2</v>
       </c>
       <c r="U45" s="27"/>
       <c r="W45" s="6">
+        <f>MIN(I45:M45)</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="6">
+        <f>MAX(I45:M45)</f>
+        <v>1</v>
+      </c>
+      <c r="Y45" s="23">
+        <f>AVERAGE(I45:M45)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z45" s="23">
+        <v>1.4005620000000001</v>
+      </c>
+      <c r="AA45" s="23">
+        <f>Y45-T45</f>
+        <v>1</v>
+      </c>
+      <c r="AB45" t="str">
+        <f>IF(COUNTIF(I45:M45,"&gt;0")=5,"Always red",IF(COUNTIF(I45:M45,"&lt;0")=5,"Always blue",IF(COUNTIF(I45:M45,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Mixed</v>
+      </c>
+      <c r="AC45" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X45" s="6">
+        <v/>
+      </c>
+      <c r="AD45" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Y45" s="23">
+        <v/>
+      </c>
+      <c r="AE45" t="str">
         <f t="shared" si="6"/>
-        <v>0.8</v>
-      </c>
-      <c r="Z45" s="23">
+        <v/>
+      </c>
+      <c r="AF45">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AA45" t="str">
-        <f t="shared" si="8"/>
-        <v>Mixed</v>
-      </c>
-      <c r="AB45" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AC45" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD45" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE45">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="str">
         <f>DATA!A46</f>
         <v>VT</v>
@@ -8614,56 +8749,59 @@
       </c>
       <c r="P46" s="27"/>
       <c r="R46" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="S46" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T46" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>-0.6</v>
       </c>
       <c r="U46" s="27"/>
       <c r="W46" s="6">
+        <f>MIN(I46:M46)</f>
+        <v>-1</v>
+      </c>
+      <c r="X46" s="6">
+        <f>MAX(I46:M46)</f>
+        <v>-1</v>
+      </c>
+      <c r="Y46" s="23">
+        <f>AVERAGE(I46:M46)</f>
+        <v>-1</v>
+      </c>
+      <c r="Z46" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="23">
+        <f>Y46-T46</f>
+        <v>-0.4</v>
+      </c>
+      <c r="AB46" t="str">
+        <f>IF(COUNTIF(I46:M46,"&gt;0")=5,"Always red",IF(COUNTIF(I46:M46,"&lt;0")=5,"Always blue",IF(COUNTIF(I46:M46,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Always blue</v>
+      </c>
+      <c r="AC46" t="str">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="X46" s="6">
+        <v/>
+      </c>
+      <c r="AD46">
         <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="Y46" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE46" t="str">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="Z46" s="23">
+        <v/>
+      </c>
+      <c r="AF46" t="str">
         <f t="shared" si="7"/>
-        <v>-0.4</v>
-      </c>
-      <c r="AA46" t="str">
-        <f t="shared" si="8"/>
-        <v>Always blue</v>
-      </c>
-      <c r="AB46" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AC46">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AD46" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE46" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="str">
         <f>DATA!A47</f>
         <v>VA</v>
@@ -8723,56 +8861,59 @@
       </c>
       <c r="P47" s="27"/>
       <c r="R47" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S47" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="T47" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>1.4</v>
       </c>
       <c r="U47" s="27"/>
       <c r="W47" s="6">
+        <f>MIN(I47:M47)</f>
+        <v>-1</v>
+      </c>
+      <c r="X47" s="6">
+        <f>MAX(I47:M47)</f>
+        <v>2</v>
+      </c>
+      <c r="Y47" s="23">
+        <f>AVERAGE(I47:M47)</f>
+        <v>0.6</v>
+      </c>
+      <c r="Z47" s="23">
+        <v>4.1732719999999999</v>
+      </c>
+      <c r="AA47" s="23">
+        <f>Y47-T47</f>
+        <v>-0.79999999999999993</v>
+      </c>
+      <c r="AB47" t="str">
+        <f>IF(COUNTIF(I47:M47,"&gt;0")=5,"Always red",IF(COUNTIF(I47:M47,"&lt;0")=5,"Always blue",IF(COUNTIF(I47:M47,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Mixed</v>
+      </c>
+      <c r="AC47" t="str">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="X47" s="6">
+        <v/>
+      </c>
+      <c r="AD47" t="str">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="Y47" s="23">
+        <v/>
+      </c>
+      <c r="AE47" t="str">
         <f t="shared" si="6"/>
-        <v>0.6</v>
-      </c>
-      <c r="Z47" s="23">
+        <v/>
+      </c>
+      <c r="AF47">
         <f t="shared" si="7"/>
-        <v>-0.79999999999999993</v>
-      </c>
-      <c r="AA47" t="str">
-        <f t="shared" si="8"/>
-        <v>Mixed</v>
-      </c>
-      <c r="AB47" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AC47" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD47" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE47">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="str">
         <f>DATA!A48</f>
         <v>WA</v>
@@ -8832,56 +8973,59 @@
       </c>
       <c r="P48" s="27"/>
       <c r="R48" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="S48" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T48" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>-0.8</v>
       </c>
       <c r="U48" s="27"/>
       <c r="W48" s="6">
+        <f>MIN(I48:M48)</f>
+        <v>-1</v>
+      </c>
+      <c r="X48" s="6">
+        <f>MAX(I48:M48)</f>
+        <v>-1</v>
+      </c>
+      <c r="Y48" s="23">
+        <f>AVERAGE(I48:M48)</f>
+        <v>-1</v>
+      </c>
+      <c r="Z48" s="23">
+        <v>1.1606259999999999</v>
+      </c>
+      <c r="AA48" s="23">
+        <f>Y48-T48</f>
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="AB48" t="str">
+        <f>IF(COUNTIF(I48:M48,"&gt;0")=5,"Always red",IF(COUNTIF(I48:M48,"&lt;0")=5,"Always blue",IF(COUNTIF(I48:M48,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Always blue</v>
+      </c>
+      <c r="AC48" t="str">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="X48" s="6">
+        <v/>
+      </c>
+      <c r="AD48">
         <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="Y48" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE48" t="str">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="Z48" s="23">
+        <v/>
+      </c>
+      <c r="AF48" t="str">
         <f t="shared" si="7"/>
-        <v>-0.19999999999999996</v>
-      </c>
-      <c r="AA48" t="str">
-        <f t="shared" si="8"/>
-        <v>Always blue</v>
-      </c>
-      <c r="AB48" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AC48">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AD48" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE48" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="str">
         <f>DATA!A49</f>
         <v>WV</v>
@@ -8941,56 +9085,59 @@
       </c>
       <c r="P49" s="27"/>
       <c r="R49" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S49" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T49" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U49" s="27"/>
       <c r="W49" s="6">
+        <f>MIN(I49:M49)</f>
+        <v>0</v>
+      </c>
+      <c r="X49" s="6">
+        <f>MAX(I49:M49)</f>
+        <v>1</v>
+      </c>
+      <c r="Y49" s="23">
+        <f>AVERAGE(I49:M49)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z49" s="23">
+        <v>0.78665700000000005</v>
+      </c>
+      <c r="AA49" s="23">
+        <f>Y49-T49</f>
+        <v>0.8</v>
+      </c>
+      <c r="AB49" t="str">
+        <f>IF(COUNTIF(I49:M49,"&gt;0")=5,"Always red",IF(COUNTIF(I49:M49,"&lt;0")=5,"Always blue",IF(COUNTIF(I49:M49,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Mixed</v>
+      </c>
+      <c r="AC49" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X49" s="6">
+        <v/>
+      </c>
+      <c r="AD49" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Y49" s="23">
+        <v/>
+      </c>
+      <c r="AE49" t="str">
         <f t="shared" si="6"/>
-        <v>0.8</v>
-      </c>
-      <c r="Z49" s="23">
+        <v/>
+      </c>
+      <c r="AF49">
         <f t="shared" si="7"/>
-        <v>0.8</v>
-      </c>
-      <c r="AA49" t="str">
-        <f t="shared" si="8"/>
-        <v>Mixed</v>
-      </c>
-      <c r="AB49" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AC49" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD49" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE49">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="str">
         <f>DATA!A50</f>
         <v>WI</v>
@@ -9050,56 +9197,59 @@
       </c>
       <c r="P50" s="27"/>
       <c r="R50" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="S50" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="T50" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>-0.2</v>
       </c>
       <c r="U50" s="27"/>
       <c r="W50" s="6">
+        <f>MIN(I50:M50)</f>
+        <v>1</v>
+      </c>
+      <c r="X50" s="6">
+        <f>MAX(I50:M50)</f>
+        <v>1</v>
+      </c>
+      <c r="Y50" s="23">
+        <f>AVERAGE(I50:M50)</f>
+        <v>1</v>
+      </c>
+      <c r="Z50" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="23">
+        <f>Y50-T50</f>
+        <v>1.2</v>
+      </c>
+      <c r="AB50" t="str">
+        <f>IF(COUNTIF(I50:M50,"&gt;0")=5,"Always red",IF(COUNTIF(I50:M50,"&lt;0")=5,"Always blue",IF(COUNTIF(I50:M50,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Always red</v>
+      </c>
+      <c r="AC50">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="X50" s="6">
+      <c r="AD50" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Y50" s="23">
+        <v/>
+      </c>
+      <c r="AE50" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Z50" s="23">
+        <v/>
+      </c>
+      <c r="AF50" t="str">
         <f t="shared" si="7"/>
-        <v>1.2</v>
-      </c>
-      <c r="AA50" t="str">
-        <f t="shared" si="8"/>
-        <v>Always red</v>
-      </c>
-      <c r="AB50">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AC50" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD50" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE50" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="str">
         <f>DATA!A51</f>
         <v>WY</v>
@@ -9160,118 +9310,121 @@
       <c r="P51" s="27"/>
       <c r="Q51" s="24"/>
       <c r="R51" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="S51" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="T51" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="U51" s="27"/>
       <c r="V51" s="24"/>
       <c r="W51" s="8">
+        <f>MIN(I51:M51)</f>
+        <v>1</v>
+      </c>
+      <c r="X51" s="8">
+        <f>MAX(I51:M51)</f>
+        <v>1</v>
+      </c>
+      <c r="Y51" s="25">
+        <f>AVERAGE(I51:M51)</f>
+        <v>1</v>
+      </c>
+      <c r="Z51" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="25">
+        <f>Y51-T51</f>
+        <v>0</v>
+      </c>
+      <c r="AB51" s="24" t="str">
+        <f>IF(COUNTIF(I51:M51,"&gt;0")=5,"Always red",IF(COUNTIF(I51:M51,"&lt;0")=5,"Always blue",IF(COUNTIF(I51:M51,"=0")=5,"Always PR","Mixed")))</f>
+        <v>Always red</v>
+      </c>
+      <c r="AC51" s="24">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="X51" s="8">
+      <c r="AD51" s="24" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Y51" s="25">
+        <v/>
+      </c>
+      <c r="AE51" s="24" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Z51" s="25">
+        <v/>
+      </c>
+      <c r="AF51" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA51" s="24" t="str">
-        <f t="shared" si="8"/>
-        <v>Always red</v>
-      </c>
-      <c r="AB51" s="24">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AC51" s="24" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD51" s="24" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AE51" s="24" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="6">
-        <f t="shared" ref="C52:M52" si="16">COUNTIF(C2:C51,"=0")</f>
+        <f t="shared" ref="C52:M52" si="11">COUNTIF(C2:C51,"=0")</f>
         <v>10</v>
       </c>
       <c r="D52" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="E52" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="F52" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="G52" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="H52" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="I52" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="J52" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="K52" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="L52" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="M52" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="N52" s="34"/>
       <c r="O52" s="15"/>
       <c r="P52" s="27"/>
       <c r="R52" s="6">
-        <f t="shared" ref="R52" si="17">MIN(D52:H52)</f>
+        <f t="shared" ref="R52" si="12">MIN(D52:H52)</f>
         <v>8</v>
       </c>
       <c r="S52" s="6">
-        <f t="shared" ref="S52" si="18">MAX(D52:H52)</f>
+        <f t="shared" ref="S52" si="13">MAX(D52:H52)</f>
         <v>13</v>
       </c>
       <c r="T52" s="23">
-        <f t="shared" ref="T52" si="19">AVERAGE(D52:H52)</f>
+        <f t="shared" ref="T52" si="14">AVERAGE(D52:H52)</f>
         <v>11.4</v>
       </c>
       <c r="U52" s="27"/>
@@ -9287,28 +9440,29 @@
         <f>AVERAGE(I52:M52)</f>
         <v>5.8</v>
       </c>
-      <c r="Z52" s="23">
-        <f t="shared" ref="Z52" si="20">Y52-T52</f>
+      <c r="Z52" s="23"/>
+      <c r="AA52" s="23">
+        <f>Y52-T52</f>
         <v>-5.6000000000000005</v>
-      </c>
-      <c r="AB52">
-        <f>SUM(AB2:AB51)</f>
-        <v>23</v>
       </c>
       <c r="AC52">
         <f>SUM(AC2:AC51)</f>
+        <v>23</v>
+      </c>
+      <c r="AD52">
+        <f>SUM(AD2:AD51)</f>
         <v>11</v>
       </c>
-      <c r="AD52">
-        <f t="shared" ref="AD52:AE52" si="21">SUM(AD2:AD51)</f>
-        <v>1</v>
-      </c>
       <c r="AE52">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="AE52:AF52" si="15">SUM(AE2:AE51)</f>
+        <v>1</v>
+      </c>
+      <c r="AF52">
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53" s="35"/>
       <c r="B53" s="5"/>
       <c r="C53" s="37">
@@ -9316,67 +9470,67 @@
         <v>0.2</v>
       </c>
       <c r="D53" s="38">
-        <f t="shared" ref="D53:M53" si="22">D52/50</f>
+        <f t="shared" ref="D53:M53" si="16">D52/50</f>
         <v>0.24</v>
       </c>
       <c r="E53" s="37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0.24</v>
       </c>
       <c r="F53" s="37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0.26</v>
       </c>
       <c r="G53" s="37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0.24</v>
       </c>
       <c r="H53" s="37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0.16</v>
       </c>
       <c r="I53" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="J53" s="37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="K53" s="37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0.12</v>
       </c>
       <c r="L53" s="37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0.08</v>
       </c>
       <c r="M53" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0.1</v>
       </c>
       <c r="N53" s="34"/>
       <c r="O53" s="15"/>
       <c r="P53" s="27"/>
       <c r="U53" s="27"/>
-      <c r="AB53" s="37">
-        <f t="shared" ref="AB53:AC53" si="23">AB52/50</f>
+      <c r="AC53" s="37">
+        <f t="shared" ref="AC53:AD53" si="17">AC52/50</f>
         <v>0.46</v>
       </c>
-      <c r="AC53" s="37">
-        <f t="shared" si="23"/>
+      <c r="AD53" s="37">
+        <f t="shared" si="17"/>
         <v>0.22</v>
       </c>
-      <c r="AD53" s="37">
-        <f t="shared" ref="AD53:AE53" si="24">AD52/50</f>
+      <c r="AE53" s="37">
+        <f t="shared" ref="AE53:AF53" si="18">AE52/50</f>
         <v>0.02</v>
       </c>
-      <c r="AE53" s="37">
-        <f t="shared" si="24"/>
+      <c r="AF53" s="37">
+        <f t="shared" si="18"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="D54" s="15"/>
@@ -9387,7 +9541,7 @@
       <c r="P54" s="27"/>
       <c r="U54" s="27"/>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="D55" s="15"/>
@@ -9398,53 +9552,53 @@
       <c r="P55" s="27"/>
       <c r="U55" s="27"/>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
         <v>118</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="11">
-        <f t="shared" ref="C56:M56" si="25">C1</f>
+        <f t="shared" ref="C56:M56" si="19">C1</f>
         <v>2000</v>
       </c>
       <c r="D56" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>2002</v>
       </c>
       <c r="E56" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>2004</v>
       </c>
       <c r="F56" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>2006</v>
       </c>
       <c r="G56" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>2008</v>
       </c>
       <c r="H56" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>2010</v>
       </c>
       <c r="I56" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>2012</v>
       </c>
       <c r="J56" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>2014</v>
       </c>
       <c r="K56" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>2016</v>
       </c>
       <c r="L56" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>2018</v>
       </c>
       <c r="M56" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>2020</v>
       </c>
       <c r="N56" s="34"/>
@@ -9486,12 +9640,13 @@
         <f>Y1</f>
         <v>avg</v>
       </c>
-      <c r="Z56" s="11" t="str">
-        <f>Z1</f>
+      <c r="Z56" s="11"/>
+      <c r="AA56" s="11" t="str">
+        <f>AA1</f>
         <v>chg</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>102</v>
       </c>
@@ -9576,12 +9731,13 @@
         <f>AVERAGE(I57:M57)</f>
         <v>217</v>
       </c>
-      <c r="Z57" s="31">
-        <f t="shared" ref="Z57" si="26">Y57-T57</f>
+      <c r="Z57" s="32"/>
+      <c r="AA57" s="31">
+        <f>Y57-T57</f>
         <v>1.1999999999999886</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>119</v>
       </c>
@@ -9664,12 +9820,13 @@
         <f>AVERAGE(I58:M58)</f>
         <v>-0.4</v>
       </c>
-      <c r="Z58">
-        <f t="shared" ref="Z58" si="27">Y58-T58</f>
+      <c r="Z58" s="23"/>
+      <c r="AA58">
+        <f>Y58-T58</f>
         <v>1.4</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="D59" s="15"/>
@@ -9680,7 +9837,7 @@
       <c r="P59" s="27"/>
       <c r="U59" s="27"/>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
         <v>120</v>
       </c>
@@ -9709,8 +9866,9 @@
       <c r="X60" s="24"/>
       <c r="Y60" s="24"/>
       <c r="Z60" s="24"/>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AA60" s="24"/>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="str">
         <f>DATA!A52</f>
         <v>REP</v>
@@ -9794,12 +9952,13 @@
         <f>AVERAGE(I61:M61)</f>
         <v>226.8</v>
       </c>
-      <c r="Z61">
-        <f t="shared" ref="Z61:Z63" si="28">Y61-T61</f>
+      <c r="Z61" s="23"/>
+      <c r="AA61">
+        <f>Y61-T61</f>
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="str">
         <f>DATA!A53</f>
         <v>DEM</v>
@@ -9885,12 +10044,13 @@
         <f>AVERAGE(I62:M62)</f>
         <v>208</v>
       </c>
-      <c r="Z62" s="24">
-        <f t="shared" si="28"/>
+      <c r="Z62" s="25"/>
+      <c r="AA62" s="24">
+        <f>Y62-T62</f>
         <v>-9.8000000000000114</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>115</v>
       </c>
@@ -9973,12 +10133,13 @@
         <f>AVERAGE(I63:M63)</f>
         <v>9.4</v>
       </c>
-      <c r="Z63">
-        <f t="shared" si="28"/>
+      <c r="Z63" s="23"/>
+      <c r="AA63">
+        <f>Y63-T63</f>
         <v>10.200000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="D64" s="15"/>
@@ -9989,7 +10150,7 @@
       <c r="P64" s="27"/>
       <c r="U64" s="27"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
         <v>114</v>
       </c>
@@ -10018,8 +10179,9 @@
       <c r="X65" s="24"/>
       <c r="Y65" s="24"/>
       <c r="Z65" s="24"/>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="24"/>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>116</v>
       </c>
@@ -10102,12 +10264,13 @@
         <f>AVERAGE(I66:M66)</f>
         <v>38</v>
       </c>
-      <c r="Z66">
-        <f t="shared" ref="Z66:Z68" si="29">Y66-T66</f>
+      <c r="Z66" s="23"/>
+      <c r="AA66">
+        <f>Y66-T66</f>
         <v>13.600000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>104</v>
       </c>
@@ -10192,12 +10355,13 @@
         <f>AVERAGE(I67:M67)</f>
         <v>-28.2</v>
       </c>
-      <c r="Z67" s="24">
-        <f t="shared" si="29"/>
+      <c r="Z67" s="25"/>
+      <c r="AA67" s="24">
+        <f>Y67-T67</f>
         <v>-4.8000000000000007</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>117</v>
       </c>
@@ -10280,19 +10444,20 @@
         <f>AVERAGE(I68:M68)</f>
         <v>9.8000000000000007</v>
       </c>
-      <c r="Z68">
-        <f t="shared" si="29"/>
+      <c r="Z68" s="23"/>
+      <c r="AA68">
+        <f>Y68-T68</f>
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D69" s="15"/>
       <c r="I69" s="15"/>
       <c r="N69" s="34"/>
       <c r="P69" s="27"/>
       <c r="U69" s="27"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>128</v>
       </c>
@@ -10301,64 +10466,64 @@
         <v>1</v>
       </c>
       <c r="D70" s="15" t="b">
-        <f t="shared" ref="D70:M70" si="30">AND(D57&lt;218,D61&gt;=218)</f>
+        <f t="shared" ref="D70:M70" si="20">AND(D57&lt;218,D61&gt;=218)</f>
         <v>0</v>
       </c>
       <c r="E70" s="6" t="b">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F70" s="6" t="b">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G70" s="6" t="b">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H70" s="6" t="b">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I70" s="44" t="b">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="J70" s="6" t="b">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K70" s="6" t="b">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L70" s="6" t="b">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M70" s="6" t="b">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N70" s="34"/>
       <c r="P70" s="27"/>
       <c r="U70" s="27"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D71" s="15"/>
       <c r="I71" s="15"/>
       <c r="N71" s="34"/>
       <c r="P71" s="27"/>
       <c r="U71" s="27"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D72" s="15"/>
       <c r="I72" s="15"/>
       <c r="N72" s="34"/>
       <c r="P72" s="27"/>
       <c r="U72" s="27"/>
     </row>
-    <row r="73" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="40" t="s">
         <v>135</v>
       </c>
@@ -10387,8 +10552,9 @@
       <c r="X73" s="40"/>
       <c r="Y73" s="40"/>
       <c r="Z73" s="40"/>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="40"/>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>133</v>
       </c>
@@ -10397,39 +10563,39 @@
         <v>25</v>
       </c>
       <c r="E74" s="6">
-        <f t="shared" ref="E74:H74" si="31">ABS(E66)</f>
+        <f t="shared" ref="E74:H74" si="21">ABS(E66)</f>
         <v>30</v>
       </c>
       <c r="F74" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
       <c r="G74" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
       <c r="H74" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>34</v>
       </c>
       <c r="I74" s="15">
-        <f t="shared" ref="I74:M74" si="32">ABS(I66)</f>
+        <f t="shared" ref="I74:M74" si="22">ABS(I66)</f>
         <v>43</v>
       </c>
       <c r="J74" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>42</v>
       </c>
       <c r="K74" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>41</v>
       </c>
       <c r="L74" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>34</v>
       </c>
       <c r="M74" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>30</v>
       </c>
       <c r="N74" s="34"/>
@@ -10443,8 +10609,9 @@
         <f>AVERAGE(I74:M74)</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z74" s="6"/>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>134</v>
       </c>
@@ -10453,39 +10620,39 @@
         <v>22</v>
       </c>
       <c r="E75" s="6">
-        <f t="shared" ref="E75:H75" si="33">ABS(E67)</f>
+        <f t="shared" ref="E75:H75" si="23">ABS(E67)</f>
         <v>17</v>
       </c>
       <c r="F75" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>24</v>
       </c>
       <c r="G75" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>33</v>
       </c>
       <c r="H75" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>21</v>
       </c>
       <c r="I75" s="15">
-        <f t="shared" ref="I75:M75" si="34">ABS(I67)</f>
+        <f t="shared" ref="I75:M75" si="24">ABS(I67)</f>
         <v>25</v>
       </c>
       <c r="J75" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>24</v>
       </c>
       <c r="K75" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>21</v>
       </c>
       <c r="L75" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>38</v>
       </c>
       <c r="M75" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>33</v>
       </c>
       <c r="N75" s="34"/>
@@ -10499,15 +10666,16 @@
         <f>AVERAGE(I75:M75)</f>
         <v>28.2</v>
       </c>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z75" s="6"/>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D76" s="15"/>
       <c r="I76" s="15"/>
       <c r="N76" s="34"/>
       <c r="P76" s="27"/>
       <c r="U76" s="27"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>133</v>
       </c>
@@ -10517,11 +10685,11 @@
         <v>43</v>
       </c>
       <c r="J77" s="6">
-        <f t="shared" ref="J77:K77" si="35">J74</f>
+        <f t="shared" ref="J77:K77" si="25">J74</f>
         <v>42</v>
       </c>
       <c r="K77" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>41</v>
       </c>
       <c r="N77" s="34"/>
@@ -10531,8 +10699,9 @@
         <f>AVERAGE(I77:M77)</f>
         <v>42</v>
       </c>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z77" s="6"/>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="J79" s="48" t="s">
         <v>137</v>
       </c>
@@ -10548,7 +10717,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="J80" s="45"/>
       <c r="K80" s="45" t="s">
         <v>18</v>
@@ -10618,14 +10787,11 @@
       </c>
     </row>
     <row r="86" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I86" s="49"/>
-      <c r="J86" s="50"/>
-      <c r="K86" s="49">
+      <c r="J86" s="45"/>
+      <c r="K86" s="6">
         <f>K85-K79</f>
         <v>-10</v>
       </c>
-      <c r="L86" s="49"/>
-      <c r="M86" s="49"/>
     </row>
     <row r="88" spans="9:13" x14ac:dyDescent="0.2">
       <c r="J88" s="48" t="s">
@@ -10723,6 +10889,250 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" negative="1" xr2:uid="{71E158C0-A3AD-A341-B4E5-0D57479B057A}">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FF00B0F0"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Analysis!D2:H2</xm:f>
+              <xm:sqref>Q2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D3:H3</xm:f>
+              <xm:sqref>Q3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D4:H4</xm:f>
+              <xm:sqref>Q4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D5:H5</xm:f>
+              <xm:sqref>Q5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D6:H6</xm:f>
+              <xm:sqref>Q6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D7:H7</xm:f>
+              <xm:sqref>Q7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D8:H8</xm:f>
+              <xm:sqref>Q8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D9:H9</xm:f>
+              <xm:sqref>Q9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D10:H10</xm:f>
+              <xm:sqref>Q10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D11:H11</xm:f>
+              <xm:sqref>Q11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D12:H12</xm:f>
+              <xm:sqref>Q12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D13:H13</xm:f>
+              <xm:sqref>Q13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D14:H14</xm:f>
+              <xm:sqref>Q14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D15:H15</xm:f>
+              <xm:sqref>Q15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D16:H16</xm:f>
+              <xm:sqref>Q16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D17:H17</xm:f>
+              <xm:sqref>Q17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D18:H18</xm:f>
+              <xm:sqref>Q18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D19:H19</xm:f>
+              <xm:sqref>Q19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D20:H20</xm:f>
+              <xm:sqref>Q20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D21:H21</xm:f>
+              <xm:sqref>Q21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D22:H22</xm:f>
+              <xm:sqref>Q22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D23:H23</xm:f>
+              <xm:sqref>Q23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D24:H24</xm:f>
+              <xm:sqref>Q24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D25:H25</xm:f>
+              <xm:sqref>Q25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D26:H26</xm:f>
+              <xm:sqref>Q26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D27:H27</xm:f>
+              <xm:sqref>Q27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D28:H28</xm:f>
+              <xm:sqref>Q28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D29:H29</xm:f>
+              <xm:sqref>Q29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D30:H30</xm:f>
+              <xm:sqref>Q30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D31:H31</xm:f>
+              <xm:sqref>Q31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D32:H32</xm:f>
+              <xm:sqref>Q32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D33:H33</xm:f>
+              <xm:sqref>Q33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D34:H34</xm:f>
+              <xm:sqref>Q34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D35:H35</xm:f>
+              <xm:sqref>Q35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D36:H36</xm:f>
+              <xm:sqref>Q36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D37:H37</xm:f>
+              <xm:sqref>Q37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D38:H38</xm:f>
+              <xm:sqref>Q38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D39:H39</xm:f>
+              <xm:sqref>Q39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D40:H40</xm:f>
+              <xm:sqref>Q40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D41:H41</xm:f>
+              <xm:sqref>Q41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D42:H42</xm:f>
+              <xm:sqref>Q42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D43:H43</xm:f>
+              <xm:sqref>Q43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D44:H44</xm:f>
+              <xm:sqref>Q44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D45:H45</xm:f>
+              <xm:sqref>Q45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D46:H46</xm:f>
+              <xm:sqref>Q46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D47:H47</xm:f>
+              <xm:sqref>Q47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D48:H48</xm:f>
+              <xm:sqref>Q48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D49:H49</xm:f>
+              <xm:sqref>Q49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D50:H50</xm:f>
+              <xm:sqref>Q50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D51:H51</xm:f>
+              <xm:sqref>Q51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D57:H57</xm:f>
+              <xm:sqref>Q57</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D58:H58</xm:f>
+              <xm:sqref>Q58</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D61:H61</xm:f>
+              <xm:sqref>Q61</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D62:H62</xm:f>
+              <xm:sqref>Q62</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D63:H63</xm:f>
+              <xm:sqref>Q63</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D66:H66</xm:f>
+              <xm:sqref>Q66</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D67:H67</xm:f>
+              <xm:sqref>Q67</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D68:H68</xm:f>
+              <xm:sqref>Q68</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" negative="1" xr2:uid="{B55D22CA-BED6-1041-8D4E-184E8B90A5CE}">
           <x14:colorSeries rgb="FFFF0000"/>
           <x14:colorNegative rgb="FF00B0F0"/>
@@ -10967,250 +11377,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" negative="1" xr2:uid="{71E158C0-A3AD-A341-B4E5-0D57479B057A}">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FF00B0F0"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Analysis!D2:H2</xm:f>
-              <xm:sqref>Q2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D3:H3</xm:f>
-              <xm:sqref>Q3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D4:H4</xm:f>
-              <xm:sqref>Q4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D5:H5</xm:f>
-              <xm:sqref>Q5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D6:H6</xm:f>
-              <xm:sqref>Q6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D7:H7</xm:f>
-              <xm:sqref>Q7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D8:H8</xm:f>
-              <xm:sqref>Q8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D9:H9</xm:f>
-              <xm:sqref>Q9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D10:H10</xm:f>
-              <xm:sqref>Q10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D11:H11</xm:f>
-              <xm:sqref>Q11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D12:H12</xm:f>
-              <xm:sqref>Q12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D13:H13</xm:f>
-              <xm:sqref>Q13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D14:H14</xm:f>
-              <xm:sqref>Q14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D15:H15</xm:f>
-              <xm:sqref>Q15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D16:H16</xm:f>
-              <xm:sqref>Q16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D17:H17</xm:f>
-              <xm:sqref>Q17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D18:H18</xm:f>
-              <xm:sqref>Q18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D19:H19</xm:f>
-              <xm:sqref>Q19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D20:H20</xm:f>
-              <xm:sqref>Q20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D21:H21</xm:f>
-              <xm:sqref>Q21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D22:H22</xm:f>
-              <xm:sqref>Q22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D23:H23</xm:f>
-              <xm:sqref>Q23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D24:H24</xm:f>
-              <xm:sqref>Q24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D25:H25</xm:f>
-              <xm:sqref>Q25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D26:H26</xm:f>
-              <xm:sqref>Q26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D27:H27</xm:f>
-              <xm:sqref>Q27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D28:H28</xm:f>
-              <xm:sqref>Q28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D29:H29</xm:f>
-              <xm:sqref>Q29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D30:H30</xm:f>
-              <xm:sqref>Q30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D31:H31</xm:f>
-              <xm:sqref>Q31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D32:H32</xm:f>
-              <xm:sqref>Q32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D33:H33</xm:f>
-              <xm:sqref>Q33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D34:H34</xm:f>
-              <xm:sqref>Q34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D35:H35</xm:f>
-              <xm:sqref>Q35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D36:H36</xm:f>
-              <xm:sqref>Q36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D37:H37</xm:f>
-              <xm:sqref>Q37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D38:H38</xm:f>
-              <xm:sqref>Q38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D39:H39</xm:f>
-              <xm:sqref>Q39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D40:H40</xm:f>
-              <xm:sqref>Q40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D41:H41</xm:f>
-              <xm:sqref>Q41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D42:H42</xm:f>
-              <xm:sqref>Q42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D43:H43</xm:f>
-              <xm:sqref>Q43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D44:H44</xm:f>
-              <xm:sqref>Q44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D45:H45</xm:f>
-              <xm:sqref>Q45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D46:H46</xm:f>
-              <xm:sqref>Q46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D47:H47</xm:f>
-              <xm:sqref>Q47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D48:H48</xm:f>
-              <xm:sqref>Q48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D49:H49</xm:f>
-              <xm:sqref>Q49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D50:H50</xm:f>
-              <xm:sqref>Q50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D51:H51</xm:f>
-              <xm:sqref>Q51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D57:H57</xm:f>
-              <xm:sqref>Q57</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D58:H58</xm:f>
-              <xm:sqref>Q58</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D61:H61</xm:f>
-              <xm:sqref>Q61</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D62:H62</xm:f>
-              <xm:sqref>Q62</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D63:H63</xm:f>
-              <xm:sqref>Q63</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D66:H66</xm:f>
-              <xm:sqref>Q66</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D67:H67</xm:f>
-              <xm:sqref>Q67</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D68:H68</xm:f>
-              <xm:sqref>Q68</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>

--- a/data/analysis/pivot-by-state.xlsx
+++ b/data/analysis/pivot-by-state.xlsx
@@ -1,26 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10104"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B6A66F-BD2E-4846-9A5B-96D6AB671C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1D4696-04F9-3E4E-A96B-8ABE946CF971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="1680" windowWidth="27640" windowHeight="17500" activeTab="1" xr2:uid="{243A2677-B725-5B4A-8946-B944A46BAF00}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{243A2677-B725-5B4A-8946-B944A46BAF00}"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="3" r:id="rId1"/>
-    <sheet name="Change" sheetId="5" r:id="rId2"/>
-    <sheet name="CHART" sheetId="8" r:id="rId3"/>
-    <sheet name="DATA" sheetId="1" r:id="rId4"/>
+    <sheet name="CHART" sheetId="8" r:id="rId2"/>
+    <sheet name="DATA" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Change!$J$1:$S$54</definedName>
-    <definedName name="pivot_by_state" localSheetId="3">DATA!$A$1:$M$62</definedName>
+    <definedName name="pivot_by_state" localSheetId="2">DATA!$A$1:$M$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="150">
   <si>
     <t>XX</t>
   </si>
@@ -454,21 +452,6 @@
     <t>Minority wins =&gt;</t>
   </si>
   <si>
-    <t>Always red</t>
-  </si>
-  <si>
-    <t>Always blue</t>
-  </si>
-  <si>
-    <t>Tagline</t>
-  </si>
-  <si>
-    <t>Always PR</t>
-  </si>
-  <si>
-    <t>Mixed</t>
-  </si>
-  <si>
     <t>resp.</t>
   </si>
   <si>
@@ -508,45 +491,15 @@
     <t>|||</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>Control</t>
   </si>
   <si>
-    <t>Court</t>
-  </si>
-  <si>
-    <t>Commission</t>
-  </si>
-  <si>
-    <t>2012-2016</t>
-  </si>
-  <si>
     <t>2018-20</t>
   </si>
   <si>
-    <t>+/–</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
     <t>R2</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -559,26 +512,14 @@
     <t>R</t>
   </si>
   <si>
-    <t xml:space="preserve">N </t>
-  </si>
-  <si>
-    <t>Δ1</t>
-  </si>
-  <si>
-    <t>Δ2</t>
-  </si>
-  <si>
     <t>UE Seats 2010-2020</t>
-  </si>
-  <si>
-    <t>BLUEMAP?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -637,13 +578,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -671,7 +605,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -776,91 +710,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -910,37 +764,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -948,13 +777,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2261,13 +2086,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FA875C-1566-2D43-8637-203DA92E1C1B}">
-  <dimension ref="A1:AO72"/>
+  <dimension ref="A1:AC72"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y22" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:AL51"/>
+      <selection pane="bottomRight" activeCell="AC1" sqref="AC1:AN1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2287,13 +2112,9 @@
     <col min="26" max="26" width="6.6640625" customWidth="1"/>
     <col min="27" max="27" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="22" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22" customWidth="1"/>
-    <col min="30" max="30" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="3.1640625" customWidth="1"/>
-    <col min="36" max="36" width="4.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="str">
         <f>DATA!A1</f>
         <v>XX</v>
@@ -2347,13 +2168,13 @@
         <v>2020</v>
       </c>
       <c r="N1" s="32" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="O1" s="27">
         <v>2000</v>
       </c>
-      <c r="P1" s="45" t="s">
-        <v>145</v>
+      <c r="P1" s="44" t="s">
+        <v>140</v>
       </c>
       <c r="Q1" s="22" t="s">
         <v>124</v>
@@ -2367,8 +2188,8 @@
       <c r="T1" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="U1" s="45" t="s">
-        <v>146</v>
+      <c r="U1" s="44" t="s">
+        <v>141</v>
       </c>
       <c r="V1" s="22" t="s">
         <v>125</v>
@@ -2383,51 +2204,17 @@
         <v>123</v>
       </c>
       <c r="Z1" s="22" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AA1" s="22" t="s">
         <v>126</v>
       </c>
       <c r="AB1" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC1" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD1" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE1" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF1" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG1" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH1" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK1" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="AL1" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="AM1" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="AN1" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="AO1" s="22"/>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="AC1" s="22"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="str">
         <f>DATA!A2</f>
         <v>AL</v>
@@ -2518,55 +2305,11 @@
         <f t="shared" ref="AA2:AA33" si="6">Y2-T2</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="AB2" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC2" s="23" t="str">
-        <f>IF(ISNUMBER(SEARCH("commission", AB2)), "Commission", IF(ISNUMBER(SEARCH("court", AB2)), "Court", AB2))</f>
-        <v>Republican</v>
-      </c>
-      <c r="AD2" t="str">
-        <f t="shared" ref="AD2:AD33" si="7">IF(COUNTIF(I2:M2,"&gt;0")=5,"Always red",IF(COUNTIF(I2:M2,"&lt;0")=5,"Always blue",IF(COUNTIF(I2:M2,"=0")=5,"Always PR","Mixed")))</f>
-        <v>Always red</v>
-      </c>
-      <c r="AE2">
-        <f>IF(AD2="Always red", 1,"")</f>
-        <v>1</v>
-      </c>
-      <c r="AF2" t="str">
-        <f>IF(AD2="Always blue",1, "")</f>
-        <v/>
-      </c>
-      <c r="AG2" t="str">
-        <f>IF(AD2="Always PR",1,"")</f>
-        <v/>
-      </c>
-      <c r="AH2" t="str">
-        <f>IF(AD2="Mixed",1,"")</f>
-        <v/>
-      </c>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK2" s="23">
-        <f>T2</f>
-        <v>1.2</v>
-      </c>
-      <c r="AL2" s="23">
-        <f>AVERAGE(I2:K2)</f>
-        <v>2</v>
-      </c>
-      <c r="AM2" s="23">
-        <f>AVERAGE(L2:M2)</f>
-        <v>1.5</v>
-      </c>
-      <c r="AN2" s="23">
-        <f>AM2-AL2</f>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AB2" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="str">
         <f>DATA!A3</f>
         <v>AK</v>
@@ -2621,7 +2364,7 @@
       </c>
       <c r="N3" s="33"/>
       <c r="O3" s="15">
-        <f t="shared" ref="O3:O68" si="8">C3</f>
+        <f t="shared" ref="O3:O68" si="7">C3</f>
         <v>1</v>
       </c>
       <c r="P3" s="26"/>
@@ -2657,55 +2400,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AB3" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC3" s="23" t="str">
-        <f t="shared" ref="AC3:AC51" si="9">IF(ISNUMBER(SEARCH("commission", AB3)), "Commission", IF(ISNUMBER(SEARCH("court", AB3)), "Court", AB3))</f>
-        <v>N/A</v>
-      </c>
-      <c r="AD3" t="str">
-        <f t="shared" si="7"/>
-        <v>Always red</v>
-      </c>
-      <c r="AE3">
-        <f t="shared" ref="AE3:AE51" si="10">IF(AD3="Always red", 1,"")</f>
-        <v>1</v>
-      </c>
-      <c r="AF3" t="str">
-        <f t="shared" ref="AF3:AF51" si="11">IF(AD3="Always blue",1, "")</f>
-        <v/>
-      </c>
-      <c r="AG3" t="str">
-        <f t="shared" ref="AG3:AG51" si="12">IF(AD3="Always PR",1,"")</f>
-        <v/>
-      </c>
-      <c r="AH3" t="str">
-        <f t="shared" ref="AH3:AH51" si="13">IF(AD3="Mixed",1,"")</f>
-        <v/>
-      </c>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="23">
-        <f t="shared" ref="AK3:AK51" si="14">T3</f>
-        <v>1</v>
-      </c>
-      <c r="AL3" s="23">
-        <f t="shared" ref="AL3:AL51" si="15">AVERAGE(I3:K3)</f>
-        <v>1</v>
-      </c>
-      <c r="AM3" s="23">
-        <f t="shared" ref="AM3:AM51" si="16">AVERAGE(L3:M3)</f>
-        <v>1</v>
-      </c>
-      <c r="AN3" s="23">
-        <f t="shared" ref="AN3:AN51" si="17">AM3-AL3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AB3" s="41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="str">
         <f>DATA!A4</f>
         <v>AZ</v>
@@ -2760,7 +2459,7 @@
       </c>
       <c r="N4" s="33"/>
       <c r="O4" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P4" s="26"/>
@@ -2796,55 +2495,11 @@
         <f t="shared" si="6"/>
         <v>-0.8</v>
       </c>
-      <c r="AB4" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC4" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Commission</v>
-      </c>
-      <c r="AD4" t="str">
-        <f t="shared" si="7"/>
-        <v>Mixed</v>
-      </c>
-      <c r="AE4" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF4" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG4" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH4">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AI4" s="26"/>
-      <c r="AJ4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK4" s="23">
-        <f t="shared" si="14"/>
-        <v>0.4</v>
-      </c>
-      <c r="AL4" s="23">
-        <f t="shared" si="15"/>
-        <v>-0.33333333333333331</v>
-      </c>
-      <c r="AM4" s="23">
-        <f t="shared" si="16"/>
-        <v>-0.5</v>
-      </c>
-      <c r="AN4" s="23">
-        <f t="shared" si="17"/>
-        <v>-0.16666666666666669</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AB4" s="41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="str">
         <f>DATA!A5</f>
         <v>AR</v>
@@ -2899,7 +2554,7 @@
       </c>
       <c r="N5" s="33"/>
       <c r="O5" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="P5" s="26"/>
@@ -2935,55 +2590,11 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="AB5" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC5" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Democratic</v>
-      </c>
-      <c r="AD5" t="str">
-        <f t="shared" si="7"/>
-        <v>Always red</v>
-      </c>
-      <c r="AE5">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AF5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH5" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AI5" s="26"/>
-      <c r="AJ5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK5" s="23">
-        <f t="shared" si="14"/>
-        <v>-0.6</v>
-      </c>
-      <c r="AL5" s="23">
-        <f t="shared" si="15"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="AM5" s="23">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AN5" s="23">
-        <f t="shared" si="17"/>
-        <v>-0.66666666666666674</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AB5" s="41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="str">
         <f>DATA!A6</f>
         <v>CA</v>
@@ -3038,7 +2649,7 @@
       </c>
       <c r="N6" s="33"/>
       <c r="O6" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-3</v>
       </c>
       <c r="P6" s="26"/>
@@ -3074,55 +2685,11 @@
         <f t="shared" si="6"/>
         <v>-5</v>
       </c>
-      <c r="AB6" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC6" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Commission</v>
-      </c>
-      <c r="AD6" t="str">
-        <f t="shared" si="7"/>
-        <v>Always blue</v>
-      </c>
-      <c r="AE6" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF6">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AG6" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH6" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AI6" s="26"/>
-      <c r="AJ6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK6" s="23">
-        <f t="shared" si="14"/>
-        <v>-3.6</v>
-      </c>
-      <c r="AL6" s="23">
-        <f t="shared" si="15"/>
-        <v>-7.333333333333333</v>
-      </c>
-      <c r="AM6" s="23">
-        <f t="shared" si="16"/>
-        <v>-10.5</v>
-      </c>
-      <c r="AN6" s="23">
-        <f t="shared" si="17"/>
-        <v>-3.166666666666667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AB6" s="41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="str">
         <f>DATA!A7</f>
         <v>CO</v>
@@ -3177,7 +2744,7 @@
       </c>
       <c r="N7" s="33"/>
       <c r="O7" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P7" s="26"/>
@@ -3213,55 +2780,11 @@
         <f t="shared" si="6"/>
         <v>-0.2</v>
       </c>
-      <c r="AB7" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC7" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Court</v>
-      </c>
-      <c r="AD7" t="str">
-        <f t="shared" si="7"/>
-        <v>Always PR</v>
-      </c>
-      <c r="AE7" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG7">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AH7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AI7" s="26"/>
-      <c r="AJ7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK7" s="23">
-        <f t="shared" si="14"/>
-        <v>0.2</v>
-      </c>
-      <c r="AL7" s="23">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AM7" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AN7" s="23">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AB7" s="41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="str">
         <f>DATA!A8</f>
         <v>CT</v>
@@ -3316,7 +2839,7 @@
       </c>
       <c r="N8" s="33"/>
       <c r="O8" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P8" s="26"/>
@@ -3352,55 +2875,11 @@
         <f t="shared" si="6"/>
         <v>-1.4</v>
       </c>
-      <c r="AB8" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC8" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Court</v>
-      </c>
-      <c r="AD8" t="str">
-        <f t="shared" si="7"/>
-        <v>Always blue</v>
-      </c>
-      <c r="AE8" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF8">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AG8" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH8" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AI8" s="26"/>
-      <c r="AJ8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK8" s="23">
-        <f t="shared" si="14"/>
-        <v>-0.6</v>
-      </c>
-      <c r="AL8" s="23">
-        <f t="shared" si="15"/>
-        <v>-2</v>
-      </c>
-      <c r="AM8" s="23">
-        <f t="shared" si="16"/>
-        <v>-2</v>
-      </c>
-      <c r="AN8" s="23">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AB8" s="41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="str">
         <f>DATA!A9</f>
         <v>DE</v>
@@ -3455,7 +2934,7 @@
       </c>
       <c r="N9" s="33"/>
       <c r="O9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P9" s="26"/>
@@ -3491,55 +2970,11 @@
         <f t="shared" si="6"/>
         <v>-1.6</v>
       </c>
-      <c r="AB9" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC9" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>N/A</v>
-      </c>
-      <c r="AD9" t="str">
-        <f t="shared" si="7"/>
-        <v>Always blue</v>
-      </c>
-      <c r="AE9" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF9">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AG9" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH9" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AI9" s="26"/>
-      <c r="AJ9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK9" s="23">
-        <f t="shared" si="14"/>
-        <v>0.6</v>
-      </c>
-      <c r="AL9" s="23">
-        <f t="shared" si="15"/>
-        <v>-1</v>
-      </c>
-      <c r="AM9" s="23">
-        <f t="shared" si="16"/>
-        <v>-1</v>
-      </c>
-      <c r="AN9" s="23">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AB9" s="41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="str">
         <f>DATA!A10</f>
         <v>FL</v>
@@ -3594,7 +3029,7 @@
       </c>
       <c r="N10" s="33"/>
       <c r="O10" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="P10" s="26"/>
@@ -3630,55 +3065,11 @@
         <f t="shared" si="6"/>
         <v>-1.4</v>
       </c>
-      <c r="AB10" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC10" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Republican</v>
-      </c>
-      <c r="AD10" t="str">
-        <f t="shared" si="7"/>
-        <v>Always red</v>
-      </c>
-      <c r="AE10">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AF10" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG10" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH10" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AI10" s="26"/>
-      <c r="AJ10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK10" s="23">
-        <f t="shared" si="14"/>
-        <v>3.4</v>
-      </c>
-      <c r="AL10" s="23">
-        <f t="shared" si="15"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="AM10" s="23">
-        <f t="shared" si="16"/>
-        <v>1.5</v>
-      </c>
-      <c r="AN10" s="23">
-        <f t="shared" si="17"/>
-        <v>-0.83333333333333348</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AB10" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="str">
         <f>DATA!A11</f>
         <v>GA</v>
@@ -3733,7 +3124,7 @@
       </c>
       <c r="N11" s="33"/>
       <c r="O11" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P11" s="26"/>
@@ -3769,55 +3160,11 @@
         <f t="shared" si="6"/>
         <v>1.4000000000000001</v>
       </c>
-      <c r="AB11" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC11" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Republican</v>
-      </c>
-      <c r="AD11" t="str">
-        <f t="shared" si="7"/>
-        <v>Always red</v>
-      </c>
-      <c r="AE11">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AF11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AI11" s="26"/>
-      <c r="AJ11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK11" s="23">
-        <f t="shared" si="14"/>
-        <v>0.2</v>
-      </c>
-      <c r="AL11" s="23">
-        <f t="shared" si="15"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="AM11" s="23">
-        <f t="shared" si="16"/>
-        <v>1.5</v>
-      </c>
-      <c r="AN11" s="23">
-        <f t="shared" si="17"/>
-        <v>-0.16666666666666674</v>
-      </c>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AB11" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="str">
         <f>DATA!A12</f>
         <v>HI</v>
@@ -3872,7 +3219,7 @@
       </c>
       <c r="N12" s="33"/>
       <c r="O12" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="P12" s="26"/>
@@ -3908,55 +3255,11 @@
         <f t="shared" si="6"/>
         <v>0.20000000000000007</v>
       </c>
-      <c r="AB12" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC12" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Commission</v>
-      </c>
-      <c r="AD12" t="str">
-        <f t="shared" si="7"/>
-        <v>Mixed</v>
-      </c>
-      <c r="AE12" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF12" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG12" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH12">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AI12" s="26"/>
-      <c r="AJ12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK12" s="23">
-        <f t="shared" si="14"/>
-        <v>-0.8</v>
-      </c>
-      <c r="AL12" s="23">
-        <f t="shared" si="15"/>
-        <v>-0.66666666666666663</v>
-      </c>
-      <c r="AM12" s="23">
-        <f t="shared" si="16"/>
-        <v>-0.5</v>
-      </c>
-      <c r="AN12" s="23">
-        <f t="shared" si="17"/>
-        <v>0.16666666666666663</v>
-      </c>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AB12" s="41" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="str">
         <f>DATA!A13</f>
         <v>ID</v>
@@ -4011,7 +3314,7 @@
       </c>
       <c r="N13" s="33"/>
       <c r="O13" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P13" s="26"/>
@@ -4047,55 +3350,11 @@
         <f t="shared" si="6"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AB13" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC13" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Commission</v>
-      </c>
-      <c r="AD13" t="str">
-        <f t="shared" si="7"/>
-        <v>Always red</v>
-      </c>
-      <c r="AE13">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AF13" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG13" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH13" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AI13" s="26"/>
-      <c r="AJ13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK13" s="23">
-        <f t="shared" si="14"/>
-        <v>0.8</v>
-      </c>
-      <c r="AL13" s="23">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AM13" s="23">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AN13" s="23">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AB13" s="41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="str">
         <f>DATA!A14</f>
         <v>IL</v>
@@ -4150,7 +3409,7 @@
       </c>
       <c r="N14" s="33"/>
       <c r="O14" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P14" s="26"/>
@@ -4186,55 +3445,11 @@
         <f t="shared" si="6"/>
         <v>-2.4</v>
       </c>
-      <c r="AB14" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC14" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Democratic</v>
-      </c>
-      <c r="AD14" t="str">
-        <f t="shared" si="7"/>
-        <v>Always blue</v>
-      </c>
-      <c r="AE14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF14">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AG14" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH14" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AI14" s="26"/>
-      <c r="AJ14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK14" s="23">
-        <f t="shared" si="14"/>
-        <v>0.6</v>
-      </c>
-      <c r="AL14" s="23">
-        <f t="shared" si="15"/>
-        <v>-1.3333333333333333</v>
-      </c>
-      <c r="AM14" s="23">
-        <f t="shared" si="16"/>
-        <v>-2.5</v>
-      </c>
-      <c r="AN14" s="23">
-        <f t="shared" si="17"/>
-        <v>-1.1666666666666667</v>
-      </c>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AB14" s="41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="str">
         <f>DATA!A15</f>
         <v>IN</v>
@@ -4289,7 +3504,7 @@
       </c>
       <c r="N15" s="33"/>
       <c r="O15" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P15" s="26"/>
@@ -4325,55 +3540,11 @@
         <f t="shared" si="6"/>
         <v>1.4</v>
       </c>
-      <c r="AB15" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC15" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Republican</v>
-      </c>
-      <c r="AD15" t="str">
-        <f t="shared" si="7"/>
-        <v>Always red</v>
-      </c>
-      <c r="AE15">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AF15" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG15" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH15" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AI15" s="26"/>
-      <c r="AJ15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK15" s="23">
-        <f t="shared" si="14"/>
-        <v>0.6</v>
-      </c>
-      <c r="AL15" s="23">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AM15" s="23">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="AN15" s="23">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AB15" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="str">
         <f>DATA!A16</f>
         <v>IA</v>
@@ -4428,7 +3599,7 @@
       </c>
       <c r="N16" s="33"/>
       <c r="O16" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P16" s="26"/>
@@ -4464,55 +3635,11 @@
         <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
-      <c r="AB16" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC16" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Split</v>
-      </c>
-      <c r="AD16" t="str">
-        <f t="shared" si="7"/>
-        <v>Mixed</v>
-      </c>
-      <c r="AE16" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF16" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH16">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AI16" s="26"/>
-      <c r="AJ16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK16" s="23">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AL16" s="23">
-        <f t="shared" si="15"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AM16" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AN16" s="23">
-        <f t="shared" si="17"/>
-        <v>-0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AB16" s="41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="str">
         <f>DATA!A17</f>
         <v>KS</v>
@@ -4567,7 +3694,7 @@
       </c>
       <c r="N17" s="33"/>
       <c r="O17" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P17" s="26"/>
@@ -4603,55 +3730,11 @@
         <f t="shared" si="6"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AB17" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC17" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Court</v>
-      </c>
-      <c r="AD17" t="str">
-        <f t="shared" si="7"/>
-        <v>Always red</v>
-      </c>
-      <c r="AE17">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AF17" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG17" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH17" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AI17" s="26"/>
-      <c r="AJ17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK17" s="23">
-        <f t="shared" si="14"/>
-        <v>0.8</v>
-      </c>
-      <c r="AL17" s="23">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AM17" s="23">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AN17" s="23">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AB17" s="41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="str">
         <f>DATA!A18</f>
         <v>KY</v>
@@ -4706,7 +3789,7 @@
       </c>
       <c r="N18" s="33"/>
       <c r="O18" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="P18" s="26"/>
@@ -4742,55 +3825,11 @@
         <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
-      <c r="AB18" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC18" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Split</v>
-      </c>
-      <c r="AD18" t="str">
-        <f t="shared" si="7"/>
-        <v>Always red</v>
-      </c>
-      <c r="AE18">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AF18" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG18" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH18" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AI18" s="26"/>
-      <c r="AJ18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK18" s="23">
-        <f t="shared" si="14"/>
-        <v>0.6</v>
-      </c>
-      <c r="AL18" s="23">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AM18" s="23">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AN18" s="23">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AB18" s="41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="str">
         <f>DATA!A19</f>
         <v>LA</v>
@@ -4845,7 +3884,7 @@
       </c>
       <c r="N19" s="33"/>
       <c r="O19" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P19" s="26"/>
@@ -4881,55 +3920,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AB19" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC19" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Republican</v>
-      </c>
-      <c r="AD19" t="str">
-        <f t="shared" si="7"/>
-        <v>Always red</v>
-      </c>
-      <c r="AE19">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AF19" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG19" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH19" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AI19" s="26"/>
-      <c r="AJ19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK19" s="23">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AL19" s="23">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AM19" s="23">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AN19" s="23">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AB19" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="str">
         <f>DATA!A20</f>
         <v>ME</v>
@@ -4984,7 +3979,7 @@
       </c>
       <c r="N20" s="33"/>
       <c r="O20" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="P20" s="26"/>
@@ -5020,55 +4015,11 @@
         <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
-      <c r="AB20" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC20" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Split</v>
-      </c>
-      <c r="AD20" t="str">
-        <f t="shared" si="7"/>
-        <v>Mixed</v>
-      </c>
-      <c r="AE20" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF20" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG20" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH20">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AI20" s="26"/>
-      <c r="AJ20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK20" s="23">
-        <f t="shared" si="14"/>
-        <v>-1</v>
-      </c>
-      <c r="AL20" s="23">
-        <f t="shared" si="15"/>
-        <v>-0.33333333333333331</v>
-      </c>
-      <c r="AM20" s="23">
-        <f t="shared" si="16"/>
-        <v>-1</v>
-      </c>
-      <c r="AN20" s="23">
-        <f t="shared" si="17"/>
-        <v>-0.66666666666666674</v>
-      </c>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AB20" s="41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="str">
         <f>DATA!A21</f>
         <v>MD</v>
@@ -5123,7 +4074,7 @@
       </c>
       <c r="N21" s="33"/>
       <c r="O21" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P21" s="26"/>
@@ -5159,55 +4110,11 @@
         <f t="shared" si="6"/>
         <v>-0.60000000000000009</v>
       </c>
-      <c r="AB21" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC21" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Democratic</v>
-      </c>
-      <c r="AD21" t="str">
-        <f t="shared" si="7"/>
-        <v>Always blue</v>
-      </c>
-      <c r="AE21" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF21">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AG21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH21" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AI21" s="26"/>
-      <c r="AJ21" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK21" s="23">
-        <f t="shared" si="14"/>
-        <v>-1.4</v>
-      </c>
-      <c r="AL21" s="23">
-        <f t="shared" si="15"/>
-        <v>-2</v>
-      </c>
-      <c r="AM21" s="23">
-        <f t="shared" si="16"/>
-        <v>-2</v>
-      </c>
-      <c r="AN21" s="23">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AB21" s="41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="str">
         <f>DATA!A22</f>
         <v>MA</v>
@@ -5262,7 +4169,7 @@
       </c>
       <c r="N22" s="33"/>
       <c r="O22" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-3</v>
       </c>
       <c r="P22" s="26"/>
@@ -5298,55 +4205,11 @@
         <f t="shared" si="6"/>
         <v>0.20000000000000018</v>
       </c>
-      <c r="AB22" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC22" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Democratic</v>
-      </c>
-      <c r="AD22" t="str">
-        <f t="shared" si="7"/>
-        <v>Always blue</v>
-      </c>
-      <c r="AE22" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF22">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AG22" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH22" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AI22" s="26"/>
-      <c r="AJ22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK22" s="23">
-        <f t="shared" si="14"/>
-        <v>-3.2</v>
-      </c>
-      <c r="AL22" s="23">
-        <f t="shared" si="15"/>
-        <v>-3</v>
-      </c>
-      <c r="AM22" s="23">
-        <f t="shared" si="16"/>
-        <v>-3</v>
-      </c>
-      <c r="AN22" s="23">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AB22" s="41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="str">
         <f>DATA!A23</f>
         <v>MI</v>
@@ -5401,7 +4264,7 @@
       </c>
       <c r="N23" s="33"/>
       <c r="O23" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P23" s="26"/>
@@ -5437,55 +4300,11 @@
         <f t="shared" si="6"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AB23" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC23" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Republican</v>
-      </c>
-      <c r="AD23" t="str">
-        <f t="shared" si="7"/>
-        <v>Mixed</v>
-      </c>
-      <c r="AE23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG23" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH23">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AI23" s="26"/>
-      <c r="AJ23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK23" s="23">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AL23" s="23">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AM23" s="23">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AN23" s="23">
-        <f t="shared" si="17"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AB23" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="str">
         <f>DATA!A24</f>
         <v>MN</v>
@@ -5540,7 +4359,7 @@
       </c>
       <c r="N24" s="33"/>
       <c r="O24" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="P24" s="26"/>
@@ -5576,55 +4395,11 @@
         <f t="shared" si="6"/>
         <v>-0.2</v>
       </c>
-      <c r="AB24" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC24" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Court</v>
-      </c>
-      <c r="AD24" t="str">
-        <f t="shared" si="7"/>
-        <v>Mixed</v>
-      </c>
-      <c r="AE24" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF24" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG24" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH24">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AI24" s="26"/>
-      <c r="AJ24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK24" s="23">
-        <f t="shared" si="14"/>
-        <v>-0.2</v>
-      </c>
-      <c r="AL24" s="23">
-        <f t="shared" si="15"/>
-        <v>-0.33333333333333331</v>
-      </c>
-      <c r="AM24" s="23">
-        <f t="shared" si="16"/>
-        <v>-0.5</v>
-      </c>
-      <c r="AN24" s="23">
-        <f t="shared" si="17"/>
-        <v>-0.16666666666666669</v>
-      </c>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AB24" s="41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="str">
         <f>DATA!A25</f>
         <v>MS</v>
@@ -5679,7 +4454,7 @@
       </c>
       <c r="N25" s="33"/>
       <c r="O25" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P25" s="26"/>
@@ -5715,55 +4490,11 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AB25" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC25" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Court</v>
-      </c>
-      <c r="AD25" t="str">
-        <f t="shared" si="7"/>
-        <v>Always red</v>
-      </c>
-      <c r="AE25">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AF25" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG25" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH25" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AI25" s="26"/>
-      <c r="AJ25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK25" s="23">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AL25" s="23">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AM25" s="23">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AN25" s="23">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AB25" s="41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="str">
         <f>DATA!A26</f>
         <v>MO</v>
@@ -5818,7 +4549,7 @@
       </c>
       <c r="N26" s="33"/>
       <c r="O26" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P26" s="26"/>
@@ -5854,55 +4585,11 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-      <c r="AB26" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC26" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Split</v>
-      </c>
-      <c r="AD26" t="str">
-        <f t="shared" si="7"/>
-        <v>Always red</v>
-      </c>
-      <c r="AE26">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AF26" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG26" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH26" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AI26" s="26"/>
-      <c r="AJ26" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK26" s="23">
-        <f t="shared" si="14"/>
-        <v>0.2</v>
-      </c>
-      <c r="AL26" s="23">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AM26" s="23">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AN26" s="23">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AB26" s="41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="str">
         <f>DATA!A27</f>
         <v>MT</v>
@@ -5957,7 +4644,7 @@
       </c>
       <c r="N27" s="33"/>
       <c r="O27" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P27" s="26"/>
@@ -5993,55 +4680,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AB27" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC27" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>N/A</v>
-      </c>
-      <c r="AD27" t="str">
-        <f t="shared" si="7"/>
-        <v>Always red</v>
-      </c>
-      <c r="AE27">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AF27" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG27" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH27" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AI27" s="26"/>
-      <c r="AJ27" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK27" s="23">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AL27" s="23">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AM27" s="23">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AN27" s="23">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AB27" s="41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="str">
         <f>DATA!A28</f>
         <v>NE</v>
@@ -6096,7 +4739,7 @@
       </c>
       <c r="N28" s="33"/>
       <c r="O28" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P28" s="26"/>
@@ -6132,55 +4775,11 @@
         <f t="shared" si="6"/>
         <v>-0.19999999999999996</v>
       </c>
-      <c r="AB28" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC28" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Nonpartisan</v>
-      </c>
-      <c r="AD28" t="str">
-        <f t="shared" si="7"/>
-        <v>Mixed</v>
-      </c>
-      <c r="AE28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF28" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG28" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH28">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AI28" s="26"/>
-      <c r="AJ28" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK28" s="23">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AL28" s="23">
-        <f t="shared" si="15"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AM28" s="23">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AN28" s="23">
-        <f t="shared" si="17"/>
-        <v>0.33333333333333337</v>
-      </c>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AB28" s="41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="str">
         <f>DATA!A29</f>
         <v>NV</v>
@@ -6235,7 +4834,7 @@
       </c>
       <c r="N29" s="33"/>
       <c r="O29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P29" s="26"/>
@@ -6271,55 +4870,11 @@
         <f t="shared" si="6"/>
         <v>-0.8</v>
       </c>
-      <c r="AB29" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC29" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Democratic</v>
-      </c>
-      <c r="AD29" t="str">
-        <f t="shared" si="7"/>
-        <v>Mixed</v>
-      </c>
-      <c r="AE29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF29" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG29" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH29">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AI29" s="26"/>
-      <c r="AJ29" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK29" s="23">
-        <f t="shared" si="14"/>
-        <v>0.4</v>
-      </c>
-      <c r="AL29" s="23">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AM29" s="23">
-        <f t="shared" si="16"/>
-        <v>-1</v>
-      </c>
-      <c r="AN29" s="23">
-        <f t="shared" si="17"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AB29" s="41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="str">
         <f>DATA!A30</f>
         <v>NH</v>
@@ -6374,7 +4929,7 @@
       </c>
       <c r="N30" s="33"/>
       <c r="O30" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P30" s="26"/>
@@ -6410,55 +4965,11 @@
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="AB30" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC30" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Republican</v>
-      </c>
-      <c r="AD30" t="str">
-        <f t="shared" si="7"/>
-        <v>Mixed</v>
-      </c>
-      <c r="AE30" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF30" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG30" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH30">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AI30" s="26"/>
-      <c r="AJ30" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK30" s="23">
-        <f t="shared" si="14"/>
-        <v>0.2</v>
-      </c>
-      <c r="AL30" s="23">
-        <f t="shared" si="15"/>
-        <v>-0.66666666666666663</v>
-      </c>
-      <c r="AM30" s="23">
-        <f t="shared" si="16"/>
-        <v>-1</v>
-      </c>
-      <c r="AN30" s="23">
-        <f t="shared" si="17"/>
-        <v>-0.33333333333333337</v>
-      </c>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AB30" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="str">
         <f>DATA!A31</f>
         <v>NJ</v>
@@ -6513,7 +5024,7 @@
       </c>
       <c r="N31" s="33"/>
       <c r="O31" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P31" s="26"/>
@@ -6549,55 +5060,11 @@
         <f t="shared" si="6"/>
         <v>-1.2</v>
       </c>
-      <c r="AB31" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC31" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Commission</v>
-      </c>
-      <c r="AD31" t="str">
-        <f t="shared" si="7"/>
-        <v>Mixed</v>
-      </c>
-      <c r="AE31" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF31" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG31" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH31">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AI31" s="26"/>
-      <c r="AJ31" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK31" s="23">
-        <f t="shared" si="14"/>
-        <v>-0.2</v>
-      </c>
-      <c r="AL31" s="23">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AM31" s="23">
-        <f t="shared" si="16"/>
-        <v>-3.5</v>
-      </c>
-      <c r="AN31" s="23">
-        <f t="shared" si="17"/>
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AB31" s="41" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="str">
         <f>DATA!A32</f>
         <v>NM</v>
@@ -6652,7 +5119,7 @@
       </c>
       <c r="N32" s="33"/>
       <c r="O32" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P32" s="26"/>
@@ -6688,55 +5155,11 @@
         <f t="shared" si="6"/>
         <v>-0.60000000000000009</v>
       </c>
-      <c r="AB32" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC32" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Court</v>
-      </c>
-      <c r="AD32" t="str">
-        <f t="shared" si="7"/>
-        <v>Mixed</v>
-      </c>
-      <c r="AE32" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG32" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH32">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AI32" s="26"/>
-      <c r="AJ32" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK32" s="23">
-        <f t="shared" si="14"/>
-        <v>0.4</v>
-      </c>
-      <c r="AL32" s="23">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AM32" s="23">
-        <f t="shared" si="16"/>
-        <v>-0.5</v>
-      </c>
-      <c r="AN32" s="23">
-        <f t="shared" si="17"/>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AB32" s="41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="str">
         <f>DATA!A33</f>
         <v>NY</v>
@@ -6791,7 +5214,7 @@
       </c>
       <c r="N33" s="33"/>
       <c r="O33" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="P33" s="26"/>
@@ -6827,55 +5250,11 @@
         <f t="shared" si="6"/>
         <v>1.6</v>
       </c>
-      <c r="AB33" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC33" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Court</v>
-      </c>
-      <c r="AD33" t="str">
-        <f t="shared" si="7"/>
-        <v>Always blue</v>
-      </c>
-      <c r="AE33" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF33">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AG33" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH33" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AI33" s="26"/>
-      <c r="AJ33" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK33" s="23">
-        <f t="shared" si="14"/>
-        <v>-3.6</v>
-      </c>
-      <c r="AL33" s="23">
-        <f t="shared" si="15"/>
-        <v>-1.6666666666666667</v>
-      </c>
-      <c r="AM33" s="23">
-        <f t="shared" si="16"/>
-        <v>-2.5</v>
-      </c>
-      <c r="AN33" s="23">
-        <f t="shared" si="17"/>
-        <v>-0.83333333333333326</v>
-      </c>
-    </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AB33" s="41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="str">
         <f>DATA!A34</f>
         <v>NC</v>
@@ -6930,91 +5309,47 @@
       </c>
       <c r="N34" s="33"/>
       <c r="O34" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P34" s="26"/>
       <c r="R34" s="6">
-        <f t="shared" ref="R34:R51" si="18">MIN(D34:H34)</f>
+        <f t="shared" ref="R34:R51" si="8">MIN(D34:H34)</f>
         <v>-1</v>
       </c>
       <c r="S34" s="6">
-        <f t="shared" ref="S34:S51" si="19">MAX(D34:H34)</f>
+        <f t="shared" ref="S34:S51" si="9">MAX(D34:H34)</f>
         <v>0</v>
       </c>
       <c r="T34" s="23">
-        <f t="shared" ref="T34:T51" si="20">AVERAGE(D34:H34)</f>
+        <f t="shared" ref="T34:T51" si="10">AVERAGE(D34:H34)</f>
         <v>-0.4</v>
       </c>
       <c r="U34" s="26"/>
       <c r="W34" s="6">
-        <f t="shared" ref="W34:W52" si="21">MIN(I34:M34)</f>
+        <f t="shared" ref="W34:W52" si="11">MIN(I34:M34)</f>
         <v>1</v>
       </c>
       <c r="X34" s="6">
-        <f t="shared" ref="X34:X52" si="22">MAX(I34:M34)</f>
+        <f t="shared" ref="X34:X52" si="12">MAX(I34:M34)</f>
         <v>3</v>
       </c>
       <c r="Y34" s="23">
-        <f t="shared" ref="Y34:Y52" si="23">AVERAGE(I34:M34)</f>
+        <f t="shared" ref="Y34:Y52" si="13">AVERAGE(I34:M34)</f>
         <v>2.6</v>
       </c>
       <c r="Z34" s="23">
         <v>1.358581</v>
       </c>
       <c r="AA34" s="23">
-        <f t="shared" ref="AA34:AA52" si="24">Y34-T34</f>
+        <f t="shared" ref="AA34:AA52" si="14">Y34-T34</f>
         <v>3</v>
       </c>
-      <c r="AB34" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC34" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Republican</v>
-      </c>
-      <c r="AD34" t="str">
-        <f t="shared" ref="AD34:AD51" si="25">IF(COUNTIF(I34:M34,"&gt;0")=5,"Always red",IF(COUNTIF(I34:M34,"&lt;0")=5,"Always blue",IF(COUNTIF(I34:M34,"=0")=5,"Always PR","Mixed")))</f>
-        <v>Always red</v>
-      </c>
-      <c r="AE34">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AF34" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG34" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH34" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AI34" s="26"/>
-      <c r="AJ34" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK34" s="23">
-        <f t="shared" si="14"/>
-        <v>-0.4</v>
-      </c>
-      <c r="AL34" s="23">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="AM34" s="23">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="AN34" s="23">
-        <f t="shared" si="17"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AB34" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="str">
         <f>DATA!A35</f>
         <v>ND</v>
@@ -7069,91 +5404,47 @@
       </c>
       <c r="N35" s="33"/>
       <c r="O35" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="P35" s="26"/>
       <c r="R35" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="S35" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="T35" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>-0.6</v>
       </c>
       <c r="U35" s="26"/>
       <c r="W35" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X35" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Y35" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Z35" s="23">
         <v>0</v>
       </c>
       <c r="AA35" s="23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.6</v>
       </c>
-      <c r="AB35" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC35" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>N/A</v>
-      </c>
-      <c r="AD35" t="str">
-        <f t="shared" si="25"/>
-        <v>Always red</v>
-      </c>
-      <c r="AE35">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AF35" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG35" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH35" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AI35" s="26"/>
-      <c r="AJ35" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK35" s="23">
-        <f t="shared" si="14"/>
-        <v>-0.6</v>
-      </c>
-      <c r="AL35" s="23">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AM35" s="23">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AN35" s="23">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AB35" s="41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="str">
         <f>DATA!A36</f>
         <v>OH</v>
@@ -7208,91 +5499,47 @@
       </c>
       <c r="N36" s="33"/>
       <c r="O36" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P36" s="26"/>
       <c r="R36" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="S36" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="T36" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1.6</v>
       </c>
       <c r="U36" s="26"/>
       <c r="W36" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="X36" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="Y36" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>3.4</v>
       </c>
       <c r="Z36" s="23">
         <v>0</v>
       </c>
       <c r="AA36" s="23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="AB36" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC36" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Republican</v>
-      </c>
-      <c r="AD36" t="str">
-        <f t="shared" si="25"/>
-        <v>Always red</v>
-      </c>
-      <c r="AE36">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AF36" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG36" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH36" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AI36" s="26"/>
-      <c r="AJ36" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK36" s="23">
-        <f t="shared" si="14"/>
-        <v>1.6</v>
-      </c>
-      <c r="AL36" s="23">
-        <f t="shared" si="15"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AM36" s="23">
-        <f t="shared" si="16"/>
-        <v>3.5</v>
-      </c>
-      <c r="AN36" s="23">
-        <f t="shared" si="17"/>
-        <v>0.16666666666666652</v>
-      </c>
-    </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AB36" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="str">
         <f>DATA!A37</f>
         <v>OK</v>
@@ -7347,91 +5594,47 @@
       </c>
       <c r="N37" s="33"/>
       <c r="O37" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P37" s="26"/>
       <c r="R37" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="S37" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="T37" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="U37" s="26"/>
       <c r="W37" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X37" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="Y37" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>1.4</v>
       </c>
       <c r="Z37" s="23">
         <v>2.1392519999999999</v>
       </c>
       <c r="AA37" s="23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="AB37" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC37" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Republican</v>
-      </c>
-      <c r="AD37" t="str">
-        <f t="shared" si="25"/>
-        <v>Always red</v>
-      </c>
-      <c r="AE37">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AF37" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG37" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH37" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AI37" s="26"/>
-      <c r="AJ37" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK37" s="23">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AL37" s="23">
-        <f t="shared" si="15"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="AM37" s="23">
-        <f t="shared" si="16"/>
-        <v>1.5</v>
-      </c>
-      <c r="AN37" s="23">
-        <f t="shared" si="17"/>
-        <v>0.16666666666666674</v>
-      </c>
-    </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AB37" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="str">
         <f>DATA!A38</f>
         <v>OR</v>
@@ -7486,91 +5689,47 @@
       </c>
       <c r="N38" s="33"/>
       <c r="O38" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="P38" s="26"/>
       <c r="R38" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="S38" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="T38" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="U38" s="26"/>
       <c r="W38" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="X38" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="Y38" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="Z38" s="23">
         <v>0</v>
       </c>
       <c r="AA38" s="23">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AB38" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC38" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Split</v>
-      </c>
-      <c r="AD38" t="str">
-        <f t="shared" si="25"/>
-        <v>Always blue</v>
-      </c>
-      <c r="AE38" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF38">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AG38" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH38" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AI38" s="26"/>
-      <c r="AJ38" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK38" s="23">
         <f t="shared" si="14"/>
-        <v>-1</v>
-      </c>
-      <c r="AL38" s="23">
-        <f t="shared" si="15"/>
-        <v>-1</v>
-      </c>
-      <c r="AM38" s="23">
-        <f t="shared" si="16"/>
-        <v>-1</v>
-      </c>
-      <c r="AN38" s="23">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="str">
         <f>DATA!A39</f>
         <v>PA</v>
@@ -7625,91 +5784,47 @@
       </c>
       <c r="N39" s="33"/>
       <c r="O39" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P39" s="26"/>
       <c r="R39" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>-2</v>
       </c>
       <c r="S39" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="T39" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0.6</v>
       </c>
       <c r="U39" s="26"/>
       <c r="W39" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X39" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="Y39" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="Z39" s="23">
         <v>2.1612719999999999</v>
       </c>
       <c r="AA39" s="23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.6</v>
       </c>
-      <c r="AB39" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC39" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Republican</v>
-      </c>
-      <c r="AD39" t="str">
-        <f t="shared" si="25"/>
-        <v>Mixed</v>
-      </c>
-      <c r="AE39" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF39" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG39" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH39">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AI39" s="26"/>
-      <c r="AJ39" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK39" s="23">
-        <f t="shared" si="14"/>
-        <v>0.6</v>
-      </c>
-      <c r="AL39" s="23">
-        <f t="shared" si="15"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AM39" s="23">
-        <f t="shared" si="16"/>
-        <v>0.5</v>
-      </c>
-      <c r="AN39" s="23">
-        <f t="shared" si="17"/>
-        <v>-2.8333333333333335</v>
-      </c>
-    </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AB39" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="str">
         <f>DATA!A40</f>
         <v>RI</v>
@@ -7764,91 +5879,47 @@
       </c>
       <c r="N40" s="33"/>
       <c r="O40" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="P40" s="26"/>
       <c r="R40" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="S40" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="T40" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="U40" s="26"/>
       <c r="W40" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="X40" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="Y40" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="Z40" s="23">
         <v>0</v>
       </c>
       <c r="AA40" s="23">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AB40" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC40" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Democratic</v>
-      </c>
-      <c r="AD40" t="str">
-        <f t="shared" si="25"/>
-        <v>Always blue</v>
-      </c>
-      <c r="AE40" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF40">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AG40" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH40" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AI40" s="26"/>
-      <c r="AJ40" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK40" s="23">
         <f t="shared" si="14"/>
-        <v>-1</v>
-      </c>
-      <c r="AL40" s="23">
-        <f t="shared" si="15"/>
-        <v>-1</v>
-      </c>
-      <c r="AM40" s="23">
-        <f t="shared" si="16"/>
-        <v>-1</v>
-      </c>
-      <c r="AN40" s="23">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="str">
         <f>DATA!A41</f>
         <v>SC</v>
@@ -7903,91 +5974,47 @@
       </c>
       <c r="N41" s="33"/>
       <c r="O41" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P41" s="26"/>
       <c r="R41" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S41" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="T41" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0.8</v>
       </c>
       <c r="U41" s="26"/>
       <c r="W41" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X41" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="Y41" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>1.8</v>
       </c>
       <c r="Z41" s="23">
         <v>2.0270510000000002</v>
       </c>
       <c r="AA41" s="23">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="AB41" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC41" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Republican</v>
-      </c>
-      <c r="AD41" t="str">
-        <f t="shared" si="25"/>
-        <v>Always red</v>
-      </c>
-      <c r="AE41">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AF41" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG41" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH41" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AI41" s="26"/>
-      <c r="AJ41" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK41" s="23">
         <f t="shared" si="14"/>
-        <v>0.8</v>
-      </c>
-      <c r="AL41" s="23">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AM41" s="23">
-        <f t="shared" si="16"/>
-        <v>1.5</v>
-      </c>
-      <c r="AN41" s="23">
-        <f t="shared" si="17"/>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="str">
         <f>DATA!A42</f>
         <v>SD</v>
@@ -8042,91 +6069,47 @@
       </c>
       <c r="N42" s="33"/>
       <c r="O42" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P42" s="26"/>
       <c r="R42" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="S42" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="T42" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>-0.2</v>
       </c>
       <c r="U42" s="26"/>
       <c r="W42" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X42" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Y42" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Z42" s="23">
         <v>0</v>
       </c>
       <c r="AA42" s="23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.2</v>
       </c>
-      <c r="AB42" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC42" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>N/A</v>
-      </c>
-      <c r="AD42" t="str">
-        <f t="shared" si="25"/>
-        <v>Always red</v>
-      </c>
-      <c r="AE42">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AF42" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG42" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH42" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AI42" s="26"/>
-      <c r="AJ42" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK42" s="23">
-        <f t="shared" si="14"/>
-        <v>-0.2</v>
-      </c>
-      <c r="AL42" s="23">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AM42" s="23">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AN42" s="23">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AB42" s="41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="str">
         <f>DATA!A43</f>
         <v>TN</v>
@@ -8181,91 +6164,47 @@
       </c>
       <c r="N43" s="33"/>
       <c r="O43" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P43" s="26"/>
       <c r="R43" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="S43" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="T43" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>-0.4</v>
       </c>
       <c r="U43" s="26"/>
       <c r="W43" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X43" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="Y43" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>1.4</v>
       </c>
       <c r="Z43" s="23">
         <v>0</v>
       </c>
       <c r="AA43" s="23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="AB43" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC43" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Republican</v>
-      </c>
-      <c r="AD43" t="str">
-        <f t="shared" si="25"/>
-        <v>Always red</v>
-      </c>
-      <c r="AE43">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AF43" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG43" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH43" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AI43" s="26"/>
-      <c r="AJ43" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK43" s="23">
-        <f t="shared" si="14"/>
-        <v>-0.4</v>
-      </c>
-      <c r="AL43" s="23">
-        <f t="shared" si="15"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="AM43" s="23">
-        <f t="shared" si="16"/>
-        <v>1.5</v>
-      </c>
-      <c r="AN43" s="23">
-        <f t="shared" si="17"/>
-        <v>0.16666666666666674</v>
-      </c>
-    </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AB43" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="str">
         <f>DATA!A44</f>
         <v>TX</v>
@@ -8320,91 +6259,47 @@
       </c>
       <c r="N44" s="33"/>
       <c r="O44" s="15">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+      <c r="P44" s="26"/>
+      <c r="R44" s="6">
         <f t="shared" si="8"/>
         <v>-2</v>
       </c>
-      <c r="P44" s="26"/>
-      <c r="R44" s="6">
-        <f t="shared" si="18"/>
-        <v>-2</v>
-      </c>
       <c r="S44" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="T44" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1.8</v>
       </c>
       <c r="U44" s="26"/>
       <c r="W44" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="X44" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="Y44" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>3.8</v>
       </c>
       <c r="Z44" s="23">
         <v>0.88628899999999999</v>
       </c>
       <c r="AA44" s="23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.9999999999999998</v>
       </c>
-      <c r="AB44" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC44" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Republican</v>
-      </c>
-      <c r="AD44" t="str">
-        <f t="shared" si="25"/>
-        <v>Always red</v>
-      </c>
-      <c r="AE44">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AF44" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG44" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH44" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AI44" s="26"/>
-      <c r="AJ44" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK44" s="23">
-        <f t="shared" si="14"/>
-        <v>1.8</v>
-      </c>
-      <c r="AL44" s="23">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="AM44" s="23">
-        <f t="shared" si="16"/>
-        <v>3.5</v>
-      </c>
-      <c r="AN44" s="23">
-        <f t="shared" si="17"/>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AB44" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="str">
         <f>DATA!A45</f>
         <v>UT</v>
@@ -8459,91 +6354,47 @@
       </c>
       <c r="N45" s="33"/>
       <c r="O45" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P45" s="26"/>
       <c r="R45" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="S45" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T45" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>-0.2</v>
       </c>
       <c r="U45" s="26"/>
       <c r="W45" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X45" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Y45" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>0.8</v>
       </c>
       <c r="Z45" s="23">
         <v>1.4005620000000001</v>
       </c>
       <c r="AA45" s="23">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="AB45" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC45" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Republican</v>
-      </c>
-      <c r="AD45" t="str">
-        <f t="shared" si="25"/>
-        <v>Mixed</v>
-      </c>
-      <c r="AE45" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF45" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG45" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH45">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AI45" s="26"/>
-      <c r="AJ45" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK45" s="23">
         <f t="shared" si="14"/>
-        <v>-0.2</v>
-      </c>
-      <c r="AL45" s="23">
-        <f t="shared" si="15"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AM45" s="23">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AN45" s="23">
-        <f t="shared" si="17"/>
-        <v>0.33333333333333337</v>
-      </c>
-    </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="AB45" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="str">
         <f>DATA!A46</f>
         <v>VT</v>
@@ -8598,91 +6449,47 @@
       </c>
       <c r="N46" s="33"/>
       <c r="O46" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P46" s="26"/>
       <c r="R46" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="S46" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T46" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>-0.6</v>
       </c>
       <c r="U46" s="26"/>
       <c r="W46" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="X46" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="Y46" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="Z46" s="23">
         <v>0</v>
       </c>
       <c r="AA46" s="23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>-0.4</v>
       </c>
-      <c r="AB46" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC46" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>N/A</v>
-      </c>
-      <c r="AD46" t="str">
-        <f t="shared" si="25"/>
-        <v>Always blue</v>
-      </c>
-      <c r="AE46" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF46">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AG46" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH46" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AI46" s="26"/>
-      <c r="AJ46" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK46" s="23">
-        <f t="shared" si="14"/>
-        <v>-0.6</v>
-      </c>
-      <c r="AL46" s="23">
-        <f t="shared" si="15"/>
-        <v>-1</v>
-      </c>
-      <c r="AM46" s="23">
-        <f t="shared" si="16"/>
-        <v>-1</v>
-      </c>
-      <c r="AN46" s="23">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AB46" s="41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="str">
         <f>DATA!A47</f>
         <v>VA</v>
@@ -8737,91 +6544,47 @@
       </c>
       <c r="N47" s="33"/>
       <c r="O47" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P47" s="26"/>
       <c r="R47" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S47" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="T47" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1.4</v>
       </c>
       <c r="U47" s="26"/>
       <c r="W47" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="X47" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="Y47" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>0.6</v>
       </c>
       <c r="Z47" s="23">
         <v>4.1732719999999999</v>
       </c>
       <c r="AA47" s="23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>-0.79999999999999993</v>
       </c>
-      <c r="AB47" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC47" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Republican</v>
-      </c>
-      <c r="AD47" t="str">
-        <f t="shared" si="25"/>
-        <v>Mixed</v>
-      </c>
-      <c r="AE47" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF47" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG47" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH47">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AI47" s="26"/>
-      <c r="AJ47" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK47" s="23">
-        <f t="shared" si="14"/>
-        <v>1.4</v>
-      </c>
-      <c r="AL47" s="23">
-        <f t="shared" si="15"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="AM47" s="23">
-        <f t="shared" si="16"/>
-        <v>-1</v>
-      </c>
-      <c r="AN47" s="23">
-        <f t="shared" si="17"/>
-        <v>-2.666666666666667</v>
-      </c>
-    </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AB47" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="str">
         <f>DATA!A48</f>
         <v>WA</v>
@@ -8876,91 +6639,47 @@
       </c>
       <c r="N48" s="33"/>
       <c r="O48" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="P48" s="26"/>
       <c r="R48" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="S48" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T48" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>-0.8</v>
       </c>
       <c r="U48" s="26"/>
       <c r="W48" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="X48" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="Y48" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="Z48" s="23">
         <v>1.1606259999999999</v>
       </c>
       <c r="AA48" s="23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>-0.19999999999999996</v>
       </c>
-      <c r="AB48" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC48" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Commission</v>
-      </c>
-      <c r="AD48" t="str">
-        <f t="shared" si="25"/>
-        <v>Always blue</v>
-      </c>
-      <c r="AE48" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF48">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AG48" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH48" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AI48" s="26"/>
-      <c r="AJ48" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK48" s="23">
-        <f t="shared" si="14"/>
-        <v>-0.8</v>
-      </c>
-      <c r="AL48" s="23">
-        <f t="shared" si="15"/>
-        <v>-1</v>
-      </c>
-      <c r="AM48" s="23">
-        <f t="shared" si="16"/>
-        <v>-1</v>
-      </c>
-      <c r="AN48" s="23">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AB48" s="41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="str">
         <f>DATA!A49</f>
         <v>WV</v>
@@ -9015,91 +6734,47 @@
       </c>
       <c r="N49" s="33"/>
       <c r="O49" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P49" s="26"/>
       <c r="R49" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S49" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T49" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U49" s="26"/>
       <c r="W49" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X49" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Y49" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>0.8</v>
       </c>
       <c r="Z49" s="23">
         <v>0.78665700000000005</v>
       </c>
       <c r="AA49" s="23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>0.8</v>
       </c>
-      <c r="AB49" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC49" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Democratic</v>
-      </c>
-      <c r="AD49" t="str">
-        <f t="shared" si="25"/>
-        <v>Mixed</v>
-      </c>
-      <c r="AE49" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF49" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG49" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH49">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AI49" s="26"/>
-      <c r="AJ49" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK49" s="23">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AL49" s="23">
-        <f t="shared" si="15"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AM49" s="23">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AN49" s="23">
-        <f t="shared" si="17"/>
-        <v>0.33333333333333337</v>
-      </c>
-    </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AB49" s="41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="str">
         <f>DATA!A50</f>
         <v>WI</v>
@@ -9154,91 +6829,47 @@
       </c>
       <c r="N50" s="33"/>
       <c r="O50" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="P50" s="26"/>
       <c r="R50" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="S50" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="T50" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>-0.2</v>
       </c>
       <c r="U50" s="26"/>
       <c r="W50" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X50" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Y50" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Z50" s="23">
         <v>0</v>
       </c>
       <c r="AA50" s="23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.2</v>
       </c>
-      <c r="AB50" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC50" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v>Republican</v>
-      </c>
-      <c r="AD50" t="str">
-        <f t="shared" si="25"/>
-        <v>Always red</v>
-      </c>
-      <c r="AE50">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AF50" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG50" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH50" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AI50" s="26"/>
-      <c r="AJ50" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK50" s="23">
-        <f t="shared" si="14"/>
-        <v>-0.2</v>
-      </c>
-      <c r="AL50" s="23">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AM50" s="23">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AN50" s="23">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AB50" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="str">
         <f>DATA!A51</f>
         <v>WY</v>
@@ -9293,199 +6924,133 @@
       </c>
       <c r="N51" s="33"/>
       <c r="O51" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P51" s="26"/>
       <c r="Q51" s="24"/>
       <c r="R51" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="S51" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="T51" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="U51" s="26"/>
       <c r="V51" s="24"/>
       <c r="W51" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X51" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Y51" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Z51" s="25">
         <v>0</v>
       </c>
       <c r="AA51" s="25">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AB51" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC51" s="25" t="str">
-        <f t="shared" si="9"/>
-        <v>N/A</v>
-      </c>
-      <c r="AD51" s="24" t="str">
-        <f t="shared" si="25"/>
-        <v>Always red</v>
-      </c>
-      <c r="AE51" s="24">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AF51" s="24" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AG51" s="24" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH51" s="24" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AI51" s="26"/>
-      <c r="AJ51" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK51" s="25">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AL51" s="25">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AM51" s="25">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AN51" s="25">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="6">
-        <f t="shared" ref="C52:M52" si="26">COUNTIF(C2:C51,"=0")</f>
+        <f t="shared" ref="C52:M52" si="15">COUNTIF(C2:C51,"=0")</f>
         <v>10</v>
       </c>
       <c r="D52" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="E52" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="F52" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="G52" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="H52" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="I52" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="J52" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="K52" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="L52" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="M52" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="N52" s="33"/>
       <c r="O52" s="15"/>
       <c r="P52" s="26"/>
       <c r="R52" s="6">
-        <f t="shared" ref="R52" si="27">MIN(D52:H52)</f>
+        <f t="shared" ref="R52" si="16">MIN(D52:H52)</f>
         <v>8</v>
       </c>
       <c r="S52" s="6">
-        <f t="shared" ref="S52" si="28">MAX(D52:H52)</f>
+        <f t="shared" ref="S52" si="17">MAX(D52:H52)</f>
         <v>13</v>
       </c>
       <c r="T52" s="23">
-        <f t="shared" ref="T52" si="29">AVERAGE(D52:H52)</f>
+        <f t="shared" ref="T52" si="18">AVERAGE(D52:H52)</f>
         <v>11.4</v>
       </c>
       <c r="U52" s="26"/>
       <c r="W52" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="X52" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="Y52" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>5.8</v>
       </c>
       <c r="Z52" s="23"/>
       <c r="AA52" s="23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>-5.6000000000000005</v>
       </c>
-      <c r="AB52" s="42"/>
-      <c r="AC52" s="23"/>
-      <c r="AE52">
-        <f>SUM(AE2:AE51)</f>
-        <v>23</v>
-      </c>
-      <c r="AF52">
-        <f>SUM(AF2:AF51)</f>
-        <v>11</v>
-      </c>
-      <c r="AG52">
-        <f t="shared" ref="AG52:AH52" si="30">SUM(AG2:AG51)</f>
-        <v>1</v>
-      </c>
-      <c r="AH52">
-        <f t="shared" si="30"/>
-        <v>15</v>
-      </c>
-      <c r="AI52" s="26"/>
-      <c r="AK52" s="23"/>
-      <c r="AL52" s="23"/>
-      <c r="AM52" s="23"/>
-      <c r="AN52" s="23"/>
-    </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AB52" s="41"/>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" s="34"/>
       <c r="B53" s="5"/>
       <c r="C53" s="36">
@@ -9493,43 +7058,43 @@
         <v>0.2</v>
       </c>
       <c r="D53" s="37">
-        <f t="shared" ref="D53:M53" si="31">D52/50</f>
+        <f t="shared" ref="D53:M53" si="19">D52/50</f>
         <v>0.24</v>
       </c>
       <c r="E53" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="19"/>
         <v>0.24</v>
       </c>
       <c r="F53" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="19"/>
         <v>0.26</v>
       </c>
       <c r="G53" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="19"/>
         <v>0.24</v>
       </c>
       <c r="H53" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="19"/>
         <v>0.16</v>
       </c>
       <c r="I53" s="37">
-        <f t="shared" si="31"/>
+        <f t="shared" si="19"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="J53" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="19"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="K53" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="19"/>
         <v>0.12</v>
       </c>
       <c r="L53" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="19"/>
         <v>0.08</v>
       </c>
       <c r="M53" s="38">
-        <f t="shared" si="31"/>
+        <f t="shared" si="19"/>
         <v>0.1</v>
       </c>
       <c r="N53" s="33"/>
@@ -9537,29 +7102,8 @@
       <c r="P53" s="26"/>
       <c r="U53" s="26"/>
       <c r="AB53" s="28"/>
-      <c r="AE53" s="36">
-        <f t="shared" ref="AE53:AF53" si="32">AE52/50</f>
-        <v>0.46</v>
-      </c>
-      <c r="AF53" s="36">
-        <f t="shared" si="32"/>
-        <v>0.22</v>
-      </c>
-      <c r="AG53" s="36">
-        <f t="shared" ref="AG53:AH53" si="33">AG52/50</f>
-        <v>0.02</v>
-      </c>
-      <c r="AH53" s="36">
-        <f t="shared" si="33"/>
-        <v>0.3</v>
-      </c>
-      <c r="AI53" s="26"/>
-      <c r="AK53" s="23"/>
-      <c r="AL53" s="23"/>
-      <c r="AM53" s="23"/>
-      <c r="AN53" s="23"/>
-    </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="D54" s="15"/>
@@ -9570,13 +7114,8 @@
       <c r="P54" s="26"/>
       <c r="U54" s="26"/>
       <c r="AB54" s="28"/>
-      <c r="AI54" s="26"/>
-      <c r="AK54" s="23"/>
-      <c r="AL54" s="23"/>
-      <c r="AM54" s="23"/>
-      <c r="AN54" s="23"/>
-    </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="D55" s="15"/>
@@ -9587,55 +7126,54 @@
       <c r="P55" s="26"/>
       <c r="U55" s="26"/>
       <c r="AB55" s="28"/>
-      <c r="AI55" s="26"/>
-    </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
         <v>118</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="11">
-        <f t="shared" ref="C56:M56" si="34">C1</f>
+        <f t="shared" ref="C56:M56" si="20">C1</f>
         <v>2000</v>
       </c>
       <c r="D56" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="20"/>
         <v>2002</v>
       </c>
       <c r="E56" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="20"/>
         <v>2004</v>
       </c>
       <c r="F56" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="20"/>
         <v>2006</v>
       </c>
       <c r="G56" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="20"/>
         <v>2008</v>
       </c>
       <c r="H56" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="20"/>
         <v>2010</v>
       </c>
       <c r="I56" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="20"/>
         <v>2012</v>
       </c>
       <c r="J56" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
       <c r="K56" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="20"/>
         <v>2016</v>
       </c>
       <c r="L56" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="20"/>
         <v>2018</v>
       </c>
       <c r="M56" s="18">
-        <f t="shared" si="34"/>
+        <f t="shared" si="20"/>
         <v>2020</v>
       </c>
       <c r="N56" s="33"/>
@@ -9682,11 +7220,9 @@
         <f>AA1</f>
         <v>chg</v>
       </c>
-      <c r="AB56" s="44"/>
-      <c r="AC56" s="41"/>
-      <c r="AI56" s="26"/>
-    </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AB56" s="43"/>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>102</v>
       </c>
@@ -9740,7 +7276,7 @@
       </c>
       <c r="N57" s="33"/>
       <c r="O57" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>214</v>
       </c>
       <c r="P57" s="26"/>
@@ -9777,9 +7313,8 @@
         <v>1.1999999999999886</v>
       </c>
       <c r="AB57" s="28"/>
-      <c r="AI57" s="26"/>
-    </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>119</v>
       </c>
@@ -9833,7 +7368,7 @@
       </c>
       <c r="N58" s="33"/>
       <c r="O58" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-3</v>
       </c>
       <c r="P58" s="26"/>
@@ -9868,9 +7403,8 @@
         <v>1.4</v>
       </c>
       <c r="AB58" s="28"/>
-      <c r="AI58" s="26"/>
-    </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="D59" s="15"/>
@@ -9881,9 +7415,8 @@
       <c r="P59" s="26"/>
       <c r="U59" s="26"/>
       <c r="AB59" s="28"/>
-      <c r="AI59" s="26"/>
-    </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
         <v>120</v>
       </c>
@@ -9914,9 +7447,8 @@
       <c r="Z60" s="24"/>
       <c r="AA60" s="24"/>
       <c r="AB60" s="28"/>
-      <c r="AI60" s="26"/>
-    </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="str">
         <f>DATA!A52</f>
         <v>REP</v>
@@ -9971,7 +7503,7 @@
       </c>
       <c r="N61" s="33"/>
       <c r="O61" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>221</v>
       </c>
       <c r="P61" s="26"/>
@@ -10006,9 +7538,8 @@
         <v>10</v>
       </c>
       <c r="AB61" s="28"/>
-      <c r="AI61" s="26"/>
-    </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="str">
         <f>DATA!A53</f>
         <v>DEM</v>
@@ -10063,7 +7594,7 @@
       </c>
       <c r="N62" s="33"/>
       <c r="O62" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>212</v>
       </c>
       <c r="P62" s="26"/>
@@ -10100,9 +7631,8 @@
         <v>-9.8000000000000114</v>
       </c>
       <c r="AB62" s="28"/>
-      <c r="AI62" s="26"/>
-    </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>115</v>
       </c>
@@ -10156,7 +7686,7 @@
       </c>
       <c r="N63" s="33"/>
       <c r="O63" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="P63" s="26"/>
@@ -10191,9 +7721,8 @@
         <v>10.200000000000001</v>
       </c>
       <c r="AB63" s="28"/>
-      <c r="AI63" s="26"/>
-    </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="D64" s="15"/>
@@ -10204,9 +7733,8 @@
       <c r="P64" s="26"/>
       <c r="U64" s="26"/>
       <c r="AB64" s="28"/>
-      <c r="AI64" s="26"/>
-    </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
         <v>114</v>
       </c>
@@ -10237,9 +7765,8 @@
       <c r="Z65" s="24"/>
       <c r="AA65" s="24"/>
       <c r="AB65" s="28"/>
-      <c r="AI65" s="26"/>
-    </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>116</v>
       </c>
@@ -10293,7 +7820,7 @@
       </c>
       <c r="N66" s="33"/>
       <c r="O66" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="P66" s="26"/>
@@ -10328,9 +7855,8 @@
         <v>13.600000000000001</v>
       </c>
       <c r="AB66" s="28"/>
-      <c r="AI66" s="26"/>
-    </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>104</v>
       </c>
@@ -10384,7 +7910,7 @@
       </c>
       <c r="N67" s="33"/>
       <c r="O67" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-17</v>
       </c>
       <c r="P67" s="26"/>
@@ -10421,9 +7947,8 @@
         <v>-4.8000000000000007</v>
       </c>
       <c r="AB67" s="28"/>
-      <c r="AI67" s="26"/>
-    </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>117</v>
       </c>
@@ -10477,7 +8002,7 @@
       </c>
       <c r="N68" s="33"/>
       <c r="O68" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="P68" s="26"/>
@@ -10512,18 +8037,16 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="AB68" s="28"/>
-      <c r="AI68" s="26"/>
-    </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D69" s="15"/>
       <c r="I69" s="15"/>
       <c r="N69" s="33"/>
       <c r="P69" s="26"/>
       <c r="U69" s="26"/>
       <c r="AB69" s="28"/>
-      <c r="AI69" s="26"/>
-    </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>128</v>
       </c>
@@ -10532,74 +8055,315 @@
         <v>1</v>
       </c>
       <c r="D70" s="15" t="b">
-        <f t="shared" ref="D70:M70" si="35">AND(D57&lt;218,D61&gt;=218)</f>
+        <f t="shared" ref="D70:M70" si="21">AND(D57&lt;218,D61&gt;=218)</f>
         <v>0</v>
       </c>
       <c r="E70" s="6" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F70" s="6" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G70" s="6" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H70" s="6" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I70" s="40" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="J70" s="6" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K70" s="6" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L70" s="6" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M70" s="6" t="b">
-        <f t="shared" si="35"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N70" s="33"/>
       <c r="P70" s="26"/>
       <c r="U70" s="26"/>
       <c r="AB70" s="28"/>
-      <c r="AI70" s="26"/>
-    </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D71" s="15"/>
       <c r="I71" s="15"/>
       <c r="N71" s="33"/>
       <c r="P71" s="26"/>
       <c r="U71" s="26"/>
       <c r="AB71" s="28"/>
-      <c r="AI71" s="26"/>
-    </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D72" s="15"/>
       <c r="I72" s="15"/>
       <c r="N72" s="33"/>
       <c r="P72" s="26"/>
       <c r="U72" s="26"/>
       <c r="AB72" s="28"/>
-      <c r="AI72" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" negative="1" xr2:uid="{71E158C0-A3AD-A341-B4E5-0D57479B057A}">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FF00B0F0"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Analysis!D2:H2</xm:f>
+              <xm:sqref>Q2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D3:H3</xm:f>
+              <xm:sqref>Q3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D4:H4</xm:f>
+              <xm:sqref>Q4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D5:H5</xm:f>
+              <xm:sqref>Q5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D6:H6</xm:f>
+              <xm:sqref>Q6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D7:H7</xm:f>
+              <xm:sqref>Q7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D8:H8</xm:f>
+              <xm:sqref>Q8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D9:H9</xm:f>
+              <xm:sqref>Q9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D10:H10</xm:f>
+              <xm:sqref>Q10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D11:H11</xm:f>
+              <xm:sqref>Q11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D12:H12</xm:f>
+              <xm:sqref>Q12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D13:H13</xm:f>
+              <xm:sqref>Q13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D14:H14</xm:f>
+              <xm:sqref>Q14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D15:H15</xm:f>
+              <xm:sqref>Q15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D16:H16</xm:f>
+              <xm:sqref>Q16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D17:H17</xm:f>
+              <xm:sqref>Q17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D18:H18</xm:f>
+              <xm:sqref>Q18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D19:H19</xm:f>
+              <xm:sqref>Q19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D20:H20</xm:f>
+              <xm:sqref>Q20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D21:H21</xm:f>
+              <xm:sqref>Q21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D22:H22</xm:f>
+              <xm:sqref>Q22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D23:H23</xm:f>
+              <xm:sqref>Q23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D24:H24</xm:f>
+              <xm:sqref>Q24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D25:H25</xm:f>
+              <xm:sqref>Q25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D26:H26</xm:f>
+              <xm:sqref>Q26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D27:H27</xm:f>
+              <xm:sqref>Q27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D28:H28</xm:f>
+              <xm:sqref>Q28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D29:H29</xm:f>
+              <xm:sqref>Q29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D30:H30</xm:f>
+              <xm:sqref>Q30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D31:H31</xm:f>
+              <xm:sqref>Q31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D32:H32</xm:f>
+              <xm:sqref>Q32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D33:H33</xm:f>
+              <xm:sqref>Q33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D34:H34</xm:f>
+              <xm:sqref>Q34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D35:H35</xm:f>
+              <xm:sqref>Q35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D36:H36</xm:f>
+              <xm:sqref>Q36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D37:H37</xm:f>
+              <xm:sqref>Q37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D38:H38</xm:f>
+              <xm:sqref>Q38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D39:H39</xm:f>
+              <xm:sqref>Q39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D40:H40</xm:f>
+              <xm:sqref>Q40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D41:H41</xm:f>
+              <xm:sqref>Q41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D42:H42</xm:f>
+              <xm:sqref>Q42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D43:H43</xm:f>
+              <xm:sqref>Q43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D44:H44</xm:f>
+              <xm:sqref>Q44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D45:H45</xm:f>
+              <xm:sqref>Q45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D46:H46</xm:f>
+              <xm:sqref>Q46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D47:H47</xm:f>
+              <xm:sqref>Q47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D48:H48</xm:f>
+              <xm:sqref>Q48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D49:H49</xm:f>
+              <xm:sqref>Q49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D50:H50</xm:f>
+              <xm:sqref>Q50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D51:H51</xm:f>
+              <xm:sqref>Q51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D57:H57</xm:f>
+              <xm:sqref>Q57</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D58:H58</xm:f>
+              <xm:sqref>Q58</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D61:H61</xm:f>
+              <xm:sqref>Q61</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D62:H62</xm:f>
+              <xm:sqref>Q62</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D63:H63</xm:f>
+              <xm:sqref>Q63</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D66:H66</xm:f>
+              <xm:sqref>Q66</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D67:H67</xm:f>
+              <xm:sqref>Q67</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!D68:H68</xm:f>
+              <xm:sqref>Q68</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" negative="1" xr2:uid="{B55D22CA-BED6-1041-8D4E-184E8B90A5CE}">
           <x14:colorSeries rgb="FFFF0000"/>
           <x14:colorNegative rgb="FF00B0F0"/>
@@ -10844,250 +8608,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" negative="1" xr2:uid="{71E158C0-A3AD-A341-B4E5-0D57479B057A}">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FF00B0F0"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Analysis!D2:H2</xm:f>
-              <xm:sqref>Q2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D3:H3</xm:f>
-              <xm:sqref>Q3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D4:H4</xm:f>
-              <xm:sqref>Q4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D5:H5</xm:f>
-              <xm:sqref>Q5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D6:H6</xm:f>
-              <xm:sqref>Q6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D7:H7</xm:f>
-              <xm:sqref>Q7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D8:H8</xm:f>
-              <xm:sqref>Q8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D9:H9</xm:f>
-              <xm:sqref>Q9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D10:H10</xm:f>
-              <xm:sqref>Q10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D11:H11</xm:f>
-              <xm:sqref>Q11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D12:H12</xm:f>
-              <xm:sqref>Q12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D13:H13</xm:f>
-              <xm:sqref>Q13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D14:H14</xm:f>
-              <xm:sqref>Q14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D15:H15</xm:f>
-              <xm:sqref>Q15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D16:H16</xm:f>
-              <xm:sqref>Q16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D17:H17</xm:f>
-              <xm:sqref>Q17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D18:H18</xm:f>
-              <xm:sqref>Q18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D19:H19</xm:f>
-              <xm:sqref>Q19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D20:H20</xm:f>
-              <xm:sqref>Q20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D21:H21</xm:f>
-              <xm:sqref>Q21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D22:H22</xm:f>
-              <xm:sqref>Q22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D23:H23</xm:f>
-              <xm:sqref>Q23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D24:H24</xm:f>
-              <xm:sqref>Q24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D25:H25</xm:f>
-              <xm:sqref>Q25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D26:H26</xm:f>
-              <xm:sqref>Q26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D27:H27</xm:f>
-              <xm:sqref>Q27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D28:H28</xm:f>
-              <xm:sqref>Q28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D29:H29</xm:f>
-              <xm:sqref>Q29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D30:H30</xm:f>
-              <xm:sqref>Q30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D31:H31</xm:f>
-              <xm:sqref>Q31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D32:H32</xm:f>
-              <xm:sqref>Q32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D33:H33</xm:f>
-              <xm:sqref>Q33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D34:H34</xm:f>
-              <xm:sqref>Q34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D35:H35</xm:f>
-              <xm:sqref>Q35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D36:H36</xm:f>
-              <xm:sqref>Q36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D37:H37</xm:f>
-              <xm:sqref>Q37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D38:H38</xm:f>
-              <xm:sqref>Q38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D39:H39</xm:f>
-              <xm:sqref>Q39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D40:H40</xm:f>
-              <xm:sqref>Q40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D41:H41</xm:f>
-              <xm:sqref>Q41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D42:H42</xm:f>
-              <xm:sqref>Q42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D43:H43</xm:f>
-              <xm:sqref>Q43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D44:H44</xm:f>
-              <xm:sqref>Q44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D45:H45</xm:f>
-              <xm:sqref>Q45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D46:H46</xm:f>
-              <xm:sqref>Q46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D47:H47</xm:f>
-              <xm:sqref>Q47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D48:H48</xm:f>
-              <xm:sqref>Q48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D49:H49</xm:f>
-              <xm:sqref>Q49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D50:H50</xm:f>
-              <xm:sqref>Q50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D51:H51</xm:f>
-              <xm:sqref>Q51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D57:H57</xm:f>
-              <xm:sqref>Q57</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D58:H58</xm:f>
-              <xm:sqref>Q58</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D61:H61</xm:f>
-              <xm:sqref>Q61</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D62:H62</xm:f>
-              <xm:sqref>Q62</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D63:H63</xm:f>
-              <xm:sqref>Q63</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D66:H66</xm:f>
-              <xm:sqref>Q66</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D67:H67</xm:f>
-              <xm:sqref>Q67</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!D68:H68</xm:f>
-              <xm:sqref>Q68</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -11095,3174 +8615,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA1252D-94E5-7947-828A-76214712F5A9}">
-  <dimension ref="A1:V64"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J23" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T46" sqref="T46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="6" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.1640625" customWidth="1"/>
-    <col min="9" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.1640625" customWidth="1"/>
-    <col min="16" max="16" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="63.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="14">
-        <v>2012</v>
-      </c>
-      <c r="D1" s="11">
-        <v>2014</v>
-      </c>
-      <c r="E1" s="11">
-        <v>2016</v>
-      </c>
-      <c r="F1" s="11">
-        <v>2018</v>
-      </c>
-      <c r="G1" s="18">
-        <v>2020</v>
-      </c>
-      <c r="H1" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="N1" s="59">
-        <v>2022</v>
-      </c>
-      <c r="O1" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="S1" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="T1" s="27" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="15">
-        <v>3</v>
-      </c>
-      <c r="D2" s="6">
-        <v>4</v>
-      </c>
-      <c r="E2" s="6">
-        <v>5</v>
-      </c>
-      <c r="F2" s="6">
-        <v>4</v>
-      </c>
-      <c r="G2" s="19">
-        <v>3</v>
-      </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="23">
-        <v>1.8</v>
-      </c>
-      <c r="J2" s="23">
-        <v>4</v>
-      </c>
-      <c r="K2" s="23">
-        <v>3.5</v>
-      </c>
-      <c r="L2" s="23">
-        <v>-0.5</v>
-      </c>
-      <c r="M2" s="23">
-        <v>0.88628899999999999</v>
-      </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q2" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="R2" t="s">
-        <v>129</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="T2" s="28"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="15">
-        <v>4</v>
-      </c>
-      <c r="D3" s="6">
-        <v>3</v>
-      </c>
-      <c r="E3" s="6">
-        <v>3</v>
-      </c>
-      <c r="F3" s="6">
-        <v>4</v>
-      </c>
-      <c r="G3" s="19">
-        <v>3</v>
-      </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="23">
-        <v>1.6</v>
-      </c>
-      <c r="J3" s="23">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="K3" s="23">
-        <v>3.5</v>
-      </c>
-      <c r="L3" s="23">
-        <v>0.16666666666666652</v>
-      </c>
-      <c r="M3" s="23">
-        <v>0</v>
-      </c>
-      <c r="N3" s="23"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="R3" t="s">
-        <v>129</v>
-      </c>
-      <c r="S3" t="s">
-        <v>157</v>
-      </c>
-      <c r="T3" s="28"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="15">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6">
-        <v>3</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="19">
-        <v>0</v>
-      </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="J4" s="23">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="K4" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="L4" s="23">
-        <v>-2.8333333333333335</v>
-      </c>
-      <c r="M4" s="23">
-        <v>2.1612719999999999</v>
-      </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q4" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="R4" t="s">
-        <v>133</v>
-      </c>
-      <c r="S4" t="s">
-        <v>157</v>
-      </c>
-      <c r="T4" s="28" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="15">
-        <v>3</v>
-      </c>
-      <c r="D5" s="6">
-        <v>3</v>
-      </c>
-      <c r="E5" s="6">
-        <v>3</v>
-      </c>
-      <c r="F5" s="6">
-        <v>3</v>
-      </c>
-      <c r="G5" s="19">
-        <v>1</v>
-      </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="23">
-        <v>-0.4</v>
-      </c>
-      <c r="J5" s="23">
-        <v>3</v>
-      </c>
-      <c r="K5" s="23">
-        <v>2</v>
-      </c>
-      <c r="L5" s="23">
-        <v>-1</v>
-      </c>
-      <c r="M5" s="23">
-        <v>1.358581</v>
-      </c>
-      <c r="N5" s="23"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q5" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="R5" t="s">
-        <v>129</v>
-      </c>
-      <c r="S5" t="s">
-        <v>157</v>
-      </c>
-      <c r="T5" s="28" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="15">
-        <v>3</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="6">
-        <v>2</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="19">
-        <v>2</v>
-      </c>
-      <c r="H6" s="49"/>
-      <c r="I6" s="23">
-        <v>3.4</v>
-      </c>
-      <c r="J6" s="23">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="K6" s="23">
-        <v>1.5</v>
-      </c>
-      <c r="L6" s="23">
-        <v>-0.83333333333333348</v>
-      </c>
-      <c r="M6" s="23">
-        <v>1.8652690000000001</v>
-      </c>
-      <c r="N6" s="23"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q6" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="R6" t="s">
-        <v>129</v>
-      </c>
-      <c r="S6" t="s">
-        <v>157</v>
-      </c>
-      <c r="T6" s="28" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="15">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6">
-        <v>2</v>
-      </c>
-      <c r="E7" s="6">
-        <v>2</v>
-      </c>
-      <c r="F7" s="6">
-        <v>2</v>
-      </c>
-      <c r="G7" s="19">
-        <v>2</v>
-      </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="23">
-        <v>1.2</v>
-      </c>
-      <c r="J7" s="23">
-        <v>2</v>
-      </c>
-      <c r="K7" s="23">
-        <v>2</v>
-      </c>
-      <c r="L7" s="23">
-        <v>0</v>
-      </c>
-      <c r="M7" s="23">
-        <v>0</v>
-      </c>
-      <c r="N7" s="23"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q7" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="R7" t="s">
-        <v>129</v>
-      </c>
-      <c r="S7" t="s">
-        <v>157</v>
-      </c>
-      <c r="T7" s="28"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="15">
-        <v>2</v>
-      </c>
-      <c r="D8" s="6">
-        <v>2</v>
-      </c>
-      <c r="E8" s="6">
-        <v>2</v>
-      </c>
-      <c r="F8" s="6">
-        <v>2</v>
-      </c>
-      <c r="G8" s="19">
-        <v>1</v>
-      </c>
-      <c r="H8" s="49"/>
-      <c r="I8" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="J8" s="23">
-        <v>2</v>
-      </c>
-      <c r="K8" s="23">
-        <v>1.5</v>
-      </c>
-      <c r="L8" s="23">
-        <v>-0.5</v>
-      </c>
-      <c r="M8" s="23">
-        <v>0</v>
-      </c>
-      <c r="N8" s="23"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q8" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="R8" t="s">
-        <v>129</v>
-      </c>
-      <c r="S8" t="s">
-        <v>157</v>
-      </c>
-      <c r="T8" s="28"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="15">
-        <v>2</v>
-      </c>
-      <c r="D9" s="6">
-        <v>2</v>
-      </c>
-      <c r="E9" s="6">
-        <v>2</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="19">
-        <v>2</v>
-      </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="23">
-        <v>1</v>
-      </c>
-      <c r="J9" s="23">
-        <v>2</v>
-      </c>
-      <c r="K9" s="23">
-        <v>1.5</v>
-      </c>
-      <c r="L9" s="23">
-        <v>-0.5</v>
-      </c>
-      <c r="M9" s="23">
-        <v>2.0270510000000002</v>
-      </c>
-      <c r="N9" s="23"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q9" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="R9" t="s">
-        <v>129</v>
-      </c>
-      <c r="S9" t="s">
-        <v>157</v>
-      </c>
-      <c r="T9" s="28"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="15">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6">
-        <v>2</v>
-      </c>
-      <c r="E10" s="6">
-        <v>2</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="19">
-        <v>0</v>
-      </c>
-      <c r="H10" s="49"/>
-      <c r="I10" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="J10" s="23">
-        <v>2</v>
-      </c>
-      <c r="K10" s="23">
-        <v>0</v>
-      </c>
-      <c r="L10" s="23">
-        <v>-2</v>
-      </c>
-      <c r="M10" s="23">
-        <v>2.3947630000000002</v>
-      </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q10" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="R10" t="s">
-        <v>133</v>
-      </c>
-      <c r="S10" t="s">
-        <v>157</v>
-      </c>
-      <c r="T10" s="28" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="15">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6">
-        <v>2</v>
-      </c>
-      <c r="E11" s="6">
-        <v>2</v>
-      </c>
-      <c r="F11" s="6">
-        <v>2</v>
-      </c>
-      <c r="G11" s="19">
-        <v>1</v>
-      </c>
-      <c r="H11" s="49"/>
-      <c r="I11" s="23">
-        <v>-0.6</v>
-      </c>
-      <c r="J11" s="23">
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="K11" s="23">
-        <v>1.5</v>
-      </c>
-      <c r="L11" s="23">
-        <v>-0.16666666666666674</v>
-      </c>
-      <c r="M11" s="23">
-        <v>2.3808220000000002</v>
-      </c>
-      <c r="N11" s="23"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q11" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="R11" t="s">
-        <v>129</v>
-      </c>
-      <c r="S11" t="s">
-        <v>157</v>
-      </c>
-      <c r="T11" s="28"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="15">
-        <v>2</v>
-      </c>
-      <c r="D12" s="6">
-        <v>2</v>
-      </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6">
-        <v>1</v>
-      </c>
-      <c r="G12" s="19">
-        <v>1</v>
-      </c>
-      <c r="H12" s="49"/>
-      <c r="I12" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="J12" s="23">
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="K12" s="23">
-        <v>1</v>
-      </c>
-      <c r="L12" s="23">
-        <v>-0.66666666666666674</v>
-      </c>
-      <c r="M12" s="23">
-        <v>0</v>
-      </c>
-      <c r="N12" s="23"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q12" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="R12" t="s">
-        <v>129</v>
-      </c>
-      <c r="S12" t="s">
-        <v>157</v>
-      </c>
-      <c r="T12" s="28"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="15">
-        <v>2</v>
-      </c>
-      <c r="D13" s="6">
-        <v>2</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G13" s="19">
-        <v>-1</v>
-      </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="J13" s="23">
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="K13" s="23">
-        <v>-1</v>
-      </c>
-      <c r="L13" s="23">
-        <v>-2.666666666666667</v>
-      </c>
-      <c r="M13" s="23">
-        <v>4.1732719999999999</v>
-      </c>
-      <c r="N13" s="23"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q13" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="R13" t="s">
-        <v>133</v>
-      </c>
-      <c r="S13" t="s">
-        <v>157</v>
-      </c>
-      <c r="T13" s="28" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="15">
-        <v>2</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6">
-        <v>1</v>
-      </c>
-      <c r="G14" s="19">
-        <v>2</v>
-      </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="23">
-        <v>1</v>
-      </c>
-      <c r="J14" s="23">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="K14" s="23">
-        <v>1.5</v>
-      </c>
-      <c r="L14" s="23">
-        <v>0.16666666666666674</v>
-      </c>
-      <c r="M14" s="23">
-        <v>2.1392519999999999</v>
-      </c>
-      <c r="N14" s="23"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q14" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="R14" t="s">
-        <v>129</v>
-      </c>
-      <c r="S14" t="s">
-        <v>157</v>
-      </c>
-      <c r="T14" s="28"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="52">
-        <v>2</v>
-      </c>
-      <c r="D15" s="53">
-        <v>1</v>
-      </c>
-      <c r="E15" s="53">
-        <v>1</v>
-      </c>
-      <c r="F15" s="53">
-        <v>2</v>
-      </c>
-      <c r="G15" s="54">
-        <v>1</v>
-      </c>
-      <c r="H15" s="55"/>
-      <c r="I15" s="56">
-        <v>-0.4</v>
-      </c>
-      <c r="J15" s="56">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="K15" s="56">
-        <v>1.5</v>
-      </c>
-      <c r="L15" s="56">
-        <v>0.16666666666666674</v>
-      </c>
-      <c r="M15" s="56">
-        <v>0</v>
-      </c>
-      <c r="N15" s="56"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q15" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="R15" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="S15" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="T15" s="58"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="15">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1</v>
-      </c>
-      <c r="E16" s="6">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6">
-        <v>1</v>
-      </c>
-      <c r="G16" s="19">
-        <v>1</v>
-      </c>
-      <c r="H16" s="49"/>
-      <c r="I16" s="23">
-        <v>1</v>
-      </c>
-      <c r="J16" s="23">
-        <v>1</v>
-      </c>
-      <c r="K16" s="23">
-        <v>1</v>
-      </c>
-      <c r="L16" s="23">
-        <v>0</v>
-      </c>
-      <c r="M16" s="23">
-        <v>0</v>
-      </c>
-      <c r="N16" s="23"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q16" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="R16" t="s">
-        <v>129</v>
-      </c>
-      <c r="S16" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="T16" s="28"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="15">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1</v>
-      </c>
-      <c r="E17" s="6">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6">
-        <v>1</v>
-      </c>
-      <c r="G17" s="19">
-        <v>1</v>
-      </c>
-      <c r="H17" s="49"/>
-      <c r="I17" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="J17" s="23">
-        <v>1</v>
-      </c>
-      <c r="K17" s="23">
-        <v>1</v>
-      </c>
-      <c r="L17" s="23">
-        <v>0</v>
-      </c>
-      <c r="M17" s="23">
-        <v>0</v>
-      </c>
-      <c r="N17" s="23"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q17" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="R17" t="s">
-        <v>129</v>
-      </c>
-      <c r="S17" t="s">
-        <v>158</v>
-      </c>
-      <c r="T17" s="28"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="15">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="F18" s="6">
-        <v>1</v>
-      </c>
-      <c r="G18" s="19">
-        <v>1</v>
-      </c>
-      <c r="H18" s="49"/>
-      <c r="I18" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="J18" s="23">
-        <v>1</v>
-      </c>
-      <c r="K18" s="23">
-        <v>1</v>
-      </c>
-      <c r="L18" s="23">
-        <v>0</v>
-      </c>
-      <c r="M18" s="23">
-        <v>2.7391019999999999</v>
-      </c>
-      <c r="N18" s="23"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q18" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="R18" t="s">
-        <v>129</v>
-      </c>
-      <c r="S18" t="s">
-        <v>158</v>
-      </c>
-      <c r="T18" s="28"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="15">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-      <c r="F19" s="6">
-        <v>1</v>
-      </c>
-      <c r="G19" s="19">
-        <v>1</v>
-      </c>
-      <c r="H19" s="49"/>
-      <c r="I19" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="J19" s="23">
-        <v>1</v>
-      </c>
-      <c r="K19" s="23">
-        <v>1</v>
-      </c>
-      <c r="L19" s="23">
-        <v>0</v>
-      </c>
-      <c r="M19" s="23">
-        <v>0</v>
-      </c>
-      <c r="N19" s="23"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q19" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="R19" t="s">
-        <v>129</v>
-      </c>
-      <c r="S19" t="s">
-        <v>158</v>
-      </c>
-      <c r="T19" s="28"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="15">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6">
-        <v>1</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-      <c r="F20" s="6">
-        <v>1</v>
-      </c>
-      <c r="G20" s="19">
-        <v>1</v>
-      </c>
-      <c r="H20" s="49"/>
-      <c r="I20" s="23">
-        <v>1</v>
-      </c>
-      <c r="J20" s="23">
-        <v>1</v>
-      </c>
-      <c r="K20" s="23">
-        <v>1</v>
-      </c>
-      <c r="L20" s="23">
-        <v>0</v>
-      </c>
-      <c r="M20" s="23">
-        <v>0</v>
-      </c>
-      <c r="N20" s="23"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q20" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="R20" t="s">
-        <v>129</v>
-      </c>
-      <c r="S20" t="s">
-        <v>158</v>
-      </c>
-      <c r="T20" s="28"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="15">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
-      <c r="F21" s="6">
-        <v>1</v>
-      </c>
-      <c r="G21" s="19">
-        <v>1</v>
-      </c>
-      <c r="H21" s="49"/>
-      <c r="I21" s="23">
-        <v>0</v>
-      </c>
-      <c r="J21" s="23">
-        <v>1</v>
-      </c>
-      <c r="K21" s="23">
-        <v>1</v>
-      </c>
-      <c r="L21" s="23">
-        <v>0</v>
-      </c>
-      <c r="M21" s="23">
-        <v>0</v>
-      </c>
-      <c r="N21" s="23"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q21" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="R21" t="s">
-        <v>129</v>
-      </c>
-      <c r="S21" t="s">
-        <v>158</v>
-      </c>
-      <c r="T21" s="28"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="15">
-        <v>1</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="6">
-        <v>1</v>
-      </c>
-      <c r="G22" s="19">
-        <v>1</v>
-      </c>
-      <c r="H22" s="49"/>
-      <c r="I22" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="J22" s="23">
-        <v>1</v>
-      </c>
-      <c r="K22" s="23">
-        <v>1</v>
-      </c>
-      <c r="L22" s="23">
-        <v>0</v>
-      </c>
-      <c r="M22" s="23">
-        <v>0</v>
-      </c>
-      <c r="N22" s="23"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q22" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="R22" t="s">
-        <v>129</v>
-      </c>
-      <c r="S22" t="s">
-        <v>158</v>
-      </c>
-      <c r="T22" s="28"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="15">
-        <v>1</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1</v>
-      </c>
-      <c r="E23" s="6">
-        <v>1</v>
-      </c>
-      <c r="F23" s="6">
-        <v>1</v>
-      </c>
-      <c r="G23" s="19">
-        <v>1</v>
-      </c>
-      <c r="H23" s="49"/>
-      <c r="I23" s="23">
-        <v>1</v>
-      </c>
-      <c r="J23" s="23">
-        <v>1</v>
-      </c>
-      <c r="K23" s="23">
-        <v>1</v>
-      </c>
-      <c r="L23" s="23">
-        <v>0</v>
-      </c>
-      <c r="M23" s="23">
-        <v>0</v>
-      </c>
-      <c r="N23" s="23"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q23" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="R23" t="s">
-        <v>129</v>
-      </c>
-      <c r="S23" t="s">
-        <v>158</v>
-      </c>
-      <c r="T23" s="28"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="15">
-        <v>1</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1</v>
-      </c>
-      <c r="E24" s="6">
-        <v>1</v>
-      </c>
-      <c r="F24" s="6">
-        <v>1</v>
-      </c>
-      <c r="G24" s="19">
-        <v>1</v>
-      </c>
-      <c r="H24" s="49"/>
-      <c r="I24" s="23">
-        <v>-0.6</v>
-      </c>
-      <c r="J24" s="23">
-        <v>1</v>
-      </c>
-      <c r="K24" s="23">
-        <v>1</v>
-      </c>
-      <c r="L24" s="23">
-        <v>0</v>
-      </c>
-      <c r="M24" s="23">
-        <v>0</v>
-      </c>
-      <c r="N24" s="23"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q24" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="R24" t="s">
-        <v>129</v>
-      </c>
-      <c r="S24" t="s">
-        <v>158</v>
-      </c>
-      <c r="T24" s="28"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="15">
-        <v>1</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1</v>
-      </c>
-      <c r="E25" s="6">
-        <v>1</v>
-      </c>
-      <c r="F25" s="6">
-        <v>1</v>
-      </c>
-      <c r="G25" s="19">
-        <v>1</v>
-      </c>
-      <c r="H25" s="49"/>
-      <c r="I25" s="23">
-        <v>-0.2</v>
-      </c>
-      <c r="J25" s="23">
-        <v>1</v>
-      </c>
-      <c r="K25" s="23">
-        <v>1</v>
-      </c>
-      <c r="L25" s="23">
-        <v>0</v>
-      </c>
-      <c r="M25" s="23">
-        <v>0</v>
-      </c>
-      <c r="N25" s="23"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q25" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="R25" t="s">
-        <v>129</v>
-      </c>
-      <c r="S25" t="s">
-        <v>158</v>
-      </c>
-      <c r="T25" s="28"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="15">
-        <v>1</v>
-      </c>
-      <c r="D26" s="6">
-        <v>1</v>
-      </c>
-      <c r="E26" s="6">
-        <v>1</v>
-      </c>
-      <c r="F26" s="6">
-        <v>1</v>
-      </c>
-      <c r="G26" s="19">
-        <v>1</v>
-      </c>
-      <c r="H26" s="49"/>
-      <c r="I26" s="23">
-        <v>-0.2</v>
-      </c>
-      <c r="J26" s="23">
-        <v>1</v>
-      </c>
-      <c r="K26" s="23">
-        <v>1</v>
-      </c>
-      <c r="L26" s="23">
-        <v>0</v>
-      </c>
-      <c r="M26" s="23">
-        <v>0</v>
-      </c>
-      <c r="N26" s="23"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q26" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="R26" t="s">
-        <v>129</v>
-      </c>
-      <c r="S26" t="s">
-        <v>158</v>
-      </c>
-      <c r="T26" s="28"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="15">
-        <v>1</v>
-      </c>
-      <c r="D27" s="6">
-        <v>1</v>
-      </c>
-      <c r="E27" s="6">
-        <v>1</v>
-      </c>
-      <c r="F27" s="6">
-        <v>1</v>
-      </c>
-      <c r="G27" s="19">
-        <v>1</v>
-      </c>
-      <c r="H27" s="49"/>
-      <c r="I27" s="23">
-        <v>1</v>
-      </c>
-      <c r="J27" s="23">
-        <v>1</v>
-      </c>
-      <c r="K27" s="23">
-        <v>1</v>
-      </c>
-      <c r="L27" s="23">
-        <v>0</v>
-      </c>
-      <c r="M27" s="23">
-        <v>0</v>
-      </c>
-      <c r="N27" s="23"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q27" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="R27" t="s">
-        <v>129</v>
-      </c>
-      <c r="S27" t="s">
-        <v>158</v>
-      </c>
-      <c r="T27" s="28"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="15">
-        <v>1</v>
-      </c>
-      <c r="D28" s="6">
-        <v>0</v>
-      </c>
-      <c r="E28" s="6">
-        <v>1</v>
-      </c>
-      <c r="F28" s="6">
-        <v>1</v>
-      </c>
-      <c r="G28" s="19">
-        <v>1</v>
-      </c>
-      <c r="H28" s="49"/>
-      <c r="I28" s="23">
-        <v>0</v>
-      </c>
-      <c r="J28" s="23">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="K28" s="23">
-        <v>1</v>
-      </c>
-      <c r="L28" s="23">
-        <v>0.33333333333333337</v>
-      </c>
-      <c r="M28" s="23">
-        <v>-7.4183810000000001</v>
-      </c>
-      <c r="N28" s="23"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q28" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="R28" t="s">
-        <v>133</v>
-      </c>
-      <c r="S28" t="s">
-        <v>158</v>
-      </c>
-      <c r="T28" s="28"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="15">
-        <v>0</v>
-      </c>
-      <c r="D29" s="6">
-        <v>1</v>
-      </c>
-      <c r="E29" s="6">
-        <v>1</v>
-      </c>
-      <c r="F29" s="6">
-        <v>1</v>
-      </c>
-      <c r="G29" s="19">
-        <v>1</v>
-      </c>
-      <c r="H29" s="49"/>
-      <c r="I29" s="23">
-        <v>1</v>
-      </c>
-      <c r="J29" s="23">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="K29" s="23">
-        <v>1</v>
-      </c>
-      <c r="L29" s="23">
-        <v>0.33333333333333337</v>
-      </c>
-      <c r="M29" s="23">
-        <v>1.4005620000000001</v>
-      </c>
-      <c r="N29" s="23"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q29" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="R29" t="s">
-        <v>133</v>
-      </c>
-      <c r="S29" t="s">
-        <v>158</v>
-      </c>
-      <c r="T29" s="28"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="15">
-        <v>0</v>
-      </c>
-      <c r="D30" s="6">
-        <v>1</v>
-      </c>
-      <c r="E30" s="6">
-        <v>1</v>
-      </c>
-      <c r="F30" s="6">
-        <v>1</v>
-      </c>
-      <c r="G30" s="19">
-        <v>1</v>
-      </c>
-      <c r="H30" s="49"/>
-      <c r="I30" s="23">
-        <v>-0.2</v>
-      </c>
-      <c r="J30" s="23">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="K30" s="23">
-        <v>1</v>
-      </c>
-      <c r="L30" s="23">
-        <v>0.33333333333333337</v>
-      </c>
-      <c r="M30" s="23">
-        <v>0.78665700000000005</v>
-      </c>
-      <c r="N30" s="23"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q30" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="R30" t="s">
-        <v>133</v>
-      </c>
-      <c r="S30" t="s">
-        <v>158</v>
-      </c>
-      <c r="T30" s="28"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="16">
-        <v>0</v>
-      </c>
-      <c r="D31" s="8">
-        <v>1</v>
-      </c>
-      <c r="E31" s="8">
-        <v>1</v>
-      </c>
-      <c r="F31" s="8">
-        <v>-1</v>
-      </c>
-      <c r="G31" s="20">
-        <v>1</v>
-      </c>
-      <c r="H31" s="50"/>
-      <c r="I31" s="25">
-        <v>0</v>
-      </c>
-      <c r="J31" s="25">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="K31" s="25">
-        <v>0</v>
-      </c>
-      <c r="L31" s="25">
-        <v>-0.66666666666666663</v>
-      </c>
-      <c r="M31" s="25">
-        <v>6.534726</v>
-      </c>
-      <c r="N31" s="25"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q31" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="R31" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="S31" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="T31" s="29"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="15">
-        <v>0</v>
-      </c>
-      <c r="D32" s="6">
-        <v>0</v>
-      </c>
-      <c r="E32" s="6">
-        <v>0</v>
-      </c>
-      <c r="F32" s="6">
-        <v>0</v>
-      </c>
-      <c r="G32" s="19">
-        <v>0</v>
-      </c>
-      <c r="H32" s="49"/>
-      <c r="I32" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="J32" s="23">
-        <v>0</v>
-      </c>
-      <c r="K32" s="23">
-        <v>0</v>
-      </c>
-      <c r="L32" s="23">
-        <v>0</v>
-      </c>
-      <c r="M32" s="23">
-        <v>2.3279139999999998</v>
-      </c>
-      <c r="N32" s="23"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q32" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="R32" t="s">
-        <v>132</v>
-      </c>
-      <c r="S32" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="T32" s="28"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="15">
-        <v>0</v>
-      </c>
-      <c r="D33" s="6">
-        <v>0</v>
-      </c>
-      <c r="E33" s="6">
-        <v>0</v>
-      </c>
-      <c r="F33" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G33" s="19">
-        <v>0</v>
-      </c>
-      <c r="H33" s="49"/>
-      <c r="I33" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="J33" s="23">
-        <v>0</v>
-      </c>
-      <c r="K33" s="23">
-        <v>-0.5</v>
-      </c>
-      <c r="L33" s="23">
-        <v>-0.5</v>
-      </c>
-      <c r="M33" s="23">
-        <v>4.9545260000000004</v>
-      </c>
-      <c r="N33" s="23"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q33" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="R33" t="s">
-        <v>133</v>
-      </c>
-      <c r="S33" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="T33" s="28"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="16">
-        <v>0</v>
-      </c>
-      <c r="D34" s="8">
-        <v>1</v>
-      </c>
-      <c r="E34" s="8">
-        <v>-1</v>
-      </c>
-      <c r="F34" s="8">
-        <v>-1</v>
-      </c>
-      <c r="G34" s="20">
-        <v>-1</v>
-      </c>
-      <c r="H34" s="50"/>
-      <c r="I34" s="25">
-        <v>-0.2</v>
-      </c>
-      <c r="J34" s="25">
-        <v>0</v>
-      </c>
-      <c r="K34" s="25">
-        <v>-1</v>
-      </c>
-      <c r="L34" s="25">
-        <v>-1</v>
-      </c>
-      <c r="M34" s="25">
-        <v>4.3918280000000003</v>
-      </c>
-      <c r="N34" s="25"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q34" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="R34" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="S34" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="T34" s="29"/>
-      <c r="V34" s="24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="15">
-        <v>1</v>
-      </c>
-      <c r="D35" s="6">
-        <v>0</v>
-      </c>
-      <c r="E35" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F35" s="6">
-        <v>-4</v>
-      </c>
-      <c r="G35" s="19">
-        <v>-3</v>
-      </c>
-      <c r="H35" s="49"/>
-      <c r="I35" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="J35" s="23">
-        <v>0</v>
-      </c>
-      <c r="K35" s="23">
-        <v>-3.5</v>
-      </c>
-      <c r="L35" s="23">
-        <v>-3.5</v>
-      </c>
-      <c r="M35" s="23">
-        <v>4.6766129999999997</v>
-      </c>
-      <c r="N35" s="23"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q35" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="R35" t="s">
-        <v>133</v>
-      </c>
-      <c r="S35" t="s">
-        <v>159</v>
-      </c>
-      <c r="T35" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="V35" s="23">
-        <f>J35-I35</f>
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="15">
-        <v>-1</v>
-      </c>
-      <c r="D36" s="6">
-        <v>0</v>
-      </c>
-      <c r="E36" s="6">
-        <v>0</v>
-      </c>
-      <c r="F36" s="6">
-        <v>0</v>
-      </c>
-      <c r="G36" s="19">
-        <v>-1</v>
-      </c>
-      <c r="H36" s="49"/>
-      <c r="I36" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="J36" s="23">
-        <v>-0.33333333333333331</v>
-      </c>
-      <c r="K36" s="23">
-        <v>-0.5</v>
-      </c>
-      <c r="L36" s="23">
-        <v>-0.16666666666666669</v>
-      </c>
-      <c r="M36" s="23">
-        <v>1.5228809999999999</v>
-      </c>
-      <c r="N36" s="23"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q36" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="R36" t="s">
-        <v>133</v>
-      </c>
-      <c r="S36" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="T36" s="28"/>
-      <c r="V36" s="71">
-        <f t="shared" ref="V36:V51" si="0">J36-I36</f>
-        <v>-0.73333333333333339</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="15">
-        <v>0</v>
-      </c>
-      <c r="D37" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E37" s="6">
-        <v>0</v>
-      </c>
-      <c r="F37" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G37" s="19">
-        <v>0</v>
-      </c>
-      <c r="H37" s="49"/>
-      <c r="I37" s="23">
-        <v>-1</v>
-      </c>
-      <c r="J37" s="23">
-        <v>-0.33333333333333331</v>
-      </c>
-      <c r="K37" s="23">
-        <v>-0.5</v>
-      </c>
-      <c r="L37" s="23">
-        <v>-0.16666666666666669</v>
-      </c>
-      <c r="M37" s="23">
-        <v>1.3434090000000001</v>
-      </c>
-      <c r="N37" s="23"/>
-      <c r="O37" s="49"/>
-      <c r="P37" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q37" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="R37" t="s">
-        <v>133</v>
-      </c>
-      <c r="S37" t="s">
-        <v>160</v>
-      </c>
-      <c r="T37" s="28"/>
-      <c r="V37" s="23">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666674</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="15">
-        <v>-1</v>
-      </c>
-      <c r="D38" s="6">
-        <v>0</v>
-      </c>
-      <c r="E38" s="6">
-        <v>0</v>
-      </c>
-      <c r="F38" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G38" s="19">
-        <v>-1</v>
-      </c>
-      <c r="H38" s="49"/>
-      <c r="I38" s="23">
-        <v>-0.2</v>
-      </c>
-      <c r="J38" s="23">
-        <v>-0.33333333333333331</v>
-      </c>
-      <c r="K38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="L38" s="23">
-        <v>-0.66666666666666674</v>
-      </c>
-      <c r="M38" s="23">
-        <v>5.6681499999999998</v>
-      </c>
-      <c r="N38" s="23"/>
-      <c r="O38" s="49"/>
-      <c r="P38" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q38" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="R38" t="s">
-        <v>133</v>
-      </c>
-      <c r="S38" t="s">
-        <v>160</v>
-      </c>
-      <c r="T38" s="28"/>
-      <c r="V38" s="23">
-        <f t="shared" si="0"/>
-        <v>-0.1333333333333333</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="15">
-        <v>-1</v>
-      </c>
-      <c r="D39" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E39" s="6">
-        <v>0</v>
-      </c>
-      <c r="F39" s="6">
-        <v>0</v>
-      </c>
-      <c r="G39" s="19">
-        <v>-1</v>
-      </c>
-      <c r="H39" s="49"/>
-      <c r="I39" s="23">
-        <v>-0.8</v>
-      </c>
-      <c r="J39" s="23">
-        <v>-0.66666666666666663</v>
-      </c>
-      <c r="K39" s="23">
-        <v>-0.5</v>
-      </c>
-      <c r="L39" s="23">
-        <v>0.16666666666666663</v>
-      </c>
-      <c r="M39" s="23">
-        <v>0</v>
-      </c>
-      <c r="N39" s="23"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q39" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="R39" t="s">
-        <v>133</v>
-      </c>
-      <c r="S39" t="s">
-        <v>160</v>
-      </c>
-      <c r="T39" s="28"/>
-      <c r="V39" s="23">
-        <f t="shared" si="0"/>
-        <v>0.13333333333333341</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="15">
-        <v>-1</v>
-      </c>
-      <c r="D40" s="6">
-        <v>0</v>
-      </c>
-      <c r="E40" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F40" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G40" s="19">
-        <v>-1</v>
-      </c>
-      <c r="H40" s="49"/>
-      <c r="I40" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="J40" s="23">
-        <v>-0.66666666666666663</v>
-      </c>
-      <c r="K40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="L40" s="23">
-        <v>-0.33333333333333337</v>
-      </c>
-      <c r="M40" s="23">
-        <v>5.8124640000000003</v>
-      </c>
-      <c r="N40" s="23"/>
-      <c r="O40" s="49"/>
-      <c r="P40" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q40" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="R40" t="s">
-        <v>133</v>
-      </c>
-      <c r="S40" t="s">
-        <v>160</v>
-      </c>
-      <c r="T40" s="28"/>
-      <c r="V40" s="71">
-        <f t="shared" si="0"/>
-        <v>-0.8666666666666667</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="15">
-        <v>-1</v>
-      </c>
-      <c r="D41" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E41" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F41" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G41" s="19">
-        <v>-1</v>
-      </c>
-      <c r="H41" s="49"/>
-      <c r="I41" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="J41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="K41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="L41" s="23">
-        <v>0</v>
-      </c>
-      <c r="M41" s="23">
-        <v>0</v>
-      </c>
-      <c r="N41" s="23"/>
-      <c r="O41" s="49"/>
-      <c r="P41" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q41" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="R41" t="s">
-        <v>130</v>
-      </c>
-      <c r="S41" t="s">
-        <v>160</v>
-      </c>
-      <c r="T41" s="28"/>
-      <c r="V41" s="71">
-        <f t="shared" si="0"/>
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="15">
-        <v>-1</v>
-      </c>
-      <c r="D42" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E42" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F42" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G42" s="19">
-        <v>-1</v>
-      </c>
-      <c r="H42" s="49"/>
-      <c r="I42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="J42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="K42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="L42" s="23">
-        <v>0</v>
-      </c>
-      <c r="M42" s="23">
-        <v>0</v>
-      </c>
-      <c r="N42" s="23"/>
-      <c r="O42" s="49"/>
-      <c r="P42" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q42" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="R42" t="s">
-        <v>130</v>
-      </c>
-      <c r="S42" t="s">
-        <v>160</v>
-      </c>
-      <c r="T42" s="28"/>
-      <c r="V42" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="15">
-        <v>-1</v>
-      </c>
-      <c r="D43" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E43" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F43" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G43" s="19">
-        <v>-1</v>
-      </c>
-      <c r="H43" s="49"/>
-      <c r="I43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="J43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="K43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="L43" s="23">
-        <v>0</v>
-      </c>
-      <c r="M43" s="23">
-        <v>0</v>
-      </c>
-      <c r="N43" s="23"/>
-      <c r="O43" s="49"/>
-      <c r="P43" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q43" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="R43" t="s">
-        <v>130</v>
-      </c>
-      <c r="S43" t="s">
-        <v>160</v>
-      </c>
-      <c r="T43" s="28"/>
-      <c r="V43" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" s="15">
-        <v>-1</v>
-      </c>
-      <c r="D44" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E44" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F44" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G44" s="19">
-        <v>-1</v>
-      </c>
-      <c r="H44" s="49"/>
-      <c r="I44" s="23">
-        <v>-0.6</v>
-      </c>
-      <c r="J44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="K44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="L44" s="23">
-        <v>0</v>
-      </c>
-      <c r="M44" s="23">
-        <v>0</v>
-      </c>
-      <c r="N44" s="23"/>
-      <c r="O44" s="49"/>
-      <c r="P44" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q44" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="R44" t="s">
-        <v>130</v>
-      </c>
-      <c r="S44" t="s">
-        <v>160</v>
-      </c>
-      <c r="T44" s="28"/>
-      <c r="V44" s="23">
-        <f t="shared" si="0"/>
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="15">
-        <v>-1</v>
-      </c>
-      <c r="D45" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E45" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F45" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G45" s="19">
-        <v>-1</v>
-      </c>
-      <c r="H45" s="49"/>
-      <c r="I45" s="23">
-        <v>-0.8</v>
-      </c>
-      <c r="J45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="K45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="L45" s="23">
-        <v>0</v>
-      </c>
-      <c r="M45" s="23">
-        <v>1.1606259999999999</v>
-      </c>
-      <c r="N45" s="23"/>
-      <c r="O45" s="49"/>
-      <c r="P45" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q45" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="R45" t="s">
-        <v>130</v>
-      </c>
-      <c r="S45" t="s">
-        <v>160</v>
-      </c>
-      <c r="T45" s="28"/>
-      <c r="V45" s="23">
-        <f t="shared" si="0"/>
-        <v>-0.19999999999999996</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="15">
-        <v>-2</v>
-      </c>
-      <c r="D46" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E46" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F46" s="6">
-        <v>-2</v>
-      </c>
-      <c r="G46" s="19">
-        <v>-3</v>
-      </c>
-      <c r="H46" s="49"/>
-      <c r="I46" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="J46" s="23">
-        <v>-1.3333333333333333</v>
-      </c>
-      <c r="K46" s="23">
-        <v>-2.5</v>
-      </c>
-      <c r="L46" s="23">
-        <v>-1.1666666666666667</v>
-      </c>
-      <c r="M46" s="23">
-        <v>1.840104</v>
-      </c>
-      <c r="N46" s="23"/>
-      <c r="O46" s="49"/>
-      <c r="P46" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q46" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="R46" t="s">
-        <v>130</v>
-      </c>
-      <c r="S46" t="s">
-        <v>160</v>
-      </c>
-      <c r="T46" s="28"/>
-      <c r="V46" s="71">
-        <f t="shared" si="0"/>
-        <v>-1.9333333333333331</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="15">
-        <v>-2</v>
-      </c>
-      <c r="D47" s="6">
-        <v>-2</v>
-      </c>
-      <c r="E47" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F47" s="6">
-        <v>-3</v>
-      </c>
-      <c r="G47" s="19">
-        <v>-2</v>
-      </c>
-      <c r="H47" s="49"/>
-      <c r="I47" s="23">
-        <v>-3.6</v>
-      </c>
-      <c r="J47" s="23">
-        <v>-1.6666666666666667</v>
-      </c>
-      <c r="K47" s="23">
-        <v>-2.5</v>
-      </c>
-      <c r="L47" s="23">
-        <v>-0.83333333333333326</v>
-      </c>
-      <c r="M47" s="23">
-        <v>1.1753089999999999</v>
-      </c>
-      <c r="N47" s="23"/>
-      <c r="O47" s="49"/>
-      <c r="P47" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q47" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="R47" t="s">
-        <v>130</v>
-      </c>
-      <c r="S47" t="s">
-        <v>160</v>
-      </c>
-      <c r="T47" s="28"/>
-      <c r="V47" s="71">
-        <f t="shared" si="0"/>
-        <v>1.9333333333333333</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="15">
-        <v>-2</v>
-      </c>
-      <c r="D48" s="6">
-        <v>-2</v>
-      </c>
-      <c r="E48" s="6">
-        <v>-2</v>
-      </c>
-      <c r="F48" s="6">
-        <v>-2</v>
-      </c>
-      <c r="G48" s="19">
-        <v>-2</v>
-      </c>
-      <c r="H48" s="49"/>
-      <c r="I48" s="23">
-        <v>-0.6</v>
-      </c>
-      <c r="J48" s="23">
-        <v>-2</v>
-      </c>
-      <c r="K48" s="23">
-        <v>-2</v>
-      </c>
-      <c r="L48" s="23">
-        <v>0</v>
-      </c>
-      <c r="M48" s="23">
-        <v>0</v>
-      </c>
-      <c r="N48" s="23"/>
-      <c r="O48" s="49"/>
-      <c r="P48" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q48" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="R48" t="s">
-        <v>130</v>
-      </c>
-      <c r="S48" t="s">
-        <v>160</v>
-      </c>
-      <c r="T48" s="28"/>
-      <c r="V48" s="71">
-        <f t="shared" si="0"/>
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="15">
-        <v>-2</v>
-      </c>
-      <c r="D49" s="6">
-        <v>-2</v>
-      </c>
-      <c r="E49" s="6">
-        <v>-2</v>
-      </c>
-      <c r="F49" s="6">
-        <v>-2</v>
-      </c>
-      <c r="G49" s="19">
-        <v>-2</v>
-      </c>
-      <c r="H49" s="49"/>
-      <c r="I49" s="23">
-        <v>-1.4</v>
-      </c>
-      <c r="J49" s="23">
-        <v>-2</v>
-      </c>
-      <c r="K49" s="23">
-        <v>-2</v>
-      </c>
-      <c r="L49" s="23">
-        <v>0</v>
-      </c>
-      <c r="M49" s="23">
-        <v>0</v>
-      </c>
-      <c r="N49" s="23"/>
-      <c r="O49" s="49"/>
-      <c r="P49" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q49" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="R49" t="s">
-        <v>130</v>
-      </c>
-      <c r="S49" t="s">
-        <v>160</v>
-      </c>
-      <c r="T49" s="28"/>
-      <c r="V49" s="23">
-        <f t="shared" si="0"/>
-        <v>-0.60000000000000009</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="15">
-        <v>-3</v>
-      </c>
-      <c r="D50" s="6">
-        <v>-3</v>
-      </c>
-      <c r="E50" s="6">
-        <v>-3</v>
-      </c>
-      <c r="F50" s="6">
-        <v>-3</v>
-      </c>
-      <c r="G50" s="19">
-        <v>-3</v>
-      </c>
-      <c r="H50" s="49"/>
-      <c r="I50" s="23">
-        <v>-3.2</v>
-      </c>
-      <c r="J50" s="23">
-        <v>-3</v>
-      </c>
-      <c r="K50" s="23">
-        <v>-3</v>
-      </c>
-      <c r="L50" s="23">
-        <v>0</v>
-      </c>
-      <c r="M50" s="23">
-        <v>0</v>
-      </c>
-      <c r="N50" s="23"/>
-      <c r="O50" s="49"/>
-      <c r="P50" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q50" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="R50" t="s">
-        <v>130</v>
-      </c>
-      <c r="S50" t="s">
-        <v>160</v>
-      </c>
-      <c r="T50" s="28"/>
-      <c r="V50" s="23">
-        <f t="shared" si="0"/>
-        <v>0.20000000000000018</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="16">
-        <v>-7</v>
-      </c>
-      <c r="D51" s="8">
-        <v>-9</v>
-      </c>
-      <c r="E51" s="8">
-        <v>-6</v>
-      </c>
-      <c r="F51" s="8">
-        <v>-12</v>
-      </c>
-      <c r="G51" s="20">
-        <v>-9</v>
-      </c>
-      <c r="H51" s="49"/>
-      <c r="I51" s="25">
-        <v>-3.6</v>
-      </c>
-      <c r="J51" s="25">
-        <v>-7.333333333333333</v>
-      </c>
-      <c r="K51" s="25">
-        <v>-10.5</v>
-      </c>
-      <c r="L51" s="25">
-        <v>-3.166666666666667</v>
-      </c>
-      <c r="M51" s="25">
-        <v>1.5102660000000001</v>
-      </c>
-      <c r="N51" s="25"/>
-      <c r="O51" s="49"/>
-      <c r="P51" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q51" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="R51" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="S51" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="T51" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="V51" s="70">
-        <f t="shared" si="0"/>
-        <v>-3.7333333333333329</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="15"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="23">
-        <f>SUM(I2:I31)</f>
-        <v>18.399999999999999</v>
-      </c>
-      <c r="J52" s="23">
-        <f t="shared" ref="J52:L52" si="1">SUM(J2:J31)</f>
-        <v>46.333333333333329</v>
-      </c>
-      <c r="K52" s="23">
-        <f t="shared" si="1"/>
-        <v>35.5</v>
-      </c>
-      <c r="L52" s="23">
-        <f t="shared" si="1"/>
-        <v>-10.833333333333332</v>
-      </c>
-      <c r="N52" s="23"/>
-      <c r="O52" s="49"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="T52" s="28"/>
-      <c r="V52" s="23">
-        <f>SUM(V35:V51)</f>
-        <v>-9.0666666666666664</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="23">
-        <f>SUM(I32:I34)</f>
-        <v>0.40000000000000008</v>
-      </c>
-      <c r="J53" s="23">
-        <f t="shared" ref="J53:L53" si="2">SUM(J32:J34)</f>
-        <v>0</v>
-      </c>
-      <c r="K53" s="23">
-        <f t="shared" si="2"/>
-        <v>-1.5</v>
-      </c>
-      <c r="L53" s="23">
-        <f t="shared" si="2"/>
-        <v>-1.5</v>
-      </c>
-      <c r="O53" s="49"/>
-      <c r="T53" s="28"/>
-      <c r="V53" s="69">
-        <f>V52/I63</f>
-        <v>0.58119658119658124</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="15"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="23">
-        <f>SUM(I35:I51)</f>
-        <v>-15.6</v>
-      </c>
-      <c r="J54" s="23">
-        <f t="shared" ref="J54:L54" si="3">SUM(J35:J51)</f>
-        <v>-24.666666666666664</v>
-      </c>
-      <c r="K54" s="23">
-        <f t="shared" si="3"/>
-        <v>-34.5</v>
-      </c>
-      <c r="L54" s="23">
-        <f t="shared" si="3"/>
-        <v>-9.8333333333333321</v>
-      </c>
-      <c r="O54" s="49"/>
-      <c r="T54" s="28"/>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I55" s="23">
-        <f>SUM(I52:I54)</f>
-        <v>3.1999999999999975</v>
-      </c>
-      <c r="J55" s="23">
-        <f t="shared" ref="J55:L55" si="4">SUM(J52:J54)</f>
-        <v>21.666666666666664</v>
-      </c>
-      <c r="K55" s="23">
-        <f t="shared" si="4"/>
-        <v>-0.5</v>
-      </c>
-      <c r="L55" s="23">
-        <f t="shared" si="4"/>
-        <v>-22.166666666666664</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="H58" s="60"/>
-      <c r="I58" s="60" t="str">
-        <f>I1</f>
-        <v>2002-10</v>
-      </c>
-      <c r="J58" s="60" t="str">
-        <f>J1</f>
-        <v>2012-16</v>
-      </c>
-      <c r="K58" s="60" t="str">
-        <f>K1</f>
-        <v>2018-20</v>
-      </c>
-      <c r="L58" s="60" t="s">
-        <v>165</v>
-      </c>
-      <c r="M58" s="60" t="s">
-        <v>166</v>
-      </c>
-      <c r="N58" s="60">
-        <f>N1</f>
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="H59" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="I59" s="61">
-        <f>I52</f>
-        <v>18.399999999999999</v>
-      </c>
-      <c r="J59" s="61">
-        <f t="shared" ref="J59:K59" si="5">J52</f>
-        <v>46.333333333333329</v>
-      </c>
-      <c r="K59" s="61">
-        <f t="shared" si="5"/>
-        <v>35.5</v>
-      </c>
-      <c r="L59" s="61">
-        <f>J59-I59</f>
-        <v>27.93333333333333</v>
-      </c>
-      <c r="M59" s="61">
-        <f>K59-J59</f>
-        <v>-10.833333333333329</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="H60">
-        <v>1</v>
-      </c>
-      <c r="I60" s="23">
-        <f>SUM(I2:I15)</f>
-        <v>12.2</v>
-      </c>
-      <c r="J60" s="23">
-        <f t="shared" ref="J60:K60" si="6">SUM(J2:J15)</f>
-        <v>31.666666666666668</v>
-      </c>
-      <c r="K60" s="23">
-        <f t="shared" si="6"/>
-        <v>20.5</v>
-      </c>
-      <c r="L60" s="23">
-        <f t="shared" ref="L60:L63" si="7">J60-I60</f>
-        <v>19.466666666666669</v>
-      </c>
-      <c r="M60" s="23">
-        <f>K60-J60</f>
-        <v>-11.166666666666668</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="H61">
-        <v>2</v>
-      </c>
-      <c r="I61" s="23">
-        <f>SUM(I16:I31)</f>
-        <v>6.2</v>
-      </c>
-      <c r="J61" s="23">
-        <f t="shared" ref="J61:K61" si="8">SUM(J16:J31)</f>
-        <v>14.666666666666664</v>
-      </c>
-      <c r="K61" s="23">
-        <f t="shared" si="8"/>
-        <v>15</v>
-      </c>
-      <c r="L61" s="23">
-        <f t="shared" si="7"/>
-        <v>8.466666666666665</v>
-      </c>
-      <c r="M61" s="23">
-        <f>K61-J61</f>
-        <v>0.3333333333333357</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="H62" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="I62" s="61">
-        <f>I53</f>
-        <v>0.40000000000000008</v>
-      </c>
-      <c r="J62" s="61">
-        <f t="shared" ref="J62:K62" si="9">J53</f>
-        <v>0</v>
-      </c>
-      <c r="K62" s="61">
-        <f t="shared" si="9"/>
-        <v>-1.5</v>
-      </c>
-      <c r="L62" s="61">
-        <f t="shared" si="7"/>
-        <v>-0.40000000000000008</v>
-      </c>
-      <c r="M62" s="61">
-        <f>L53</f>
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="H63" s="60" t="s">
-        <v>160</v>
-      </c>
-      <c r="I63" s="62">
-        <f>I54</f>
-        <v>-15.6</v>
-      </c>
-      <c r="J63" s="62">
-        <f t="shared" ref="J63:K63" si="10">J54</f>
-        <v>-24.666666666666664</v>
-      </c>
-      <c r="K63" s="62">
-        <f t="shared" si="10"/>
-        <v>-34.5</v>
-      </c>
-      <c r="L63" s="62">
-        <f t="shared" si="7"/>
-        <v>-9.0666666666666647</v>
-      </c>
-      <c r="M63" s="62">
-        <f>L54</f>
-        <v>-9.8333333333333321</v>
-      </c>
-      <c r="N63" s="24"/>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="H64" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="I64" s="61">
-        <f>I55</f>
-        <v>3.1999999999999975</v>
-      </c>
-      <c r="J64" s="61">
-        <f t="shared" ref="J64:K64" si="11">J55</f>
-        <v>21.666666666666664</v>
-      </c>
-      <c r="K64" s="61">
-        <f t="shared" si="11"/>
-        <v>-0.5</v>
-      </c>
-      <c r="L64" s="61">
-        <f>L59+L62+L63</f>
-        <v>18.466666666666669</v>
-      </c>
-      <c r="M64" s="61">
-        <f>L55</f>
-        <v>-22.166666666666664</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="I1:S54" xr:uid="{7DA1252D-94E5-7947-828A-76214712F5A9}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="I61:K61 I60:K60 I52:L55" formulaRange="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2087AA14-550C-0D41-AA96-C6B0351F4B03}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -14273,72 +8625,72 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="D1" s="66" t="s">
-        <v>152</v>
+      <c r="A1" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="65">
+      <c r="A2" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="46">
         <v>18.399999999999999</v>
       </c>
-      <c r="C2" s="65">
+      <c r="C2" s="46">
         <v>46.33</v>
       </c>
-      <c r="D2" s="65">
+      <c r="D2" s="46">
         <v>35.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="64" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" s="65">
+      <c r="A3" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="46">
         <v>6.2</v>
       </c>
-      <c r="C3" s="65">
+      <c r="C3" s="46">
         <v>14.67</v>
       </c>
-      <c r="D3" s="65">
+      <c r="D3" s="46">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="67">
+      <c r="A4" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="48">
         <v>-15.6</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="48">
         <v>-24.67</v>
       </c>
-      <c r="D4" s="67">
+      <c r="D4" s="48">
         <v>-34.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="65">
+      <c r="B5" s="46">
         <v>3.2</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="46">
         <v>21.67</v>
       </c>
-      <c r="D5" s="65">
+      <c r="D5" s="46">
         <v>-0.5</v>
       </c>
     </row>
@@ -14348,7 +8700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924BABB7-C257-C348-A2C8-7BA5A1ACAB90}">
   <dimension ref="A1:M62"/>
   <sheetViews>

--- a/data/analysis/pivot-by-state.xlsx
+++ b/data/analysis/pivot-by-state.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1D4696-04F9-3E4E-A96B-8ABE946CF971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD86C81E-5A91-EF40-8F76-1AA6CA9C5710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{243A2677-B725-5B4A-8946-B944A46BAF00}"/>
+    <workbookView xWindow="1420" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{243A2677-B725-5B4A-8946-B944A46BAF00}"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="3" r:id="rId1"/>
-    <sheet name="CHART" sheetId="8" r:id="rId2"/>
-    <sheet name="DATA" sheetId="1" r:id="rId3"/>
+    <sheet name="DATA" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="pivot_by_state" localSheetId="2">DATA!$A$1:$M$62</definedName>
+    <definedName name="pivot_by_state" localSheetId="1">DATA!$A$1:$M$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="143">
   <si>
     <t>XX</t>
   </si>
@@ -492,34 +491,13 @@
   </si>
   <si>
     <t>Control</t>
-  </si>
-  <si>
-    <t>2018-20</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>2002-10</t>
-  </si>
-  <si>
-    <t>2012-16</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>UE Seats 2010-2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -567,13 +545,6 @@
       <b/>
       <sz val="12"/>
       <color theme="2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -714,7 +685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -770,13 +741,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -792,997 +756,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CHART!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>R</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>CHART!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2002-10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2012-16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2018-20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CHART!$B$2:$D$2</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>46.33</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1DD1-A84C-9894-0EE48219203C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CHART!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>CHART!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2002-10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2012-16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2018-20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CHART!$B$4:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>-15.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-24.67</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-34.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1DD1-A84C-9894-0EE48219203C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CHART!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Net</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>CHART!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2002-10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2012-16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2018-20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CHART!$B$5:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21.67</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-1DD1-A84C-9894-0EE48219203C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="381645808"/>
-        <c:axId val="381613760"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="381645808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="381613760"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="381613760"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="50"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="381645808"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3292B1E-A4C8-9547-CAB1-56CF08B28DE0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8120,6 +7093,250 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" negative="1" xr2:uid="{B55D22CA-BED6-1041-8D4E-184E8B90A5CE}">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FF00B0F0"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Analysis!I2:M2</xm:f>
+              <xm:sqref>V2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I3:M3</xm:f>
+              <xm:sqref>V3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I4:M4</xm:f>
+              <xm:sqref>V4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I5:M5</xm:f>
+              <xm:sqref>V5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I6:M6</xm:f>
+              <xm:sqref>V6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I7:M7</xm:f>
+              <xm:sqref>V7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I8:M8</xm:f>
+              <xm:sqref>V8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I9:M9</xm:f>
+              <xm:sqref>V9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I10:M10</xm:f>
+              <xm:sqref>V10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I11:M11</xm:f>
+              <xm:sqref>V11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I12:M12</xm:f>
+              <xm:sqref>V12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I13:M13</xm:f>
+              <xm:sqref>V13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I14:M14</xm:f>
+              <xm:sqref>V14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I15:M15</xm:f>
+              <xm:sqref>V15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I16:M16</xm:f>
+              <xm:sqref>V16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I17:M17</xm:f>
+              <xm:sqref>V17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I18:M18</xm:f>
+              <xm:sqref>V18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I19:M19</xm:f>
+              <xm:sqref>V19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I20:M20</xm:f>
+              <xm:sqref>V20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I21:M21</xm:f>
+              <xm:sqref>V21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I22:M22</xm:f>
+              <xm:sqref>V22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I23:M23</xm:f>
+              <xm:sqref>V23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I24:M24</xm:f>
+              <xm:sqref>V24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I25:M25</xm:f>
+              <xm:sqref>V25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I26:M26</xm:f>
+              <xm:sqref>V26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I27:M27</xm:f>
+              <xm:sqref>V27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I28:M28</xm:f>
+              <xm:sqref>V28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I29:M29</xm:f>
+              <xm:sqref>V29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I30:M30</xm:f>
+              <xm:sqref>V30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I31:M31</xm:f>
+              <xm:sqref>V31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I32:M32</xm:f>
+              <xm:sqref>V32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I33:M33</xm:f>
+              <xm:sqref>V33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I34:M34</xm:f>
+              <xm:sqref>V34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I35:M35</xm:f>
+              <xm:sqref>V35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I36:M36</xm:f>
+              <xm:sqref>V36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I37:M37</xm:f>
+              <xm:sqref>V37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I38:M38</xm:f>
+              <xm:sqref>V38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I39:M39</xm:f>
+              <xm:sqref>V39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I40:M40</xm:f>
+              <xm:sqref>V40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I41:M41</xm:f>
+              <xm:sqref>V41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I42:M42</xm:f>
+              <xm:sqref>V42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I43:M43</xm:f>
+              <xm:sqref>V43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I44:M44</xm:f>
+              <xm:sqref>V44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I45:M45</xm:f>
+              <xm:sqref>V45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I46:M46</xm:f>
+              <xm:sqref>V46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I47:M47</xm:f>
+              <xm:sqref>V47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I48:M48</xm:f>
+              <xm:sqref>V48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I49:M49</xm:f>
+              <xm:sqref>V49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I50:M50</xm:f>
+              <xm:sqref>V50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I51:M51</xm:f>
+              <xm:sqref>V51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I57:M57</xm:f>
+              <xm:sqref>V57</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I58:M58</xm:f>
+              <xm:sqref>V58</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I61:M61</xm:f>
+              <xm:sqref>V61</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I62:M62</xm:f>
+              <xm:sqref>V62</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I63:M63</xm:f>
+              <xm:sqref>V63</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I66:M66</xm:f>
+              <xm:sqref>V66</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I67:M67</xm:f>
+              <xm:sqref>V67</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Analysis!I68:M68</xm:f>
+              <xm:sqref>V68</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" negative="1" xr2:uid="{71E158C0-A3AD-A341-B4E5-0D57479B057A}">
           <x14:colorSeries rgb="FFFF0000"/>
           <x14:colorNegative rgb="FF00B0F0"/>
@@ -8364,250 +7581,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" negative="1" xr2:uid="{B55D22CA-BED6-1041-8D4E-184E8B90A5CE}">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FF00B0F0"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Analysis!I2:M2</xm:f>
-              <xm:sqref>V2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I3:M3</xm:f>
-              <xm:sqref>V3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I4:M4</xm:f>
-              <xm:sqref>V4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I5:M5</xm:f>
-              <xm:sqref>V5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I6:M6</xm:f>
-              <xm:sqref>V6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I7:M7</xm:f>
-              <xm:sqref>V7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I8:M8</xm:f>
-              <xm:sqref>V8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I9:M9</xm:f>
-              <xm:sqref>V9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I10:M10</xm:f>
-              <xm:sqref>V10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I11:M11</xm:f>
-              <xm:sqref>V11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I12:M12</xm:f>
-              <xm:sqref>V12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I13:M13</xm:f>
-              <xm:sqref>V13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I14:M14</xm:f>
-              <xm:sqref>V14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I15:M15</xm:f>
-              <xm:sqref>V15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I16:M16</xm:f>
-              <xm:sqref>V16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I17:M17</xm:f>
-              <xm:sqref>V17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I18:M18</xm:f>
-              <xm:sqref>V18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I19:M19</xm:f>
-              <xm:sqref>V19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I20:M20</xm:f>
-              <xm:sqref>V20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I21:M21</xm:f>
-              <xm:sqref>V21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I22:M22</xm:f>
-              <xm:sqref>V22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I23:M23</xm:f>
-              <xm:sqref>V23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I24:M24</xm:f>
-              <xm:sqref>V24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I25:M25</xm:f>
-              <xm:sqref>V25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I26:M26</xm:f>
-              <xm:sqref>V26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I27:M27</xm:f>
-              <xm:sqref>V27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I28:M28</xm:f>
-              <xm:sqref>V28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I29:M29</xm:f>
-              <xm:sqref>V29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I30:M30</xm:f>
-              <xm:sqref>V30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I31:M31</xm:f>
-              <xm:sqref>V31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I32:M32</xm:f>
-              <xm:sqref>V32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I33:M33</xm:f>
-              <xm:sqref>V33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I34:M34</xm:f>
-              <xm:sqref>V34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I35:M35</xm:f>
-              <xm:sqref>V35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I36:M36</xm:f>
-              <xm:sqref>V36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I37:M37</xm:f>
-              <xm:sqref>V37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I38:M38</xm:f>
-              <xm:sqref>V38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I39:M39</xm:f>
-              <xm:sqref>V39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I40:M40</xm:f>
-              <xm:sqref>V40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I41:M41</xm:f>
-              <xm:sqref>V41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I42:M42</xm:f>
-              <xm:sqref>V42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I43:M43</xm:f>
-              <xm:sqref>V43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I44:M44</xm:f>
-              <xm:sqref>V44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I45:M45</xm:f>
-              <xm:sqref>V45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I46:M46</xm:f>
-              <xm:sqref>V46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I47:M47</xm:f>
-              <xm:sqref>V47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I48:M48</xm:f>
-              <xm:sqref>V48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I49:M49</xm:f>
-              <xm:sqref>V49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I50:M50</xm:f>
-              <xm:sqref>V50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I51:M51</xm:f>
-              <xm:sqref>V51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I57:M57</xm:f>
-              <xm:sqref>V57</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I58:M58</xm:f>
-              <xm:sqref>V58</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I61:M61</xm:f>
-              <xm:sqref>V61</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I62:M62</xm:f>
-              <xm:sqref>V62</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I63:M63</xm:f>
-              <xm:sqref>V63</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I66:M66</xm:f>
-              <xm:sqref>V66</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I67:M67</xm:f>
-              <xm:sqref>V67</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Analysis!I68:M68</xm:f>
-              <xm:sqref>V68</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -8615,92 +7588,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2087AA14-550C-0D41-AA96-C6B0351F4B03}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="46">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="C2" s="46">
-        <v>46.33</v>
-      </c>
-      <c r="D2" s="46">
-        <v>35.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="46">
-        <v>6.2</v>
-      </c>
-      <c r="C3" s="46">
-        <v>14.67</v>
-      </c>
-      <c r="D3" s="46">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" s="48">
-        <v>-15.6</v>
-      </c>
-      <c r="C4" s="48">
-        <v>-24.67</v>
-      </c>
-      <c r="D4" s="48">
-        <v>-34.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="46">
-        <v>3.2</v>
-      </c>
-      <c r="C5" s="46">
-        <v>21.67</v>
-      </c>
-      <c r="D5" s="46">
-        <v>-0.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924BABB7-C257-C348-A2C8-7BA5A1ACAB90}">
   <dimension ref="A1:M62"/>
   <sheetViews>
